--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD3600-E09C-44D0-9D6B-66566096C7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5FB5C-3DE8-46DB-A9EA-BBC03F9EFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B3EFD0-EA7F-4C5D-86C7-DB1A6334E8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A68001-C164-4535-BAF4-D5BD92D6C7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1149,6 +1149,16 @@
     <t>Info</t>
   </si>
   <si>
+    <t>Video chip (PAL)</t>
+  </si>
+  <si>
+    <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1161,18 +1171,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-7</t>
+      <t>2025-July-11</t>
     </r>
-  </si>
-  <si>
-    <t>Video chip (PAL)</t>
-  </si>
-  <si>
-    <t>Video chip (NTSC)</t>
-  </si>
-  <si>
-    <t>Memory location:
-$D000-$D3FF</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1432,23 +1432,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1796,7 +1793,7 @@
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1838,12 +1835,12 @@
         <v>328</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="28.8">
       <c r="A9" s="13" t="s">
@@ -3207,7 +3204,7 @@
         <v>343</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3227,7 +3224,7 @@
         <v>347</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4298,7 +4295,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2026"/>
+  <dimension ref="A1:I1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -4383,7 +4380,7 @@
       <c r="B8" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="47" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -4606,7 +4603,7 @@
       <c r="F25" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="36" t="s">
@@ -4620,7 +4617,6 @@
       <c r="F26" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="36" t="s">
@@ -4634,7 +4630,6 @@
       <c r="F27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="11" t="s">
@@ -4648,7 +4643,6 @@
       <c r="F28" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="36" t="s">
@@ -4662,7 +4656,6 @@
       <c r="F29" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="45"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9">
@@ -4677,7 +4670,6 @@
       <c r="F30" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="36" t="s">
@@ -4691,7 +4683,6 @@
       <c r="F31" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="36" t="s">
@@ -4705,7 +4696,6 @@
       <c r="F32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:9" ht="115.2">
       <c r="A33" s="36" t="s">
@@ -4752,7 +4742,6 @@
       <c r="F35" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="72">
       <c r="A36" s="11" t="s">
@@ -4812,7 +4801,7 @@
         <v>280</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1" ht="28.8">
@@ -4884,11 +4873,9 @@
       <c r="D44" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="45"/>
       <c r="F44" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G44" s="45"/>
     </row>
     <row r="45" spans="1:9" ht="57.6">
       <c r="A45" s="36" t="s">
@@ -4899,7 +4886,6 @@
       <c r="D45" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="45"/>
       <c r="F45" s="9" t="s">
         <v>151</v>
       </c>
@@ -4914,11 +4900,11 @@
       <c r="D46" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="45"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G46" s="45"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
@@ -4929,11 +4915,9 @@
       <c r="D47" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="45"/>
       <c r="F47" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
@@ -4944,11 +4928,9 @@
       <c r="D48" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="45"/>
       <c r="F48" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="9" t="s">
@@ -4959,11 +4941,9 @@
       <c r="D49" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="45"/>
       <c r="F49" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G49" s="45"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="9" t="s">
@@ -4974,7 +4954,6 @@
       <c r="D50" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E50" s="45"/>
       <c r="G50" s="1" t="s">
         <v>277</v>
       </c>
@@ -4988,7 +4967,6 @@
       <c r="D51" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E51" s="45"/>
       <c r="G51" s="1" t="s">
         <v>306</v>
       </c>
@@ -4997,7589 +4975,1876 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="28"/>
-      <c r="E52" s="45"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="28"/>
-      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="28"/>
-      <c r="E54" s="45"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="28"/>
-      <c r="E55" s="45"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="28"/>
-      <c r="E56" s="45"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="28"/>
-      <c r="E57" s="45"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="28"/>
-      <c r="E58" s="45"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="28"/>
-      <c r="E59" s="45"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="28"/>
-      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="28"/>
-      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="28"/>
-      <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="28"/>
-      <c r="E63" s="45"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="28"/>
-      <c r="E64" s="45"/>
-      <c r="G64" s="45"/>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="28"/>
-      <c r="E65" s="45"/>
-      <c r="G65" s="45"/>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="28"/>
-      <c r="E66" s="45"/>
-      <c r="G66" s="45"/>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="28"/>
-      <c r="E67" s="45"/>
-      <c r="G67" s="45"/>
-    </row>
-    <row r="68" spans="1:7">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="28"/>
-      <c r="E68" s="45"/>
-      <c r="G68" s="45"/>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="28"/>
-      <c r="E69" s="45"/>
-      <c r="G69" s="45"/>
-    </row>
-    <row r="70" spans="1:7">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="28"/>
-      <c r="E70" s="45"/>
-      <c r="G70" s="45"/>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="28"/>
-      <c r="E71" s="45"/>
-      <c r="G71" s="45"/>
-    </row>
-    <row r="72" spans="1:7">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="28"/>
-      <c r="E72" s="45"/>
-      <c r="G72" s="45"/>
-    </row>
-    <row r="73" spans="1:7">
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="28"/>
-      <c r="E73" s="45"/>
-      <c r="G73" s="45"/>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="28"/>
-      <c r="E74" s="45"/>
-      <c r="G74" s="45"/>
-    </row>
-    <row r="75" spans="1:7">
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="28"/>
-      <c r="E75" s="45"/>
-      <c r="G75" s="45"/>
-    </row>
-    <row r="76" spans="1:7">
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="28"/>
-      <c r="E76" s="45"/>
-      <c r="G76" s="45"/>
-    </row>
-    <row r="77" spans="1:7">
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="28"/>
-      <c r="E77" s="45"/>
-      <c r="G77" s="45"/>
-    </row>
-    <row r="78" spans="1:7">
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="28"/>
-      <c r="E78" s="45"/>
-      <c r="G78" s="45"/>
-    </row>
-    <row r="79" spans="1:7">
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="28"/>
-      <c r="E79" s="45"/>
-      <c r="G79" s="45"/>
-    </row>
-    <row r="80" spans="1:7">
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="28"/>
-      <c r="E80" s="45"/>
-      <c r="G80" s="45"/>
-    </row>
-    <row r="81" spans="1:7">
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="28"/>
-      <c r="E81" s="45"/>
-      <c r="G81" s="45"/>
-    </row>
-    <row r="82" spans="1:7">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="28"/>
-      <c r="E82" s="45"/>
-      <c r="G82" s="45"/>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="28"/>
-      <c r="E83" s="45"/>
-      <c r="G83" s="45"/>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="28"/>
-      <c r="E84" s="45"/>
-      <c r="G84" s="45"/>
-    </row>
-    <row r="85" spans="1:7">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="28"/>
-      <c r="E85" s="45"/>
-      <c r="G85" s="45"/>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="28"/>
-      <c r="E86" s="45"/>
-      <c r="G86" s="45"/>
-    </row>
-    <row r="87" spans="1:7">
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="28"/>
-      <c r="E87" s="45"/>
-      <c r="G87" s="45"/>
-    </row>
-    <row r="88" spans="1:7">
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="28"/>
-      <c r="E88" s="45"/>
-      <c r="G88" s="45"/>
-    </row>
-    <row r="89" spans="1:7">
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="28"/>
-      <c r="E89" s="45"/>
-      <c r="G89" s="45"/>
-    </row>
-    <row r="90" spans="1:7">
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="28"/>
-      <c r="E90" s="45"/>
-      <c r="G90" s="45"/>
-    </row>
-    <row r="91" spans="1:7">
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="28"/>
-      <c r="E91" s="45"/>
-      <c r="G91" s="45"/>
-    </row>
-    <row r="92" spans="1:7">
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="28"/>
-      <c r="E92" s="45"/>
-      <c r="G92" s="45"/>
-    </row>
-    <row r="93" spans="1:7">
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="28"/>
-      <c r="E93" s="45"/>
-      <c r="G93" s="45"/>
-    </row>
-    <row r="94" spans="1:7">
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="28"/>
-      <c r="E94" s="45"/>
-      <c r="G94" s="45"/>
-    </row>
-    <row r="95" spans="1:7">
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="28"/>
-      <c r="E95" s="45"/>
-      <c r="G95" s="45"/>
-    </row>
-    <row r="96" spans="1:7">
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="28"/>
-      <c r="E96" s="45"/>
-      <c r="G96" s="45"/>
-    </row>
-    <row r="97" spans="1:7">
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="28"/>
-      <c r="E97" s="45"/>
-      <c r="G97" s="45"/>
-    </row>
-    <row r="98" spans="1:7">
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="28"/>
-      <c r="E98" s="45"/>
-      <c r="G98" s="45"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="E99" s="45"/>
-      <c r="G99" s="45"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="E100" s="45"/>
-      <c r="G100" s="45"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="E101" s="45"/>
-      <c r="G101" s="45"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="E102" s="45"/>
-      <c r="G102" s="45"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="E103" s="45"/>
-      <c r="G103" s="45"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="E104" s="45"/>
-      <c r="G104" s="45"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="E105" s="45"/>
-      <c r="G105" s="45"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="E106" s="45"/>
-      <c r="G106" s="45"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="E107" s="45"/>
-      <c r="G107" s="45"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="E108" s="45"/>
-      <c r="G108" s="45"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="E109" s="45"/>
-      <c r="G109" s="45"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="E110" s="45"/>
-      <c r="G110" s="45"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="E111" s="45"/>
-      <c r="G111" s="45"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="E112" s="45"/>
-      <c r="G112" s="45"/>
-    </row>
-    <row r="113" spans="5:7">
-      <c r="E113" s="45"/>
-      <c r="G113" s="45"/>
-    </row>
-    <row r="114" spans="5:7">
-      <c r="E114" s="45"/>
-      <c r="G114" s="45"/>
-    </row>
-    <row r="115" spans="5:7">
-      <c r="E115" s="45"/>
-      <c r="G115" s="45"/>
-    </row>
-    <row r="116" spans="5:7">
-      <c r="E116" s="45"/>
-      <c r="G116" s="45"/>
-    </row>
-    <row r="117" spans="5:7">
-      <c r="E117" s="45"/>
-      <c r="G117" s="45"/>
-    </row>
-    <row r="118" spans="5:7">
-      <c r="E118" s="45"/>
-      <c r="G118" s="45"/>
-    </row>
-    <row r="119" spans="5:7">
-      <c r="E119" s="45"/>
-      <c r="G119" s="45"/>
-    </row>
-    <row r="120" spans="5:7">
-      <c r="E120" s="45"/>
-      <c r="G120" s="45"/>
-    </row>
-    <row r="121" spans="5:7">
-      <c r="E121" s="45"/>
-      <c r="G121" s="45"/>
-    </row>
-    <row r="122" spans="5:7">
-      <c r="E122" s="45"/>
-      <c r="G122" s="45"/>
-    </row>
-    <row r="123" spans="5:7">
-      <c r="E123" s="45"/>
-      <c r="G123" s="45"/>
-    </row>
-    <row r="124" spans="5:7">
-      <c r="E124" s="45"/>
-      <c r="G124" s="45"/>
-    </row>
-    <row r="125" spans="5:7">
-      <c r="E125" s="45"/>
-      <c r="G125" s="45"/>
-    </row>
-    <row r="126" spans="5:7">
-      <c r="E126" s="45"/>
-      <c r="G126" s="45"/>
-    </row>
-    <row r="127" spans="5:7">
-      <c r="E127" s="45"/>
-      <c r="G127" s="45"/>
-    </row>
-    <row r="128" spans="5:7">
-      <c r="E128" s="45"/>
-      <c r="G128" s="45"/>
-    </row>
-    <row r="129" spans="5:7">
-      <c r="E129" s="45"/>
-      <c r="G129" s="45"/>
-    </row>
-    <row r="130" spans="5:7">
-      <c r="E130" s="45"/>
-      <c r="G130" s="45"/>
-    </row>
-    <row r="131" spans="5:7">
-      <c r="E131" s="45"/>
-      <c r="G131" s="45"/>
-    </row>
-    <row r="132" spans="5:7">
-      <c r="E132" s="45"/>
-      <c r="G132" s="45"/>
-    </row>
-    <row r="133" spans="5:7">
-      <c r="E133" s="45"/>
-      <c r="G133" s="45"/>
-    </row>
-    <row r="134" spans="5:7">
-      <c r="E134" s="45"/>
-      <c r="G134" s="45"/>
-    </row>
-    <row r="135" spans="5:7">
-      <c r="E135" s="45"/>
-      <c r="G135" s="45"/>
-    </row>
-    <row r="136" spans="5:7">
-      <c r="E136" s="45"/>
-      <c r="G136" s="45"/>
-    </row>
-    <row r="137" spans="5:7">
-      <c r="E137" s="45"/>
-      <c r="G137" s="45"/>
-    </row>
-    <row r="138" spans="5:7">
-      <c r="E138" s="45"/>
-      <c r="G138" s="45"/>
-    </row>
-    <row r="139" spans="5:7">
-      <c r="E139" s="45"/>
-      <c r="G139" s="45"/>
-    </row>
-    <row r="140" spans="5:7">
-      <c r="E140" s="45"/>
-      <c r="G140" s="45"/>
-    </row>
-    <row r="141" spans="5:7">
-      <c r="E141" s="45"/>
-      <c r="G141" s="45"/>
-    </row>
-    <row r="142" spans="5:7">
-      <c r="E142" s="45"/>
-      <c r="G142" s="45"/>
-    </row>
-    <row r="143" spans="5:7">
-      <c r="E143" s="45"/>
-      <c r="G143" s="45"/>
-    </row>
-    <row r="144" spans="5:7">
-      <c r="E144" s="45"/>
-      <c r="G144" s="45"/>
-    </row>
-    <row r="145" spans="5:7">
-      <c r="E145" s="45"/>
-      <c r="G145" s="45"/>
-    </row>
-    <row r="146" spans="5:7">
-      <c r="E146" s="45"/>
-      <c r="G146" s="45"/>
-    </row>
-    <row r="147" spans="5:7">
-      <c r="E147" s="45"/>
-      <c r="G147" s="45"/>
-    </row>
-    <row r="148" spans="5:7">
-      <c r="E148" s="45"/>
-      <c r="G148" s="45"/>
-    </row>
-    <row r="149" spans="5:7">
-      <c r="E149" s="45"/>
-      <c r="G149" s="45"/>
-    </row>
-    <row r="150" spans="5:7">
-      <c r="E150" s="45"/>
-      <c r="G150" s="45"/>
-    </row>
-    <row r="151" spans="5:7">
-      <c r="E151" s="45"/>
-      <c r="G151" s="45"/>
-    </row>
-    <row r="152" spans="5:7">
-      <c r="E152" s="45"/>
-      <c r="G152" s="45"/>
-    </row>
-    <row r="153" spans="5:7">
-      <c r="E153" s="45"/>
-      <c r="G153" s="45"/>
-    </row>
-    <row r="154" spans="5:7">
-      <c r="E154" s="45"/>
-      <c r="G154" s="45"/>
-    </row>
-    <row r="155" spans="5:7">
-      <c r="E155" s="45"/>
-      <c r="G155" s="45"/>
-    </row>
-    <row r="156" spans="5:7">
-      <c r="E156" s="45"/>
-      <c r="G156" s="45"/>
-    </row>
-    <row r="157" spans="5:7">
-      <c r="E157" s="45"/>
-      <c r="G157" s="45"/>
-    </row>
-    <row r="158" spans="5:7">
-      <c r="E158" s="45"/>
-      <c r="G158" s="45"/>
-    </row>
-    <row r="159" spans="5:7">
-      <c r="E159" s="45"/>
-      <c r="G159" s="45"/>
-    </row>
-    <row r="160" spans="5:7">
-      <c r="E160" s="45"/>
-      <c r="G160" s="45"/>
-    </row>
-    <row r="161" spans="5:7">
-      <c r="E161" s="45"/>
-      <c r="G161" s="45"/>
-    </row>
-    <row r="162" spans="5:7">
-      <c r="E162" s="45"/>
-      <c r="G162" s="45"/>
-    </row>
-    <row r="163" spans="5:7">
-      <c r="E163" s="45"/>
-      <c r="G163" s="45"/>
-    </row>
-    <row r="164" spans="5:7">
-      <c r="E164" s="45"/>
-      <c r="G164" s="45"/>
-    </row>
-    <row r="165" spans="5:7">
-      <c r="E165" s="45"/>
-      <c r="G165" s="45"/>
-    </row>
-    <row r="166" spans="5:7">
-      <c r="E166" s="45"/>
-      <c r="G166" s="45"/>
-    </row>
-    <row r="167" spans="5:7">
-      <c r="E167" s="45"/>
-      <c r="G167" s="45"/>
-    </row>
-    <row r="168" spans="5:7">
-      <c r="E168" s="45"/>
-      <c r="G168" s="45"/>
-    </row>
-    <row r="169" spans="5:7">
-      <c r="E169" s="45"/>
-      <c r="G169" s="45"/>
-    </row>
-    <row r="170" spans="5:7">
-      <c r="E170" s="45"/>
-      <c r="G170" s="45"/>
-    </row>
-    <row r="171" spans="5:7">
-      <c r="E171" s="45"/>
-      <c r="G171" s="45"/>
-    </row>
-    <row r="172" spans="5:7">
-      <c r="E172" s="45"/>
-      <c r="G172" s="45"/>
-    </row>
-    <row r="173" spans="5:7">
-      <c r="E173" s="45"/>
-      <c r="G173" s="45"/>
-    </row>
-    <row r="174" spans="5:7">
-      <c r="E174" s="45"/>
-      <c r="G174" s="45"/>
-    </row>
-    <row r="175" spans="5:7">
-      <c r="E175" s="45"/>
-      <c r="G175" s="45"/>
-    </row>
-    <row r="176" spans="5:7">
-      <c r="E176" s="45"/>
-      <c r="G176" s="45"/>
-    </row>
-    <row r="177" spans="5:7">
-      <c r="E177" s="45"/>
-      <c r="G177" s="45"/>
-    </row>
-    <row r="178" spans="5:7">
-      <c r="E178" s="45"/>
-      <c r="G178" s="45"/>
-    </row>
-    <row r="179" spans="5:7">
-      <c r="E179" s="45"/>
-      <c r="G179" s="45"/>
-    </row>
-    <row r="180" spans="5:7">
-      <c r="E180" s="45"/>
-      <c r="G180" s="45"/>
-    </row>
-    <row r="181" spans="5:7">
-      <c r="E181" s="45"/>
-      <c r="G181" s="45"/>
-    </row>
-    <row r="182" spans="5:7">
-      <c r="E182" s="45"/>
-      <c r="G182" s="45"/>
-    </row>
-    <row r="183" spans="5:7">
-      <c r="E183" s="45"/>
-      <c r="G183" s="45"/>
-    </row>
-    <row r="184" spans="5:7">
-      <c r="E184" s="45"/>
-      <c r="G184" s="45"/>
-    </row>
-    <row r="185" spans="5:7">
-      <c r="E185" s="45"/>
-      <c r="G185" s="45"/>
-    </row>
-    <row r="186" spans="5:7">
-      <c r="E186" s="45"/>
-      <c r="G186" s="45"/>
-    </row>
-    <row r="187" spans="5:7">
-      <c r="E187" s="45"/>
-      <c r="G187" s="45"/>
-    </row>
-    <row r="188" spans="5:7">
-      <c r="E188" s="45"/>
-      <c r="G188" s="45"/>
-    </row>
-    <row r="189" spans="5:7">
-      <c r="E189" s="45"/>
-      <c r="G189" s="45"/>
-    </row>
-    <row r="190" spans="5:7">
-      <c r="E190" s="45"/>
-      <c r="G190" s="45"/>
-    </row>
-    <row r="191" spans="5:7">
-      <c r="E191" s="45"/>
-      <c r="G191" s="45"/>
-    </row>
-    <row r="192" spans="5:7">
-      <c r="E192" s="45"/>
-      <c r="G192" s="45"/>
-    </row>
-    <row r="193" spans="5:7">
-      <c r="E193" s="45"/>
-      <c r="G193" s="45"/>
-    </row>
-    <row r="194" spans="5:7">
-      <c r="E194" s="45"/>
-      <c r="G194" s="45"/>
-    </row>
-    <row r="195" spans="5:7">
-      <c r="E195" s="45"/>
-      <c r="G195" s="45"/>
-    </row>
-    <row r="196" spans="5:7">
-      <c r="E196" s="45"/>
-      <c r="G196" s="45"/>
-    </row>
-    <row r="197" spans="5:7">
-      <c r="E197" s="45"/>
-      <c r="G197" s="45"/>
-    </row>
-    <row r="198" spans="5:7">
-      <c r="E198" s="45"/>
-      <c r="G198" s="45"/>
-    </row>
-    <row r="199" spans="5:7">
-      <c r="E199" s="45"/>
-      <c r="G199" s="45"/>
-    </row>
-    <row r="200" spans="5:7">
-      <c r="E200" s="45"/>
-      <c r="G200" s="45"/>
-    </row>
-    <row r="201" spans="5:7">
-      <c r="E201" s="45"/>
-      <c r="G201" s="45"/>
-    </row>
-    <row r="202" spans="5:7">
-      <c r="E202" s="46"/>
-      <c r="G202" s="45"/>
-    </row>
-    <row r="203" spans="5:7">
-      <c r="E203" s="46"/>
-      <c r="G203" s="45"/>
-    </row>
-    <row r="204" spans="5:7">
-      <c r="E204" s="46"/>
-      <c r="G204" s="45"/>
-    </row>
-    <row r="205" spans="5:7">
-      <c r="E205" s="46"/>
-      <c r="G205" s="45"/>
-    </row>
-    <row r="206" spans="5:7">
-      <c r="E206" s="46"/>
-      <c r="G206" s="45"/>
-    </row>
-    <row r="207" spans="5:7">
-      <c r="E207" s="46"/>
-      <c r="G207" s="45"/>
-    </row>
-    <row r="208" spans="5:7">
-      <c r="E208" s="46"/>
-      <c r="G208" s="45"/>
-    </row>
-    <row r="209" spans="5:7">
-      <c r="E209" s="45"/>
-      <c r="G209" s="45"/>
-    </row>
-    <row r="210" spans="5:7">
-      <c r="E210" s="45"/>
-      <c r="G210" s="45"/>
-    </row>
-    <row r="211" spans="5:7">
-      <c r="E211" s="45"/>
-      <c r="G211" s="45"/>
-    </row>
-    <row r="212" spans="5:7">
-      <c r="E212" s="45"/>
-      <c r="G212" s="45"/>
-    </row>
-    <row r="213" spans="5:7">
-      <c r="E213" s="45"/>
-      <c r="G213" s="45"/>
-    </row>
-    <row r="214" spans="5:7">
-      <c r="E214" s="45"/>
-      <c r="G214" s="45"/>
-    </row>
-    <row r="215" spans="5:7">
-      <c r="E215" s="45"/>
-      <c r="G215" s="45"/>
-    </row>
-    <row r="216" spans="5:7">
-      <c r="E216" s="45"/>
-      <c r="G216" s="45"/>
-    </row>
-    <row r="217" spans="5:7">
-      <c r="E217" s="45"/>
-      <c r="G217" s="45"/>
+    </row>
+    <row r="202" spans="5:5">
+      <c r="E202" s="44"/>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203" s="44"/>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204" s="44"/>
+    </row>
+    <row r="205" spans="5:5">
+      <c r="E205" s="44"/>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" s="44"/>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="44"/>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" s="44"/>
     </row>
     <row r="218" spans="5:7">
-      <c r="E218" s="46"/>
-      <c r="G218" s="45"/>
-    </row>
-    <row r="219" spans="5:7">
-      <c r="E219" s="45"/>
-      <c r="G219" s="45"/>
+      <c r="E218" s="44"/>
     </row>
     <row r="220" spans="5:7">
-      <c r="E220" s="46"/>
-      <c r="G220" s="46"/>
+      <c r="E220" s="44"/>
+      <c r="G220" s="44"/>
     </row>
     <row r="221" spans="5:7">
-      <c r="E221" s="45"/>
-      <c r="G221" s="46"/>
+      <c r="G221" s="44"/>
     </row>
     <row r="222" spans="5:7">
-      <c r="E222" s="47"/>
-      <c r="G222" s="46"/>
+      <c r="E222" s="45"/>
+      <c r="G222" s="44"/>
     </row>
     <row r="223" spans="5:7">
-      <c r="E223" s="46"/>
-      <c r="G223" s="46"/>
+      <c r="E223" s="44"/>
+      <c r="G223" s="44"/>
     </row>
     <row r="224" spans="5:7">
-      <c r="E224" s="46"/>
-      <c r="G224" s="46"/>
+      <c r="E224" s="44"/>
+      <c r="G224" s="44"/>
     </row>
     <row r="225" spans="5:7">
-      <c r="E225" s="46"/>
-      <c r="G225" s="46"/>
+      <c r="E225" s="44"/>
+      <c r="G225" s="44"/>
     </row>
     <row r="226" spans="5:7">
-      <c r="E226" s="46"/>
-      <c r="G226" s="46"/>
+      <c r="E226" s="44"/>
+      <c r="G226" s="44"/>
     </row>
     <row r="227" spans="5:7">
-      <c r="E227" s="46"/>
-      <c r="G227" s="46"/>
+      <c r="E227" s="44"/>
+      <c r="G227" s="44"/>
     </row>
     <row r="228" spans="5:7">
-      <c r="E228" s="48"/>
-      <c r="G228" s="46"/>
+      <c r="E228" s="46"/>
+      <c r="G228" s="44"/>
     </row>
     <row r="229" spans="5:7">
-      <c r="E229" s="46"/>
-      <c r="G229" s="46"/>
+      <c r="E229" s="44"/>
+      <c r="G229" s="44"/>
     </row>
     <row r="230" spans="5:7">
-      <c r="E230" s="46"/>
-      <c r="G230" s="46"/>
+      <c r="E230" s="44"/>
+      <c r="G230" s="44"/>
     </row>
     <row r="231" spans="5:7">
-      <c r="E231" s="46"/>
-      <c r="G231" s="46"/>
+      <c r="E231" s="44"/>
+      <c r="G231" s="44"/>
     </row>
     <row r="232" spans="5:7">
-      <c r="E232" s="46"/>
-      <c r="G232" s="46"/>
+      <c r="E232" s="44"/>
+      <c r="G232" s="44"/>
     </row>
     <row r="233" spans="5:7">
-      <c r="E233" s="46"/>
-      <c r="G233" s="46"/>
+      <c r="E233" s="44"/>
+      <c r="G233" s="44"/>
     </row>
     <row r="234" spans="5:7">
-      <c r="E234" s="46"/>
-      <c r="G234" s="46"/>
+      <c r="E234" s="44"/>
+      <c r="G234" s="44"/>
     </row>
     <row r="235" spans="5:7">
-      <c r="E235" s="46"/>
-      <c r="G235" s="46"/>
+      <c r="E235" s="44"/>
+      <c r="G235" s="44"/>
     </row>
     <row r="236" spans="5:7">
-      <c r="E236" s="46"/>
-      <c r="G236" s="46"/>
+      <c r="E236" s="44"/>
+      <c r="G236" s="44"/>
     </row>
     <row r="237" spans="5:7">
-      <c r="E237" s="46"/>
-      <c r="G237" s="46"/>
+      <c r="E237" s="44"/>
+      <c r="G237" s="44"/>
     </row>
     <row r="238" spans="5:7">
-      <c r="E238" s="46"/>
-      <c r="G238" s="46"/>
+      <c r="E238" s="44"/>
+      <c r="G238" s="44"/>
     </row>
     <row r="239" spans="5:7">
-      <c r="E239" s="46"/>
-      <c r="G239" s="46"/>
+      <c r="E239" s="44"/>
+      <c r="G239" s="44"/>
     </row>
     <row r="240" spans="5:7">
-      <c r="E240" s="46"/>
-      <c r="G240" s="46"/>
+      <c r="E240" s="44"/>
+      <c r="G240" s="44"/>
     </row>
     <row r="241" spans="5:7">
-      <c r="E241" s="46"/>
-      <c r="G241" s="46"/>
+      <c r="E241" s="44"/>
+      <c r="G241" s="44"/>
     </row>
     <row r="242" spans="5:7">
-      <c r="E242" s="46"/>
-      <c r="G242" s="46"/>
+      <c r="E242" s="44"/>
+      <c r="G242" s="44"/>
     </row>
     <row r="243" spans="5:7">
-      <c r="E243" s="46"/>
-      <c r="G243" s="46"/>
+      <c r="E243" s="44"/>
+      <c r="G243" s="44"/>
     </row>
     <row r="244" spans="5:7">
-      <c r="E244" s="46"/>
-      <c r="G244" s="46"/>
+      <c r="E244" s="44"/>
+      <c r="G244" s="44"/>
     </row>
     <row r="245" spans="5:7">
-      <c r="E245" s="46"/>
-      <c r="G245" s="46"/>
+      <c r="E245" s="44"/>
+      <c r="G245" s="44"/>
     </row>
     <row r="246" spans="5:7">
-      <c r="E246" s="46"/>
-      <c r="G246" s="46"/>
+      <c r="E246" s="44"/>
+      <c r="G246" s="44"/>
     </row>
     <row r="247" spans="5:7">
-      <c r="E247" s="46"/>
-      <c r="G247" s="46"/>
+      <c r="E247" s="44"/>
+      <c r="G247" s="44"/>
     </row>
     <row r="248" spans="5:7">
-      <c r="E248" s="46"/>
-      <c r="G248" s="46"/>
+      <c r="E248" s="44"/>
+      <c r="G248" s="44"/>
     </row>
     <row r="249" spans="5:7">
-      <c r="E249" s="46"/>
-      <c r="G249" s="46"/>
+      <c r="E249" s="44"/>
+      <c r="G249" s="44"/>
     </row>
     <row r="250" spans="5:7">
-      <c r="E250" s="46"/>
-      <c r="G250" s="46"/>
+      <c r="E250" s="44"/>
+      <c r="G250" s="44"/>
     </row>
     <row r="251" spans="5:7">
-      <c r="E251" s="46"/>
-      <c r="G251" s="46"/>
+      <c r="E251" s="44"/>
+      <c r="G251" s="44"/>
     </row>
     <row r="252" spans="5:7">
-      <c r="E252" s="46"/>
-      <c r="G252" s="46"/>
+      <c r="E252" s="44"/>
+      <c r="G252" s="44"/>
     </row>
     <row r="253" spans="5:7">
-      <c r="E253" s="46"/>
-      <c r="G253" s="46"/>
+      <c r="E253" s="44"/>
+      <c r="G253" s="44"/>
     </row>
     <row r="254" spans="5:7">
-      <c r="E254" s="46"/>
-      <c r="G254" s="46"/>
+      <c r="E254" s="44"/>
+      <c r="G254" s="44"/>
     </row>
     <row r="255" spans="5:7">
-      <c r="E255" s="46"/>
-      <c r="G255" s="46"/>
+      <c r="E255" s="44"/>
+      <c r="G255" s="44"/>
     </row>
     <row r="256" spans="5:7">
-      <c r="E256" s="46"/>
-      <c r="G256" s="46"/>
+      <c r="E256" s="44"/>
+      <c r="G256" s="44"/>
     </row>
     <row r="257" spans="5:7">
-      <c r="E257" s="46"/>
-      <c r="G257" s="46"/>
+      <c r="E257" s="44"/>
+      <c r="G257" s="44"/>
     </row>
     <row r="258" spans="5:7">
-      <c r="E258" s="46"/>
-      <c r="G258" s="46"/>
+      <c r="E258" s="44"/>
+      <c r="G258" s="44"/>
     </row>
     <row r="259" spans="5:7">
-      <c r="E259" s="46"/>
-      <c r="G259" s="46"/>
+      <c r="E259" s="44"/>
+      <c r="G259" s="44"/>
     </row>
     <row r="260" spans="5:7">
-      <c r="E260" s="46"/>
-      <c r="G260" s="46"/>
+      <c r="E260" s="44"/>
+      <c r="G260" s="44"/>
     </row>
     <row r="261" spans="5:7">
-      <c r="E261" s="46"/>
-      <c r="G261" s="46"/>
+      <c r="E261" s="44"/>
+      <c r="G261" s="44"/>
     </row>
     <row r="262" spans="5:7">
-      <c r="E262" s="46"/>
-      <c r="G262" s="46"/>
+      <c r="E262" s="44"/>
+      <c r="G262" s="44"/>
     </row>
     <row r="263" spans="5:7">
-      <c r="E263" s="46"/>
-      <c r="G263" s="46"/>
+      <c r="E263" s="44"/>
+      <c r="G263" s="44"/>
     </row>
     <row r="264" spans="5:7">
-      <c r="E264" s="46"/>
-      <c r="G264" s="46"/>
+      <c r="E264" s="44"/>
+      <c r="G264" s="44"/>
     </row>
     <row r="265" spans="5:7">
-      <c r="E265" s="46"/>
-      <c r="G265" s="46"/>
+      <c r="E265" s="44"/>
+      <c r="G265" s="44"/>
     </row>
     <row r="266" spans="5:7">
-      <c r="E266" s="46"/>
-      <c r="G266" s="46"/>
+      <c r="E266" s="44"/>
+      <c r="G266" s="44"/>
     </row>
     <row r="267" spans="5:7">
-      <c r="E267" s="46"/>
-      <c r="G267" s="46"/>
-    </row>
-    <row r="268" spans="5:7">
-      <c r="E268" s="45"/>
-      <c r="G268" s="45"/>
-    </row>
-    <row r="269" spans="5:7">
-      <c r="E269" s="45"/>
-      <c r="G269" s="45"/>
-    </row>
-    <row r="270" spans="5:7">
-      <c r="E270" s="45"/>
-      <c r="G270" s="45"/>
-    </row>
-    <row r="271" spans="5:7">
-      <c r="E271" s="45"/>
-      <c r="G271" s="45"/>
-    </row>
-    <row r="272" spans="5:7">
-      <c r="E272" s="45"/>
-      <c r="G272" s="45"/>
-    </row>
-    <row r="273" spans="5:7">
-      <c r="E273" s="45"/>
-      <c r="G273" s="45"/>
-    </row>
-    <row r="274" spans="5:7">
-      <c r="E274" s="45"/>
-      <c r="G274" s="45"/>
+      <c r="E267" s="44"/>
+      <c r="G267" s="44"/>
     </row>
     <row r="275" spans="5:7">
-      <c r="E275" s="46"/>
-      <c r="G275" s="45"/>
-    </row>
-    <row r="276" spans="5:7">
-      <c r="E276" s="45"/>
-      <c r="G276" s="45"/>
-    </row>
-    <row r="277" spans="5:7">
-      <c r="E277" s="45"/>
-      <c r="G277" s="45"/>
-    </row>
-    <row r="278" spans="5:7">
-      <c r="E278" s="45"/>
-      <c r="G278" s="45"/>
-    </row>
-    <row r="279" spans="5:7">
-      <c r="E279" s="45"/>
-      <c r="G279" s="45"/>
-    </row>
-    <row r="280" spans="5:7">
-      <c r="E280" s="45"/>
-      <c r="G280" s="45"/>
-    </row>
-    <row r="281" spans="5:7">
-      <c r="E281" s="45"/>
-      <c r="G281" s="45"/>
-    </row>
-    <row r="282" spans="5:7">
-      <c r="E282" s="45"/>
-      <c r="G282" s="45"/>
-    </row>
-    <row r="283" spans="5:7">
-      <c r="E283" s="45"/>
-      <c r="G283" s="45"/>
+      <c r="E275" s="44"/>
     </row>
     <row r="284" spans="5:7">
-      <c r="E284" s="45"/>
-      <c r="G284" s="46"/>
+      <c r="G284" s="44"/>
     </row>
     <row r="285" spans="5:7">
-      <c r="E285" s="45"/>
-      <c r="G285" s="46"/>
+      <c r="G285" s="44"/>
     </row>
     <row r="286" spans="5:7">
-      <c r="E286" s="45"/>
-      <c r="G286" s="46"/>
+      <c r="G286" s="44"/>
     </row>
     <row r="287" spans="5:7">
-      <c r="E287" s="45"/>
-      <c r="G287" s="46"/>
+      <c r="G287" s="44"/>
     </row>
     <row r="288" spans="5:7">
-      <c r="E288" s="45"/>
-      <c r="G288" s="46"/>
-    </row>
-    <row r="289" spans="5:7">
-      <c r="E289" s="45"/>
-      <c r="G289" s="46"/>
-    </row>
-    <row r="290" spans="5:7">
-      <c r="E290" s="45"/>
-      <c r="G290" s="46"/>
-    </row>
-    <row r="291" spans="5:7">
-      <c r="E291" s="45"/>
-      <c r="G291" s="46"/>
-    </row>
-    <row r="292" spans="5:7">
-      <c r="E292" s="45"/>
-      <c r="G292" s="46"/>
-    </row>
-    <row r="293" spans="5:7">
-      <c r="E293" s="45"/>
-      <c r="G293" s="46"/>
-    </row>
-    <row r="294" spans="5:7">
-      <c r="E294" s="45"/>
-      <c r="G294" s="46"/>
-    </row>
-    <row r="295" spans="5:7">
-      <c r="E295" s="45"/>
-      <c r="G295" s="46"/>
-    </row>
-    <row r="296" spans="5:7">
-      <c r="E296" s="45"/>
-      <c r="G296" s="46"/>
-    </row>
-    <row r="297" spans="5:7">
-      <c r="E297" s="45"/>
-      <c r="G297" s="46"/>
-    </row>
-    <row r="298" spans="5:7">
-      <c r="E298" s="45"/>
-      <c r="G298" s="45"/>
-    </row>
-    <row r="299" spans="5:7">
-      <c r="E299" s="45"/>
-      <c r="G299" s="45"/>
-    </row>
-    <row r="300" spans="5:7">
-      <c r="E300" s="45"/>
-      <c r="G300" s="45"/>
-    </row>
-    <row r="301" spans="5:7">
-      <c r="E301" s="45"/>
-      <c r="G301" s="45"/>
-    </row>
-    <row r="302" spans="5:7">
-      <c r="E302" s="45"/>
-      <c r="G302" s="45"/>
-    </row>
-    <row r="303" spans="5:7">
-      <c r="E303" s="45"/>
-      <c r="G303" s="45"/>
-    </row>
-    <row r="304" spans="5:7">
-      <c r="E304" s="45"/>
-      <c r="G304" s="45"/>
-    </row>
-    <row r="305" spans="5:7">
-      <c r="E305" s="45"/>
-      <c r="G305" s="45"/>
-    </row>
-    <row r="306" spans="5:7">
-      <c r="E306" s="45"/>
-      <c r="G306" s="45"/>
-    </row>
-    <row r="307" spans="5:7">
-      <c r="E307" s="45"/>
-      <c r="G307" s="45"/>
-    </row>
-    <row r="308" spans="5:7">
-      <c r="E308" s="45"/>
-      <c r="G308" s="45"/>
-    </row>
-    <row r="309" spans="5:7">
-      <c r="E309" s="45"/>
-      <c r="G309" s="45"/>
-    </row>
-    <row r="310" spans="5:7">
-      <c r="E310" s="45"/>
-      <c r="G310" s="45"/>
-    </row>
-    <row r="311" spans="5:7">
-      <c r="E311" s="45"/>
-      <c r="G311" s="45"/>
-    </row>
-    <row r="312" spans="5:7">
-      <c r="E312" s="45"/>
-      <c r="G312" s="45"/>
-    </row>
-    <row r="313" spans="5:7">
-      <c r="E313" s="45"/>
-      <c r="G313" s="45"/>
-    </row>
-    <row r="314" spans="5:7">
-      <c r="E314" s="45"/>
-      <c r="G314" s="45"/>
-    </row>
-    <row r="315" spans="5:7">
-      <c r="E315" s="45"/>
-      <c r="G315" s="45"/>
-    </row>
-    <row r="316" spans="5:7">
-      <c r="E316" s="45"/>
-      <c r="G316" s="45"/>
-    </row>
-    <row r="317" spans="5:7">
-      <c r="E317" s="45"/>
-      <c r="G317" s="45"/>
-    </row>
-    <row r="318" spans="5:7">
-      <c r="E318" s="45"/>
-      <c r="G318" s="45"/>
-    </row>
-    <row r="319" spans="5:7">
-      <c r="E319" s="45"/>
-      <c r="G319" s="45"/>
-    </row>
-    <row r="320" spans="5:7">
-      <c r="E320" s="45"/>
-      <c r="G320" s="45"/>
-    </row>
-    <row r="321" spans="5:7">
-      <c r="E321" s="45"/>
-      <c r="G321" s="45"/>
-    </row>
-    <row r="322" spans="5:7">
-      <c r="E322" s="45"/>
-      <c r="G322" s="45"/>
-    </row>
-    <row r="323" spans="5:7">
-      <c r="E323" s="45"/>
-      <c r="G323" s="45"/>
-    </row>
-    <row r="324" spans="5:7">
-      <c r="E324" s="45"/>
-      <c r="G324" s="45"/>
-    </row>
-    <row r="325" spans="5:7">
-      <c r="E325" s="45"/>
-      <c r="G325" s="45"/>
-    </row>
-    <row r="326" spans="5:7">
-      <c r="E326" s="45"/>
-      <c r="G326" s="45"/>
-    </row>
-    <row r="327" spans="5:7">
-      <c r="E327" s="46"/>
-      <c r="G327" s="45"/>
-    </row>
-    <row r="328" spans="5:7">
-      <c r="E328" s="45"/>
-      <c r="G328" s="45"/>
-    </row>
-    <row r="329" spans="5:7">
-      <c r="E329" s="45"/>
-      <c r="G329" s="45"/>
-    </row>
-    <row r="330" spans="5:7">
-      <c r="E330" s="45"/>
-      <c r="G330" s="45"/>
-    </row>
-    <row r="331" spans="5:7">
-      <c r="E331" s="45"/>
-      <c r="G331" s="45"/>
-    </row>
-    <row r="332" spans="5:7">
-      <c r="E332" s="45"/>
-      <c r="G332" s="45"/>
-    </row>
-    <row r="333" spans="5:7">
-      <c r="E333" s="45"/>
-      <c r="G333" s="45"/>
-    </row>
-    <row r="334" spans="5:7">
-      <c r="E334" s="45"/>
-      <c r="G334" s="45"/>
-    </row>
-    <row r="335" spans="5:7">
-      <c r="E335" s="45"/>
-      <c r="G335" s="45"/>
-    </row>
-    <row r="336" spans="5:7">
-      <c r="E336" s="45"/>
-      <c r="G336" s="45"/>
-    </row>
-    <row r="337" spans="5:7">
-      <c r="E337" s="45"/>
-      <c r="G337" s="45"/>
-    </row>
-    <row r="338" spans="5:7">
-      <c r="E338" s="45"/>
-      <c r="G338" s="45"/>
-    </row>
-    <row r="339" spans="5:7">
-      <c r="E339" s="45"/>
-      <c r="G339" s="45"/>
-    </row>
-    <row r="340" spans="5:7">
-      <c r="E340" s="45"/>
-      <c r="G340" s="45"/>
-    </row>
-    <row r="341" spans="5:7">
-      <c r="E341" s="45"/>
-      <c r="G341" s="45"/>
-    </row>
-    <row r="342" spans="5:7">
-      <c r="E342" s="45"/>
-      <c r="G342" s="45"/>
-    </row>
-    <row r="343" spans="5:7">
-      <c r="E343" s="45"/>
-      <c r="G343" s="45"/>
-    </row>
-    <row r="344" spans="5:7">
-      <c r="E344" s="45"/>
-      <c r="G344" s="45"/>
-    </row>
-    <row r="345" spans="5:7">
-      <c r="E345" s="45"/>
-      <c r="G345" s="45"/>
-    </row>
-    <row r="346" spans="5:7">
-      <c r="E346" s="46"/>
-      <c r="G346" s="45"/>
-    </row>
-    <row r="347" spans="5:7">
-      <c r="E347" s="46"/>
-      <c r="G347" s="45"/>
-    </row>
-    <row r="348" spans="5:7">
-      <c r="E348" s="45"/>
-      <c r="G348" s="45"/>
-    </row>
-    <row r="349" spans="5:7">
-      <c r="E349" s="45"/>
-      <c r="G349" s="45"/>
-    </row>
-    <row r="350" spans="5:7">
-      <c r="E350" s="46"/>
-      <c r="G350" s="45"/>
-    </row>
-    <row r="351" spans="5:7">
-      <c r="E351" s="46"/>
-      <c r="G351" s="45"/>
-    </row>
-    <row r="352" spans="5:7">
-      <c r="E352" s="46"/>
-      <c r="G352" s="45"/>
-    </row>
-    <row r="353" spans="5:7">
-      <c r="E353" s="46"/>
-      <c r="G353" s="45"/>
-    </row>
-    <row r="354" spans="5:7">
-      <c r="E354" s="46"/>
-      <c r="G354" s="45"/>
-    </row>
-    <row r="355" spans="5:7">
-      <c r="E355" s="46"/>
-      <c r="G355" s="45"/>
-    </row>
-    <row r="356" spans="5:7">
-      <c r="E356" s="45"/>
-      <c r="G356" s="45"/>
-    </row>
-    <row r="357" spans="5:7">
-      <c r="E357" s="45"/>
-      <c r="G357" s="45"/>
-    </row>
-    <row r="358" spans="5:7">
-      <c r="E358" s="45"/>
-      <c r="G358" s="45"/>
-    </row>
-    <row r="359" spans="5:7">
-      <c r="E359" s="45"/>
-      <c r="G359" s="45"/>
-    </row>
-    <row r="360" spans="5:7">
-      <c r="E360" s="45"/>
-      <c r="G360" s="45"/>
-    </row>
-    <row r="361" spans="5:7">
-      <c r="E361" s="46"/>
-      <c r="G361" s="45"/>
-    </row>
-    <row r="362" spans="5:7">
-      <c r="E362" s="46"/>
-      <c r="G362" s="45"/>
-    </row>
-    <row r="363" spans="5:7">
-      <c r="E363" s="46"/>
-      <c r="G363" s="45"/>
-    </row>
-    <row r="364" spans="5:7">
-      <c r="E364" s="46"/>
-      <c r="G364" s="45"/>
-    </row>
-    <row r="365" spans="5:7">
-      <c r="E365" s="46"/>
-      <c r="G365" s="45"/>
-    </row>
-    <row r="366" spans="5:7">
-      <c r="E366" s="46"/>
-      <c r="G366" s="45"/>
-    </row>
-    <row r="367" spans="5:7">
-      <c r="E367" s="46"/>
-      <c r="G367" s="45"/>
-    </row>
-    <row r="368" spans="5:7">
-      <c r="E368" s="45"/>
-      <c r="G368" s="45"/>
-    </row>
-    <row r="369" spans="5:7">
-      <c r="E369" s="46"/>
-      <c r="G369" s="45"/>
-    </row>
-    <row r="370" spans="5:7">
-      <c r="E370" s="46"/>
-      <c r="G370" s="45"/>
-    </row>
-    <row r="371" spans="5:7">
-      <c r="E371" s="46"/>
-      <c r="G371" s="45"/>
-    </row>
-    <row r="372" spans="5:7">
-      <c r="E372" s="46"/>
-      <c r="G372" s="45"/>
-    </row>
-    <row r="373" spans="5:7">
-      <c r="E373" s="45"/>
-      <c r="G373" s="45"/>
-    </row>
-    <row r="374" spans="5:7">
-      <c r="E374" s="45"/>
-      <c r="G374" s="45"/>
-    </row>
-    <row r="375" spans="5:7">
-      <c r="E375" s="45"/>
-      <c r="G375" s="45"/>
-    </row>
-    <row r="376" spans="5:7">
-      <c r="E376" s="46"/>
-      <c r="G376" s="45"/>
-    </row>
-    <row r="377" spans="5:7">
-      <c r="E377" s="45"/>
-      <c r="G377" s="45"/>
-    </row>
-    <row r="378" spans="5:7">
-      <c r="E378" s="45"/>
-      <c r="G378" s="45"/>
-    </row>
-    <row r="379" spans="5:7">
-      <c r="E379" s="45"/>
-      <c r="G379" s="45"/>
-    </row>
-    <row r="380" spans="5:7">
-      <c r="E380" s="45"/>
-      <c r="G380" s="45"/>
-    </row>
-    <row r="381" spans="5:7">
-      <c r="E381" s="45"/>
-      <c r="G381" s="45"/>
-    </row>
-    <row r="382" spans="5:7">
-      <c r="E382" s="45"/>
-      <c r="G382" s="45"/>
-    </row>
-    <row r="383" spans="5:7">
-      <c r="E383" s="46"/>
-      <c r="G383" s="45"/>
-    </row>
-    <row r="384" spans="5:7">
-      <c r="E384" s="45"/>
-      <c r="G384" s="45"/>
-    </row>
-    <row r="385" spans="5:7">
-      <c r="E385" s="45"/>
-      <c r="G385" s="45"/>
-    </row>
-    <row r="386" spans="5:7">
-      <c r="E386" s="45"/>
-      <c r="G386" s="45"/>
-    </row>
-    <row r="387" spans="5:7">
-      <c r="E387" s="46"/>
-      <c r="G387" s="45"/>
-    </row>
-    <row r="388" spans="5:7">
-      <c r="E388" s="45"/>
-      <c r="G388" s="45"/>
-    </row>
-    <row r="389" spans="5:7">
-      <c r="E389" s="45"/>
-      <c r="G389" s="45"/>
-    </row>
-    <row r="390" spans="5:7">
-      <c r="E390" s="45"/>
-      <c r="G390" s="45"/>
-    </row>
-    <row r="391" spans="5:7">
-      <c r="E391" s="45"/>
-      <c r="G391" s="45"/>
-    </row>
-    <row r="392" spans="5:7">
-      <c r="E392" s="45"/>
-      <c r="G392" s="45"/>
-    </row>
-    <row r="393" spans="5:7">
-      <c r="E393" s="45"/>
-      <c r="G393" s="45"/>
-    </row>
-    <row r="394" spans="5:7">
-      <c r="E394" s="45"/>
-      <c r="G394" s="45"/>
-    </row>
-    <row r="395" spans="5:7">
-      <c r="E395" s="45"/>
-      <c r="G395" s="45"/>
-    </row>
-    <row r="396" spans="5:7">
-      <c r="E396" s="45"/>
-      <c r="G396" s="45"/>
-    </row>
-    <row r="397" spans="5:7">
-      <c r="E397" s="45"/>
-      <c r="G397" s="45"/>
-    </row>
-    <row r="398" spans="5:7">
-      <c r="E398" s="46"/>
-      <c r="G398" s="45"/>
-    </row>
-    <row r="399" spans="5:7">
-      <c r="E399" s="45"/>
-      <c r="G399" s="45"/>
-    </row>
-    <row r="400" spans="5:7">
-      <c r="E400" s="45"/>
-      <c r="G400" s="45"/>
-    </row>
-    <row r="401" spans="5:7">
-      <c r="E401" s="45"/>
-      <c r="G401" s="45"/>
-    </row>
-    <row r="402" spans="5:7">
-      <c r="E402" s="45"/>
-      <c r="G402" s="45"/>
-    </row>
-    <row r="403" spans="5:7">
-      <c r="E403" s="45"/>
-      <c r="G403" s="45"/>
-    </row>
-    <row r="404" spans="5:7">
-      <c r="E404" s="45"/>
-      <c r="G404" s="45"/>
-    </row>
-    <row r="405" spans="5:7">
-      <c r="E405" s="45"/>
-      <c r="G405" s="45"/>
-    </row>
-    <row r="406" spans="5:7">
-      <c r="E406" s="45"/>
-      <c r="G406" s="45"/>
-    </row>
-    <row r="407" spans="5:7">
-      <c r="E407" s="45"/>
-      <c r="G407" s="45"/>
+      <c r="G288" s="44"/>
+    </row>
+    <row r="289" spans="7:7">
+      <c r="G289" s="44"/>
+    </row>
+    <row r="290" spans="7:7">
+      <c r="G290" s="44"/>
+    </row>
+    <row r="291" spans="7:7">
+      <c r="G291" s="44"/>
+    </row>
+    <row r="292" spans="7:7">
+      <c r="G292" s="44"/>
+    </row>
+    <row r="293" spans="7:7">
+      <c r="G293" s="44"/>
+    </row>
+    <row r="294" spans="7:7">
+      <c r="G294" s="44"/>
+    </row>
+    <row r="295" spans="7:7">
+      <c r="G295" s="44"/>
+    </row>
+    <row r="296" spans="7:7">
+      <c r="G296" s="44"/>
+    </row>
+    <row r="297" spans="7:7">
+      <c r="G297" s="44"/>
+    </row>
+    <row r="327" spans="5:5">
+      <c r="E327" s="44"/>
+    </row>
+    <row r="346" spans="5:5">
+      <c r="E346" s="44"/>
+    </row>
+    <row r="347" spans="5:5">
+      <c r="E347" s="44"/>
+    </row>
+    <row r="350" spans="5:5">
+      <c r="E350" s="44"/>
+    </row>
+    <row r="351" spans="5:5">
+      <c r="E351" s="44"/>
+    </row>
+    <row r="352" spans="5:5">
+      <c r="E352" s="44"/>
+    </row>
+    <row r="353" spans="5:5">
+      <c r="E353" s="44"/>
+    </row>
+    <row r="354" spans="5:5">
+      <c r="E354" s="44"/>
+    </row>
+    <row r="355" spans="5:5">
+      <c r="E355" s="44"/>
+    </row>
+    <row r="361" spans="5:5">
+      <c r="E361" s="44"/>
+    </row>
+    <row r="362" spans="5:5">
+      <c r="E362" s="44"/>
+    </row>
+    <row r="363" spans="5:5">
+      <c r="E363" s="44"/>
+    </row>
+    <row r="364" spans="5:5">
+      <c r="E364" s="44"/>
+    </row>
+    <row r="365" spans="5:5">
+      <c r="E365" s="44"/>
+    </row>
+    <row r="366" spans="5:5">
+      <c r="E366" s="44"/>
+    </row>
+    <row r="367" spans="5:5">
+      <c r="E367" s="44"/>
+    </row>
+    <row r="369" spans="5:5">
+      <c r="E369" s="44"/>
+    </row>
+    <row r="370" spans="5:5">
+      <c r="E370" s="44"/>
+    </row>
+    <row r="371" spans="5:5">
+      <c r="E371" s="44"/>
+    </row>
+    <row r="372" spans="5:5">
+      <c r="E372" s="44"/>
+    </row>
+    <row r="376" spans="5:5">
+      <c r="E376" s="44"/>
+    </row>
+    <row r="383" spans="5:5">
+      <c r="E383" s="44"/>
+    </row>
+    <row r="387" spans="5:5">
+      <c r="E387" s="44"/>
+    </row>
+    <row r="398" spans="5:5">
+      <c r="E398" s="44"/>
     </row>
     <row r="408" spans="5:7">
-      <c r="E408" s="46"/>
-      <c r="G408" s="45"/>
-    </row>
-    <row r="409" spans="5:7">
-      <c r="E409" s="45"/>
-      <c r="G409" s="45"/>
+      <c r="E408" s="44"/>
     </row>
     <row r="410" spans="5:7">
-      <c r="E410" s="45"/>
-      <c r="G410" s="46"/>
+      <c r="G410" s="44"/>
     </row>
     <row r="411" spans="5:7">
-      <c r="E411" s="45"/>
-      <c r="G411" s="46"/>
+      <c r="G411" s="44"/>
     </row>
     <row r="412" spans="5:7">
-      <c r="E412" s="45"/>
-      <c r="G412" s="46"/>
+      <c r="G412" s="44"/>
     </row>
     <row r="413" spans="5:7">
-      <c r="E413" s="45"/>
-      <c r="G413" s="46"/>
+      <c r="G413" s="44"/>
     </row>
     <row r="414" spans="5:7">
-      <c r="E414" s="45"/>
-      <c r="G414" s="46"/>
+      <c r="G414" s="44"/>
     </row>
     <row r="415" spans="5:7">
-      <c r="E415" s="45"/>
-      <c r="G415" s="46"/>
+      <c r="G415" s="44"/>
     </row>
     <row r="416" spans="5:7">
-      <c r="E416" s="45"/>
-      <c r="G416" s="46"/>
+      <c r="G416" s="44"/>
     </row>
     <row r="417" spans="5:7">
-      <c r="E417" s="45"/>
-      <c r="G417" s="46"/>
+      <c r="G417" s="44"/>
     </row>
     <row r="418" spans="5:7">
-      <c r="E418" s="45"/>
-      <c r="G418" s="46"/>
+      <c r="G418" s="44"/>
     </row>
     <row r="419" spans="5:7">
-      <c r="E419" s="45"/>
-      <c r="G419" s="46"/>
+      <c r="G419" s="44"/>
     </row>
     <row r="420" spans="5:7">
-      <c r="E420" s="45"/>
-      <c r="G420" s="46"/>
+      <c r="G420" s="44"/>
     </row>
     <row r="421" spans="5:7">
-      <c r="E421" s="45"/>
-      <c r="G421" s="46"/>
+      <c r="G421" s="44"/>
     </row>
     <row r="422" spans="5:7">
-      <c r="E422" s="45"/>
-      <c r="G422" s="46"/>
+      <c r="G422" s="44"/>
     </row>
     <row r="423" spans="5:7">
-      <c r="E423" s="45"/>
-      <c r="G423" s="46"/>
+      <c r="G423" s="44"/>
     </row>
     <row r="424" spans="5:7">
-      <c r="E424" s="45"/>
-      <c r="G424" s="46"/>
+      <c r="G424" s="44"/>
     </row>
     <row r="425" spans="5:7">
-      <c r="E425" s="45"/>
-      <c r="G425" s="46"/>
+      <c r="G425" s="44"/>
     </row>
     <row r="426" spans="5:7">
-      <c r="E426" s="45"/>
-      <c r="G426" s="46"/>
+      <c r="G426" s="44"/>
     </row>
     <row r="427" spans="5:7">
-      <c r="E427" s="45"/>
-      <c r="G427" s="46"/>
+      <c r="G427" s="44"/>
     </row>
     <row r="428" spans="5:7">
-      <c r="E428" s="45"/>
-      <c r="G428" s="46"/>
+      <c r="G428" s="44"/>
     </row>
     <row r="429" spans="5:7">
-      <c r="E429" s="46"/>
-      <c r="G429" s="46"/>
-    </row>
-    <row r="430" spans="5:7">
-      <c r="E430" s="45"/>
-      <c r="G430" s="45"/>
+      <c r="E429" s="44"/>
+      <c r="G429" s="44"/>
     </row>
     <row r="431" spans="5:7">
-      <c r="E431" s="45"/>
-      <c r="G431" s="46"/>
+      <c r="G431" s="44"/>
     </row>
     <row r="432" spans="5:7">
-      <c r="E432" s="45"/>
-      <c r="G432" s="46"/>
+      <c r="G432" s="44"/>
     </row>
     <row r="433" spans="5:7">
-      <c r="E433" s="45"/>
-      <c r="G433" s="46"/>
+      <c r="G433" s="44"/>
     </row>
     <row r="434" spans="5:7">
-      <c r="E434" s="45"/>
-      <c r="G434" s="46"/>
+      <c r="G434" s="44"/>
     </row>
     <row r="435" spans="5:7">
-      <c r="E435" s="45"/>
-      <c r="G435" s="46"/>
+      <c r="G435" s="44"/>
     </row>
     <row r="436" spans="5:7">
-      <c r="E436" s="45"/>
-      <c r="G436" s="46"/>
+      <c r="G436" s="44"/>
     </row>
     <row r="437" spans="5:7">
-      <c r="E437" s="45"/>
-      <c r="G437" s="46"/>
+      <c r="G437" s="44"/>
     </row>
     <row r="438" spans="5:7">
-      <c r="E438" s="46"/>
-      <c r="G438" s="46"/>
+      <c r="E438" s="44"/>
+      <c r="G438" s="44"/>
     </row>
     <row r="439" spans="5:7">
-      <c r="E439" s="45"/>
-      <c r="G439" s="46"/>
+      <c r="G439" s="44"/>
     </row>
     <row r="440" spans="5:7">
-      <c r="E440" s="45"/>
-      <c r="G440" s="46"/>
+      <c r="G440" s="44"/>
     </row>
     <row r="441" spans="5:7">
-      <c r="E441" s="45"/>
-      <c r="G441" s="46"/>
+      <c r="G441" s="44"/>
     </row>
     <row r="442" spans="5:7">
-      <c r="E442" s="45"/>
-      <c r="G442" s="46"/>
+      <c r="G442" s="44"/>
     </row>
     <row r="443" spans="5:7">
-      <c r="E443" s="45"/>
-      <c r="G443" s="46"/>
+      <c r="G443" s="44"/>
     </row>
     <row r="444" spans="5:7">
-      <c r="E444" s="45"/>
-      <c r="G444" s="46"/>
+      <c r="G444" s="44"/>
     </row>
     <row r="445" spans="5:7">
-      <c r="E445" s="45"/>
-      <c r="G445" s="46"/>
+      <c r="G445" s="44"/>
     </row>
     <row r="446" spans="5:7">
-      <c r="E446" s="46"/>
-      <c r="G446" s="46"/>
-    </row>
-    <row r="447" spans="5:7">
-      <c r="E447" s="45"/>
-      <c r="G447" s="45"/>
+      <c r="E446" s="44"/>
+      <c r="G446" s="44"/>
     </row>
     <row r="448" spans="5:7">
-      <c r="E448" s="45"/>
-      <c r="G448" s="46"/>
+      <c r="G448" s="44"/>
     </row>
     <row r="449" spans="5:7">
-      <c r="E449" s="45"/>
-      <c r="G449" s="46"/>
+      <c r="G449" s="44"/>
     </row>
     <row r="450" spans="5:7">
-      <c r="E450" s="45"/>
-      <c r="G450" s="46"/>
+      <c r="G450" s="44"/>
     </row>
     <row r="451" spans="5:7">
-      <c r="E451" s="45"/>
-      <c r="G451" s="46"/>
+      <c r="G451" s="44"/>
     </row>
     <row r="452" spans="5:7">
-      <c r="E452" s="45"/>
-      <c r="G452" s="46"/>
+      <c r="G452" s="44"/>
     </row>
     <row r="453" spans="5:7">
-      <c r="E453" s="45"/>
-      <c r="G453" s="46"/>
+      <c r="G453" s="44"/>
     </row>
     <row r="454" spans="5:7">
-      <c r="E454" s="45"/>
-      <c r="G454" s="46"/>
+      <c r="G454" s="44"/>
     </row>
     <row r="455" spans="5:7">
-      <c r="E455" s="46"/>
-      <c r="G455" s="46"/>
+      <c r="E455" s="44"/>
+      <c r="G455" s="44"/>
     </row>
     <row r="456" spans="5:7">
-      <c r="E456" s="45"/>
-      <c r="G456" s="46"/>
+      <c r="G456" s="44"/>
     </row>
     <row r="457" spans="5:7">
-      <c r="E457" s="45"/>
-      <c r="G457" s="46"/>
+      <c r="G457" s="44"/>
     </row>
     <row r="458" spans="5:7">
-      <c r="E458" s="45"/>
-      <c r="G458" s="46"/>
+      <c r="G458" s="44"/>
     </row>
     <row r="459" spans="5:7">
-      <c r="E459" s="45"/>
-      <c r="G459" s="46"/>
+      <c r="G459" s="44"/>
     </row>
     <row r="460" spans="5:7">
-      <c r="E460" s="45"/>
-      <c r="G460" s="46"/>
+      <c r="G460" s="44"/>
     </row>
     <row r="461" spans="5:7">
-      <c r="E461" s="45"/>
-      <c r="G461" s="46"/>
+      <c r="G461" s="44"/>
     </row>
     <row r="462" spans="5:7">
-      <c r="E462" s="45"/>
-      <c r="G462" s="46"/>
+      <c r="G462" s="44"/>
     </row>
     <row r="463" spans="5:7">
-      <c r="E463" s="46"/>
-      <c r="G463" s="46"/>
-    </row>
-    <row r="464" spans="5:7">
-      <c r="E464" s="45"/>
-      <c r="G464" s="45"/>
-    </row>
-    <row r="465" spans="5:7">
-      <c r="E465" s="45"/>
-      <c r="G465" s="45"/>
-    </row>
-    <row r="466" spans="5:7">
-      <c r="E466" s="45"/>
-      <c r="G466" s="45"/>
-    </row>
-    <row r="467" spans="5:7">
-      <c r="E467" s="45"/>
-      <c r="G467" s="45"/>
-    </row>
-    <row r="468" spans="5:7">
-      <c r="E468" s="45"/>
-      <c r="G468" s="45"/>
-    </row>
-    <row r="469" spans="5:7">
-      <c r="E469" s="45"/>
-      <c r="G469" s="45"/>
-    </row>
-    <row r="470" spans="5:7">
-      <c r="E470" s="45"/>
-      <c r="G470" s="45"/>
-    </row>
-    <row r="471" spans="5:7">
-      <c r="E471" s="46"/>
-      <c r="G471" s="45"/>
-    </row>
-    <row r="472" spans="5:7">
-      <c r="E472" s="45"/>
-      <c r="G472" s="45"/>
-    </row>
-    <row r="473" spans="5:7">
-      <c r="E473" s="45"/>
-      <c r="G473" s="45"/>
-    </row>
-    <row r="474" spans="5:7">
-      <c r="E474" s="45"/>
-      <c r="G474" s="45"/>
-    </row>
-    <row r="475" spans="5:7">
-      <c r="E475" s="45"/>
-      <c r="G475" s="45"/>
-    </row>
-    <row r="476" spans="5:7">
-      <c r="E476" s="45"/>
-      <c r="G476" s="45"/>
-    </row>
-    <row r="477" spans="5:7">
-      <c r="E477" s="45"/>
-      <c r="G477" s="45"/>
-    </row>
-    <row r="478" spans="5:7">
-      <c r="E478" s="46"/>
-      <c r="G478" s="45"/>
-    </row>
-    <row r="479" spans="5:7">
-      <c r="E479" s="45"/>
-      <c r="G479" s="45"/>
-    </row>
-    <row r="480" spans="5:7">
-      <c r="E480" s="45"/>
-      <c r="G480" s="45"/>
-    </row>
-    <row r="481" spans="5:7">
-      <c r="E481" s="45"/>
-      <c r="G481" s="45"/>
-    </row>
-    <row r="482" spans="5:7">
-      <c r="E482" s="45"/>
-      <c r="G482" s="45"/>
-    </row>
-    <row r="483" spans="5:7">
-      <c r="E483" s="45"/>
-      <c r="G483" s="45"/>
-    </row>
-    <row r="484" spans="5:7">
-      <c r="E484" s="45"/>
-      <c r="G484" s="45"/>
-    </row>
-    <row r="485" spans="5:7">
-      <c r="E485" s="45"/>
-      <c r="G485" s="45"/>
-    </row>
-    <row r="486" spans="5:7">
-      <c r="E486" s="45"/>
-      <c r="G486" s="45"/>
-    </row>
-    <row r="487" spans="5:7">
-      <c r="E487" s="45"/>
-      <c r="G487" s="45"/>
-    </row>
-    <row r="488" spans="5:7">
-      <c r="E488" s="45"/>
-      <c r="G488" s="45"/>
-    </row>
-    <row r="489" spans="5:7">
-      <c r="E489" s="45"/>
-      <c r="G489" s="45"/>
-    </row>
-    <row r="490" spans="5:7">
-      <c r="E490" s="45"/>
-      <c r="G490" s="45"/>
-    </row>
-    <row r="491" spans="5:7">
-      <c r="E491" s="45"/>
-      <c r="G491" s="45"/>
-    </row>
-    <row r="492" spans="5:7">
-      <c r="E492" s="45"/>
-      <c r="G492" s="45"/>
-    </row>
-    <row r="493" spans="5:7">
-      <c r="E493" s="45"/>
-      <c r="G493" s="45"/>
-    </row>
-    <row r="494" spans="5:7">
-      <c r="E494" s="47"/>
-      <c r="G494" s="45"/>
-    </row>
-    <row r="495" spans="5:7">
-      <c r="E495" s="47"/>
-      <c r="G495" s="45"/>
-    </row>
-    <row r="496" spans="5:7">
-      <c r="E496" s="45"/>
-      <c r="G496" s="45"/>
-    </row>
-    <row r="497" spans="5:7">
-      <c r="E497" s="45"/>
-      <c r="G497" s="45"/>
-    </row>
-    <row r="498" spans="5:7">
-      <c r="E498" s="47"/>
-      <c r="G498" s="45"/>
-    </row>
-    <row r="499" spans="5:7">
-      <c r="E499" s="46"/>
-      <c r="G499" s="45"/>
-    </row>
-    <row r="500" spans="5:7">
-      <c r="E500" s="45"/>
-      <c r="G500" s="45"/>
-    </row>
-    <row r="501" spans="5:7">
-      <c r="E501" s="45"/>
-      <c r="G501" s="45"/>
-    </row>
-    <row r="502" spans="5:7">
-      <c r="E502" s="45"/>
-      <c r="G502" s="45"/>
-    </row>
-    <row r="503" spans="5:7">
-      <c r="E503" s="45"/>
-      <c r="G503" s="45"/>
-    </row>
-    <row r="504" spans="5:7">
-      <c r="E504" s="45"/>
-      <c r="G504" s="45"/>
-    </row>
-    <row r="505" spans="5:7">
-      <c r="E505" s="45"/>
-      <c r="G505" s="45"/>
-    </row>
-    <row r="506" spans="5:7">
-      <c r="E506" s="45"/>
-      <c r="G506" s="45"/>
-    </row>
-    <row r="507" spans="5:7">
-      <c r="E507" s="45"/>
-      <c r="G507" s="45"/>
-    </row>
-    <row r="508" spans="5:7">
-      <c r="E508" s="45"/>
-      <c r="G508" s="45"/>
-    </row>
-    <row r="509" spans="5:7">
-      <c r="E509" s="45"/>
-      <c r="G509" s="45"/>
-    </row>
-    <row r="510" spans="5:7">
-      <c r="E510" s="45"/>
-      <c r="G510" s="45"/>
-    </row>
-    <row r="511" spans="5:7">
-      <c r="E511" s="45"/>
-      <c r="G511" s="45"/>
-    </row>
-    <row r="512" spans="5:7">
-      <c r="E512" s="46"/>
-      <c r="G512" s="45"/>
-    </row>
-    <row r="513" spans="5:7">
-      <c r="E513" s="45"/>
-      <c r="G513" s="45"/>
-    </row>
-    <row r="514" spans="5:7">
-      <c r="E514" s="45"/>
-      <c r="G514" s="45"/>
-    </row>
-    <row r="515" spans="5:7">
-      <c r="E515" s="45"/>
-      <c r="G515" s="45"/>
-    </row>
-    <row r="516" spans="5:7">
-      <c r="E516" s="45"/>
-      <c r="G516" s="45"/>
-    </row>
-    <row r="517" spans="5:7">
-      <c r="E517" s="45"/>
-      <c r="G517" s="45"/>
-    </row>
-    <row r="518" spans="5:7">
-      <c r="E518" s="45"/>
-      <c r="G518" s="45"/>
-    </row>
-    <row r="519" spans="5:7">
-      <c r="E519" s="45"/>
-      <c r="G519" s="45"/>
-    </row>
-    <row r="520" spans="5:7">
-      <c r="E520" s="45"/>
-      <c r="G520" s="45"/>
-    </row>
-    <row r="521" spans="5:7">
-      <c r="E521" s="45"/>
-      <c r="G521" s="45"/>
-    </row>
-    <row r="522" spans="5:7">
-      <c r="E522" s="45"/>
-      <c r="G522" s="45"/>
-    </row>
-    <row r="523" spans="5:7">
-      <c r="E523" s="45"/>
-      <c r="G523" s="45"/>
-    </row>
-    <row r="524" spans="5:7">
-      <c r="E524" s="46"/>
-      <c r="G524" s="45"/>
-    </row>
-    <row r="525" spans="5:7">
-      <c r="E525" s="45"/>
-      <c r="G525" s="45"/>
-    </row>
-    <row r="526" spans="5:7">
-      <c r="E526" s="45"/>
-      <c r="G526" s="45"/>
-    </row>
-    <row r="527" spans="5:7">
-      <c r="E527" s="45"/>
-      <c r="G527" s="45"/>
-    </row>
-    <row r="528" spans="5:7">
-      <c r="E528" s="46"/>
-      <c r="G528" s="45"/>
-    </row>
-    <row r="529" spans="5:7">
-      <c r="E529" s="46"/>
-      <c r="G529" s="45"/>
-    </row>
-    <row r="530" spans="5:7">
-      <c r="E530" s="46"/>
-      <c r="G530" s="45"/>
-    </row>
-    <row r="531" spans="5:7">
-      <c r="E531" s="46"/>
-      <c r="G531" s="45"/>
-    </row>
-    <row r="532" spans="5:7">
-      <c r="E532" s="46"/>
-      <c r="G532" s="45"/>
-    </row>
-    <row r="533" spans="5:7">
-      <c r="E533" s="46"/>
-      <c r="G533" s="45"/>
-    </row>
-    <row r="534" spans="5:7">
-      <c r="E534" s="46"/>
-      <c r="G534" s="45"/>
-    </row>
-    <row r="535" spans="5:7">
-      <c r="E535" s="46"/>
-      <c r="G535" s="45"/>
-    </row>
-    <row r="536" spans="5:7">
-      <c r="E536" s="46"/>
-      <c r="G536" s="45"/>
-    </row>
-    <row r="537" spans="5:7">
-      <c r="E537" s="46"/>
-      <c r="G537" s="45"/>
-    </row>
-    <row r="538" spans="5:7">
-      <c r="E538" s="46"/>
-      <c r="G538" s="45"/>
-    </row>
-    <row r="539" spans="5:7">
-      <c r="E539" s="46"/>
-      <c r="G539" s="45"/>
-    </row>
-    <row r="540" spans="5:7">
-      <c r="E540" s="46"/>
-      <c r="G540" s="45"/>
-    </row>
-    <row r="541" spans="5:7">
-      <c r="E541" s="46"/>
-      <c r="G541" s="45"/>
-    </row>
-    <row r="542" spans="5:7">
-      <c r="E542" s="46"/>
-      <c r="G542" s="45"/>
-    </row>
-    <row r="543" spans="5:7">
-      <c r="E543" s="46"/>
-      <c r="G543" s="45"/>
-    </row>
-    <row r="544" spans="5:7">
-      <c r="E544" s="46"/>
-      <c r="G544" s="45"/>
+      <c r="E463" s="44"/>
+      <c r="G463" s="44"/>
+    </row>
+    <row r="471" spans="5:5">
+      <c r="E471" s="44"/>
+    </row>
+    <row r="478" spans="5:5">
+      <c r="E478" s="44"/>
+    </row>
+    <row r="494" spans="5:5">
+      <c r="E494" s="45"/>
+    </row>
+    <row r="495" spans="5:5">
+      <c r="E495" s="45"/>
+    </row>
+    <row r="498" spans="5:5">
+      <c r="E498" s="45"/>
+    </row>
+    <row r="499" spans="5:5">
+      <c r="E499" s="44"/>
+    </row>
+    <row r="512" spans="5:5">
+      <c r="E512" s="44"/>
+    </row>
+    <row r="524" spans="5:5">
+      <c r="E524" s="44"/>
+    </row>
+    <row r="528" spans="5:5">
+      <c r="E528" s="44"/>
+    </row>
+    <row r="529" spans="5:5">
+      <c r="E529" s="44"/>
+    </row>
+    <row r="530" spans="5:5">
+      <c r="E530" s="44"/>
+    </row>
+    <row r="531" spans="5:5">
+      <c r="E531" s="44"/>
+    </row>
+    <row r="532" spans="5:5">
+      <c r="E532" s="44"/>
+    </row>
+    <row r="533" spans="5:5">
+      <c r="E533" s="44"/>
+    </row>
+    <row r="534" spans="5:5">
+      <c r="E534" s="44"/>
+    </row>
+    <row r="535" spans="5:5">
+      <c r="E535" s="44"/>
+    </row>
+    <row r="536" spans="5:5">
+      <c r="E536" s="44"/>
+    </row>
+    <row r="537" spans="5:5">
+      <c r="E537" s="44"/>
+    </row>
+    <row r="538" spans="5:5">
+      <c r="E538" s="44"/>
+    </row>
+    <row r="539" spans="5:5">
+      <c r="E539" s="44"/>
+    </row>
+    <row r="540" spans="5:5">
+      <c r="E540" s="44"/>
+    </row>
+    <row r="541" spans="5:5">
+      <c r="E541" s="44"/>
+    </row>
+    <row r="542" spans="5:5">
+      <c r="E542" s="44"/>
+    </row>
+    <row r="543" spans="5:5">
+      <c r="E543" s="44"/>
+    </row>
+    <row r="544" spans="5:5">
+      <c r="E544" s="44"/>
     </row>
     <row r="545" spans="5:7">
-      <c r="E545" s="46"/>
-      <c r="G545" s="45"/>
+      <c r="E545" s="44"/>
     </row>
     <row r="546" spans="5:7">
-      <c r="E546" s="46"/>
-      <c r="G546" s="45"/>
+      <c r="E546" s="44"/>
     </row>
     <row r="547" spans="5:7">
-      <c r="E547" s="46"/>
-      <c r="G547" s="45"/>
+      <c r="E547" s="44"/>
     </row>
     <row r="548" spans="5:7">
-      <c r="E548" s="46"/>
-      <c r="G548" s="45"/>
+      <c r="E548" s="44"/>
     </row>
     <row r="549" spans="5:7">
-      <c r="E549" s="46"/>
-      <c r="G549" s="45"/>
+      <c r="E549" s="44"/>
     </row>
     <row r="550" spans="5:7">
-      <c r="E550" s="46"/>
-      <c r="G550" s="45"/>
+      <c r="E550" s="44"/>
     </row>
     <row r="551" spans="5:7">
-      <c r="E551" s="46"/>
-      <c r="G551" s="45"/>
-    </row>
-    <row r="552" spans="5:7">
-      <c r="E552" s="45"/>
-      <c r="G552" s="45"/>
+      <c r="E551" s="44"/>
     </row>
     <row r="553" spans="5:7">
-      <c r="E553" s="45"/>
-      <c r="G553" s="46"/>
+      <c r="G553" s="44"/>
     </row>
     <row r="554" spans="5:7">
-      <c r="E554" s="45"/>
-      <c r="G554" s="46"/>
+      <c r="G554" s="44"/>
     </row>
     <row r="555" spans="5:7">
-      <c r="E555" s="45"/>
-      <c r="G555" s="46"/>
+      <c r="G555" s="44"/>
     </row>
     <row r="556" spans="5:7">
-      <c r="E556" s="45"/>
-      <c r="G556" s="46"/>
+      <c r="G556" s="44"/>
     </row>
     <row r="557" spans="5:7">
-      <c r="E557" s="45"/>
-      <c r="G557" s="46"/>
+      <c r="G557" s="44"/>
     </row>
     <row r="558" spans="5:7">
-      <c r="E558" s="45"/>
-      <c r="G558" s="46"/>
+      <c r="G558" s="44"/>
     </row>
     <row r="559" spans="5:7">
-      <c r="E559" s="45"/>
-      <c r="G559" s="46"/>
+      <c r="G559" s="44"/>
     </row>
     <row r="560" spans="5:7">
-      <c r="E560" s="45"/>
-      <c r="G560" s="46"/>
+      <c r="G560" s="44"/>
     </row>
     <row r="561" spans="5:7">
-      <c r="E561" s="45"/>
-      <c r="G561" s="46"/>
+      <c r="G561" s="44"/>
     </row>
     <row r="562" spans="5:7">
-      <c r="E562" s="45"/>
-      <c r="G562" s="46"/>
+      <c r="G562" s="44"/>
     </row>
     <row r="563" spans="5:7">
-      <c r="E563" s="45"/>
-      <c r="G563" s="46"/>
+      <c r="G563" s="44"/>
     </row>
     <row r="564" spans="5:7">
-      <c r="E564" s="45"/>
-      <c r="G564" s="46"/>
+      <c r="G564" s="44"/>
     </row>
     <row r="565" spans="5:7">
-      <c r="E565" s="45"/>
-      <c r="G565" s="46"/>
+      <c r="G565" s="44"/>
     </row>
     <row r="566" spans="5:7">
-      <c r="E566" s="46"/>
-      <c r="G566" s="46"/>
-    </row>
-    <row r="567" spans="5:7">
-      <c r="E567" s="45"/>
-      <c r="G567" s="45"/>
+      <c r="E566" s="44"/>
+      <c r="G566" s="44"/>
     </row>
     <row r="568" spans="5:7">
-      <c r="E568" s="46"/>
-      <c r="G568" s="45"/>
+      <c r="E568" s="44"/>
     </row>
     <row r="569" spans="5:7">
-      <c r="E569" s="46"/>
-      <c r="G569" s="45"/>
+      <c r="E569" s="44"/>
     </row>
     <row r="570" spans="5:7">
-      <c r="E570" s="46"/>
-      <c r="G570" s="45"/>
+      <c r="E570" s="44"/>
     </row>
     <row r="571" spans="5:7">
-      <c r="E571" s="46"/>
-      <c r="G571" s="45"/>
+      <c r="E571" s="44"/>
     </row>
     <row r="572" spans="5:7">
-      <c r="E572" s="46"/>
-      <c r="G572" s="45"/>
+      <c r="E572" s="44"/>
     </row>
     <row r="573" spans="5:7">
-      <c r="E573" s="46"/>
-      <c r="G573" s="45"/>
+      <c r="E573" s="44"/>
     </row>
     <row r="574" spans="5:7">
-      <c r="E574" s="46"/>
-      <c r="G574" s="45"/>
+      <c r="E574" s="44"/>
     </row>
     <row r="575" spans="5:7">
-      <c r="E575" s="46"/>
-      <c r="G575" s="45"/>
+      <c r="E575" s="44"/>
     </row>
     <row r="576" spans="5:7">
-      <c r="E576" s="46"/>
-      <c r="G576" s="45"/>
-    </row>
-    <row r="577" spans="5:7">
-      <c r="E577" s="46"/>
-      <c r="G577" s="45"/>
-    </row>
-    <row r="578" spans="5:7">
-      <c r="E578" s="46"/>
-      <c r="G578" s="45"/>
-    </row>
-    <row r="579" spans="5:7">
-      <c r="E579" s="46"/>
-      <c r="G579" s="45"/>
-    </row>
-    <row r="580" spans="5:7">
-      <c r="E580" s="46"/>
-      <c r="G580" s="45"/>
-    </row>
-    <row r="581" spans="5:7">
-      <c r="E581" s="46"/>
-      <c r="G581" s="45"/>
-    </row>
-    <row r="582" spans="5:7">
-      <c r="E582" s="46"/>
-      <c r="G582" s="45"/>
-    </row>
-    <row r="583" spans="5:7">
-      <c r="E583" s="46"/>
-      <c r="G583" s="45"/>
-    </row>
-    <row r="584" spans="5:7">
-      <c r="E584" s="46"/>
-      <c r="G584" s="45"/>
-    </row>
-    <row r="585" spans="5:7">
-      <c r="E585" s="46"/>
-      <c r="G585" s="45"/>
-    </row>
-    <row r="586" spans="5:7">
-      <c r="E586" s="46"/>
-      <c r="G586" s="45"/>
-    </row>
-    <row r="587" spans="5:7">
-      <c r="E587" s="46"/>
-      <c r="G587" s="45"/>
-    </row>
-    <row r="588" spans="5:7">
-      <c r="E588" s="46"/>
-      <c r="G588" s="45"/>
-    </row>
-    <row r="589" spans="5:7">
-      <c r="E589" s="46"/>
-      <c r="G589" s="45"/>
-    </row>
-    <row r="590" spans="5:7">
-      <c r="E590" s="46"/>
-      <c r="G590" s="45"/>
-    </row>
-    <row r="591" spans="5:7">
-      <c r="E591" s="46"/>
-      <c r="G591" s="45"/>
-    </row>
-    <row r="592" spans="5:7">
-      <c r="E592" s="46"/>
-      <c r="G592" s="45"/>
-    </row>
-    <row r="593" spans="5:7">
-      <c r="E593" s="46"/>
-      <c r="G593" s="45"/>
-    </row>
-    <row r="594" spans="5:7">
-      <c r="E594" s="46"/>
-      <c r="G594" s="45"/>
-    </row>
-    <row r="595" spans="5:7">
-      <c r="E595" s="46"/>
-      <c r="G595" s="45"/>
-    </row>
-    <row r="596" spans="5:7">
-      <c r="E596" s="46"/>
-      <c r="G596" s="45"/>
-    </row>
-    <row r="597" spans="5:7">
-      <c r="E597" s="46"/>
-      <c r="G597" s="45"/>
-    </row>
-    <row r="598" spans="5:7">
-      <c r="E598" s="46"/>
-      <c r="G598" s="45"/>
-    </row>
-    <row r="599" spans="5:7">
-      <c r="E599" s="46"/>
-      <c r="G599" s="45"/>
-    </row>
-    <row r="600" spans="5:7">
-      <c r="E600" s="46"/>
-      <c r="G600" s="45"/>
-    </row>
-    <row r="601" spans="5:7">
-      <c r="E601" s="46"/>
-      <c r="G601" s="45"/>
-    </row>
-    <row r="602" spans="5:7">
-      <c r="E602" s="46"/>
-      <c r="G602" s="45"/>
-    </row>
-    <row r="603" spans="5:7">
-      <c r="E603" s="46"/>
-      <c r="G603" s="45"/>
-    </row>
-    <row r="604" spans="5:7">
-      <c r="E604" s="46"/>
-      <c r="G604" s="45"/>
-    </row>
-    <row r="605" spans="5:7">
-      <c r="E605" s="46"/>
-      <c r="G605" s="45"/>
-    </row>
-    <row r="606" spans="5:7">
-      <c r="E606" s="46"/>
-      <c r="G606" s="45"/>
-    </row>
-    <row r="607" spans="5:7">
-      <c r="E607" s="46"/>
-      <c r="G607" s="45"/>
-    </row>
-    <row r="608" spans="5:7">
-      <c r="E608" s="46"/>
-      <c r="G608" s="45"/>
+      <c r="E576" s="44"/>
+    </row>
+    <row r="577" spans="5:5">
+      <c r="E577" s="44"/>
+    </row>
+    <row r="578" spans="5:5">
+      <c r="E578" s="44"/>
+    </row>
+    <row r="579" spans="5:5">
+      <c r="E579" s="44"/>
+    </row>
+    <row r="580" spans="5:5">
+      <c r="E580" s="44"/>
+    </row>
+    <row r="581" spans="5:5">
+      <c r="E581" s="44"/>
+    </row>
+    <row r="582" spans="5:5">
+      <c r="E582" s="44"/>
+    </row>
+    <row r="583" spans="5:5">
+      <c r="E583" s="44"/>
+    </row>
+    <row r="584" spans="5:5">
+      <c r="E584" s="44"/>
+    </row>
+    <row r="585" spans="5:5">
+      <c r="E585" s="44"/>
+    </row>
+    <row r="586" spans="5:5">
+      <c r="E586" s="44"/>
+    </row>
+    <row r="587" spans="5:5">
+      <c r="E587" s="44"/>
+    </row>
+    <row r="588" spans="5:5">
+      <c r="E588" s="44"/>
+    </row>
+    <row r="589" spans="5:5">
+      <c r="E589" s="44"/>
+    </row>
+    <row r="590" spans="5:5">
+      <c r="E590" s="44"/>
+    </row>
+    <row r="591" spans="5:5">
+      <c r="E591" s="44"/>
+    </row>
+    <row r="592" spans="5:5">
+      <c r="E592" s="44"/>
+    </row>
+    <row r="593" spans="5:5">
+      <c r="E593" s="44"/>
+    </row>
+    <row r="594" spans="5:5">
+      <c r="E594" s="44"/>
+    </row>
+    <row r="595" spans="5:5">
+      <c r="E595" s="44"/>
+    </row>
+    <row r="596" spans="5:5">
+      <c r="E596" s="44"/>
+    </row>
+    <row r="597" spans="5:5">
+      <c r="E597" s="44"/>
+    </row>
+    <row r="598" spans="5:5">
+      <c r="E598" s="44"/>
+    </row>
+    <row r="599" spans="5:5">
+      <c r="E599" s="44"/>
+    </row>
+    <row r="600" spans="5:5">
+      <c r="E600" s="44"/>
+    </row>
+    <row r="601" spans="5:5">
+      <c r="E601" s="44"/>
+    </row>
+    <row r="602" spans="5:5">
+      <c r="E602" s="44"/>
+    </row>
+    <row r="603" spans="5:5">
+      <c r="E603" s="44"/>
+    </row>
+    <row r="604" spans="5:5">
+      <c r="E604" s="44"/>
+    </row>
+    <row r="605" spans="5:5">
+      <c r="E605" s="44"/>
+    </row>
+    <row r="606" spans="5:5">
+      <c r="E606" s="44"/>
+    </row>
+    <row r="607" spans="5:5">
+      <c r="E607" s="44"/>
+    </row>
+    <row r="608" spans="5:5">
+      <c r="E608" s="44"/>
     </row>
     <row r="609" spans="5:7">
-      <c r="E609" s="46"/>
-      <c r="G609" s="45"/>
+      <c r="E609" s="44"/>
     </row>
     <row r="610" spans="5:7">
-      <c r="E610" s="46"/>
-      <c r="G610" s="45"/>
+      <c r="E610" s="44"/>
     </row>
     <row r="611" spans="5:7">
-      <c r="E611" s="46"/>
-      <c r="G611" s="45"/>
+      <c r="E611" s="44"/>
     </row>
     <row r="612" spans="5:7">
-      <c r="E612" s="46"/>
-      <c r="G612" s="45"/>
+      <c r="E612" s="44"/>
     </row>
     <row r="613" spans="5:7">
-      <c r="E613" s="46"/>
-      <c r="G613" s="45"/>
+      <c r="E613" s="44"/>
     </row>
     <row r="614" spans="5:7">
-      <c r="E614" s="46"/>
-      <c r="G614" s="45"/>
+      <c r="E614" s="44"/>
     </row>
     <row r="615" spans="5:7">
-      <c r="E615" s="46"/>
-      <c r="G615" s="45"/>
-    </row>
-    <row r="616" spans="5:7">
-      <c r="E616" s="45"/>
-      <c r="G616" s="45"/>
+      <c r="E615" s="44"/>
     </row>
     <row r="617" spans="5:7">
-      <c r="E617" s="46"/>
-      <c r="G617" s="46"/>
+      <c r="E617" s="44"/>
+      <c r="G617" s="44"/>
     </row>
     <row r="618" spans="5:7">
-      <c r="E618" s="46"/>
-      <c r="G618" s="46"/>
+      <c r="E618" s="44"/>
+      <c r="G618" s="44"/>
     </row>
     <row r="619" spans="5:7">
-      <c r="E619" s="46"/>
-      <c r="G619" s="46"/>
+      <c r="E619" s="44"/>
+      <c r="G619" s="44"/>
     </row>
     <row r="620" spans="5:7">
-      <c r="E620" s="46"/>
-      <c r="G620" s="46"/>
+      <c r="E620" s="44"/>
+      <c r="G620" s="44"/>
     </row>
     <row r="621" spans="5:7">
-      <c r="E621" s="46"/>
-      <c r="G621" s="46"/>
+      <c r="E621" s="44"/>
+      <c r="G621" s="44"/>
     </row>
     <row r="622" spans="5:7">
-      <c r="E622" s="46"/>
-      <c r="G622" s="46"/>
+      <c r="E622" s="44"/>
+      <c r="G622" s="44"/>
     </row>
     <row r="623" spans="5:7">
-      <c r="E623" s="46"/>
-      <c r="G623" s="46"/>
+      <c r="E623" s="44"/>
+      <c r="G623" s="44"/>
     </row>
     <row r="624" spans="5:7">
-      <c r="E624" s="46"/>
-      <c r="G624" s="46"/>
+      <c r="E624" s="44"/>
+      <c r="G624" s="44"/>
     </row>
     <row r="625" spans="5:7">
-      <c r="E625" s="46"/>
-      <c r="G625" s="46"/>
+      <c r="E625" s="44"/>
+      <c r="G625" s="44"/>
     </row>
     <row r="626" spans="5:7">
-      <c r="E626" s="46"/>
-      <c r="G626" s="46"/>
+      <c r="E626" s="44"/>
+      <c r="G626" s="44"/>
     </row>
     <row r="627" spans="5:7">
-      <c r="E627" s="46"/>
-      <c r="G627" s="46"/>
+      <c r="E627" s="44"/>
+      <c r="G627" s="44"/>
     </row>
     <row r="628" spans="5:7">
-      <c r="E628" s="46"/>
-      <c r="G628" s="46"/>
+      <c r="E628" s="44"/>
+      <c r="G628" s="44"/>
     </row>
     <row r="629" spans="5:7">
-      <c r="E629" s="46"/>
-      <c r="G629" s="46"/>
+      <c r="E629" s="44"/>
+      <c r="G629" s="44"/>
     </row>
     <row r="630" spans="5:7">
-      <c r="E630" s="46"/>
-      <c r="G630" s="46"/>
+      <c r="E630" s="44"/>
+      <c r="G630" s="44"/>
     </row>
     <row r="631" spans="5:7">
-      <c r="E631" s="46"/>
-      <c r="G631" s="46"/>
+      <c r="E631" s="44"/>
+      <c r="G631" s="44"/>
     </row>
     <row r="632" spans="5:7">
-      <c r="E632" s="46"/>
-      <c r="G632" s="46"/>
+      <c r="E632" s="44"/>
+      <c r="G632" s="44"/>
     </row>
     <row r="633" spans="5:7">
-      <c r="E633" s="46"/>
-      <c r="G633" s="46"/>
+      <c r="E633" s="44"/>
+      <c r="G633" s="44"/>
     </row>
     <row r="634" spans="5:7">
-      <c r="E634" s="46"/>
-      <c r="G634" s="46"/>
+      <c r="E634" s="44"/>
+      <c r="G634" s="44"/>
     </row>
     <row r="635" spans="5:7">
-      <c r="E635" s="46"/>
-      <c r="G635" s="46"/>
+      <c r="E635" s="44"/>
+      <c r="G635" s="44"/>
     </row>
     <row r="636" spans="5:7">
-      <c r="E636" s="46"/>
-      <c r="G636" s="46"/>
+      <c r="E636" s="44"/>
+      <c r="G636" s="44"/>
     </row>
     <row r="637" spans="5:7">
-      <c r="E637" s="46"/>
-      <c r="G637" s="46"/>
+      <c r="E637" s="44"/>
+      <c r="G637" s="44"/>
     </row>
     <row r="638" spans="5:7">
-      <c r="E638" s="46"/>
-      <c r="G638" s="46"/>
+      <c r="E638" s="44"/>
+      <c r="G638" s="44"/>
     </row>
     <row r="639" spans="5:7">
-      <c r="E639" s="46"/>
-      <c r="G639" s="46"/>
+      <c r="E639" s="44"/>
+      <c r="G639" s="44"/>
     </row>
     <row r="640" spans="5:7">
-      <c r="E640" s="46"/>
-      <c r="G640" s="46"/>
+      <c r="E640" s="44"/>
+      <c r="G640" s="44"/>
     </row>
     <row r="641" spans="5:7">
-      <c r="E641" s="46"/>
-      <c r="G641" s="46"/>
+      <c r="E641" s="44"/>
+      <c r="G641" s="44"/>
     </row>
     <row r="642" spans="5:7">
-      <c r="E642" s="46"/>
-      <c r="G642" s="46"/>
+      <c r="E642" s="44"/>
+      <c r="G642" s="44"/>
     </row>
     <row r="643" spans="5:7">
-      <c r="E643" s="46"/>
-      <c r="G643" s="46"/>
+      <c r="E643" s="44"/>
+      <c r="G643" s="44"/>
     </row>
     <row r="644" spans="5:7">
-      <c r="E644" s="46"/>
-      <c r="G644" s="46"/>
+      <c r="E644" s="44"/>
+      <c r="G644" s="44"/>
     </row>
     <row r="645" spans="5:7">
-      <c r="E645" s="46"/>
-      <c r="G645" s="46"/>
+      <c r="E645" s="44"/>
+      <c r="G645" s="44"/>
     </row>
     <row r="646" spans="5:7">
-      <c r="E646" s="46"/>
-      <c r="G646" s="46"/>
+      <c r="E646" s="44"/>
+      <c r="G646" s="44"/>
     </row>
     <row r="647" spans="5:7">
-      <c r="E647" s="46"/>
-      <c r="G647" s="46"/>
+      <c r="E647" s="44"/>
+      <c r="G647" s="44"/>
     </row>
     <row r="648" spans="5:7">
-      <c r="E648" s="46"/>
-      <c r="G648" s="46"/>
+      <c r="E648" s="44"/>
+      <c r="G648" s="44"/>
     </row>
     <row r="649" spans="5:7">
-      <c r="E649" s="46"/>
-      <c r="G649" s="46"/>
+      <c r="E649" s="44"/>
+      <c r="G649" s="44"/>
     </row>
     <row r="650" spans="5:7">
-      <c r="E650" s="46"/>
-      <c r="G650" s="46"/>
+      <c r="E650" s="44"/>
+      <c r="G650" s="44"/>
     </row>
     <row r="651" spans="5:7">
-      <c r="E651" s="46"/>
-      <c r="G651" s="46"/>
+      <c r="E651" s="44"/>
+      <c r="G651" s="44"/>
     </row>
     <row r="652" spans="5:7">
-      <c r="E652" s="46"/>
-      <c r="G652" s="46"/>
+      <c r="E652" s="44"/>
+      <c r="G652" s="44"/>
     </row>
     <row r="653" spans="5:7">
-      <c r="E653" s="46"/>
-      <c r="G653" s="46"/>
+      <c r="E653" s="44"/>
+      <c r="G653" s="44"/>
     </row>
     <row r="654" spans="5:7">
-      <c r="E654" s="46"/>
-      <c r="G654" s="46"/>
+      <c r="E654" s="44"/>
+      <c r="G654" s="44"/>
     </row>
     <row r="655" spans="5:7">
-      <c r="E655" s="46"/>
-      <c r="G655" s="46"/>
+      <c r="E655" s="44"/>
+      <c r="G655" s="44"/>
     </row>
     <row r="656" spans="5:7">
-      <c r="E656" s="46"/>
-      <c r="G656" s="46"/>
+      <c r="E656" s="44"/>
+      <c r="G656" s="44"/>
     </row>
     <row r="657" spans="5:7">
-      <c r="E657" s="46"/>
-      <c r="G657" s="46"/>
+      <c r="E657" s="44"/>
+      <c r="G657" s="44"/>
     </row>
     <row r="658" spans="5:7">
-      <c r="E658" s="46"/>
-      <c r="G658" s="46"/>
+      <c r="E658" s="44"/>
+      <c r="G658" s="44"/>
     </row>
     <row r="659" spans="5:7">
-      <c r="E659" s="46"/>
-      <c r="G659" s="46"/>
+      <c r="E659" s="44"/>
+      <c r="G659" s="44"/>
     </row>
     <row r="660" spans="5:7">
-      <c r="E660" s="46"/>
-      <c r="G660" s="46"/>
+      <c r="E660" s="44"/>
+      <c r="G660" s="44"/>
     </row>
     <row r="661" spans="5:7">
-      <c r="E661" s="46"/>
-      <c r="G661" s="46"/>
+      <c r="E661" s="44"/>
+      <c r="G661" s="44"/>
     </row>
     <row r="662" spans="5:7">
-      <c r="E662" s="46"/>
-      <c r="G662" s="46"/>
+      <c r="E662" s="44"/>
+      <c r="G662" s="44"/>
     </row>
     <row r="663" spans="5:7">
-      <c r="E663" s="46"/>
-      <c r="G663" s="46"/>
+      <c r="E663" s="44"/>
+      <c r="G663" s="44"/>
     </row>
     <row r="664" spans="5:7">
-      <c r="E664" s="46"/>
-      <c r="G664" s="46"/>
-    </row>
-    <row r="665" spans="5:7">
-      <c r="E665" s="45"/>
-      <c r="G665" s="45"/>
-    </row>
-    <row r="666" spans="5:7">
-      <c r="E666" s="45"/>
-      <c r="G666" s="45"/>
-    </row>
-    <row r="667" spans="5:7">
-      <c r="E667" s="45"/>
-      <c r="G667" s="45"/>
-    </row>
-    <row r="668" spans="5:7">
-      <c r="E668" s="45"/>
-      <c r="G668" s="45"/>
-    </row>
-    <row r="669" spans="5:7">
-      <c r="E669" s="45"/>
-      <c r="G669" s="45"/>
-    </row>
-    <row r="670" spans="5:7">
-      <c r="E670" s="45"/>
-      <c r="G670" s="45"/>
-    </row>
-    <row r="671" spans="5:7">
-      <c r="E671" s="45"/>
-      <c r="G671" s="45"/>
-    </row>
-    <row r="672" spans="5:7">
-      <c r="E672" s="45"/>
-      <c r="G672" s="45"/>
-    </row>
-    <row r="673" spans="5:7">
-      <c r="E673" s="45"/>
-      <c r="G673" s="45"/>
+      <c r="E664" s="44"/>
+      <c r="G664" s="44"/>
     </row>
     <row r="674" spans="5:7">
-      <c r="E674" s="46"/>
-      <c r="G674" s="45"/>
-    </row>
-    <row r="675" spans="5:7">
-      <c r="E675" s="45"/>
-      <c r="G675" s="45"/>
-    </row>
-    <row r="676" spans="5:7">
-      <c r="E676" s="45"/>
-      <c r="G676" s="45"/>
-    </row>
-    <row r="677" spans="5:7">
-      <c r="E677" s="45"/>
-      <c r="G677" s="45"/>
-    </row>
-    <row r="678" spans="5:7">
-      <c r="E678" s="45"/>
-      <c r="G678" s="45"/>
-    </row>
-    <row r="679" spans="5:7">
-      <c r="E679" s="45"/>
-      <c r="G679" s="45"/>
-    </row>
-    <row r="680" spans="5:7">
-      <c r="E680" s="45"/>
-      <c r="G680" s="45"/>
-    </row>
-    <row r="681" spans="5:7">
-      <c r="E681" s="45"/>
-      <c r="G681" s="45"/>
-    </row>
-    <row r="682" spans="5:7">
-      <c r="E682" s="45"/>
-      <c r="G682" s="45"/>
-    </row>
-    <row r="683" spans="5:7">
-      <c r="E683" s="45"/>
-      <c r="G683" s="45"/>
-    </row>
-    <row r="684" spans="5:7">
-      <c r="E684" s="45"/>
-      <c r="G684" s="45"/>
+      <c r="E674" s="44"/>
     </row>
     <row r="685" spans="5:7">
-      <c r="E685" s="45"/>
-      <c r="G685" s="46"/>
+      <c r="G685" s="44"/>
     </row>
     <row r="686" spans="5:7">
-      <c r="E686" s="45"/>
-      <c r="G686" s="46"/>
+      <c r="G686" s="44"/>
     </row>
     <row r="687" spans="5:7">
-      <c r="E687" s="45"/>
-      <c r="G687" s="46"/>
+      <c r="G687" s="44"/>
     </row>
     <row r="688" spans="5:7">
-      <c r="E688" s="45"/>
-      <c r="G688" s="46"/>
+      <c r="G688" s="44"/>
     </row>
     <row r="689" spans="5:7">
-      <c r="E689" s="45"/>
-      <c r="G689" s="46"/>
+      <c r="G689" s="44"/>
     </row>
     <row r="690" spans="5:7">
-      <c r="E690" s="45"/>
-      <c r="G690" s="46"/>
+      <c r="G690" s="44"/>
     </row>
     <row r="691" spans="5:7">
-      <c r="E691" s="45"/>
-      <c r="G691" s="46"/>
+      <c r="G691" s="44"/>
     </row>
     <row r="692" spans="5:7">
-      <c r="E692" s="45"/>
-      <c r="G692" s="46"/>
+      <c r="G692" s="44"/>
     </row>
     <row r="693" spans="5:7">
-      <c r="E693" s="45"/>
-      <c r="G693" s="46"/>
+      <c r="G693" s="44"/>
     </row>
     <row r="694" spans="5:7">
-      <c r="E694" s="45"/>
-      <c r="G694" s="46"/>
+      <c r="G694" s="44"/>
     </row>
     <row r="695" spans="5:7">
-      <c r="E695" s="45"/>
-      <c r="G695" s="46"/>
+      <c r="G695" s="44"/>
     </row>
     <row r="696" spans="5:7">
-      <c r="E696" s="45"/>
-      <c r="G696" s="46"/>
+      <c r="G696" s="44"/>
     </row>
     <row r="697" spans="5:7">
-      <c r="E697" s="45"/>
-      <c r="G697" s="46"/>
+      <c r="G697" s="44"/>
     </row>
     <row r="698" spans="5:7">
-      <c r="E698" s="45"/>
-      <c r="G698" s="46"/>
+      <c r="G698" s="44"/>
     </row>
     <row r="699" spans="5:7">
-      <c r="E699" s="45"/>
-      <c r="G699" s="46"/>
+      <c r="G699" s="44"/>
     </row>
     <row r="700" spans="5:7">
-      <c r="E700" s="45"/>
-      <c r="G700" s="46"/>
+      <c r="G700" s="44"/>
     </row>
     <row r="701" spans="5:7">
-      <c r="E701" s="45"/>
-      <c r="G701" s="46"/>
+      <c r="G701" s="44"/>
     </row>
     <row r="702" spans="5:7">
-      <c r="E702" s="45"/>
-      <c r="G702" s="46"/>
+      <c r="G702" s="44"/>
     </row>
     <row r="703" spans="5:7">
-      <c r="E703" s="45"/>
-      <c r="G703" s="46"/>
+      <c r="G703" s="44"/>
     </row>
     <row r="704" spans="5:7">
-      <c r="E704" s="46"/>
-      <c r="G704" s="46"/>
-    </row>
-    <row r="705" spans="5:7">
-      <c r="E705" s="45"/>
-      <c r="G705" s="45"/>
-    </row>
-    <row r="706" spans="5:7">
-      <c r="E706" s="45"/>
-      <c r="G706" s="45"/>
-    </row>
-    <row r="707" spans="5:7">
-      <c r="E707" s="45"/>
-      <c r="G707" s="45"/>
-    </row>
-    <row r="708" spans="5:7">
-      <c r="E708" s="45"/>
-      <c r="G708" s="45"/>
-    </row>
-    <row r="709" spans="5:7">
-      <c r="E709" s="45"/>
-      <c r="G709" s="45"/>
-    </row>
-    <row r="710" spans="5:7">
-      <c r="E710" s="45"/>
-      <c r="G710" s="45"/>
-    </row>
-    <row r="711" spans="5:7">
-      <c r="E711" s="45"/>
-      <c r="G711" s="45"/>
-    </row>
-    <row r="712" spans="5:7">
-      <c r="E712" s="45"/>
-      <c r="G712" s="45"/>
-    </row>
-    <row r="713" spans="5:7">
-      <c r="E713" s="45"/>
-      <c r="G713" s="45"/>
-    </row>
-    <row r="714" spans="5:7">
-      <c r="E714" s="46"/>
-      <c r="G714" s="45"/>
-    </row>
-    <row r="715" spans="5:7">
-      <c r="E715" s="45"/>
-      <c r="G715" s="45"/>
-    </row>
-    <row r="716" spans="5:7">
-      <c r="E716" s="45"/>
-      <c r="G716" s="45"/>
-    </row>
-    <row r="717" spans="5:7">
-      <c r="E717" s="45"/>
-      <c r="G717" s="45"/>
-    </row>
-    <row r="718" spans="5:7">
-      <c r="E718" s="45"/>
-      <c r="G718" s="45"/>
-    </row>
-    <row r="719" spans="5:7">
-      <c r="E719" s="45"/>
-      <c r="G719" s="45"/>
-    </row>
-    <row r="720" spans="5:7">
-      <c r="E720" s="45"/>
-      <c r="G720" s="45"/>
-    </row>
-    <row r="721" spans="5:7">
-      <c r="E721" s="45"/>
-      <c r="G721" s="45"/>
-    </row>
-    <row r="722" spans="5:7">
-      <c r="E722" s="45"/>
-      <c r="G722" s="45"/>
-    </row>
-    <row r="723" spans="5:7">
-      <c r="E723" s="45"/>
-      <c r="G723" s="45"/>
-    </row>
-    <row r="724" spans="5:7">
-      <c r="E724" s="45"/>
-      <c r="G724" s="45"/>
+      <c r="E704" s="44"/>
+      <c r="G704" s="44"/>
+    </row>
+    <row r="714" spans="5:5">
+      <c r="E714" s="44"/>
     </row>
     <row r="725" spans="5:7">
-      <c r="E725" s="46"/>
-      <c r="G725" s="46"/>
+      <c r="E725" s="44"/>
+      <c r="G725" s="44"/>
     </row>
     <row r="726" spans="5:7">
-      <c r="E726" s="46"/>
-      <c r="G726" s="46"/>
+      <c r="E726" s="44"/>
+      <c r="G726" s="44"/>
     </row>
     <row r="727" spans="5:7">
-      <c r="E727" s="46"/>
-      <c r="G727" s="46"/>
+      <c r="E727" s="44"/>
+      <c r="G727" s="44"/>
     </row>
     <row r="728" spans="5:7">
-      <c r="E728" s="46"/>
-      <c r="G728" s="46"/>
+      <c r="E728" s="44"/>
+      <c r="G728" s="44"/>
     </row>
     <row r="729" spans="5:7">
-      <c r="E729" s="46"/>
-      <c r="G729" s="46"/>
+      <c r="E729" s="44"/>
+      <c r="G729" s="44"/>
     </row>
     <row r="730" spans="5:7">
-      <c r="E730" s="46"/>
-      <c r="G730" s="46"/>
+      <c r="E730" s="44"/>
+      <c r="G730" s="44"/>
     </row>
     <row r="731" spans="5:7">
-      <c r="E731" s="46"/>
-      <c r="G731" s="46"/>
+      <c r="E731" s="44"/>
+      <c r="G731" s="44"/>
     </row>
     <row r="732" spans="5:7">
-      <c r="E732" s="46"/>
-      <c r="G732" s="46"/>
+      <c r="E732" s="44"/>
+      <c r="G732" s="44"/>
     </row>
     <row r="733" spans="5:7">
-      <c r="E733" s="46"/>
-      <c r="G733" s="46"/>
+      <c r="E733" s="44"/>
+      <c r="G733" s="44"/>
     </row>
     <row r="734" spans="5:7">
-      <c r="E734" s="46"/>
-      <c r="G734" s="46"/>
+      <c r="E734" s="44"/>
+      <c r="G734" s="44"/>
     </row>
     <row r="735" spans="5:7">
-      <c r="E735" s="46"/>
-      <c r="G735" s="46"/>
+      <c r="E735" s="44"/>
+      <c r="G735" s="44"/>
     </row>
     <row r="736" spans="5:7">
-      <c r="E736" s="46"/>
-      <c r="G736" s="46"/>
+      <c r="E736" s="44"/>
+      <c r="G736" s="44"/>
     </row>
     <row r="737" spans="5:7">
-      <c r="E737" s="46"/>
-      <c r="G737" s="46"/>
+      <c r="E737" s="44"/>
+      <c r="G737" s="44"/>
     </row>
     <row r="738" spans="5:7">
-      <c r="E738" s="46"/>
-      <c r="G738" s="46"/>
+      <c r="E738" s="44"/>
+      <c r="G738" s="44"/>
     </row>
     <row r="739" spans="5:7">
-      <c r="E739" s="46"/>
-      <c r="G739" s="46"/>
+      <c r="E739" s="44"/>
+      <c r="G739" s="44"/>
     </row>
     <row r="740" spans="5:7">
-      <c r="E740" s="46"/>
-      <c r="G740" s="46"/>
-    </row>
-    <row r="741" spans="5:7">
-      <c r="E741" s="45"/>
-      <c r="G741" s="45"/>
+      <c r="E740" s="44"/>
+      <c r="G740" s="44"/>
     </row>
     <row r="742" spans="5:7">
-      <c r="E742" s="46"/>
-      <c r="G742" s="46"/>
+      <c r="E742" s="44"/>
+      <c r="G742" s="44"/>
     </row>
     <row r="743" spans="5:7">
-      <c r="E743" s="46"/>
-      <c r="G743" s="46"/>
+      <c r="E743" s="44"/>
+      <c r="G743" s="44"/>
     </row>
     <row r="744" spans="5:7">
-      <c r="E744" s="46"/>
-      <c r="G744" s="46"/>
+      <c r="E744" s="44"/>
+      <c r="G744" s="44"/>
     </row>
     <row r="745" spans="5:7">
-      <c r="E745" s="46"/>
-      <c r="G745" s="46"/>
+      <c r="E745" s="44"/>
+      <c r="G745" s="44"/>
     </row>
     <row r="746" spans="5:7">
-      <c r="E746" s="46"/>
-      <c r="G746" s="46"/>
+      <c r="E746" s="44"/>
+      <c r="G746" s="44"/>
     </row>
     <row r="747" spans="5:7">
-      <c r="E747" s="46"/>
-      <c r="G747" s="46"/>
+      <c r="E747" s="44"/>
+      <c r="G747" s="44"/>
     </row>
     <row r="748" spans="5:7">
-      <c r="E748" s="46"/>
-      <c r="G748" s="46"/>
+      <c r="E748" s="44"/>
+      <c r="G748" s="44"/>
     </row>
     <row r="749" spans="5:7">
-      <c r="E749" s="46"/>
-      <c r="G749" s="46"/>
+      <c r="E749" s="44"/>
+      <c r="G749" s="44"/>
     </row>
     <row r="750" spans="5:7">
-      <c r="E750" s="46"/>
-      <c r="G750" s="46"/>
+      <c r="E750" s="44"/>
+      <c r="G750" s="44"/>
     </row>
     <row r="751" spans="5:7">
-      <c r="E751" s="46"/>
-      <c r="G751" s="46"/>
+      <c r="E751" s="44"/>
+      <c r="G751" s="44"/>
     </row>
     <row r="752" spans="5:7">
-      <c r="E752" s="46"/>
-      <c r="G752" s="46"/>
+      <c r="E752" s="44"/>
+      <c r="G752" s="44"/>
     </row>
     <row r="753" spans="5:7">
-      <c r="E753" s="46"/>
-      <c r="G753" s="46"/>
+      <c r="E753" s="44"/>
+      <c r="G753" s="44"/>
     </row>
     <row r="754" spans="5:7">
-      <c r="E754" s="46"/>
-      <c r="G754" s="46"/>
+      <c r="E754" s="44"/>
+      <c r="G754" s="44"/>
     </row>
     <row r="755" spans="5:7">
-      <c r="E755" s="46"/>
-      <c r="G755" s="46"/>
-    </row>
-    <row r="756" spans="5:7">
-      <c r="E756" s="45"/>
-      <c r="G756" s="45"/>
-    </row>
-    <row r="757" spans="5:7">
-      <c r="E757" s="45"/>
-      <c r="G757" s="45"/>
+      <c r="E755" s="44"/>
+      <c r="G755" s="44"/>
     </row>
     <row r="758" spans="5:7">
-      <c r="E758" s="46"/>
-      <c r="G758" s="45"/>
-    </row>
-    <row r="759" spans="5:7">
-      <c r="E759" s="45"/>
-      <c r="G759" s="45"/>
-    </row>
-    <row r="760" spans="5:7">
-      <c r="E760" s="45"/>
-      <c r="G760" s="45"/>
-    </row>
-    <row r="761" spans="5:7">
-      <c r="E761" s="45"/>
-      <c r="G761" s="45"/>
+      <c r="E758" s="44"/>
     </row>
     <row r="762" spans="5:7">
-      <c r="E762" s="46"/>
-      <c r="G762" s="45"/>
+      <c r="E762" s="44"/>
     </row>
     <row r="763" spans="5:7">
-      <c r="E763" s="46"/>
-      <c r="G763" s="45"/>
+      <c r="E763" s="44"/>
     </row>
     <row r="764" spans="5:7">
-      <c r="E764" s="46"/>
-      <c r="G764" s="45"/>
+      <c r="E764" s="44"/>
     </row>
     <row r="765" spans="5:7">
-      <c r="E765" s="46"/>
-      <c r="G765" s="45"/>
-    </row>
-    <row r="766" spans="5:7">
-      <c r="E766" s="45"/>
-      <c r="G766" s="45"/>
-    </row>
-    <row r="767" spans="5:7">
-      <c r="E767" s="45"/>
-      <c r="G767" s="45"/>
+      <c r="E765" s="44"/>
     </row>
     <row r="768" spans="5:7">
-      <c r="E768" s="46"/>
-      <c r="G768" s="45"/>
-    </row>
-    <row r="769" spans="5:7">
-      <c r="E769" s="46"/>
-      <c r="G769" s="45"/>
-    </row>
-    <row r="770" spans="5:7">
-      <c r="E770" s="46"/>
-      <c r="G770" s="45"/>
-    </row>
-    <row r="771" spans="5:7">
-      <c r="E771" s="46"/>
-      <c r="G771" s="45"/>
-    </row>
-    <row r="772" spans="5:7">
-      <c r="E772" s="45"/>
-      <c r="G772" s="45"/>
-    </row>
-    <row r="773" spans="5:7">
-      <c r="E773" s="45"/>
-      <c r="G773" s="45"/>
-    </row>
-    <row r="774" spans="5:7">
-      <c r="E774" s="46"/>
-      <c r="G774" s="45"/>
-    </row>
-    <row r="775" spans="5:7">
-      <c r="E775" s="46"/>
-      <c r="G775" s="45"/>
-    </row>
-    <row r="776" spans="5:7">
-      <c r="E776" s="46"/>
-      <c r="G776" s="45"/>
-    </row>
-    <row r="777" spans="5:7">
-      <c r="E777" s="46"/>
-      <c r="G777" s="45"/>
-    </row>
-    <row r="778" spans="5:7">
-      <c r="E778" s="46"/>
-      <c r="G778" s="45"/>
-    </row>
-    <row r="779" spans="5:7">
-      <c r="E779" s="46"/>
-      <c r="G779" s="45"/>
-    </row>
-    <row r="780" spans="5:7">
-      <c r="E780" s="46"/>
-      <c r="G780" s="45"/>
-    </row>
-    <row r="781" spans="5:7">
-      <c r="E781" s="46"/>
-      <c r="G781" s="45"/>
-    </row>
-    <row r="782" spans="5:7">
-      <c r="E782" s="46"/>
-      <c r="G782" s="45"/>
-    </row>
-    <row r="783" spans="5:7">
-      <c r="E783" s="46"/>
-      <c r="G783" s="45"/>
-    </row>
-    <row r="784" spans="5:7">
-      <c r="E784" s="46"/>
-      <c r="G784" s="45"/>
-    </row>
-    <row r="785" spans="5:7">
-      <c r="E785" s="46"/>
-      <c r="G785" s="45"/>
-    </row>
-    <row r="786" spans="5:7">
-      <c r="E786" s="46"/>
-      <c r="G786" s="45"/>
-    </row>
-    <row r="787" spans="5:7">
-      <c r="E787" s="46"/>
-      <c r="G787" s="45"/>
-    </row>
-    <row r="788" spans="5:7">
-      <c r="E788" s="45"/>
-      <c r="G788" s="45"/>
-    </row>
-    <row r="789" spans="5:7">
-      <c r="E789" s="46"/>
-      <c r="G789" s="45"/>
-    </row>
-    <row r="790" spans="5:7">
-      <c r="E790" s="46"/>
-      <c r="G790" s="45"/>
-    </row>
-    <row r="791" spans="5:7">
-      <c r="E791" s="46"/>
-      <c r="G791" s="45"/>
-    </row>
-    <row r="792" spans="5:7">
-      <c r="E792" s="46"/>
-      <c r="G792" s="45"/>
-    </row>
-    <row r="793" spans="5:7">
-      <c r="E793" s="46"/>
-      <c r="G793" s="45"/>
-    </row>
-    <row r="794" spans="5:7">
-      <c r="E794" s="46"/>
-      <c r="G794" s="45"/>
-    </row>
-    <row r="795" spans="5:7">
-      <c r="E795" s="46"/>
-      <c r="G795" s="45"/>
-    </row>
-    <row r="796" spans="5:7">
-      <c r="E796" s="46"/>
-      <c r="G796" s="45"/>
-    </row>
-    <row r="797" spans="5:7">
-      <c r="E797" s="46"/>
-      <c r="G797" s="45"/>
-    </row>
-    <row r="798" spans="5:7">
-      <c r="E798" s="46"/>
-      <c r="G798" s="45"/>
-    </row>
-    <row r="799" spans="5:7">
-      <c r="E799" s="46"/>
-      <c r="G799" s="45"/>
-    </row>
-    <row r="800" spans="5:7">
-      <c r="E800" s="46"/>
-      <c r="G800" s="45"/>
-    </row>
-    <row r="801" spans="5:7">
-      <c r="E801" s="46"/>
-      <c r="G801" s="45"/>
-    </row>
-    <row r="802" spans="5:7">
-      <c r="E802" s="46"/>
-      <c r="G802" s="45"/>
-    </row>
-    <row r="803" spans="5:7">
-      <c r="E803" s="45"/>
-      <c r="G803" s="45"/>
-    </row>
-    <row r="804" spans="5:7">
-      <c r="E804" s="46"/>
-      <c r="G804" s="45"/>
-    </row>
-    <row r="805" spans="5:7">
-      <c r="E805" s="46"/>
-      <c r="G805" s="45"/>
-    </row>
-    <row r="806" spans="5:7">
-      <c r="E806" s="46"/>
-      <c r="G806" s="45"/>
-    </row>
-    <row r="807" spans="5:7">
-      <c r="E807" s="46"/>
-      <c r="G807" s="45"/>
-    </row>
-    <row r="808" spans="5:7">
-      <c r="E808" s="46"/>
-      <c r="G808" s="45"/>
-    </row>
-    <row r="809" spans="5:7">
-      <c r="E809" s="46"/>
-      <c r="G809" s="45"/>
-    </row>
-    <row r="810" spans="5:7">
-      <c r="E810" s="46"/>
-      <c r="G810" s="45"/>
-    </row>
-    <row r="811" spans="5:7">
-      <c r="E811" s="46"/>
-      <c r="G811" s="45"/>
-    </row>
-    <row r="812" spans="5:7">
-      <c r="E812" s="46"/>
-      <c r="G812" s="45"/>
-    </row>
-    <row r="813" spans="5:7">
-      <c r="E813" s="46"/>
-      <c r="G813" s="45"/>
-    </row>
-    <row r="814" spans="5:7">
-      <c r="E814" s="46"/>
-      <c r="G814" s="45"/>
-    </row>
-    <row r="815" spans="5:7">
-      <c r="E815" s="46"/>
-      <c r="G815" s="45"/>
-    </row>
-    <row r="816" spans="5:7">
-      <c r="E816" s="46"/>
-      <c r="G816" s="45"/>
-    </row>
-    <row r="817" spans="5:7">
-      <c r="E817" s="46"/>
-      <c r="G817" s="45"/>
-    </row>
-    <row r="818" spans="5:7">
-      <c r="E818" s="45"/>
-      <c r="G818" s="45"/>
-    </row>
-    <row r="819" spans="5:7">
-      <c r="E819" s="46"/>
-      <c r="G819" s="45"/>
-    </row>
-    <row r="820" spans="5:7">
-      <c r="E820" s="46"/>
-      <c r="G820" s="45"/>
-    </row>
-    <row r="821" spans="5:7">
-      <c r="E821" s="46"/>
-      <c r="G821" s="45"/>
-    </row>
-    <row r="822" spans="5:7">
-      <c r="E822" s="46"/>
-      <c r="G822" s="45"/>
-    </row>
-    <row r="823" spans="5:7">
-      <c r="E823" s="46"/>
-      <c r="G823" s="45"/>
-    </row>
-    <row r="824" spans="5:7">
-      <c r="E824" s="46"/>
-      <c r="G824" s="45"/>
-    </row>
-    <row r="825" spans="5:7">
-      <c r="E825" s="46"/>
-      <c r="G825" s="45"/>
-    </row>
-    <row r="826" spans="5:7">
-      <c r="E826" s="46"/>
-      <c r="G826" s="45"/>
-    </row>
-    <row r="827" spans="5:7">
-      <c r="E827" s="46"/>
-      <c r="G827" s="45"/>
-    </row>
-    <row r="828" spans="5:7">
-      <c r="E828" s="46"/>
-      <c r="G828" s="45"/>
-    </row>
-    <row r="829" spans="5:7">
-      <c r="E829" s="46"/>
-      <c r="G829" s="45"/>
-    </row>
-    <row r="830" spans="5:7">
-      <c r="E830" s="46"/>
-      <c r="G830" s="45"/>
-    </row>
-    <row r="831" spans="5:7">
-      <c r="E831" s="46"/>
-      <c r="G831" s="45"/>
-    </row>
-    <row r="832" spans="5:7">
-      <c r="E832" s="46"/>
-      <c r="G832" s="45"/>
-    </row>
-    <row r="833" spans="5:7">
-      <c r="E833" s="46"/>
-      <c r="G833" s="45"/>
-    </row>
-    <row r="834" spans="5:7">
-      <c r="E834" s="46"/>
-      <c r="G834" s="45"/>
-    </row>
-    <row r="835" spans="5:7">
-      <c r="E835" s="46"/>
-      <c r="G835" s="45"/>
-    </row>
-    <row r="836" spans="5:7">
-      <c r="E836" s="46"/>
-      <c r="G836" s="45"/>
-    </row>
-    <row r="837" spans="5:7">
-      <c r="E837" s="46"/>
-      <c r="G837" s="45"/>
-    </row>
-    <row r="838" spans="5:7">
-      <c r="E838" s="46"/>
-      <c r="G838" s="45"/>
-    </row>
-    <row r="839" spans="5:7">
-      <c r="E839" s="46"/>
-      <c r="G839" s="45"/>
-    </row>
-    <row r="840" spans="5:7">
-      <c r="E840" s="46"/>
-      <c r="G840" s="45"/>
-    </row>
-    <row r="841" spans="5:7">
-      <c r="E841" s="46"/>
-      <c r="G841" s="45"/>
-    </row>
-    <row r="842" spans="5:7">
-      <c r="E842" s="46"/>
-      <c r="G842" s="45"/>
-    </row>
-    <row r="843" spans="5:7">
-      <c r="E843" s="46"/>
-      <c r="G843" s="45"/>
-    </row>
-    <row r="844" spans="5:7">
-      <c r="E844" s="46"/>
-      <c r="G844" s="45"/>
-    </row>
-    <row r="845" spans="5:7">
-      <c r="E845" s="46"/>
-      <c r="G845" s="45"/>
-    </row>
-    <row r="846" spans="5:7">
-      <c r="E846" s="46"/>
-      <c r="G846" s="45"/>
-    </row>
-    <row r="847" spans="5:7">
-      <c r="E847" s="45"/>
-      <c r="G847" s="45"/>
-    </row>
-    <row r="848" spans="5:7">
-      <c r="E848" s="46"/>
-      <c r="G848" s="45"/>
-    </row>
-    <row r="849" spans="5:7">
-      <c r="E849" s="45"/>
-      <c r="G849" s="45"/>
-    </row>
-    <row r="850" spans="5:7">
-      <c r="E850" s="45"/>
-      <c r="G850" s="45"/>
-    </row>
-    <row r="851" spans="5:7">
-      <c r="E851" s="45"/>
-      <c r="G851" s="45"/>
-    </row>
-    <row r="852" spans="5:7">
-      <c r="E852" s="45"/>
-      <c r="G852" s="45"/>
-    </row>
-    <row r="853" spans="5:7">
-      <c r="E853" s="45"/>
-      <c r="G853" s="45"/>
-    </row>
-    <row r="854" spans="5:7">
-      <c r="E854" s="45"/>
-      <c r="G854" s="45"/>
-    </row>
-    <row r="855" spans="5:7">
-      <c r="E855" s="45"/>
-      <c r="G855" s="45"/>
-    </row>
-    <row r="856" spans="5:7">
-      <c r="E856" s="45"/>
-      <c r="G856" s="45"/>
-    </row>
-    <row r="857" spans="5:7">
-      <c r="E857" s="45"/>
-      <c r="G857" s="45"/>
-    </row>
-    <row r="858" spans="5:7">
-      <c r="E858" s="45"/>
-      <c r="G858" s="45"/>
-    </row>
-    <row r="859" spans="5:7">
-      <c r="E859" s="45"/>
-      <c r="G859" s="45"/>
-    </row>
-    <row r="860" spans="5:7">
-      <c r="E860" s="45"/>
-      <c r="G860" s="45"/>
-    </row>
-    <row r="861" spans="5:7">
-      <c r="E861" s="46"/>
-      <c r="G861" s="45"/>
-    </row>
-    <row r="862" spans="5:7">
-      <c r="E862" s="45"/>
-      <c r="G862" s="45"/>
-    </row>
-    <row r="863" spans="5:7">
-      <c r="E863" s="45"/>
-      <c r="G863" s="45"/>
-    </row>
-    <row r="864" spans="5:7">
-      <c r="E864" s="45"/>
-      <c r="G864" s="45"/>
-    </row>
-    <row r="865" spans="5:7">
-      <c r="E865" s="45"/>
-      <c r="G865" s="45"/>
-    </row>
-    <row r="866" spans="5:7">
-      <c r="E866" s="45"/>
-      <c r="G866" s="45"/>
-    </row>
-    <row r="867" spans="5:7">
-      <c r="E867" s="45"/>
-      <c r="G867" s="45"/>
-    </row>
-    <row r="868" spans="5:7">
-      <c r="E868" s="45"/>
-      <c r="G868" s="45"/>
-    </row>
-    <row r="869" spans="5:7">
-      <c r="E869" s="45"/>
-      <c r="G869" s="45"/>
-    </row>
-    <row r="870" spans="5:7">
-      <c r="E870" s="45"/>
-      <c r="G870" s="45"/>
-    </row>
-    <row r="871" spans="5:7">
-      <c r="E871" s="45"/>
-      <c r="G871" s="45"/>
-    </row>
-    <row r="872" spans="5:7">
-      <c r="E872" s="45"/>
-      <c r="G872" s="45"/>
-    </row>
-    <row r="873" spans="5:7">
-      <c r="E873" s="45"/>
-      <c r="G873" s="45"/>
-    </row>
-    <row r="874" spans="5:7">
-      <c r="E874" s="45"/>
-      <c r="G874" s="45"/>
-    </row>
-    <row r="875" spans="5:7">
-      <c r="E875" s="46"/>
-      <c r="G875" s="45"/>
-    </row>
-    <row r="876" spans="5:7">
-      <c r="E876" s="45"/>
-      <c r="G876" s="45"/>
-    </row>
-    <row r="877" spans="5:7">
-      <c r="E877" s="46"/>
-      <c r="G877" s="45"/>
-    </row>
-    <row r="878" spans="5:7">
-      <c r="E878" s="45"/>
-      <c r="G878" s="45"/>
-    </row>
-    <row r="879" spans="5:7">
-      <c r="E879" s="45"/>
-      <c r="G879" s="45"/>
-    </row>
-    <row r="880" spans="5:7">
-      <c r="E880" s="45"/>
-      <c r="G880" s="45"/>
-    </row>
-    <row r="881" spans="5:7">
-      <c r="E881" s="45"/>
-      <c r="G881" s="45"/>
-    </row>
-    <row r="882" spans="5:7">
-      <c r="E882" s="45"/>
-      <c r="G882" s="45"/>
-    </row>
-    <row r="883" spans="5:7">
-      <c r="E883" s="45"/>
-      <c r="G883" s="45"/>
-    </row>
-    <row r="884" spans="5:7">
-      <c r="E884" s="45"/>
-      <c r="G884" s="45"/>
-    </row>
-    <row r="885" spans="5:7">
-      <c r="E885" s="45"/>
-      <c r="G885" s="45"/>
-    </row>
-    <row r="886" spans="5:7">
-      <c r="E886" s="45"/>
-      <c r="G886" s="45"/>
-    </row>
-    <row r="887" spans="5:7">
-      <c r="E887" s="45"/>
-      <c r="G887" s="45"/>
-    </row>
-    <row r="888" spans="5:7">
-      <c r="E888" s="45"/>
-      <c r="G888" s="45"/>
-    </row>
-    <row r="889" spans="5:7">
-      <c r="E889" s="45"/>
-      <c r="G889" s="45"/>
-    </row>
-    <row r="890" spans="5:7">
-      <c r="E890" s="46"/>
-      <c r="G890" s="45"/>
-    </row>
-    <row r="891" spans="5:7">
-      <c r="E891" s="45"/>
-      <c r="G891" s="45"/>
-    </row>
-    <row r="892" spans="5:7">
-      <c r="E892" s="45"/>
-      <c r="G892" s="45"/>
-    </row>
-    <row r="893" spans="5:7">
-      <c r="E893" s="45"/>
-      <c r="G893" s="45"/>
-    </row>
-    <row r="894" spans="5:7">
-      <c r="E894" s="45"/>
-      <c r="G894" s="45"/>
-    </row>
-    <row r="895" spans="5:7">
-      <c r="E895" s="45"/>
-      <c r="G895" s="45"/>
-    </row>
-    <row r="896" spans="5:7">
-      <c r="E896" s="45"/>
-      <c r="G896" s="45"/>
-    </row>
-    <row r="897" spans="5:7">
-      <c r="E897" s="45"/>
-      <c r="G897" s="45"/>
-    </row>
-    <row r="898" spans="5:7">
-      <c r="E898" s="45"/>
-      <c r="G898" s="45"/>
-    </row>
-    <row r="899" spans="5:7">
-      <c r="E899" s="45"/>
-      <c r="G899" s="45"/>
-    </row>
-    <row r="900" spans="5:7">
-      <c r="E900" s="45"/>
-      <c r="G900" s="45"/>
-    </row>
-    <row r="901" spans="5:7">
-      <c r="E901" s="45"/>
-      <c r="G901" s="45"/>
-    </row>
-    <row r="902" spans="5:7">
-      <c r="E902" s="45"/>
-      <c r="G902" s="45"/>
-    </row>
-    <row r="903" spans="5:7">
-      <c r="E903" s="45"/>
-      <c r="G903" s="45"/>
-    </row>
-    <row r="904" spans="5:7">
-      <c r="E904" s="46"/>
-      <c r="G904" s="45"/>
-    </row>
-    <row r="905" spans="5:7">
-      <c r="E905" s="45"/>
-      <c r="G905" s="45"/>
-    </row>
-    <row r="906" spans="5:7">
-      <c r="E906" s="46"/>
-      <c r="G906" s="45"/>
-    </row>
-    <row r="907" spans="5:7">
-      <c r="E907" s="45"/>
-      <c r="G907" s="45"/>
-    </row>
-    <row r="908" spans="5:7">
-      <c r="E908" s="45"/>
-      <c r="G908" s="45"/>
-    </row>
-    <row r="909" spans="5:7">
-      <c r="E909" s="45"/>
-      <c r="G909" s="45"/>
-    </row>
-    <row r="910" spans="5:7">
-      <c r="E910" s="45"/>
-      <c r="G910" s="45"/>
-    </row>
-    <row r="911" spans="5:7">
-      <c r="E911" s="45"/>
-      <c r="G911" s="45"/>
-    </row>
-    <row r="912" spans="5:7">
-      <c r="E912" s="45"/>
-      <c r="G912" s="45"/>
-    </row>
-    <row r="913" spans="5:7">
-      <c r="E913" s="45"/>
-      <c r="G913" s="45"/>
-    </row>
-    <row r="914" spans="5:7">
-      <c r="E914" s="45"/>
-      <c r="G914" s="45"/>
-    </row>
-    <row r="915" spans="5:7">
-      <c r="E915" s="45"/>
-      <c r="G915" s="45"/>
-    </row>
-    <row r="916" spans="5:7">
-      <c r="E916" s="45"/>
-      <c r="G916" s="45"/>
-    </row>
-    <row r="917" spans="5:7">
-      <c r="E917" s="45"/>
-      <c r="G917" s="45"/>
-    </row>
-    <row r="918" spans="5:7">
-      <c r="E918" s="45"/>
-      <c r="G918" s="45"/>
-    </row>
-    <row r="919" spans="5:7">
-      <c r="E919" s="46"/>
-      <c r="G919" s="45"/>
-    </row>
-    <row r="920" spans="5:7">
-      <c r="E920" s="45"/>
-      <c r="G920" s="45"/>
-    </row>
-    <row r="921" spans="5:7">
-      <c r="E921" s="45"/>
-      <c r="G921" s="45"/>
-    </row>
-    <row r="922" spans="5:7">
-      <c r="E922" s="45"/>
-      <c r="G922" s="45"/>
-    </row>
-    <row r="923" spans="5:7">
-      <c r="E923" s="45"/>
-      <c r="G923" s="45"/>
-    </row>
-    <row r="924" spans="5:7">
-      <c r="E924" s="45"/>
-      <c r="G924" s="45"/>
-    </row>
-    <row r="925" spans="5:7">
-      <c r="E925" s="45"/>
-      <c r="G925" s="45"/>
-    </row>
-    <row r="926" spans="5:7">
-      <c r="E926" s="45"/>
-      <c r="G926" s="45"/>
-    </row>
-    <row r="927" spans="5:7">
-      <c r="E927" s="45"/>
-      <c r="G927" s="45"/>
-    </row>
-    <row r="928" spans="5:7">
-      <c r="E928" s="45"/>
-      <c r="G928" s="45"/>
-    </row>
-    <row r="929" spans="5:7">
-      <c r="E929" s="45"/>
-      <c r="G929" s="45"/>
-    </row>
-    <row r="930" spans="5:7">
-      <c r="E930" s="45"/>
-      <c r="G930" s="45"/>
-    </row>
-    <row r="931" spans="5:7">
-      <c r="E931" s="45"/>
-      <c r="G931" s="45"/>
-    </row>
-    <row r="932" spans="5:7">
-      <c r="E932" s="45"/>
-      <c r="G932" s="45"/>
-    </row>
-    <row r="933" spans="5:7">
-      <c r="E933" s="46"/>
-      <c r="G933" s="45"/>
-    </row>
-    <row r="934" spans="5:7">
-      <c r="E934" s="45"/>
-      <c r="G934" s="45"/>
-    </row>
-    <row r="935" spans="5:7">
-      <c r="E935" s="45"/>
-      <c r="G935" s="45"/>
-    </row>
-    <row r="936" spans="5:7">
-      <c r="E936" s="46"/>
-      <c r="G936" s="45"/>
-    </row>
-    <row r="937" spans="5:7">
-      <c r="E937" s="46"/>
-      <c r="G937" s="45"/>
-    </row>
-    <row r="938" spans="5:7">
-      <c r="E938" s="46"/>
-      <c r="G938" s="45"/>
-    </row>
-    <row r="939" spans="5:7">
-      <c r="E939" s="46"/>
-      <c r="G939" s="45"/>
-    </row>
-    <row r="940" spans="5:7">
-      <c r="E940" s="46"/>
-      <c r="G940" s="45"/>
-    </row>
-    <row r="941" spans="5:7">
-      <c r="E941" s="46"/>
-      <c r="G941" s="45"/>
-    </row>
-    <row r="942" spans="5:7">
-      <c r="E942" s="46"/>
-      <c r="G942" s="45"/>
-    </row>
-    <row r="943" spans="5:7">
-      <c r="E943" s="46"/>
-      <c r="G943" s="45"/>
-    </row>
-    <row r="944" spans="5:7">
-      <c r="E944" s="46"/>
-      <c r="G944" s="45"/>
-    </row>
-    <row r="945" spans="5:7">
-      <c r="E945" s="46"/>
-      <c r="G945" s="45"/>
-    </row>
-    <row r="946" spans="5:7">
-      <c r="E946" s="46"/>
-      <c r="G946" s="45"/>
-    </row>
-    <row r="947" spans="5:7">
-      <c r="E947" s="46"/>
-      <c r="G947" s="45"/>
-    </row>
-    <row r="948" spans="5:7">
-      <c r="E948" s="46"/>
-      <c r="G948" s="45"/>
-    </row>
-    <row r="949" spans="5:7">
-      <c r="E949" s="46"/>
-      <c r="G949" s="45"/>
-    </row>
-    <row r="950" spans="5:7">
-      <c r="E950" s="45"/>
-      <c r="G950" s="45"/>
-    </row>
-    <row r="951" spans="5:7">
-      <c r="E951" s="45"/>
-      <c r="G951" s="45"/>
-    </row>
-    <row r="952" spans="5:7">
-      <c r="E952" s="45"/>
-      <c r="G952" s="45"/>
-    </row>
-    <row r="953" spans="5:7">
-      <c r="E953" s="45"/>
-      <c r="G953" s="45"/>
-    </row>
-    <row r="954" spans="5:7">
-      <c r="E954" s="45"/>
-      <c r="G954" s="45"/>
-    </row>
-    <row r="955" spans="5:7">
-      <c r="E955" s="45"/>
-      <c r="G955" s="45"/>
-    </row>
-    <row r="956" spans="5:7">
-      <c r="E956" s="45"/>
-      <c r="G956" s="45"/>
-    </row>
-    <row r="957" spans="5:7">
-      <c r="E957" s="45"/>
-      <c r="G957" s="45"/>
-    </row>
-    <row r="958" spans="5:7">
-      <c r="E958" s="46"/>
-      <c r="G958" s="45"/>
-    </row>
-    <row r="959" spans="5:7">
-      <c r="E959" s="45"/>
-      <c r="G959" s="45"/>
-    </row>
-    <row r="960" spans="5:7">
-      <c r="E960" s="45"/>
-      <c r="G960" s="45"/>
-    </row>
-    <row r="961" spans="5:7">
-      <c r="E961" s="45"/>
-      <c r="G961" s="45"/>
-    </row>
-    <row r="962" spans="5:7">
-      <c r="E962" s="45"/>
-      <c r="G962" s="45"/>
-    </row>
-    <row r="963" spans="5:7">
-      <c r="E963" s="45"/>
-      <c r="G963" s="45"/>
-    </row>
-    <row r="964" spans="5:7">
-      <c r="E964" s="45"/>
-      <c r="G964" s="45"/>
-    </row>
-    <row r="965" spans="5:7">
-      <c r="E965" s="45"/>
-      <c r="G965" s="45"/>
-    </row>
-    <row r="966" spans="5:7">
-      <c r="E966" s="45"/>
-      <c r="G966" s="45"/>
-    </row>
-    <row r="967" spans="5:7">
-      <c r="E967" s="45"/>
-      <c r="G967" s="45"/>
-    </row>
-    <row r="968" spans="5:7">
-      <c r="E968" s="45"/>
-      <c r="G968" s="45"/>
-    </row>
-    <row r="969" spans="5:7">
-      <c r="E969" s="45"/>
-      <c r="G969" s="45"/>
-    </row>
-    <row r="970" spans="5:7">
-      <c r="E970" s="45"/>
-      <c r="G970" s="45"/>
-    </row>
-    <row r="971" spans="5:7">
-      <c r="E971" s="45"/>
-      <c r="G971" s="45"/>
-    </row>
-    <row r="972" spans="5:7">
-      <c r="E972" s="45"/>
-      <c r="G972" s="45"/>
-    </row>
-    <row r="973" spans="5:7">
-      <c r="E973" s="45"/>
-      <c r="G973" s="45"/>
-    </row>
-    <row r="974" spans="5:7">
-      <c r="E974" s="45"/>
-      <c r="G974" s="45"/>
-    </row>
-    <row r="975" spans="5:7">
-      <c r="E975" s="46"/>
-      <c r="G975" s="45"/>
-    </row>
-    <row r="976" spans="5:7">
-      <c r="E976" s="45"/>
-      <c r="G976" s="45"/>
-    </row>
-    <row r="977" spans="5:7">
-      <c r="E977" s="45"/>
-      <c r="G977" s="45"/>
-    </row>
-    <row r="978" spans="5:7">
-      <c r="E978" s="45"/>
-      <c r="G978" s="45"/>
-    </row>
-    <row r="979" spans="5:7">
-      <c r="E979" s="45"/>
-      <c r="G979" s="45"/>
-    </row>
-    <row r="980" spans="5:7">
-      <c r="E980" s="45"/>
-      <c r="G980" s="45"/>
-    </row>
-    <row r="981" spans="5:7">
-      <c r="E981" s="45"/>
-      <c r="G981" s="45"/>
-    </row>
-    <row r="982" spans="5:7">
-      <c r="E982" s="45"/>
-      <c r="G982" s="45"/>
-    </row>
-    <row r="983" spans="5:7">
-      <c r="E983" s="45"/>
-      <c r="G983" s="45"/>
-    </row>
-    <row r="984" spans="5:7">
-      <c r="E984" s="45"/>
-      <c r="G984" s="45"/>
-    </row>
-    <row r="985" spans="5:7">
-      <c r="E985" s="45"/>
-      <c r="G985" s="45"/>
-    </row>
-    <row r="986" spans="5:7">
-      <c r="E986" s="45"/>
-      <c r="G986" s="45"/>
-    </row>
-    <row r="987" spans="5:7">
-      <c r="E987" s="45"/>
-      <c r="G987" s="45"/>
-    </row>
-    <row r="988" spans="5:7">
-      <c r="E988" s="45"/>
-      <c r="G988" s="45"/>
-    </row>
-    <row r="989" spans="5:7">
-      <c r="E989" s="45"/>
-      <c r="G989" s="45"/>
-    </row>
-    <row r="990" spans="5:7">
-      <c r="E990" s="45"/>
-      <c r="G990" s="45"/>
-    </row>
-    <row r="991" spans="5:7">
-      <c r="E991" s="45"/>
-      <c r="G991" s="45"/>
-    </row>
-    <row r="992" spans="5:7">
-      <c r="E992" s="46"/>
-      <c r="G992" s="45"/>
-    </row>
-    <row r="993" spans="5:7">
-      <c r="E993" s="45"/>
-      <c r="G993" s="45"/>
-    </row>
-    <row r="994" spans="5:7">
-      <c r="E994" s="45"/>
-      <c r="G994" s="45"/>
-    </row>
-    <row r="995" spans="5:7">
-      <c r="E995" s="45"/>
-      <c r="G995" s="45"/>
-    </row>
-    <row r="996" spans="5:7">
-      <c r="E996" s="45"/>
-      <c r="G996" s="45"/>
-    </row>
-    <row r="997" spans="5:7">
-      <c r="E997" s="45"/>
-      <c r="G997" s="45"/>
-    </row>
-    <row r="998" spans="5:7">
-      <c r="E998" s="45"/>
-      <c r="G998" s="45"/>
-    </row>
-    <row r="999" spans="5:7">
-      <c r="E999" s="45"/>
-      <c r="G999" s="45"/>
-    </row>
-    <row r="1000" spans="5:7">
-      <c r="E1000" s="45"/>
-      <c r="G1000" s="45"/>
-    </row>
-    <row r="1001" spans="5:7">
-      <c r="E1001" s="45"/>
-      <c r="G1001" s="45"/>
-    </row>
-    <row r="1002" spans="5:7">
-      <c r="E1002" s="45"/>
-      <c r="G1002" s="45"/>
-    </row>
-    <row r="1003" spans="5:7">
-      <c r="E1003" s="45"/>
-      <c r="G1003" s="45"/>
-    </row>
-    <row r="1004" spans="5:7">
-      <c r="E1004" s="45"/>
-      <c r="G1004" s="45"/>
-    </row>
-    <row r="1005" spans="5:7">
-      <c r="E1005" s="45"/>
-      <c r="G1005" s="45"/>
-    </row>
-    <row r="1006" spans="5:7">
-      <c r="E1006" s="45"/>
-      <c r="G1006" s="45"/>
-    </row>
-    <row r="1007" spans="5:7">
-      <c r="E1007" s="45"/>
-      <c r="G1007" s="45"/>
-    </row>
-    <row r="1008" spans="5:7">
-      <c r="E1008" s="45"/>
-      <c r="G1008" s="45"/>
-    </row>
-    <row r="1009" spans="5:7">
-      <c r="E1009" s="46"/>
-      <c r="G1009" s="45"/>
-    </row>
-    <row r="1010" spans="5:7">
-      <c r="E1010" s="45"/>
-      <c r="G1010" s="45"/>
-    </row>
-    <row r="1011" spans="5:7">
-      <c r="E1011" s="45"/>
-      <c r="G1011" s="45"/>
-    </row>
-    <row r="1012" spans="5:7">
-      <c r="E1012" s="45"/>
-      <c r="G1012" s="45"/>
-    </row>
-    <row r="1013" spans="5:7">
-      <c r="E1013" s="45"/>
-      <c r="G1013" s="45"/>
-    </row>
-    <row r="1014" spans="5:7">
-      <c r="E1014" s="45"/>
-      <c r="G1014" s="45"/>
-    </row>
-    <row r="1015" spans="5:7">
-      <c r="E1015" s="45"/>
-      <c r="G1015" s="45"/>
-    </row>
-    <row r="1016" spans="5:7">
-      <c r="E1016" s="45"/>
-      <c r="G1016" s="45"/>
-    </row>
-    <row r="1017" spans="5:7">
-      <c r="E1017" s="45"/>
-      <c r="G1017" s="45"/>
-    </row>
-    <row r="1018" spans="5:7">
-      <c r="E1018" s="45"/>
-      <c r="G1018" s="45"/>
-    </row>
-    <row r="1019" spans="5:7">
-      <c r="E1019" s="45"/>
-      <c r="G1019" s="45"/>
-    </row>
-    <row r="1020" spans="5:7">
-      <c r="E1020" s="45"/>
-      <c r="G1020" s="45"/>
-    </row>
-    <row r="1021" spans="5:7">
-      <c r="E1021" s="45"/>
-      <c r="G1021" s="45"/>
-    </row>
-    <row r="1022" spans="5:7">
-      <c r="E1022" s="45"/>
-      <c r="G1022" s="45"/>
-    </row>
-    <row r="1023" spans="5:7">
-      <c r="E1023" s="45"/>
-      <c r="G1023" s="45"/>
-    </row>
-    <row r="1024" spans="5:7">
-      <c r="E1024" s="45"/>
-      <c r="G1024" s="45"/>
-    </row>
-    <row r="1025" spans="5:7">
-      <c r="E1025" s="45"/>
-      <c r="G1025" s="45"/>
-    </row>
-    <row r="1026" spans="5:7">
-      <c r="E1026" s="46"/>
-      <c r="G1026" s="45"/>
-    </row>
-    <row r="1027" spans="5:7">
-      <c r="E1027" s="45"/>
-      <c r="G1027" s="45"/>
-    </row>
-    <row r="1028" spans="5:7">
-      <c r="E1028" s="45"/>
-      <c r="G1028" s="45"/>
-    </row>
-    <row r="1029" spans="5:7">
-      <c r="E1029" s="45"/>
-      <c r="G1029" s="45"/>
-    </row>
-    <row r="1030" spans="5:7">
-      <c r="E1030" s="45"/>
-      <c r="G1030" s="45"/>
-    </row>
-    <row r="1031" spans="5:7">
-      <c r="E1031" s="45"/>
-      <c r="G1031" s="45"/>
-    </row>
-    <row r="1032" spans="5:7">
-      <c r="E1032" s="45"/>
-      <c r="G1032" s="45"/>
-    </row>
-    <row r="1033" spans="5:7">
-      <c r="E1033" s="45"/>
-      <c r="G1033" s="45"/>
-    </row>
-    <row r="1034" spans="5:7">
-      <c r="E1034" s="45"/>
-      <c r="G1034" s="45"/>
-    </row>
-    <row r="1035" spans="5:7">
-      <c r="E1035" s="45"/>
-      <c r="G1035" s="45"/>
-    </row>
-    <row r="1036" spans="5:7">
-      <c r="E1036" s="45"/>
-      <c r="G1036" s="45"/>
-    </row>
-    <row r="1037" spans="5:7">
-      <c r="E1037" s="45"/>
-      <c r="G1037" s="45"/>
-    </row>
-    <row r="1038" spans="5:7">
-      <c r="E1038" s="45"/>
-      <c r="G1038" s="45"/>
-    </row>
-    <row r="1039" spans="5:7">
-      <c r="E1039" s="45"/>
-      <c r="G1039" s="45"/>
-    </row>
-    <row r="1040" spans="5:7">
-      <c r="E1040" s="45"/>
-      <c r="G1040" s="45"/>
-    </row>
-    <row r="1041" spans="5:7">
-      <c r="E1041" s="45"/>
-      <c r="G1041" s="45"/>
-    </row>
-    <row r="1042" spans="5:7">
-      <c r="E1042" s="45"/>
-      <c r="G1042" s="45"/>
-    </row>
-    <row r="1043" spans="5:7">
-      <c r="E1043" s="46"/>
-      <c r="G1043" s="45"/>
-    </row>
-    <row r="1044" spans="5:7">
-      <c r="E1044" s="45"/>
-      <c r="G1044" s="45"/>
-    </row>
-    <row r="1045" spans="5:7">
-      <c r="E1045" s="45"/>
-      <c r="G1045" s="45"/>
-    </row>
-    <row r="1046" spans="5:7">
-      <c r="E1046" s="45"/>
-      <c r="G1046" s="45"/>
-    </row>
-    <row r="1047" spans="5:7">
-      <c r="E1047" s="45"/>
-      <c r="G1047" s="45"/>
-    </row>
-    <row r="1048" spans="5:7">
-      <c r="E1048" s="45"/>
-      <c r="G1048" s="45"/>
-    </row>
-    <row r="1049" spans="5:7">
-      <c r="E1049" s="45"/>
-      <c r="G1049" s="45"/>
-    </row>
-    <row r="1050" spans="5:7">
-      <c r="E1050" s="45"/>
-      <c r="G1050" s="45"/>
-    </row>
-    <row r="1051" spans="5:7">
-      <c r="E1051" s="45"/>
-      <c r="G1051" s="45"/>
-    </row>
-    <row r="1052" spans="5:7">
-      <c r="E1052" s="45"/>
-      <c r="G1052" s="45"/>
-    </row>
-    <row r="1053" spans="5:7">
-      <c r="E1053" s="45"/>
-      <c r="G1053" s="45"/>
-    </row>
-    <row r="1054" spans="5:7">
-      <c r="E1054" s="45"/>
-      <c r="G1054" s="45"/>
-    </row>
-    <row r="1055" spans="5:7">
-      <c r="E1055" s="45"/>
-      <c r="G1055" s="45"/>
-    </row>
-    <row r="1056" spans="5:7">
-      <c r="E1056" s="45"/>
-      <c r="G1056" s="45"/>
-    </row>
-    <row r="1057" spans="5:7">
-      <c r="E1057" s="45"/>
-      <c r="G1057" s="45"/>
-    </row>
-    <row r="1058" spans="5:7">
-      <c r="E1058" s="45"/>
-      <c r="G1058" s="45"/>
-    </row>
-    <row r="1059" spans="5:7">
-      <c r="E1059" s="45"/>
-      <c r="G1059" s="45"/>
-    </row>
-    <row r="1060" spans="5:7">
-      <c r="E1060" s="46"/>
-      <c r="G1060" s="45"/>
-    </row>
-    <row r="1061" spans="5:7">
-      <c r="E1061" s="45"/>
-      <c r="G1061" s="45"/>
-    </row>
-    <row r="1062" spans="5:7">
-      <c r="E1062" s="45"/>
-      <c r="G1062" s="45"/>
-    </row>
-    <row r="1063" spans="5:7">
-      <c r="E1063" s="45"/>
-      <c r="G1063" s="45"/>
-    </row>
-    <row r="1064" spans="5:7">
-      <c r="E1064" s="45"/>
-      <c r="G1064" s="45"/>
-    </row>
-    <row r="1065" spans="5:7">
-      <c r="E1065" s="45"/>
-      <c r="G1065" s="45"/>
-    </row>
-    <row r="1066" spans="5:7">
-      <c r="E1066" s="45"/>
-      <c r="G1066" s="45"/>
-    </row>
-    <row r="1067" spans="5:7">
-      <c r="E1067" s="45"/>
-      <c r="G1067" s="45"/>
-    </row>
-    <row r="1068" spans="5:7">
-      <c r="E1068" s="45"/>
-      <c r="G1068" s="45"/>
-    </row>
-    <row r="1069" spans="5:7">
-      <c r="E1069" s="45"/>
-      <c r="G1069" s="45"/>
-    </row>
-    <row r="1070" spans="5:7">
-      <c r="E1070" s="45"/>
-      <c r="G1070" s="45"/>
-    </row>
-    <row r="1071" spans="5:7">
-      <c r="E1071" s="45"/>
-      <c r="G1071" s="45"/>
-    </row>
-    <row r="1072" spans="5:7">
-      <c r="E1072" s="45"/>
-      <c r="G1072" s="45"/>
-    </row>
-    <row r="1073" spans="5:7">
-      <c r="E1073" s="45"/>
-      <c r="G1073" s="45"/>
-    </row>
-    <row r="1074" spans="5:7">
-      <c r="E1074" s="45"/>
-      <c r="G1074" s="45"/>
-    </row>
-    <row r="1075" spans="5:7">
-      <c r="E1075" s="45"/>
-      <c r="G1075" s="45"/>
-    </row>
-    <row r="1076" spans="5:7">
-      <c r="E1076" s="45"/>
-      <c r="G1076" s="45"/>
-    </row>
-    <row r="1077" spans="5:7">
-      <c r="E1077" s="46"/>
-      <c r="G1077" s="45"/>
-    </row>
-    <row r="1078" spans="5:7">
-      <c r="E1078" s="45"/>
-      <c r="G1078" s="45"/>
-    </row>
-    <row r="1079" spans="5:7">
-      <c r="E1079" s="45"/>
-      <c r="G1079" s="45"/>
-    </row>
-    <row r="1080" spans="5:7">
-      <c r="E1080" s="45"/>
-      <c r="G1080" s="45"/>
-    </row>
-    <row r="1081" spans="5:7">
-      <c r="E1081" s="45"/>
-      <c r="G1081" s="45"/>
-    </row>
-    <row r="1082" spans="5:7">
-      <c r="E1082" s="45"/>
-      <c r="G1082" s="45"/>
-    </row>
-    <row r="1083" spans="5:7">
-      <c r="E1083" s="45"/>
-      <c r="G1083" s="45"/>
-    </row>
-    <row r="1084" spans="5:7">
-      <c r="E1084" s="45"/>
-      <c r="G1084" s="45"/>
-    </row>
-    <row r="1085" spans="5:7">
-      <c r="E1085" s="45"/>
-      <c r="G1085" s="45"/>
-    </row>
-    <row r="1086" spans="5:7">
-      <c r="E1086" s="45"/>
-      <c r="G1086" s="45"/>
-    </row>
-    <row r="1087" spans="5:7">
-      <c r="E1087" s="45"/>
-      <c r="G1087" s="45"/>
-    </row>
-    <row r="1088" spans="5:7">
-      <c r="E1088" s="45"/>
-      <c r="G1088" s="45"/>
-    </row>
-    <row r="1089" spans="5:7">
-      <c r="E1089" s="45"/>
-      <c r="G1089" s="45"/>
-    </row>
-    <row r="1090" spans="5:7">
-      <c r="E1090" s="45"/>
-      <c r="G1090" s="45"/>
-    </row>
-    <row r="1091" spans="5:7">
-      <c r="E1091" s="45"/>
-      <c r="G1091" s="45"/>
-    </row>
-    <row r="1092" spans="5:7">
-      <c r="E1092" s="45"/>
-      <c r="G1092" s="45"/>
-    </row>
-    <row r="1093" spans="5:7">
-      <c r="E1093" s="45"/>
-      <c r="G1093" s="45"/>
-    </row>
-    <row r="1094" spans="5:7">
-      <c r="E1094" s="46"/>
-      <c r="G1094" s="45"/>
-    </row>
-    <row r="1095" spans="5:7">
-      <c r="E1095" s="45"/>
-      <c r="G1095" s="45"/>
-    </row>
-    <row r="1096" spans="5:7">
-      <c r="E1096" s="45"/>
-      <c r="G1096" s="45"/>
-    </row>
-    <row r="1097" spans="5:7">
-      <c r="E1097" s="45"/>
-      <c r="G1097" s="45"/>
-    </row>
-    <row r="1098" spans="5:7">
-      <c r="E1098" s="45"/>
-      <c r="G1098" s="45"/>
-    </row>
-    <row r="1099" spans="5:7">
-      <c r="E1099" s="45"/>
-      <c r="G1099" s="45"/>
-    </row>
-    <row r="1100" spans="5:7">
-      <c r="E1100" s="45"/>
-      <c r="G1100" s="45"/>
-    </row>
-    <row r="1101" spans="5:7">
-      <c r="E1101" s="45"/>
-      <c r="G1101" s="45"/>
-    </row>
-    <row r="1102" spans="5:7">
-      <c r="E1102" s="45"/>
-      <c r="G1102" s="45"/>
-    </row>
-    <row r="1103" spans="5:7">
-      <c r="E1103" s="45"/>
-      <c r="G1103" s="45"/>
-    </row>
-    <row r="1104" spans="5:7">
-      <c r="E1104" s="45"/>
-      <c r="G1104" s="45"/>
-    </row>
-    <row r="1105" spans="5:7">
-      <c r="E1105" s="45"/>
-      <c r="G1105" s="45"/>
-    </row>
-    <row r="1106" spans="5:7">
-      <c r="E1106" s="45"/>
-      <c r="G1106" s="45"/>
-    </row>
-    <row r="1107" spans="5:7">
-      <c r="E1107" s="45"/>
-      <c r="G1107" s="45"/>
-    </row>
-    <row r="1108" spans="5:7">
-      <c r="E1108" s="45"/>
-      <c r="G1108" s="45"/>
-    </row>
-    <row r="1109" spans="5:7">
-      <c r="E1109" s="45"/>
-      <c r="G1109" s="45"/>
-    </row>
-    <row r="1110" spans="5:7">
-      <c r="E1110" s="45"/>
-      <c r="G1110" s="45"/>
-    </row>
-    <row r="1111" spans="5:7">
-      <c r="E1111" s="46"/>
-      <c r="G1111" s="45"/>
-    </row>
-    <row r="1112" spans="5:7">
-      <c r="E1112" s="45"/>
-      <c r="G1112" s="45"/>
-    </row>
-    <row r="1113" spans="5:7">
-      <c r="E1113" s="45"/>
-      <c r="G1113" s="45"/>
-    </row>
-    <row r="1114" spans="5:7">
-      <c r="E1114" s="45"/>
-      <c r="G1114" s="45"/>
-    </row>
-    <row r="1115" spans="5:7">
-      <c r="E1115" s="45"/>
-      <c r="G1115" s="45"/>
-    </row>
-    <row r="1116" spans="5:7">
-      <c r="E1116" s="45"/>
-      <c r="G1116" s="45"/>
-    </row>
-    <row r="1117" spans="5:7">
-      <c r="E1117" s="45"/>
-      <c r="G1117" s="45"/>
-    </row>
-    <row r="1118" spans="5:7">
-      <c r="E1118" s="45"/>
-      <c r="G1118" s="45"/>
-    </row>
-    <row r="1119" spans="5:7">
-      <c r="E1119" s="45"/>
-      <c r="G1119" s="45"/>
-    </row>
-    <row r="1120" spans="5:7">
-      <c r="E1120" s="45"/>
-      <c r="G1120" s="45"/>
-    </row>
-    <row r="1121" spans="5:7">
-      <c r="E1121" s="45"/>
-      <c r="G1121" s="45"/>
-    </row>
-    <row r="1122" spans="5:7">
-      <c r="E1122" s="45"/>
-      <c r="G1122" s="45"/>
-    </row>
-    <row r="1123" spans="5:7">
-      <c r="E1123" s="45"/>
-      <c r="G1123" s="45"/>
-    </row>
-    <row r="1124" spans="5:7">
-      <c r="E1124" s="45"/>
-      <c r="G1124" s="45"/>
-    </row>
-    <row r="1125" spans="5:7">
-      <c r="E1125" s="45"/>
-      <c r="G1125" s="45"/>
-    </row>
-    <row r="1126" spans="5:7">
-      <c r="E1126" s="45"/>
-      <c r="G1126" s="45"/>
-    </row>
-    <row r="1127" spans="5:7">
-      <c r="E1127" s="45"/>
-      <c r="G1127" s="45"/>
-    </row>
-    <row r="1128" spans="5:7">
-      <c r="E1128" s="46"/>
-      <c r="G1128" s="45"/>
-    </row>
-    <row r="1129" spans="5:7">
-      <c r="E1129" s="45"/>
-      <c r="G1129" s="45"/>
-    </row>
-    <row r="1130" spans="5:7">
-      <c r="E1130" s="45"/>
-      <c r="G1130" s="45"/>
-    </row>
-    <row r="1131" spans="5:7">
-      <c r="E1131" s="45"/>
-      <c r="G1131" s="45"/>
-    </row>
-    <row r="1132" spans="5:7">
-      <c r="E1132" s="45"/>
-      <c r="G1132" s="45"/>
-    </row>
-    <row r="1133" spans="5:7">
-      <c r="E1133" s="45"/>
-      <c r="G1133" s="45"/>
-    </row>
-    <row r="1134" spans="5:7">
-      <c r="E1134" s="45"/>
-      <c r="G1134" s="45"/>
-    </row>
-    <row r="1135" spans="5:7">
-      <c r="E1135" s="45"/>
-      <c r="G1135" s="45"/>
-    </row>
-    <row r="1136" spans="5:7">
-      <c r="E1136" s="45"/>
-      <c r="G1136" s="45"/>
-    </row>
-    <row r="1137" spans="5:7">
-      <c r="E1137" s="45"/>
-      <c r="G1137" s="45"/>
-    </row>
-    <row r="1138" spans="5:7">
-      <c r="E1138" s="45"/>
-      <c r="G1138" s="45"/>
-    </row>
-    <row r="1139" spans="5:7">
-      <c r="E1139" s="45"/>
-      <c r="G1139" s="45"/>
-    </row>
-    <row r="1140" spans="5:7">
-      <c r="E1140" s="45"/>
-      <c r="G1140" s="45"/>
-    </row>
-    <row r="1141" spans="5:7">
-      <c r="E1141" s="45"/>
-      <c r="G1141" s="45"/>
-    </row>
-    <row r="1142" spans="5:7">
-      <c r="E1142" s="45"/>
-      <c r="G1142" s="45"/>
-    </row>
-    <row r="1143" spans="5:7">
-      <c r="E1143" s="45"/>
-      <c r="G1143" s="45"/>
-    </row>
-    <row r="1144" spans="5:7">
-      <c r="E1144" s="45"/>
-      <c r="G1144" s="45"/>
-    </row>
-    <row r="1145" spans="5:7">
-      <c r="E1145" s="46"/>
-      <c r="G1145" s="45"/>
-    </row>
-    <row r="1146" spans="5:7">
-      <c r="E1146" s="45"/>
-      <c r="G1146" s="45"/>
-    </row>
-    <row r="1147" spans="5:7">
-      <c r="E1147" s="45"/>
-      <c r="G1147" s="45"/>
-    </row>
-    <row r="1148" spans="5:7">
-      <c r="E1148" s="45"/>
-      <c r="G1148" s="45"/>
-    </row>
-    <row r="1149" spans="5:7">
-      <c r="E1149" s="45"/>
-      <c r="G1149" s="45"/>
-    </row>
-    <row r="1150" spans="5:7">
-      <c r="E1150" s="45"/>
-      <c r="G1150" s="45"/>
-    </row>
-    <row r="1151" spans="5:7">
-      <c r="E1151" s="45"/>
-      <c r="G1151" s="45"/>
-    </row>
-    <row r="1152" spans="5:7">
-      <c r="E1152" s="45"/>
-      <c r="G1152" s="45"/>
-    </row>
-    <row r="1153" spans="5:7">
-      <c r="E1153" s="45"/>
-      <c r="G1153" s="45"/>
-    </row>
-    <row r="1154" spans="5:7">
-      <c r="E1154" s="45"/>
-      <c r="G1154" s="45"/>
-    </row>
-    <row r="1155" spans="5:7">
-      <c r="E1155" s="45"/>
-      <c r="G1155" s="45"/>
-    </row>
-    <row r="1156" spans="5:7">
-      <c r="E1156" s="45"/>
-      <c r="G1156" s="45"/>
-    </row>
-    <row r="1157" spans="5:7">
-      <c r="E1157" s="45"/>
-      <c r="G1157" s="45"/>
-    </row>
-    <row r="1158" spans="5:7">
-      <c r="E1158" s="45"/>
-      <c r="G1158" s="45"/>
-    </row>
-    <row r="1159" spans="5:7">
-      <c r="E1159" s="45"/>
-      <c r="G1159" s="45"/>
-    </row>
-    <row r="1160" spans="5:7">
-      <c r="E1160" s="45"/>
-      <c r="G1160" s="45"/>
-    </row>
-    <row r="1161" spans="5:7">
-      <c r="E1161" s="45"/>
-      <c r="G1161" s="45"/>
-    </row>
-    <row r="1162" spans="5:7">
-      <c r="E1162" s="46"/>
-      <c r="G1162" s="45"/>
-    </row>
-    <row r="1163" spans="5:7">
-      <c r="E1163" s="45"/>
-      <c r="G1163" s="45"/>
-    </row>
-    <row r="1164" spans="5:7">
-      <c r="E1164" s="45"/>
-      <c r="G1164" s="45"/>
-    </row>
-    <row r="1165" spans="5:7">
-      <c r="E1165" s="45"/>
-      <c r="G1165" s="45"/>
-    </row>
-    <row r="1166" spans="5:7">
-      <c r="E1166" s="45"/>
-      <c r="G1166" s="45"/>
-    </row>
-    <row r="1167" spans="5:7">
-      <c r="E1167" s="45"/>
-      <c r="G1167" s="45"/>
-    </row>
-    <row r="1168" spans="5:7">
-      <c r="E1168" s="45"/>
-      <c r="G1168" s="45"/>
-    </row>
-    <row r="1169" spans="5:7">
-      <c r="E1169" s="45"/>
-      <c r="G1169" s="45"/>
-    </row>
-    <row r="1170" spans="5:7">
-      <c r="E1170" s="45"/>
-      <c r="G1170" s="45"/>
-    </row>
-    <row r="1171" spans="5:7">
-      <c r="E1171" s="45"/>
-      <c r="G1171" s="45"/>
-    </row>
-    <row r="1172" spans="5:7">
-      <c r="E1172" s="45"/>
-      <c r="G1172" s="45"/>
-    </row>
-    <row r="1173" spans="5:7">
-      <c r="E1173" s="45"/>
-      <c r="G1173" s="45"/>
-    </row>
-    <row r="1174" spans="5:7">
-      <c r="E1174" s="45"/>
-      <c r="G1174" s="45"/>
-    </row>
-    <row r="1175" spans="5:7">
-      <c r="E1175" s="45"/>
-      <c r="G1175" s="45"/>
-    </row>
-    <row r="1176" spans="5:7">
-      <c r="E1176" s="45"/>
-      <c r="G1176" s="45"/>
-    </row>
-    <row r="1177" spans="5:7">
-      <c r="E1177" s="45"/>
-      <c r="G1177" s="45"/>
-    </row>
-    <row r="1178" spans="5:7">
-      <c r="E1178" s="45"/>
-      <c r="G1178" s="45"/>
-    </row>
-    <row r="1179" spans="5:7">
-      <c r="E1179" s="46"/>
-      <c r="G1179" s="45"/>
-    </row>
-    <row r="1180" spans="5:7">
-      <c r="E1180" s="45"/>
-      <c r="G1180" s="45"/>
-    </row>
-    <row r="1181" spans="5:7">
-      <c r="E1181" s="45"/>
-      <c r="G1181" s="45"/>
-    </row>
-    <row r="1182" spans="5:7">
-      <c r="E1182" s="45"/>
-      <c r="G1182" s="45"/>
-    </row>
-    <row r="1183" spans="5:7">
-      <c r="E1183" s="45"/>
-      <c r="G1183" s="45"/>
-    </row>
-    <row r="1184" spans="5:7">
-      <c r="E1184" s="45"/>
-      <c r="G1184" s="45"/>
-    </row>
-    <row r="1185" spans="5:7">
-      <c r="E1185" s="45"/>
-      <c r="G1185" s="45"/>
-    </row>
-    <row r="1186" spans="5:7">
-      <c r="E1186" s="45"/>
-      <c r="G1186" s="45"/>
-    </row>
-    <row r="1187" spans="5:7">
-      <c r="E1187" s="45"/>
-      <c r="G1187" s="45"/>
-    </row>
-    <row r="1188" spans="5:7">
-      <c r="E1188" s="45"/>
-      <c r="G1188" s="45"/>
-    </row>
-    <row r="1189" spans="5:7">
-      <c r="E1189" s="45"/>
-      <c r="G1189" s="45"/>
-    </row>
-    <row r="1190" spans="5:7">
-      <c r="E1190" s="45"/>
-      <c r="G1190" s="45"/>
-    </row>
-    <row r="1191" spans="5:7">
-      <c r="E1191" s="45"/>
-      <c r="G1191" s="45"/>
-    </row>
-    <row r="1192" spans="5:7">
-      <c r="E1192" s="45"/>
-      <c r="G1192" s="45"/>
-    </row>
-    <row r="1193" spans="5:7">
-      <c r="E1193" s="45"/>
-      <c r="G1193" s="45"/>
-    </row>
-    <row r="1194" spans="5:7">
-      <c r="E1194" s="45"/>
-      <c r="G1194" s="45"/>
-    </row>
-    <row r="1195" spans="5:7">
-      <c r="E1195" s="45"/>
-      <c r="G1195" s="45"/>
-    </row>
-    <row r="1196" spans="5:7">
-      <c r="E1196" s="46"/>
-      <c r="G1196" s="45"/>
-    </row>
-    <row r="1197" spans="5:7">
-      <c r="E1197" s="45"/>
-      <c r="G1197" s="45"/>
-    </row>
-    <row r="1198" spans="5:7">
-      <c r="E1198" s="45"/>
-      <c r="G1198" s="45"/>
-    </row>
-    <row r="1199" spans="5:7">
-      <c r="E1199" s="45"/>
-      <c r="G1199" s="45"/>
-    </row>
-    <row r="1200" spans="5:7">
-      <c r="E1200" s="45"/>
-      <c r="G1200" s="45"/>
-    </row>
-    <row r="1201" spans="5:7">
-      <c r="E1201" s="45"/>
-      <c r="G1201" s="45"/>
-    </row>
-    <row r="1202" spans="5:7">
-      <c r="E1202" s="45"/>
-      <c r="G1202" s="45"/>
-    </row>
-    <row r="1203" spans="5:7">
-      <c r="E1203" s="45"/>
-      <c r="G1203" s="45"/>
-    </row>
-    <row r="1204" spans="5:7">
-      <c r="E1204" s="45"/>
-      <c r="G1204" s="45"/>
-    </row>
-    <row r="1205" spans="5:7">
-      <c r="E1205" s="45"/>
-      <c r="G1205" s="45"/>
-    </row>
-    <row r="1206" spans="5:7">
-      <c r="E1206" s="45"/>
-      <c r="G1206" s="45"/>
-    </row>
-    <row r="1207" spans="5:7">
-      <c r="E1207" s="45"/>
-      <c r="G1207" s="45"/>
-    </row>
-    <row r="1208" spans="5:7">
-      <c r="E1208" s="45"/>
-      <c r="G1208" s="45"/>
-    </row>
-    <row r="1209" spans="5:7">
-      <c r="E1209" s="45"/>
-      <c r="G1209" s="45"/>
-    </row>
-    <row r="1210" spans="5:7">
-      <c r="E1210" s="45"/>
-      <c r="G1210" s="45"/>
-    </row>
-    <row r="1211" spans="5:7">
-      <c r="E1211" s="45"/>
-      <c r="G1211" s="45"/>
-    </row>
-    <row r="1212" spans="5:7">
-      <c r="E1212" s="45"/>
-      <c r="G1212" s="45"/>
-    </row>
-    <row r="1213" spans="5:7">
-      <c r="E1213" s="46"/>
-      <c r="G1213" s="45"/>
-    </row>
-    <row r="1214" spans="5:7">
-      <c r="E1214" s="45"/>
-      <c r="G1214" s="45"/>
-    </row>
-    <row r="1215" spans="5:7">
-      <c r="E1215" s="45"/>
-      <c r="G1215" s="45"/>
-    </row>
-    <row r="1216" spans="5:7">
-      <c r="E1216" s="45"/>
-      <c r="G1216" s="45"/>
-    </row>
-    <row r="1217" spans="5:7">
-      <c r="E1217" s="45"/>
-      <c r="G1217" s="45"/>
-    </row>
-    <row r="1218" spans="5:7">
-      <c r="E1218" s="45"/>
-      <c r="G1218" s="45"/>
-    </row>
-    <row r="1219" spans="5:7">
-      <c r="E1219" s="45"/>
-      <c r="G1219" s="45"/>
-    </row>
-    <row r="1220" spans="5:7">
-      <c r="E1220" s="45"/>
-      <c r="G1220" s="45"/>
-    </row>
-    <row r="1221" spans="5:7">
-      <c r="E1221" s="45"/>
-      <c r="G1221" s="45"/>
-    </row>
-    <row r="1222" spans="5:7">
-      <c r="E1222" s="45"/>
-      <c r="G1222" s="45"/>
-    </row>
-    <row r="1223" spans="5:7">
-      <c r="E1223" s="45"/>
-      <c r="G1223" s="46"/>
-    </row>
-    <row r="1224" spans="5:7">
-      <c r="E1224" s="45"/>
-      <c r="G1224" s="46"/>
-    </row>
-    <row r="1225" spans="5:7">
-      <c r="E1225" s="45"/>
-      <c r="G1225" s="46"/>
-    </row>
-    <row r="1226" spans="5:7">
-      <c r="E1226" s="45"/>
-      <c r="G1226" s="46"/>
-    </row>
-    <row r="1227" spans="5:7">
-      <c r="E1227" s="45"/>
-      <c r="G1227" s="46"/>
-    </row>
-    <row r="1228" spans="5:7">
-      <c r="E1228" s="45"/>
-      <c r="G1228" s="46"/>
-    </row>
-    <row r="1229" spans="5:7">
-      <c r="E1229" s="45"/>
-      <c r="G1229" s="46"/>
-    </row>
-    <row r="1230" spans="5:7">
-      <c r="E1230" s="45"/>
-      <c r="G1230" s="46"/>
-    </row>
-    <row r="1231" spans="5:7">
-      <c r="E1231" s="45"/>
-      <c r="G1231" s="46"/>
-    </row>
-    <row r="1232" spans="5:7">
-      <c r="E1232" s="45"/>
-      <c r="G1232" s="46"/>
+      <c r="E768" s="44"/>
+    </row>
+    <row r="769" spans="5:5">
+      <c r="E769" s="44"/>
+    </row>
+    <row r="770" spans="5:5">
+      <c r="E770" s="44"/>
+    </row>
+    <row r="771" spans="5:5">
+      <c r="E771" s="44"/>
+    </row>
+    <row r="774" spans="5:5">
+      <c r="E774" s="44"/>
+    </row>
+    <row r="775" spans="5:5">
+      <c r="E775" s="44"/>
+    </row>
+    <row r="776" spans="5:5">
+      <c r="E776" s="44"/>
+    </row>
+    <row r="777" spans="5:5">
+      <c r="E777" s="44"/>
+    </row>
+    <row r="778" spans="5:5">
+      <c r="E778" s="44"/>
+    </row>
+    <row r="779" spans="5:5">
+      <c r="E779" s="44"/>
+    </row>
+    <row r="780" spans="5:5">
+      <c r="E780" s="44"/>
+    </row>
+    <row r="781" spans="5:5">
+      <c r="E781" s="44"/>
+    </row>
+    <row r="782" spans="5:5">
+      <c r="E782" s="44"/>
+    </row>
+    <row r="783" spans="5:5">
+      <c r="E783" s="44"/>
+    </row>
+    <row r="784" spans="5:5">
+      <c r="E784" s="44"/>
+    </row>
+    <row r="785" spans="5:5">
+      <c r="E785" s="44"/>
+    </row>
+    <row r="786" spans="5:5">
+      <c r="E786" s="44"/>
+    </row>
+    <row r="787" spans="5:5">
+      <c r="E787" s="44"/>
+    </row>
+    <row r="789" spans="5:5">
+      <c r="E789" s="44"/>
+    </row>
+    <row r="790" spans="5:5">
+      <c r="E790" s="44"/>
+    </row>
+    <row r="791" spans="5:5">
+      <c r="E791" s="44"/>
+    </row>
+    <row r="792" spans="5:5">
+      <c r="E792" s="44"/>
+    </row>
+    <row r="793" spans="5:5">
+      <c r="E793" s="44"/>
+    </row>
+    <row r="794" spans="5:5">
+      <c r="E794" s="44"/>
+    </row>
+    <row r="795" spans="5:5">
+      <c r="E795" s="44"/>
+    </row>
+    <row r="796" spans="5:5">
+      <c r="E796" s="44"/>
+    </row>
+    <row r="797" spans="5:5">
+      <c r="E797" s="44"/>
+    </row>
+    <row r="798" spans="5:5">
+      <c r="E798" s="44"/>
+    </row>
+    <row r="799" spans="5:5">
+      <c r="E799" s="44"/>
+    </row>
+    <row r="800" spans="5:5">
+      <c r="E800" s="44"/>
+    </row>
+    <row r="801" spans="5:5">
+      <c r="E801" s="44"/>
+    </row>
+    <row r="802" spans="5:5">
+      <c r="E802" s="44"/>
+    </row>
+    <row r="804" spans="5:5">
+      <c r="E804" s="44"/>
+    </row>
+    <row r="805" spans="5:5">
+      <c r="E805" s="44"/>
+    </row>
+    <row r="806" spans="5:5">
+      <c r="E806" s="44"/>
+    </row>
+    <row r="807" spans="5:5">
+      <c r="E807" s="44"/>
+    </row>
+    <row r="808" spans="5:5">
+      <c r="E808" s="44"/>
+    </row>
+    <row r="809" spans="5:5">
+      <c r="E809" s="44"/>
+    </row>
+    <row r="810" spans="5:5">
+      <c r="E810" s="44"/>
+    </row>
+    <row r="811" spans="5:5">
+      <c r="E811" s="44"/>
+    </row>
+    <row r="812" spans="5:5">
+      <c r="E812" s="44"/>
+    </row>
+    <row r="813" spans="5:5">
+      <c r="E813" s="44"/>
+    </row>
+    <row r="814" spans="5:5">
+      <c r="E814" s="44"/>
+    </row>
+    <row r="815" spans="5:5">
+      <c r="E815" s="44"/>
+    </row>
+    <row r="816" spans="5:5">
+      <c r="E816" s="44"/>
+    </row>
+    <row r="817" spans="5:5">
+      <c r="E817" s="44"/>
+    </row>
+    <row r="819" spans="5:5">
+      <c r="E819" s="44"/>
+    </row>
+    <row r="820" spans="5:5">
+      <c r="E820" s="44"/>
+    </row>
+    <row r="821" spans="5:5">
+      <c r="E821" s="44"/>
+    </row>
+    <row r="822" spans="5:5">
+      <c r="E822" s="44"/>
+    </row>
+    <row r="823" spans="5:5">
+      <c r="E823" s="44"/>
+    </row>
+    <row r="824" spans="5:5">
+      <c r="E824" s="44"/>
+    </row>
+    <row r="825" spans="5:5">
+      <c r="E825" s="44"/>
+    </row>
+    <row r="826" spans="5:5">
+      <c r="E826" s="44"/>
+    </row>
+    <row r="827" spans="5:5">
+      <c r="E827" s="44"/>
+    </row>
+    <row r="828" spans="5:5">
+      <c r="E828" s="44"/>
+    </row>
+    <row r="829" spans="5:5">
+      <c r="E829" s="44"/>
+    </row>
+    <row r="830" spans="5:5">
+      <c r="E830" s="44"/>
+    </row>
+    <row r="831" spans="5:5">
+      <c r="E831" s="44"/>
+    </row>
+    <row r="832" spans="5:5">
+      <c r="E832" s="44"/>
+    </row>
+    <row r="833" spans="5:5">
+      <c r="E833" s="44"/>
+    </row>
+    <row r="834" spans="5:5">
+      <c r="E834" s="44"/>
+    </row>
+    <row r="835" spans="5:5">
+      <c r="E835" s="44"/>
+    </row>
+    <row r="836" spans="5:5">
+      <c r="E836" s="44"/>
+    </row>
+    <row r="837" spans="5:5">
+      <c r="E837" s="44"/>
+    </row>
+    <row r="838" spans="5:5">
+      <c r="E838" s="44"/>
+    </row>
+    <row r="839" spans="5:5">
+      <c r="E839" s="44"/>
+    </row>
+    <row r="840" spans="5:5">
+      <c r="E840" s="44"/>
+    </row>
+    <row r="841" spans="5:5">
+      <c r="E841" s="44"/>
+    </row>
+    <row r="842" spans="5:5">
+      <c r="E842" s="44"/>
+    </row>
+    <row r="843" spans="5:5">
+      <c r="E843" s="44"/>
+    </row>
+    <row r="844" spans="5:5">
+      <c r="E844" s="44"/>
+    </row>
+    <row r="845" spans="5:5">
+      <c r="E845" s="44"/>
+    </row>
+    <row r="846" spans="5:5">
+      <c r="E846" s="44"/>
+    </row>
+    <row r="848" spans="5:5">
+      <c r="E848" s="44"/>
+    </row>
+    <row r="861" spans="5:5">
+      <c r="E861" s="44"/>
+    </row>
+    <row r="875" spans="5:5">
+      <c r="E875" s="44"/>
+    </row>
+    <row r="877" spans="5:5">
+      <c r="E877" s="44"/>
+    </row>
+    <row r="890" spans="5:5">
+      <c r="E890" s="44"/>
+    </row>
+    <row r="904" spans="5:5">
+      <c r="E904" s="44"/>
+    </row>
+    <row r="906" spans="5:5">
+      <c r="E906" s="44"/>
+    </row>
+    <row r="919" spans="5:5">
+      <c r="E919" s="44"/>
+    </row>
+    <row r="933" spans="5:5">
+      <c r="E933" s="44"/>
+    </row>
+    <row r="936" spans="5:5">
+      <c r="E936" s="44"/>
+    </row>
+    <row r="937" spans="5:5">
+      <c r="E937" s="44"/>
+    </row>
+    <row r="938" spans="5:5">
+      <c r="E938" s="44"/>
+    </row>
+    <row r="939" spans="5:5">
+      <c r="E939" s="44"/>
+    </row>
+    <row r="940" spans="5:5">
+      <c r="E940" s="44"/>
+    </row>
+    <row r="941" spans="5:5">
+      <c r="E941" s="44"/>
+    </row>
+    <row r="942" spans="5:5">
+      <c r="E942" s="44"/>
+    </row>
+    <row r="943" spans="5:5">
+      <c r="E943" s="44"/>
+    </row>
+    <row r="944" spans="5:5">
+      <c r="E944" s="44"/>
+    </row>
+    <row r="945" spans="5:5">
+      <c r="E945" s="44"/>
+    </row>
+    <row r="946" spans="5:5">
+      <c r="E946" s="44"/>
+    </row>
+    <row r="947" spans="5:5">
+      <c r="E947" s="44"/>
+    </row>
+    <row r="948" spans="5:5">
+      <c r="E948" s="44"/>
+    </row>
+    <row r="949" spans="5:5">
+      <c r="E949" s="44"/>
+    </row>
+    <row r="958" spans="5:5">
+      <c r="E958" s="44"/>
+    </row>
+    <row r="975" spans="5:5">
+      <c r="E975" s="44"/>
+    </row>
+    <row r="992" spans="5:5">
+      <c r="E992" s="44"/>
+    </row>
+    <row r="1009" spans="5:5">
+      <c r="E1009" s="44"/>
+    </row>
+    <row r="1026" spans="5:5">
+      <c r="E1026" s="44"/>
+    </row>
+    <row r="1043" spans="5:5">
+      <c r="E1043" s="44"/>
+    </row>
+    <row r="1060" spans="5:5">
+      <c r="E1060" s="44"/>
+    </row>
+    <row r="1077" spans="5:5">
+      <c r="E1077" s="44"/>
+    </row>
+    <row r="1094" spans="5:5">
+      <c r="E1094" s="44"/>
+    </row>
+    <row r="1111" spans="5:5">
+      <c r="E1111" s="44"/>
+    </row>
+    <row r="1128" spans="5:5">
+      <c r="E1128" s="44"/>
+    </row>
+    <row r="1145" spans="5:5">
+      <c r="E1145" s="44"/>
+    </row>
+    <row r="1162" spans="5:5">
+      <c r="E1162" s="44"/>
+    </row>
+    <row r="1179" spans="5:5">
+      <c r="E1179" s="44"/>
+    </row>
+    <row r="1196" spans="5:5">
+      <c r="E1196" s="44"/>
+    </row>
+    <row r="1213" spans="5:5">
+      <c r="E1213" s="44"/>
+    </row>
+    <row r="1223" spans="7:7">
+      <c r="G1223" s="44"/>
+    </row>
+    <row r="1224" spans="7:7">
+      <c r="G1224" s="44"/>
+    </row>
+    <row r="1225" spans="7:7">
+      <c r="G1225" s="44"/>
+    </row>
+    <row r="1226" spans="7:7">
+      <c r="G1226" s="44"/>
+    </row>
+    <row r="1227" spans="7:7">
+      <c r="G1227" s="44"/>
+    </row>
+    <row r="1228" spans="7:7">
+      <c r="G1228" s="44"/>
+    </row>
+    <row r="1229" spans="7:7">
+      <c r="G1229" s="44"/>
+    </row>
+    <row r="1230" spans="7:7">
+      <c r="G1230" s="44"/>
+    </row>
+    <row r="1231" spans="7:7">
+      <c r="G1231" s="44"/>
+    </row>
+    <row r="1232" spans="7:7">
+      <c r="G1232" s="44"/>
     </row>
     <row r="1233" spans="5:7">
-      <c r="E1233" s="45"/>
-      <c r="G1233" s="46"/>
+      <c r="G1233" s="44"/>
     </row>
     <row r="1234" spans="5:7">
-      <c r="E1234" s="45"/>
-      <c r="G1234" s="46"/>
+      <c r="G1234" s="44"/>
     </row>
     <row r="1235" spans="5:7">
-      <c r="E1235" s="45"/>
-      <c r="G1235" s="46"/>
+      <c r="G1235" s="44"/>
     </row>
     <row r="1236" spans="5:7">
-      <c r="E1236" s="46"/>
-      <c r="G1236" s="46"/>
-    </row>
-    <row r="1237" spans="5:7">
-      <c r="E1237" s="45"/>
-      <c r="G1237" s="45"/>
-    </row>
-    <row r="1238" spans="5:7">
-      <c r="E1238" s="45"/>
-      <c r="G1238" s="45"/>
-    </row>
-    <row r="1239" spans="5:7">
-      <c r="E1239" s="45"/>
-      <c r="G1239" s="45"/>
-    </row>
-    <row r="1240" spans="5:7">
-      <c r="E1240" s="45"/>
-      <c r="G1240" s="45"/>
-    </row>
-    <row r="1241" spans="5:7">
-      <c r="E1241" s="45"/>
-      <c r="G1241" s="45"/>
-    </row>
-    <row r="1242" spans="5:7">
-      <c r="E1242" s="45"/>
-      <c r="G1242" s="45"/>
-    </row>
-    <row r="1243" spans="5:7">
-      <c r="E1243" s="45"/>
-      <c r="G1243" s="45"/>
-    </row>
-    <row r="1244" spans="5:7">
-      <c r="E1244" s="45"/>
-      <c r="G1244" s="45"/>
-    </row>
-    <row r="1245" spans="5:7">
-      <c r="E1245" s="45"/>
-      <c r="G1245" s="45"/>
-    </row>
-    <row r="1246" spans="5:7">
-      <c r="E1246" s="45"/>
-      <c r="G1246" s="45"/>
-    </row>
-    <row r="1247" spans="5:7">
-      <c r="E1247" s="45"/>
-      <c r="G1247" s="45"/>
-    </row>
-    <row r="1248" spans="5:7">
-      <c r="E1248" s="45"/>
-      <c r="G1248" s="45"/>
-    </row>
-    <row r="1249" spans="5:7">
-      <c r="E1249" s="45"/>
-      <c r="G1249" s="45"/>
-    </row>
-    <row r="1250" spans="5:7">
-      <c r="E1250" s="45"/>
-      <c r="G1250" s="45"/>
-    </row>
-    <row r="1251" spans="5:7">
-      <c r="E1251" s="45"/>
-      <c r="G1251" s="45"/>
-    </row>
-    <row r="1252" spans="5:7">
-      <c r="E1252" s="45"/>
-      <c r="G1252" s="45"/>
-    </row>
-    <row r="1253" spans="5:7">
-      <c r="E1253" s="45"/>
-      <c r="G1253" s="45"/>
-    </row>
-    <row r="1254" spans="5:7">
-      <c r="E1254" s="45"/>
-      <c r="G1254" s="45"/>
-    </row>
-    <row r="1255" spans="5:7">
-      <c r="E1255" s="45"/>
-      <c r="G1255" s="45"/>
-    </row>
-    <row r="1256" spans="5:7">
-      <c r="E1256" s="45"/>
-      <c r="G1256" s="45"/>
-    </row>
-    <row r="1257" spans="5:7">
-      <c r="E1257" s="46"/>
-      <c r="G1257" s="45"/>
-    </row>
-    <row r="1258" spans="5:7">
-      <c r="E1258" s="45"/>
-      <c r="G1258" s="45"/>
-    </row>
-    <row r="1259" spans="5:7">
-      <c r="E1259" s="45"/>
-      <c r="G1259" s="45"/>
-    </row>
-    <row r="1260" spans="5:7">
-      <c r="E1260" s="45"/>
-      <c r="G1260" s="45"/>
-    </row>
-    <row r="1261" spans="5:7">
-      <c r="E1261" s="45"/>
-      <c r="G1261" s="45"/>
-    </row>
-    <row r="1262" spans="5:7">
-      <c r="E1262" s="45"/>
-      <c r="G1262" s="45"/>
-    </row>
-    <row r="1263" spans="5:7">
-      <c r="E1263" s="45"/>
-      <c r="G1263" s="45"/>
-    </row>
-    <row r="1264" spans="5:7">
-      <c r="E1264" s="45"/>
-      <c r="G1264" s="45"/>
-    </row>
-    <row r="1265" spans="5:7">
-      <c r="E1265" s="45"/>
-      <c r="G1265" s="45"/>
-    </row>
-    <row r="1266" spans="5:7">
-      <c r="E1266" s="45"/>
-      <c r="G1266" s="45"/>
-    </row>
-    <row r="1267" spans="5:7">
-      <c r="E1267" s="45"/>
-      <c r="G1267" s="45"/>
-    </row>
-    <row r="1268" spans="5:7">
-      <c r="E1268" s="45"/>
-      <c r="G1268" s="45"/>
-    </row>
-    <row r="1269" spans="5:7">
-      <c r="E1269" s="45"/>
-      <c r="G1269" s="45"/>
-    </row>
-    <row r="1270" spans="5:7">
-      <c r="E1270" s="45"/>
-      <c r="G1270" s="45"/>
-    </row>
-    <row r="1271" spans="5:7">
-      <c r="E1271" s="45"/>
-      <c r="G1271" s="45"/>
-    </row>
-    <row r="1272" spans="5:7">
-      <c r="E1272" s="46"/>
-      <c r="G1272" s="45"/>
-    </row>
-    <row r="1273" spans="5:7">
-      <c r="E1273" s="45"/>
-      <c r="G1273" s="45"/>
-    </row>
-    <row r="1274" spans="5:7">
-      <c r="E1274" s="45"/>
-      <c r="G1274" s="45"/>
-    </row>
-    <row r="1275" spans="5:7">
-      <c r="E1275" s="45"/>
-      <c r="G1275" s="45"/>
-    </row>
-    <row r="1276" spans="5:7">
-      <c r="E1276" s="45"/>
-      <c r="G1276" s="45"/>
-    </row>
-    <row r="1277" spans="5:7">
-      <c r="E1277" s="45"/>
-      <c r="G1277" s="45"/>
-    </row>
-    <row r="1278" spans="5:7">
-      <c r="E1278" s="45"/>
-      <c r="G1278" s="45"/>
-    </row>
-    <row r="1279" spans="5:7">
-      <c r="E1279" s="45"/>
-      <c r="G1279" s="45"/>
-    </row>
-    <row r="1280" spans="5:7">
-      <c r="E1280" s="45"/>
-      <c r="G1280" s="45"/>
-    </row>
-    <row r="1281" spans="5:7">
-      <c r="E1281" s="45"/>
-      <c r="G1281" s="45"/>
-    </row>
-    <row r="1282" spans="5:7">
-      <c r="E1282" s="45"/>
-      <c r="G1282" s="45"/>
-    </row>
-    <row r="1283" spans="5:7">
-      <c r="E1283" s="45"/>
-      <c r="G1283" s="45"/>
-    </row>
-    <row r="1284" spans="5:7">
-      <c r="E1284" s="45"/>
-      <c r="G1284" s="45"/>
-    </row>
-    <row r="1285" spans="5:7">
-      <c r="E1285" s="45"/>
-      <c r="G1285" s="45"/>
-    </row>
-    <row r="1286" spans="5:7">
-      <c r="E1286" s="45"/>
-      <c r="G1286" s="45"/>
-    </row>
-    <row r="1287" spans="5:7">
-      <c r="E1287" s="46"/>
-      <c r="G1287" s="45"/>
-    </row>
-    <row r="1288" spans="5:7">
-      <c r="E1288" s="45"/>
-      <c r="G1288" s="45"/>
-    </row>
-    <row r="1289" spans="5:7">
-      <c r="E1289" s="45"/>
-      <c r="G1289" s="45"/>
-    </row>
-    <row r="1290" spans="5:7">
-      <c r="E1290" s="45"/>
-      <c r="G1290" s="45"/>
-    </row>
-    <row r="1291" spans="5:7">
-      <c r="E1291" s="45"/>
-      <c r="G1291" s="45"/>
-    </row>
-    <row r="1292" spans="5:7">
-      <c r="E1292" s="45"/>
-      <c r="G1292" s="45"/>
-    </row>
-    <row r="1293" spans="5:7">
-      <c r="E1293" s="45"/>
-      <c r="G1293" s="45"/>
-    </row>
-    <row r="1294" spans="5:7">
-      <c r="E1294" s="45"/>
-      <c r="G1294" s="45"/>
-    </row>
-    <row r="1295" spans="5:7">
-      <c r="E1295" s="45"/>
-      <c r="G1295" s="45"/>
-    </row>
-    <row r="1296" spans="5:7">
-      <c r="E1296" s="45"/>
-      <c r="G1296" s="45"/>
-    </row>
-    <row r="1297" spans="5:7">
-      <c r="E1297" s="45"/>
-      <c r="G1297" s="45"/>
-    </row>
-    <row r="1298" spans="5:7">
-      <c r="E1298" s="45"/>
-      <c r="G1298" s="45"/>
-    </row>
-    <row r="1299" spans="5:7">
-      <c r="E1299" s="45"/>
-      <c r="G1299" s="45"/>
-    </row>
-    <row r="1300" spans="5:7">
-      <c r="E1300" s="45"/>
-      <c r="G1300" s="45"/>
-    </row>
-    <row r="1301" spans="5:7">
-      <c r="E1301" s="45"/>
-      <c r="G1301" s="45"/>
-    </row>
-    <row r="1302" spans="5:7">
-      <c r="E1302" s="46"/>
-      <c r="G1302" s="45"/>
-    </row>
-    <row r="1303" spans="5:7">
-      <c r="E1303" s="45"/>
-      <c r="G1303" s="45"/>
-    </row>
-    <row r="1304" spans="5:7">
-      <c r="E1304" s="45"/>
-      <c r="G1304" s="45"/>
-    </row>
-    <row r="1305" spans="5:7">
-      <c r="E1305" s="45"/>
-      <c r="G1305" s="45"/>
-    </row>
-    <row r="1306" spans="5:7">
-      <c r="E1306" s="45"/>
-      <c r="G1306" s="45"/>
-    </row>
-    <row r="1307" spans="5:7">
-      <c r="E1307" s="45"/>
-      <c r="G1307" s="45"/>
-    </row>
-    <row r="1308" spans="5:7">
-      <c r="E1308" s="45"/>
-      <c r="G1308" s="45"/>
-    </row>
-    <row r="1309" spans="5:7">
-      <c r="E1309" s="45"/>
-      <c r="G1309" s="45"/>
-    </row>
-    <row r="1310" spans="5:7">
-      <c r="E1310" s="45"/>
-      <c r="G1310" s="45"/>
-    </row>
-    <row r="1311" spans="5:7">
-      <c r="E1311" s="45"/>
-      <c r="G1311" s="45"/>
-    </row>
-    <row r="1312" spans="5:7">
-      <c r="E1312" s="45"/>
-      <c r="G1312" s="45"/>
-    </row>
-    <row r="1313" spans="5:7">
-      <c r="E1313" s="45"/>
-      <c r="G1313" s="45"/>
-    </row>
-    <row r="1314" spans="5:7">
-      <c r="E1314" s="45"/>
-      <c r="G1314" s="45"/>
-    </row>
-    <row r="1315" spans="5:7">
-      <c r="E1315" s="45"/>
-      <c r="G1315" s="45"/>
-    </row>
-    <row r="1316" spans="5:7">
-      <c r="E1316" s="45"/>
-      <c r="G1316" s="45"/>
-    </row>
-    <row r="1317" spans="5:7">
-      <c r="E1317" s="45"/>
-      <c r="G1317" s="45"/>
-    </row>
-    <row r="1318" spans="5:7">
-      <c r="E1318" s="46"/>
-      <c r="G1318" s="45"/>
-    </row>
-    <row r="1319" spans="5:7">
-      <c r="E1319" s="45"/>
-      <c r="G1319" s="45"/>
-    </row>
-    <row r="1320" spans="5:7">
-      <c r="E1320" s="45"/>
-      <c r="G1320" s="45"/>
-    </row>
-    <row r="1321" spans="5:7">
-      <c r="E1321" s="45"/>
-      <c r="G1321" s="45"/>
-    </row>
-    <row r="1322" spans="5:7">
-      <c r="E1322" s="45"/>
-      <c r="G1322" s="45"/>
-    </row>
-    <row r="1323" spans="5:7">
-      <c r="E1323" s="45"/>
-      <c r="G1323" s="45"/>
-    </row>
-    <row r="1324" spans="5:7">
-      <c r="E1324" s="45"/>
-      <c r="G1324" s="45"/>
-    </row>
-    <row r="1325" spans="5:7">
-      <c r="E1325" s="45"/>
-      <c r="G1325" s="45"/>
-    </row>
-    <row r="1326" spans="5:7">
-      <c r="E1326" s="46"/>
-      <c r="G1326" s="45"/>
-    </row>
-    <row r="1327" spans="5:7">
-      <c r="E1327" s="45"/>
-      <c r="G1327" s="45"/>
-    </row>
-    <row r="1328" spans="5:7">
-      <c r="E1328" s="45"/>
-      <c r="G1328" s="45"/>
-    </row>
-    <row r="1329" spans="5:7">
-      <c r="E1329" s="45"/>
-      <c r="G1329" s="45"/>
-    </row>
-    <row r="1330" spans="5:7">
-      <c r="E1330" s="45"/>
-      <c r="G1330" s="45"/>
-    </row>
-    <row r="1331" spans="5:7">
-      <c r="E1331" s="45"/>
-      <c r="G1331" s="45"/>
-    </row>
-    <row r="1332" spans="5:7">
-      <c r="E1332" s="45"/>
-      <c r="G1332" s="45"/>
-    </row>
-    <row r="1333" spans="5:7">
-      <c r="E1333" s="45"/>
-      <c r="G1333" s="45"/>
-    </row>
-    <row r="1334" spans="5:7">
-      <c r="E1334" s="45"/>
-      <c r="G1334" s="45"/>
-    </row>
-    <row r="1335" spans="5:7">
-      <c r="E1335" s="45"/>
-      <c r="G1335" s="46"/>
-    </row>
-    <row r="1336" spans="5:7">
-      <c r="E1336" s="45"/>
-      <c r="G1336" s="46"/>
-    </row>
-    <row r="1337" spans="5:7">
-      <c r="E1337" s="45"/>
-      <c r="G1337" s="46"/>
-    </row>
-    <row r="1338" spans="5:7">
-      <c r="E1338" s="45"/>
-      <c r="G1338" s="46"/>
-    </row>
-    <row r="1339" spans="5:7">
-      <c r="E1339" s="45"/>
-      <c r="G1339" s="46"/>
-    </row>
-    <row r="1340" spans="5:7">
-      <c r="E1340" s="45"/>
-      <c r="G1340" s="46"/>
-    </row>
-    <row r="1341" spans="5:7">
-      <c r="E1341" s="45"/>
-      <c r="G1341" s="46"/>
-    </row>
-    <row r="1342" spans="5:7">
-      <c r="E1342" s="45"/>
-      <c r="G1342" s="46"/>
-    </row>
-    <row r="1343" spans="5:7">
-      <c r="E1343" s="45"/>
-      <c r="G1343" s="46"/>
-    </row>
-    <row r="1344" spans="5:7">
-      <c r="E1344" s="45"/>
-      <c r="G1344" s="46"/>
+      <c r="E1236" s="44"/>
+      <c r="G1236" s="44"/>
+    </row>
+    <row r="1257" spans="5:5">
+      <c r="E1257" s="44"/>
+    </row>
+    <row r="1272" spans="5:5">
+      <c r="E1272" s="44"/>
+    </row>
+    <row r="1287" spans="5:5">
+      <c r="E1287" s="44"/>
+    </row>
+    <row r="1302" spans="5:5">
+      <c r="E1302" s="44"/>
+    </row>
+    <row r="1318" spans="5:5">
+      <c r="E1318" s="44"/>
+    </row>
+    <row r="1326" spans="5:5">
+      <c r="E1326" s="44"/>
+    </row>
+    <row r="1335" spans="7:7">
+      <c r="G1335" s="44"/>
+    </row>
+    <row r="1336" spans="7:7">
+      <c r="G1336" s="44"/>
+    </row>
+    <row r="1337" spans="7:7">
+      <c r="G1337" s="44"/>
+    </row>
+    <row r="1338" spans="7:7">
+      <c r="G1338" s="44"/>
+    </row>
+    <row r="1339" spans="7:7">
+      <c r="G1339" s="44"/>
+    </row>
+    <row r="1340" spans="7:7">
+      <c r="G1340" s="44"/>
+    </row>
+    <row r="1341" spans="7:7">
+      <c r="G1341" s="44"/>
+    </row>
+    <row r="1342" spans="7:7">
+      <c r="G1342" s="44"/>
+    </row>
+    <row r="1343" spans="7:7">
+      <c r="G1343" s="44"/>
+    </row>
+    <row r="1344" spans="7:7">
+      <c r="G1344" s="44"/>
     </row>
     <row r="1345" spans="5:7">
-      <c r="E1345" s="45"/>
-      <c r="G1345" s="46"/>
+      <c r="G1345" s="44"/>
     </row>
     <row r="1346" spans="5:7">
-      <c r="E1346" s="45"/>
-      <c r="G1346" s="46"/>
+      <c r="G1346" s="44"/>
     </row>
     <row r="1347" spans="5:7">
-      <c r="E1347" s="45"/>
-      <c r="G1347" s="46"/>
+      <c r="G1347" s="44"/>
     </row>
     <row r="1348" spans="5:7">
-      <c r="E1348" s="45"/>
-      <c r="G1348" s="46"/>
+      <c r="G1348" s="44"/>
     </row>
     <row r="1349" spans="5:7">
-      <c r="E1349" s="45"/>
-      <c r="G1349" s="46"/>
+      <c r="G1349" s="44"/>
     </row>
     <row r="1350" spans="5:7">
-      <c r="E1350" s="45"/>
-      <c r="G1350" s="46"/>
+      <c r="G1350" s="44"/>
     </row>
     <row r="1351" spans="5:7">
-      <c r="E1351" s="45"/>
-      <c r="G1351" s="46"/>
+      <c r="G1351" s="44"/>
     </row>
     <row r="1352" spans="5:7">
-      <c r="E1352" s="45"/>
-      <c r="G1352" s="46"/>
+      <c r="G1352" s="44"/>
     </row>
     <row r="1353" spans="5:7">
-      <c r="E1353" s="45"/>
-      <c r="G1353" s="46"/>
+      <c r="G1353" s="44"/>
     </row>
     <row r="1354" spans="5:7">
-      <c r="E1354" s="46"/>
-      <c r="G1354" s="46"/>
-    </row>
-    <row r="1355" spans="5:7">
-      <c r="E1355" s="45"/>
-      <c r="G1355" s="45"/>
-    </row>
-    <row r="1356" spans="5:7">
-      <c r="E1356" s="45"/>
-      <c r="G1356" s="45"/>
-    </row>
-    <row r="1357" spans="5:7">
-      <c r="E1357" s="45"/>
-      <c r="G1357" s="45"/>
-    </row>
-    <row r="1358" spans="5:7">
-      <c r="E1358" s="45"/>
-      <c r="G1358" s="45"/>
-    </row>
-    <row r="1359" spans="5:7">
-      <c r="E1359" s="45"/>
-      <c r="G1359" s="45"/>
-    </row>
-    <row r="1360" spans="5:7">
-      <c r="E1360" s="45"/>
-      <c r="G1360" s="45"/>
-    </row>
-    <row r="1361" spans="5:7">
-      <c r="E1361" s="45"/>
-      <c r="G1361" s="45"/>
-    </row>
-    <row r="1362" spans="5:7">
-      <c r="E1362" s="46"/>
-      <c r="G1362" s="45"/>
-    </row>
-    <row r="1363" spans="5:7">
-      <c r="E1363" s="45"/>
-      <c r="G1363" s="45"/>
-    </row>
-    <row r="1364" spans="5:7">
-      <c r="E1364" s="45"/>
-      <c r="G1364" s="45"/>
-    </row>
-    <row r="1365" spans="5:7">
-      <c r="E1365" s="45"/>
-      <c r="G1365" s="45"/>
-    </row>
-    <row r="1366" spans="5:7">
-      <c r="E1366" s="45"/>
-      <c r="G1366" s="45"/>
-    </row>
-    <row r="1367" spans="5:7">
-      <c r="E1367" s="45"/>
-      <c r="G1367" s="45"/>
-    </row>
-    <row r="1368" spans="5:7">
-      <c r="E1368" s="45"/>
-      <c r="G1368" s="45"/>
-    </row>
-    <row r="1369" spans="5:7">
-      <c r="E1369" s="46"/>
-      <c r="G1369" s="45"/>
-    </row>
-    <row r="1370" spans="5:7">
-      <c r="E1370" s="45"/>
-      <c r="G1370" s="45"/>
-    </row>
-    <row r="1371" spans="5:7">
-      <c r="E1371" s="45"/>
-      <c r="G1371" s="45"/>
-    </row>
-    <row r="1372" spans="5:7">
-      <c r="E1372" s="45"/>
-      <c r="G1372" s="45"/>
-    </row>
-    <row r="1373" spans="5:7">
-      <c r="E1373" s="45"/>
-      <c r="G1373" s="45"/>
-    </row>
-    <row r="1374" spans="5:7">
-      <c r="E1374" s="45"/>
-      <c r="G1374" s="45"/>
-    </row>
-    <row r="1375" spans="5:7">
-      <c r="E1375" s="45"/>
-      <c r="G1375" s="45"/>
-    </row>
-    <row r="1376" spans="5:7">
-      <c r="E1376" s="45"/>
-      <c r="G1376" s="45"/>
-    </row>
-    <row r="1377" spans="5:7">
-      <c r="E1377" s="45"/>
-      <c r="G1377" s="45"/>
-    </row>
-    <row r="1378" spans="5:7">
-      <c r="E1378" s="45"/>
-      <c r="G1378" s="45"/>
-    </row>
-    <row r="1379" spans="5:7">
-      <c r="E1379" s="45"/>
-      <c r="G1379" s="45"/>
-    </row>
-    <row r="1380" spans="5:7">
-      <c r="E1380" s="45"/>
-      <c r="G1380" s="45"/>
-    </row>
-    <row r="1381" spans="5:7">
-      <c r="E1381" s="45"/>
-      <c r="G1381" s="45"/>
-    </row>
-    <row r="1382" spans="5:7">
-      <c r="E1382" s="45"/>
-      <c r="G1382" s="45"/>
-    </row>
-    <row r="1383" spans="5:7">
-      <c r="E1383" s="45"/>
-      <c r="G1383" s="45"/>
-    </row>
-    <row r="1384" spans="5:7">
-      <c r="E1384" s="45"/>
-      <c r="G1384" s="45"/>
-    </row>
-    <row r="1385" spans="5:7">
-      <c r="E1385" s="45"/>
-      <c r="G1385" s="45"/>
-    </row>
-    <row r="1386" spans="5:7">
-      <c r="E1386" s="45"/>
-      <c r="G1386" s="45"/>
-    </row>
-    <row r="1387" spans="5:7">
-      <c r="E1387" s="45"/>
-      <c r="G1387" s="45"/>
-    </row>
-    <row r="1388" spans="5:7">
-      <c r="E1388" s="45"/>
-      <c r="G1388" s="45"/>
-    </row>
-    <row r="1389" spans="5:7">
-      <c r="E1389" s="45"/>
-      <c r="G1389" s="45"/>
-    </row>
-    <row r="1390" spans="5:7">
-      <c r="E1390" s="45"/>
-      <c r="G1390" s="45"/>
-    </row>
-    <row r="1391" spans="5:7">
-      <c r="E1391" s="45"/>
-      <c r="G1391" s="45"/>
-    </row>
-    <row r="1392" spans="5:7">
-      <c r="E1392" s="45"/>
-      <c r="G1392" s="45"/>
-    </row>
-    <row r="1393" spans="5:7">
-      <c r="E1393" s="45"/>
-      <c r="G1393" s="45"/>
-    </row>
-    <row r="1394" spans="5:7">
-      <c r="E1394" s="45"/>
-      <c r="G1394" s="45"/>
-    </row>
-    <row r="1395" spans="5:7">
-      <c r="E1395" s="45"/>
-      <c r="G1395" s="45"/>
-    </row>
-    <row r="1396" spans="5:7">
-      <c r="E1396" s="45"/>
-      <c r="G1396" s="45"/>
-    </row>
-    <row r="1397" spans="5:7">
-      <c r="E1397" s="45"/>
-      <c r="G1397" s="45"/>
-    </row>
-    <row r="1398" spans="5:7">
-      <c r="E1398" s="45"/>
-      <c r="G1398" s="45"/>
-    </row>
-    <row r="1399" spans="5:7">
-      <c r="E1399" s="45"/>
-      <c r="G1399" s="45"/>
-    </row>
-    <row r="1400" spans="5:7">
-      <c r="E1400" s="45"/>
-      <c r="G1400" s="45"/>
-    </row>
-    <row r="1401" spans="5:7">
-      <c r="E1401" s="45"/>
-      <c r="G1401" s="45"/>
-    </row>
-    <row r="1402" spans="5:7">
-      <c r="E1402" s="45"/>
-      <c r="G1402" s="45"/>
-    </row>
-    <row r="1403" spans="5:7">
-      <c r="E1403" s="45"/>
-      <c r="G1403" s="45"/>
-    </row>
-    <row r="1404" spans="5:7">
-      <c r="E1404" s="45"/>
-      <c r="G1404" s="45"/>
-    </row>
-    <row r="1405" spans="5:7">
-      <c r="E1405" s="45"/>
-      <c r="G1405" s="45"/>
-    </row>
-    <row r="1406" spans="5:7">
-      <c r="E1406" s="45"/>
-      <c r="G1406" s="45"/>
-    </row>
-    <row r="1407" spans="5:7">
-      <c r="E1407" s="45"/>
-      <c r="G1407" s="45"/>
-    </row>
-    <row r="1408" spans="5:7">
-      <c r="E1408" s="45"/>
-      <c r="G1408" s="45"/>
-    </row>
-    <row r="1409" spans="5:7">
-      <c r="E1409" s="45"/>
-      <c r="G1409" s="45"/>
-    </row>
-    <row r="1410" spans="5:7">
-      <c r="E1410" s="45"/>
-      <c r="G1410" s="45"/>
-    </row>
-    <row r="1411" spans="5:7">
-      <c r="E1411" s="45"/>
-      <c r="G1411" s="45"/>
-    </row>
-    <row r="1412" spans="5:7">
-      <c r="E1412" s="45"/>
-      <c r="G1412" s="45"/>
-    </row>
-    <row r="1413" spans="5:7">
-      <c r="E1413" s="45"/>
-      <c r="G1413" s="45"/>
-    </row>
-    <row r="1414" spans="5:7">
-      <c r="E1414" s="45"/>
-      <c r="G1414" s="45"/>
-    </row>
-    <row r="1415" spans="5:7">
-      <c r="E1415" s="45"/>
-      <c r="G1415" s="45"/>
-    </row>
-    <row r="1416" spans="5:7">
-      <c r="E1416" s="45"/>
-      <c r="G1416" s="45"/>
-    </row>
-    <row r="1417" spans="5:7">
-      <c r="E1417" s="45"/>
-      <c r="G1417" s="45"/>
-    </row>
-    <row r="1418" spans="5:7">
-      <c r="E1418" s="45"/>
-      <c r="G1418" s="45"/>
-    </row>
-    <row r="1419" spans="5:7">
-      <c r="E1419" s="45"/>
-      <c r="G1419" s="45"/>
-    </row>
-    <row r="1420" spans="5:7">
-      <c r="E1420" s="45"/>
-      <c r="G1420" s="45"/>
-    </row>
-    <row r="1421" spans="5:7">
-      <c r="E1421" s="45"/>
-      <c r="G1421" s="45"/>
-    </row>
-    <row r="1422" spans="5:7">
-      <c r="E1422" s="45"/>
-      <c r="G1422" s="45"/>
-    </row>
-    <row r="1423" spans="5:7">
-      <c r="E1423" s="45"/>
-      <c r="G1423" s="45"/>
-    </row>
-    <row r="1424" spans="5:7">
-      <c r="E1424" s="45"/>
-      <c r="G1424" s="45"/>
-    </row>
-    <row r="1425" spans="5:7">
-      <c r="E1425" s="45"/>
-      <c r="G1425" s="45"/>
-    </row>
-    <row r="1426" spans="5:7">
-      <c r="E1426" s="45"/>
-      <c r="G1426" s="45"/>
-    </row>
-    <row r="1427" spans="5:7">
-      <c r="E1427" s="45"/>
-      <c r="G1427" s="45"/>
-    </row>
-    <row r="1428" spans="5:7">
-      <c r="E1428" s="45"/>
-      <c r="G1428" s="45"/>
-    </row>
-    <row r="1429" spans="5:7">
-      <c r="E1429" s="45"/>
-      <c r="G1429" s="45"/>
-    </row>
-    <row r="1430" spans="5:7">
-      <c r="E1430" s="45"/>
-      <c r="G1430" s="45"/>
-    </row>
-    <row r="1431" spans="5:7">
-      <c r="E1431" s="45"/>
-      <c r="G1431" s="45"/>
-    </row>
-    <row r="1432" spans="5:7">
-      <c r="E1432" s="45"/>
-      <c r="G1432" s="45"/>
-    </row>
-    <row r="1433" spans="5:7">
-      <c r="E1433" s="45"/>
-      <c r="G1433" s="45"/>
-    </row>
-    <row r="1434" spans="5:7">
-      <c r="E1434" s="45"/>
-      <c r="G1434" s="45"/>
-    </row>
-    <row r="1435" spans="5:7">
-      <c r="E1435" s="45"/>
-      <c r="G1435" s="45"/>
-    </row>
-    <row r="1436" spans="5:7">
-      <c r="E1436" s="45"/>
-      <c r="G1436" s="45"/>
-    </row>
-    <row r="1437" spans="5:7">
-      <c r="E1437" s="45"/>
-      <c r="G1437" s="45"/>
-    </row>
-    <row r="1438" spans="5:7">
-      <c r="E1438" s="45"/>
-      <c r="G1438" s="45"/>
-    </row>
-    <row r="1439" spans="5:7">
-      <c r="E1439" s="45"/>
-      <c r="G1439" s="45"/>
-    </row>
-    <row r="1440" spans="5:7">
-      <c r="E1440" s="45"/>
-      <c r="G1440" s="45"/>
-    </row>
-    <row r="1441" spans="5:7">
-      <c r="E1441" s="45"/>
-      <c r="G1441" s="45"/>
-    </row>
-    <row r="1442" spans="5:7">
-      <c r="E1442" s="45"/>
-      <c r="G1442" s="45"/>
-    </row>
-    <row r="1443" spans="5:7">
-      <c r="E1443" s="45"/>
-      <c r="G1443" s="45"/>
-    </row>
-    <row r="1444" spans="5:7">
-      <c r="E1444" s="45"/>
-      <c r="G1444" s="45"/>
-    </row>
-    <row r="1445" spans="5:7">
-      <c r="E1445" s="45"/>
-      <c r="G1445" s="45"/>
-    </row>
-    <row r="1446" spans="5:7">
-      <c r="E1446" s="45"/>
-      <c r="G1446" s="45"/>
-    </row>
-    <row r="1447" spans="5:7">
-      <c r="E1447" s="45"/>
-      <c r="G1447" s="45"/>
-    </row>
-    <row r="1448" spans="5:7">
-      <c r="E1448" s="45"/>
-      <c r="G1448" s="45"/>
-    </row>
-    <row r="1449" spans="5:7">
-      <c r="E1449" s="45"/>
-      <c r="G1449" s="45"/>
-    </row>
-    <row r="1450" spans="5:7">
-      <c r="E1450" s="45"/>
-      <c r="G1450" s="45"/>
-    </row>
-    <row r="1451" spans="5:7">
-      <c r="E1451" s="45"/>
-      <c r="G1451" s="45"/>
-    </row>
-    <row r="1452" spans="5:7">
-      <c r="E1452" s="45"/>
-      <c r="G1452" s="45"/>
-    </row>
-    <row r="1453" spans="5:7">
-      <c r="E1453" s="45"/>
-      <c r="G1453" s="45"/>
-    </row>
-    <row r="1454" spans="5:7">
-      <c r="E1454" s="45"/>
-      <c r="G1454" s="45"/>
-    </row>
-    <row r="1455" spans="5:7">
-      <c r="E1455" s="45"/>
-      <c r="G1455" s="45"/>
-    </row>
-    <row r="1456" spans="5:7">
-      <c r="E1456" s="45"/>
-      <c r="G1456" s="45"/>
-    </row>
-    <row r="1457" spans="5:7">
-      <c r="E1457" s="45"/>
-      <c r="G1457" s="45"/>
-    </row>
-    <row r="1458" spans="5:7">
-      <c r="E1458" s="45"/>
-      <c r="G1458" s="45"/>
-    </row>
-    <row r="1459" spans="5:7">
-      <c r="E1459" s="45"/>
-      <c r="G1459" s="45"/>
-    </row>
-    <row r="1460" spans="5:7">
-      <c r="E1460" s="45"/>
-      <c r="G1460" s="45"/>
-    </row>
-    <row r="1461" spans="5:7">
-      <c r="E1461" s="45"/>
-      <c r="G1461" s="45"/>
-    </row>
-    <row r="1462" spans="5:7">
-      <c r="E1462" s="45"/>
-      <c r="G1462" s="45"/>
-    </row>
-    <row r="1463" spans="5:7">
-      <c r="E1463" s="45"/>
-      <c r="G1463" s="45"/>
-    </row>
-    <row r="1464" spans="5:7">
-      <c r="E1464" s="45"/>
-      <c r="G1464" s="45"/>
-    </row>
-    <row r="1465" spans="5:7">
-      <c r="E1465" s="45"/>
-      <c r="G1465" s="45"/>
-    </row>
-    <row r="1466" spans="5:7">
-      <c r="E1466" s="45"/>
-      <c r="G1466" s="45"/>
-    </row>
-    <row r="1467" spans="5:7">
-      <c r="E1467" s="45"/>
-      <c r="G1467" s="45"/>
-    </row>
-    <row r="1468" spans="5:7">
-      <c r="E1468" s="45"/>
-      <c r="G1468" s="45"/>
-    </row>
-    <row r="1469" spans="5:7">
-      <c r="E1469" s="45"/>
-      <c r="G1469" s="45"/>
-    </row>
-    <row r="1470" spans="5:7">
-      <c r="E1470" s="45"/>
-      <c r="G1470" s="45"/>
-    </row>
-    <row r="1471" spans="5:7">
-      <c r="E1471" s="45"/>
-      <c r="G1471" s="45"/>
-    </row>
-    <row r="1472" spans="5:7">
-      <c r="E1472" s="45"/>
-      <c r="G1472" s="45"/>
-    </row>
-    <row r="1473" spans="5:7">
-      <c r="E1473" s="45"/>
-      <c r="G1473" s="45"/>
-    </row>
-    <row r="1474" spans="5:7">
-      <c r="E1474" s="45"/>
-      <c r="G1474" s="45"/>
-    </row>
-    <row r="1475" spans="5:7">
-      <c r="E1475" s="45"/>
-      <c r="G1475" s="45"/>
-    </row>
-    <row r="1476" spans="5:7">
-      <c r="E1476" s="45"/>
-      <c r="G1476" s="45"/>
-    </row>
-    <row r="1477" spans="5:7">
-      <c r="E1477" s="45"/>
-      <c r="G1477" s="45"/>
-    </row>
-    <row r="1478" spans="5:7">
-      <c r="E1478" s="45"/>
-      <c r="G1478" s="45"/>
-    </row>
-    <row r="1479" spans="5:7">
-      <c r="E1479" s="45"/>
-      <c r="G1479" s="45"/>
-    </row>
-    <row r="1480" spans="5:7">
-      <c r="E1480" s="45"/>
-      <c r="G1480" s="45"/>
-    </row>
-    <row r="1481" spans="5:7">
-      <c r="E1481" s="45"/>
-      <c r="G1481" s="45"/>
-    </row>
-    <row r="1482" spans="5:7">
-      <c r="E1482" s="45"/>
-      <c r="G1482" s="45"/>
-    </row>
-    <row r="1483" spans="5:7">
-      <c r="E1483" s="45"/>
-      <c r="G1483" s="45"/>
-    </row>
-    <row r="1484" spans="5:7">
-      <c r="E1484" s="45"/>
-      <c r="G1484" s="45"/>
-    </row>
-    <row r="1485" spans="5:7">
-      <c r="E1485" s="45"/>
-      <c r="G1485" s="45"/>
-    </row>
-    <row r="1486" spans="5:7">
-      <c r="E1486" s="45"/>
-      <c r="G1486" s="45"/>
-    </row>
-    <row r="1487" spans="5:7">
-      <c r="E1487" s="45"/>
-      <c r="G1487" s="45"/>
-    </row>
-    <row r="1488" spans="5:7">
-      <c r="E1488" s="45"/>
-      <c r="G1488" s="45"/>
-    </row>
-    <row r="1489" spans="5:7">
-      <c r="E1489" s="45"/>
-      <c r="G1489" s="45"/>
-    </row>
-    <row r="1490" spans="5:7">
-      <c r="E1490" s="45"/>
-      <c r="G1490" s="45"/>
-    </row>
-    <row r="1491" spans="5:7">
-      <c r="E1491" s="45"/>
-      <c r="G1491" s="45"/>
-    </row>
-    <row r="1492" spans="5:7">
-      <c r="E1492" s="45"/>
-      <c r="G1492" s="45"/>
-    </row>
-    <row r="1493" spans="5:7">
-      <c r="E1493" s="45"/>
-      <c r="G1493" s="45"/>
-    </row>
-    <row r="1494" spans="5:7">
-      <c r="E1494" s="45"/>
-      <c r="G1494" s="45"/>
-    </row>
-    <row r="1495" spans="5:7">
-      <c r="E1495" s="45"/>
-      <c r="G1495" s="45"/>
-    </row>
-    <row r="1496" spans="5:7">
-      <c r="E1496" s="45"/>
-      <c r="G1496" s="45"/>
-    </row>
-    <row r="1497" spans="5:7">
-      <c r="E1497" s="45"/>
-      <c r="G1497" s="45"/>
-    </row>
-    <row r="1498" spans="5:7">
-      <c r="E1498" s="45"/>
-      <c r="G1498" s="45"/>
-    </row>
-    <row r="1499" spans="5:7">
-      <c r="E1499" s="45"/>
-      <c r="G1499" s="45"/>
-    </row>
-    <row r="1500" spans="5:7">
-      <c r="E1500" s="45"/>
-      <c r="G1500" s="45"/>
-    </row>
-    <row r="1501" spans="5:7">
-      <c r="E1501" s="45"/>
-      <c r="G1501" s="45"/>
-    </row>
-    <row r="1502" spans="5:7">
-      <c r="E1502" s="45"/>
-      <c r="G1502" s="45"/>
-    </row>
-    <row r="1503" spans="5:7">
-      <c r="E1503" s="45"/>
-      <c r="G1503" s="45"/>
-    </row>
-    <row r="1504" spans="5:7">
-      <c r="E1504" s="45"/>
-      <c r="G1504" s="45"/>
-    </row>
-    <row r="1505" spans="5:7">
-      <c r="E1505" s="45"/>
-      <c r="G1505" s="45"/>
-    </row>
-    <row r="1506" spans="5:7">
-      <c r="E1506" s="45"/>
-      <c r="G1506" s="45"/>
-    </row>
-    <row r="1507" spans="5:7">
-      <c r="E1507" s="45"/>
-      <c r="G1507" s="45"/>
-    </row>
-    <row r="1508" spans="5:7">
-      <c r="E1508" s="45"/>
-      <c r="G1508" s="45"/>
-    </row>
-    <row r="1509" spans="5:7">
-      <c r="E1509" s="45"/>
-      <c r="G1509" s="45"/>
-    </row>
-    <row r="1510" spans="5:7">
-      <c r="E1510" s="45"/>
-      <c r="G1510" s="45"/>
-    </row>
-    <row r="1511" spans="5:7">
-      <c r="E1511" s="45"/>
-      <c r="G1511" s="45"/>
-    </row>
-    <row r="1512" spans="5:7">
-      <c r="E1512" s="45"/>
-      <c r="G1512" s="45"/>
-    </row>
-    <row r="1513" spans="5:7">
-      <c r="E1513" s="45"/>
-      <c r="G1513" s="45"/>
-    </row>
-    <row r="1514" spans="5:7">
-      <c r="E1514" s="45"/>
-      <c r="G1514" s="45"/>
-    </row>
-    <row r="1515" spans="5:7">
-      <c r="E1515" s="45"/>
-      <c r="G1515" s="45"/>
-    </row>
-    <row r="1516" spans="5:7">
-      <c r="E1516" s="45"/>
-      <c r="G1516" s="45"/>
-    </row>
-    <row r="1517" spans="5:7">
-      <c r="E1517" s="45"/>
-      <c r="G1517" s="45"/>
-    </row>
-    <row r="1518" spans="5:7">
-      <c r="E1518" s="45"/>
-      <c r="G1518" s="45"/>
-    </row>
-    <row r="1519" spans="5:7">
-      <c r="E1519" s="45"/>
-      <c r="G1519" s="45"/>
-    </row>
-    <row r="1520" spans="5:7">
-      <c r="E1520" s="45"/>
-      <c r="G1520" s="45"/>
-    </row>
-    <row r="1521" spans="5:7">
-      <c r="E1521" s="45"/>
-      <c r="G1521" s="45"/>
-    </row>
-    <row r="1522" spans="5:7">
-      <c r="E1522" s="45"/>
-      <c r="G1522" s="45"/>
-    </row>
-    <row r="1523" spans="5:7">
-      <c r="E1523" s="45"/>
-      <c r="G1523" s="45"/>
-    </row>
-    <row r="1524" spans="5:7">
-      <c r="E1524" s="45"/>
-      <c r="G1524" s="45"/>
-    </row>
-    <row r="1525" spans="5:7">
-      <c r="E1525" s="45"/>
-      <c r="G1525" s="45"/>
-    </row>
-    <row r="1526" spans="5:7">
-      <c r="E1526" s="45"/>
-      <c r="G1526" s="45"/>
-    </row>
-    <row r="1527" spans="5:7">
-      <c r="E1527" s="45"/>
-      <c r="G1527" s="45"/>
-    </row>
-    <row r="1528" spans="5:7">
-      <c r="E1528" s="45"/>
-      <c r="G1528" s="45"/>
-    </row>
-    <row r="1529" spans="5:7">
-      <c r="E1529" s="45"/>
-      <c r="G1529" s="45"/>
-    </row>
-    <row r="1530" spans="5:7">
-      <c r="E1530" s="45"/>
-      <c r="G1530" s="45"/>
-    </row>
-    <row r="1531" spans="5:7">
-      <c r="E1531" s="45"/>
-      <c r="G1531" s="45"/>
-    </row>
-    <row r="1532" spans="5:7">
-      <c r="E1532" s="45"/>
-      <c r="G1532" s="45"/>
-    </row>
-    <row r="1533" spans="5:7">
-      <c r="E1533" s="45"/>
-      <c r="G1533" s="45"/>
-    </row>
-    <row r="1534" spans="5:7">
-      <c r="E1534" s="45"/>
-      <c r="G1534" s="45"/>
-    </row>
-    <row r="1535" spans="5:7">
-      <c r="E1535" s="45"/>
-      <c r="G1535" s="45"/>
-    </row>
-    <row r="1536" spans="5:7">
-      <c r="E1536" s="45"/>
-      <c r="G1536" s="45"/>
-    </row>
-    <row r="1537" spans="5:7">
-      <c r="E1537" s="45"/>
-      <c r="G1537" s="45"/>
-    </row>
-    <row r="1538" spans="5:7">
-      <c r="E1538" s="45"/>
-      <c r="G1538" s="45"/>
-    </row>
-    <row r="1539" spans="5:7">
-      <c r="E1539" s="45"/>
-      <c r="G1539" s="45"/>
-    </row>
-    <row r="1540" spans="5:7">
-      <c r="E1540" s="45"/>
-      <c r="G1540" s="45"/>
-    </row>
-    <row r="1541" spans="5:7">
-      <c r="E1541" s="45"/>
-      <c r="G1541" s="45"/>
-    </row>
-    <row r="1542" spans="5:7">
-      <c r="E1542" s="45"/>
-      <c r="G1542" s="45"/>
-    </row>
-    <row r="1543" spans="5:7">
-      <c r="E1543" s="45"/>
-      <c r="G1543" s="45"/>
-    </row>
-    <row r="1544" spans="5:7">
-      <c r="E1544" s="45"/>
-      <c r="G1544" s="45"/>
-    </row>
-    <row r="1545" spans="5:7">
-      <c r="E1545" s="45"/>
-      <c r="G1545" s="45"/>
-    </row>
-    <row r="1546" spans="5:7">
-      <c r="E1546" s="45"/>
-      <c r="G1546" s="45"/>
-    </row>
-    <row r="1547" spans="5:7">
-      <c r="E1547" s="45"/>
-      <c r="G1547" s="45"/>
-    </row>
-    <row r="1548" spans="5:7">
-      <c r="E1548" s="45"/>
-      <c r="G1548" s="45"/>
-    </row>
-    <row r="1549" spans="5:7">
-      <c r="E1549" s="45"/>
-      <c r="G1549" s="45"/>
-    </row>
-    <row r="1550" spans="5:7">
-      <c r="E1550" s="45"/>
-      <c r="G1550" s="45"/>
-    </row>
-    <row r="1551" spans="5:7">
-      <c r="E1551" s="45"/>
-      <c r="G1551" s="45"/>
-    </row>
-    <row r="1552" spans="5:7">
-      <c r="E1552" s="45"/>
-      <c r="G1552" s="45"/>
-    </row>
-    <row r="1553" spans="5:7">
-      <c r="E1553" s="45"/>
-      <c r="G1553" s="45"/>
-    </row>
-    <row r="1554" spans="5:7">
-      <c r="E1554" s="45"/>
-      <c r="G1554" s="45"/>
-    </row>
-    <row r="1555" spans="5:7">
-      <c r="E1555" s="45"/>
-      <c r="G1555" s="45"/>
-    </row>
-    <row r="1556" spans="5:7">
-      <c r="E1556" s="45"/>
-      <c r="G1556" s="45"/>
-    </row>
-    <row r="1557" spans="5:7">
-      <c r="E1557" s="45"/>
-      <c r="G1557" s="45"/>
-    </row>
-    <row r="1558" spans="5:7">
-      <c r="E1558" s="45"/>
-      <c r="G1558" s="45"/>
-    </row>
-    <row r="1559" spans="5:7">
-      <c r="E1559" s="45"/>
-      <c r="G1559" s="45"/>
-    </row>
-    <row r="1560" spans="5:7">
-      <c r="E1560" s="45"/>
-      <c r="G1560" s="45"/>
-    </row>
-    <row r="1561" spans="5:7">
-      <c r="E1561" s="45"/>
-      <c r="G1561" s="45"/>
-    </row>
-    <row r="1562" spans="5:7">
-      <c r="E1562" s="45"/>
-      <c r="G1562" s="45"/>
-    </row>
-    <row r="1563" spans="5:7">
-      <c r="E1563" s="45"/>
-      <c r="G1563" s="45"/>
-    </row>
-    <row r="1564" spans="5:7">
-      <c r="E1564" s="45"/>
-      <c r="G1564" s="45"/>
-    </row>
-    <row r="1565" spans="5:7">
-      <c r="E1565" s="45"/>
-      <c r="G1565" s="45"/>
-    </row>
-    <row r="1566" spans="5:7">
-      <c r="E1566" s="45"/>
-      <c r="G1566" s="45"/>
-    </row>
-    <row r="1567" spans="5:7">
-      <c r="E1567" s="45"/>
-      <c r="G1567" s="45"/>
-    </row>
-    <row r="1568" spans="5:7">
-      <c r="E1568" s="45"/>
-      <c r="G1568" s="45"/>
-    </row>
-    <row r="1569" spans="5:7">
-      <c r="E1569" s="45"/>
-      <c r="G1569" s="45"/>
-    </row>
-    <row r="1570" spans="5:7">
-      <c r="E1570" s="45"/>
-      <c r="G1570" s="45"/>
-    </row>
-    <row r="1571" spans="5:7">
-      <c r="E1571" s="45"/>
-      <c r="G1571" s="45"/>
-    </row>
-    <row r="1572" spans="5:7">
-      <c r="E1572" s="45"/>
-      <c r="G1572" s="45"/>
-    </row>
-    <row r="1573" spans="5:7">
-      <c r="E1573" s="45"/>
-      <c r="G1573" s="45"/>
-    </row>
-    <row r="1574" spans="5:7">
-      <c r="E1574" s="45"/>
-      <c r="G1574" s="45"/>
-    </row>
-    <row r="1575" spans="5:7">
-      <c r="E1575" s="45"/>
-      <c r="G1575" s="45"/>
-    </row>
-    <row r="1576" spans="5:7">
-      <c r="E1576" s="45"/>
-      <c r="G1576" s="45"/>
-    </row>
-    <row r="1577" spans="5:7">
-      <c r="E1577" s="45"/>
-      <c r="G1577" s="45"/>
-    </row>
-    <row r="1578" spans="5:7">
-      <c r="E1578" s="45"/>
-      <c r="G1578" s="45"/>
-    </row>
-    <row r="1579" spans="5:7">
-      <c r="E1579" s="45"/>
-      <c r="G1579" s="45"/>
-    </row>
-    <row r="1580" spans="5:7">
-      <c r="E1580" s="45"/>
-      <c r="G1580" s="45"/>
-    </row>
-    <row r="1581" spans="5:7">
-      <c r="E1581" s="45"/>
-      <c r="G1581" s="45"/>
-    </row>
-    <row r="1582" spans="5:7">
-      <c r="E1582" s="45"/>
-      <c r="G1582" s="45"/>
-    </row>
-    <row r="1583" spans="5:7">
-      <c r="E1583" s="45"/>
-      <c r="G1583" s="45"/>
-    </row>
-    <row r="1584" spans="5:7">
-      <c r="E1584" s="45"/>
-      <c r="G1584" s="45"/>
-    </row>
-    <row r="1585" spans="5:7">
-      <c r="E1585" s="45"/>
-      <c r="G1585" s="45"/>
-    </row>
-    <row r="1586" spans="5:7">
-      <c r="G1586" s="45"/>
-    </row>
-    <row r="1587" spans="5:7">
-      <c r="G1587" s="45"/>
-    </row>
-    <row r="1588" spans="5:7">
-      <c r="G1588" s="45"/>
-    </row>
-    <row r="1589" spans="5:7">
-      <c r="G1589" s="45"/>
-    </row>
-    <row r="1590" spans="5:7">
-      <c r="G1590" s="45"/>
-    </row>
-    <row r="1591" spans="5:7">
-      <c r="G1591" s="45"/>
-    </row>
-    <row r="1592" spans="5:7">
-      <c r="G1592" s="45"/>
-    </row>
-    <row r="1593" spans="5:7">
-      <c r="G1593" s="45"/>
-    </row>
-    <row r="1594" spans="5:7">
-      <c r="G1594" s="45"/>
-    </row>
-    <row r="1595" spans="5:7">
-      <c r="G1595" s="45"/>
-    </row>
-    <row r="1596" spans="5:7">
-      <c r="G1596" s="45"/>
-    </row>
-    <row r="1597" spans="5:7">
-      <c r="G1597" s="45"/>
-    </row>
-    <row r="1598" spans="5:7">
-      <c r="G1598" s="45"/>
-    </row>
-    <row r="1599" spans="5:7">
-      <c r="G1599" s="45"/>
-    </row>
-    <row r="1600" spans="5:7">
-      <c r="G1600" s="45"/>
-    </row>
-    <row r="1601" spans="7:7">
-      <c r="G1601" s="45"/>
-    </row>
-    <row r="1602" spans="7:7">
-      <c r="G1602" s="45"/>
-    </row>
-    <row r="1603" spans="7:7">
-      <c r="G1603" s="45"/>
-    </row>
-    <row r="1604" spans="7:7">
-      <c r="G1604" s="45"/>
-    </row>
-    <row r="1605" spans="7:7">
-      <c r="G1605" s="45"/>
-    </row>
-    <row r="1606" spans="7:7">
-      <c r="G1606" s="45"/>
-    </row>
-    <row r="1607" spans="7:7">
-      <c r="G1607" s="45"/>
-    </row>
-    <row r="1608" spans="7:7">
-      <c r="G1608" s="45"/>
-    </row>
-    <row r="1609" spans="7:7">
-      <c r="G1609" s="45"/>
-    </row>
-    <row r="1610" spans="7:7">
-      <c r="G1610" s="45"/>
-    </row>
-    <row r="1611" spans="7:7">
-      <c r="G1611" s="45"/>
-    </row>
-    <row r="1612" spans="7:7">
-      <c r="G1612" s="45"/>
-    </row>
-    <row r="1613" spans="7:7">
-      <c r="G1613" s="45"/>
-    </row>
-    <row r="1614" spans="7:7">
-      <c r="G1614" s="45"/>
-    </row>
-    <row r="1615" spans="7:7">
-      <c r="G1615" s="45"/>
-    </row>
-    <row r="1616" spans="7:7">
-      <c r="G1616" s="45"/>
-    </row>
-    <row r="1617" spans="7:7">
-      <c r="G1617" s="45"/>
-    </row>
-    <row r="1618" spans="7:7">
-      <c r="G1618" s="45"/>
-    </row>
-    <row r="1619" spans="7:7">
-      <c r="G1619" s="45"/>
-    </row>
-    <row r="1620" spans="7:7">
-      <c r="G1620" s="45"/>
-    </row>
-    <row r="1621" spans="7:7">
-      <c r="G1621" s="45"/>
-    </row>
-    <row r="1622" spans="7:7">
-      <c r="G1622" s="45"/>
-    </row>
-    <row r="1623" spans="7:7">
-      <c r="G1623" s="45"/>
-    </row>
-    <row r="1624" spans="7:7">
-      <c r="G1624" s="45"/>
-    </row>
-    <row r="1625" spans="7:7">
-      <c r="G1625" s="45"/>
-    </row>
-    <row r="1626" spans="7:7">
-      <c r="G1626" s="45"/>
-    </row>
-    <row r="1627" spans="7:7">
-      <c r="G1627" s="45"/>
-    </row>
-    <row r="1628" spans="7:7">
-      <c r="G1628" s="45"/>
-    </row>
-    <row r="1629" spans="7:7">
-      <c r="G1629" s="45"/>
-    </row>
-    <row r="1630" spans="7:7">
-      <c r="G1630" s="45"/>
-    </row>
-    <row r="1631" spans="7:7">
-      <c r="G1631" s="45"/>
-    </row>
-    <row r="1632" spans="7:7">
-      <c r="G1632" s="45"/>
-    </row>
-    <row r="1633" spans="7:7">
-      <c r="G1633" s="45"/>
-    </row>
-    <row r="1634" spans="7:7">
-      <c r="G1634" s="45"/>
-    </row>
-    <row r="1635" spans="7:7">
-      <c r="G1635" s="45"/>
-    </row>
-    <row r="1636" spans="7:7">
-      <c r="G1636" s="45"/>
-    </row>
-    <row r="1637" spans="7:7">
-      <c r="G1637" s="45"/>
-    </row>
-    <row r="1638" spans="7:7">
-      <c r="G1638" s="45"/>
-    </row>
-    <row r="1639" spans="7:7">
-      <c r="G1639" s="45"/>
-    </row>
-    <row r="1640" spans="7:7">
-      <c r="G1640" s="45"/>
-    </row>
-    <row r="1641" spans="7:7">
-      <c r="G1641" s="45"/>
-    </row>
-    <row r="1642" spans="7:7">
-      <c r="G1642" s="45"/>
-    </row>
-    <row r="1643" spans="7:7">
-      <c r="G1643" s="45"/>
-    </row>
-    <row r="1644" spans="7:7">
-      <c r="G1644" s="45"/>
-    </row>
-    <row r="1645" spans="7:7">
-      <c r="G1645" s="45"/>
-    </row>
-    <row r="1646" spans="7:7">
-      <c r="G1646" s="45"/>
-    </row>
-    <row r="1647" spans="7:7">
-      <c r="G1647" s="45"/>
-    </row>
-    <row r="1648" spans="7:7">
-      <c r="G1648" s="45"/>
-    </row>
-    <row r="1649" spans="7:7">
-      <c r="G1649" s="45"/>
-    </row>
-    <row r="1650" spans="7:7">
-      <c r="G1650" s="45"/>
-    </row>
-    <row r="1651" spans="7:7">
-      <c r="G1651" s="45"/>
-    </row>
-    <row r="1652" spans="7:7">
-      <c r="G1652" s="45"/>
-    </row>
-    <row r="1653" spans="7:7">
-      <c r="G1653" s="45"/>
-    </row>
-    <row r="1654" spans="7:7">
-      <c r="G1654" s="45"/>
-    </row>
-    <row r="1655" spans="7:7">
-      <c r="G1655" s="45"/>
-    </row>
-    <row r="1656" spans="7:7">
-      <c r="G1656" s="45"/>
-    </row>
-    <row r="1657" spans="7:7">
-      <c r="G1657" s="45"/>
-    </row>
-    <row r="1658" spans="7:7">
-      <c r="G1658" s="45"/>
-    </row>
-    <row r="1659" spans="7:7">
-      <c r="G1659" s="45"/>
-    </row>
-    <row r="1660" spans="7:7">
-      <c r="G1660" s="45"/>
-    </row>
-    <row r="1661" spans="7:7">
-      <c r="G1661" s="45"/>
-    </row>
-    <row r="1662" spans="7:7">
-      <c r="G1662" s="45"/>
-    </row>
-    <row r="1663" spans="7:7">
-      <c r="G1663" s="45"/>
-    </row>
-    <row r="1664" spans="7:7">
-      <c r="G1664" s="45"/>
-    </row>
-    <row r="1665" spans="7:7">
-      <c r="G1665" s="45"/>
-    </row>
-    <row r="1666" spans="7:7">
-      <c r="G1666" s="45"/>
-    </row>
-    <row r="1667" spans="7:7">
-      <c r="G1667" s="45"/>
-    </row>
-    <row r="1668" spans="7:7">
-      <c r="G1668" s="45"/>
-    </row>
-    <row r="1669" spans="7:7">
-      <c r="G1669" s="45"/>
-    </row>
-    <row r="1670" spans="7:7">
-      <c r="G1670" s="45"/>
-    </row>
-    <row r="1671" spans="7:7">
-      <c r="G1671" s="45"/>
-    </row>
-    <row r="1672" spans="7:7">
-      <c r="G1672" s="45"/>
-    </row>
-    <row r="1673" spans="7:7">
-      <c r="G1673" s="45"/>
-    </row>
-    <row r="1674" spans="7:7">
-      <c r="G1674" s="45"/>
-    </row>
-    <row r="1675" spans="7:7">
-      <c r="G1675" s="45"/>
-    </row>
-    <row r="1676" spans="7:7">
-      <c r="G1676" s="45"/>
-    </row>
-    <row r="1677" spans="7:7">
-      <c r="G1677" s="45"/>
-    </row>
-    <row r="1678" spans="7:7">
-      <c r="G1678" s="45"/>
-    </row>
-    <row r="1679" spans="7:7">
-      <c r="G1679" s="45"/>
-    </row>
-    <row r="1680" spans="7:7">
-      <c r="G1680" s="45"/>
-    </row>
-    <row r="1681" spans="7:7">
-      <c r="G1681" s="45"/>
-    </row>
-    <row r="1682" spans="7:7">
-      <c r="G1682" s="45"/>
-    </row>
-    <row r="1683" spans="7:7">
-      <c r="G1683" s="45"/>
-    </row>
-    <row r="1684" spans="7:7">
-      <c r="G1684" s="45"/>
-    </row>
-    <row r="1685" spans="7:7">
-      <c r="G1685" s="45"/>
-    </row>
-    <row r="1686" spans="7:7">
-      <c r="G1686" s="45"/>
-    </row>
-    <row r="1687" spans="7:7">
-      <c r="G1687" s="45"/>
-    </row>
-    <row r="1688" spans="7:7">
-      <c r="G1688" s="45"/>
-    </row>
-    <row r="1689" spans="7:7">
-      <c r="G1689" s="45"/>
-    </row>
-    <row r="1690" spans="7:7">
-      <c r="G1690" s="45"/>
-    </row>
-    <row r="1691" spans="7:7">
-      <c r="G1691" s="45"/>
-    </row>
-    <row r="1692" spans="7:7">
-      <c r="G1692" s="45"/>
-    </row>
-    <row r="1693" spans="7:7">
-      <c r="G1693" s="45"/>
-    </row>
-    <row r="1694" spans="7:7">
-      <c r="G1694" s="45"/>
-    </row>
-    <row r="1695" spans="7:7">
-      <c r="G1695" s="45"/>
-    </row>
-    <row r="1696" spans="7:7">
-      <c r="G1696" s="45"/>
-    </row>
-    <row r="1697" spans="7:7">
-      <c r="G1697" s="45"/>
-    </row>
-    <row r="1698" spans="7:7">
-      <c r="G1698" s="45"/>
-    </row>
-    <row r="1699" spans="7:7">
-      <c r="G1699" s="45"/>
-    </row>
-    <row r="1700" spans="7:7">
-      <c r="G1700" s="45"/>
-    </row>
-    <row r="1701" spans="7:7">
-      <c r="G1701" s="45"/>
-    </row>
-    <row r="1702" spans="7:7">
-      <c r="G1702" s="45"/>
-    </row>
-    <row r="1703" spans="7:7">
-      <c r="G1703" s="45"/>
-    </row>
-    <row r="1704" spans="7:7">
-      <c r="G1704" s="45"/>
-    </row>
-    <row r="1705" spans="7:7">
-      <c r="G1705" s="45"/>
-    </row>
-    <row r="1706" spans="7:7">
-      <c r="G1706" s="45"/>
-    </row>
-    <row r="1707" spans="7:7">
-      <c r="G1707" s="45"/>
-    </row>
-    <row r="1708" spans="7:7">
-      <c r="G1708" s="45"/>
-    </row>
-    <row r="1709" spans="7:7">
-      <c r="G1709" s="45"/>
-    </row>
-    <row r="1710" spans="7:7">
-      <c r="G1710" s="45"/>
-    </row>
-    <row r="1711" spans="7:7">
-      <c r="G1711" s="45"/>
-    </row>
-    <row r="1712" spans="7:7">
-      <c r="G1712" s="45"/>
-    </row>
-    <row r="1713" spans="7:7">
-      <c r="G1713" s="45"/>
-    </row>
-    <row r="1714" spans="7:7">
-      <c r="G1714" s="45"/>
-    </row>
-    <row r="1715" spans="7:7">
-      <c r="G1715" s="45"/>
-    </row>
-    <row r="1716" spans="7:7">
-      <c r="G1716" s="45"/>
-    </row>
-    <row r="1717" spans="7:7">
-      <c r="G1717" s="45"/>
-    </row>
-    <row r="1718" spans="7:7">
-      <c r="G1718" s="45"/>
-    </row>
-    <row r="1719" spans="7:7">
-      <c r="G1719" s="45"/>
-    </row>
-    <row r="1720" spans="7:7">
-      <c r="G1720" s="45"/>
-    </row>
-    <row r="1721" spans="7:7">
-      <c r="G1721" s="45"/>
-    </row>
-    <row r="1722" spans="7:7">
-      <c r="G1722" s="45"/>
-    </row>
-    <row r="1723" spans="7:7">
-      <c r="G1723" s="45"/>
-    </row>
-    <row r="1724" spans="7:7">
-      <c r="G1724" s="45"/>
-    </row>
-    <row r="1725" spans="7:7">
-      <c r="G1725" s="45"/>
-    </row>
-    <row r="1726" spans="7:7">
-      <c r="G1726" s="45"/>
-    </row>
-    <row r="1727" spans="7:7">
-      <c r="G1727" s="45"/>
-    </row>
-    <row r="1728" spans="7:7">
-      <c r="G1728" s="45"/>
-    </row>
-    <row r="1729" spans="7:7">
-      <c r="G1729" s="45"/>
-    </row>
-    <row r="1730" spans="7:7">
-      <c r="G1730" s="45"/>
-    </row>
-    <row r="1731" spans="7:7">
-      <c r="G1731" s="45"/>
-    </row>
-    <row r="1732" spans="7:7">
-      <c r="G1732" s="45"/>
-    </row>
-    <row r="1733" spans="7:7">
-      <c r="G1733" s="45"/>
-    </row>
-    <row r="1734" spans="7:7">
-      <c r="G1734" s="45"/>
-    </row>
-    <row r="1735" spans="7:7">
-      <c r="G1735" s="45"/>
-    </row>
-    <row r="1736" spans="7:7">
-      <c r="G1736" s="45"/>
-    </row>
-    <row r="1737" spans="7:7">
-      <c r="G1737" s="45"/>
-    </row>
-    <row r="1738" spans="7:7">
-      <c r="G1738" s="45"/>
-    </row>
-    <row r="1739" spans="7:7">
-      <c r="G1739" s="45"/>
-    </row>
-    <row r="1740" spans="7:7">
-      <c r="G1740" s="45"/>
-    </row>
-    <row r="1741" spans="7:7">
-      <c r="G1741" s="45"/>
-    </row>
-    <row r="1742" spans="7:7">
-      <c r="G1742" s="45"/>
-    </row>
-    <row r="1743" spans="7:7">
-      <c r="G1743" s="45"/>
-    </row>
-    <row r="1744" spans="7:7">
-      <c r="G1744" s="45"/>
-    </row>
-    <row r="1745" spans="7:7">
-      <c r="G1745" s="45"/>
-    </row>
-    <row r="1746" spans="7:7">
-      <c r="G1746" s="45"/>
-    </row>
-    <row r="1747" spans="7:7">
-      <c r="G1747" s="45"/>
-    </row>
-    <row r="1748" spans="7:7">
-      <c r="G1748" s="45"/>
-    </row>
-    <row r="1749" spans="7:7">
-      <c r="G1749" s="45"/>
-    </row>
-    <row r="1750" spans="7:7">
-      <c r="G1750" s="45"/>
-    </row>
-    <row r="1751" spans="7:7">
-      <c r="G1751" s="45"/>
-    </row>
-    <row r="1752" spans="7:7">
-      <c r="G1752" s="45"/>
-    </row>
-    <row r="1753" spans="7:7">
-      <c r="G1753" s="45"/>
-    </row>
-    <row r="1754" spans="7:7">
-      <c r="G1754" s="45"/>
-    </row>
-    <row r="1755" spans="7:7">
-      <c r="G1755" s="45"/>
-    </row>
-    <row r="1756" spans="7:7">
-      <c r="G1756" s="45"/>
-    </row>
-    <row r="1757" spans="7:7">
-      <c r="G1757" s="45"/>
-    </row>
-    <row r="1758" spans="7:7">
-      <c r="G1758" s="45"/>
-    </row>
-    <row r="1759" spans="7:7">
-      <c r="G1759" s="45"/>
-    </row>
-    <row r="1760" spans="7:7">
-      <c r="G1760" s="45"/>
-    </row>
-    <row r="1761" spans="7:7">
-      <c r="G1761" s="45"/>
-    </row>
-    <row r="1762" spans="7:7">
-      <c r="G1762" s="45"/>
-    </row>
-    <row r="1763" spans="7:7">
-      <c r="G1763" s="45"/>
-    </row>
-    <row r="1764" spans="7:7">
-      <c r="G1764" s="45"/>
-    </row>
-    <row r="1765" spans="7:7">
-      <c r="G1765" s="45"/>
-    </row>
-    <row r="1766" spans="7:7">
-      <c r="G1766" s="45"/>
-    </row>
-    <row r="1767" spans="7:7">
-      <c r="G1767" s="45"/>
-    </row>
-    <row r="1768" spans="7:7">
-      <c r="G1768" s="45"/>
-    </row>
-    <row r="1769" spans="7:7">
-      <c r="G1769" s="45"/>
-    </row>
-    <row r="1770" spans="7:7">
-      <c r="G1770" s="45"/>
-    </row>
-    <row r="1771" spans="7:7">
-      <c r="G1771" s="45"/>
-    </row>
-    <row r="1772" spans="7:7">
-      <c r="G1772" s="45"/>
-    </row>
-    <row r="1773" spans="7:7">
-      <c r="G1773" s="45"/>
-    </row>
-    <row r="1774" spans="7:7">
-      <c r="G1774" s="45"/>
-    </row>
-    <row r="1775" spans="7:7">
-      <c r="G1775" s="45"/>
-    </row>
-    <row r="1776" spans="7:7">
-      <c r="G1776" s="45"/>
-    </row>
-    <row r="1777" spans="7:7">
-      <c r="G1777" s="45"/>
-    </row>
-    <row r="1778" spans="7:7">
-      <c r="G1778" s="45"/>
-    </row>
-    <row r="1779" spans="7:7">
-      <c r="G1779" s="45"/>
-    </row>
-    <row r="1780" spans="7:7">
-      <c r="G1780" s="45"/>
-    </row>
-    <row r="1781" spans="7:7">
-      <c r="G1781" s="45"/>
-    </row>
-    <row r="1782" spans="7:7">
-      <c r="G1782" s="45"/>
-    </row>
-    <row r="1783" spans="7:7">
-      <c r="G1783" s="45"/>
-    </row>
-    <row r="1784" spans="7:7">
-      <c r="G1784" s="45"/>
-    </row>
-    <row r="1785" spans="7:7">
-      <c r="G1785" s="45"/>
-    </row>
-    <row r="1786" spans="7:7">
-      <c r="G1786" s="45"/>
-    </row>
-    <row r="1787" spans="7:7">
-      <c r="G1787" s="45"/>
-    </row>
-    <row r="1788" spans="7:7">
-      <c r="G1788" s="45"/>
-    </row>
-    <row r="1789" spans="7:7">
-      <c r="G1789" s="45"/>
-    </row>
-    <row r="1790" spans="7:7">
-      <c r="G1790" s="45"/>
-    </row>
-    <row r="1791" spans="7:7">
-      <c r="G1791" s="45"/>
-    </row>
-    <row r="1792" spans="7:7">
-      <c r="G1792" s="45"/>
-    </row>
-    <row r="1793" spans="7:7">
-      <c r="G1793" s="45"/>
-    </row>
-    <row r="1794" spans="7:7">
-      <c r="G1794" s="45"/>
-    </row>
-    <row r="1795" spans="7:7">
-      <c r="G1795" s="45"/>
-    </row>
-    <row r="1796" spans="7:7">
-      <c r="G1796" s="45"/>
-    </row>
-    <row r="1797" spans="7:7">
-      <c r="G1797" s="45"/>
-    </row>
-    <row r="1798" spans="7:7">
-      <c r="G1798" s="45"/>
-    </row>
-    <row r="1799" spans="7:7">
-      <c r="G1799" s="45"/>
-    </row>
-    <row r="1800" spans="7:7">
-      <c r="G1800" s="45"/>
-    </row>
-    <row r="1801" spans="7:7">
-      <c r="G1801" s="45"/>
-    </row>
-    <row r="1802" spans="7:7">
-      <c r="G1802" s="45"/>
-    </row>
-    <row r="1803" spans="7:7">
-      <c r="G1803" s="45"/>
-    </row>
-    <row r="1804" spans="7:7">
-      <c r="G1804" s="45"/>
-    </row>
-    <row r="1805" spans="7:7">
-      <c r="G1805" s="45"/>
-    </row>
-    <row r="1806" spans="7:7">
-      <c r="G1806" s="45"/>
-    </row>
-    <row r="1807" spans="7:7">
-      <c r="G1807" s="45"/>
-    </row>
-    <row r="1808" spans="7:7">
-      <c r="G1808" s="45"/>
-    </row>
-    <row r="1809" spans="7:7">
-      <c r="G1809" s="45"/>
-    </row>
-    <row r="1810" spans="7:7">
-      <c r="G1810" s="45"/>
-    </row>
-    <row r="1811" spans="7:7">
-      <c r="G1811" s="45"/>
-    </row>
-    <row r="1812" spans="7:7">
-      <c r="G1812" s="45"/>
-    </row>
-    <row r="1813" spans="7:7">
-      <c r="G1813" s="45"/>
-    </row>
-    <row r="1814" spans="7:7">
-      <c r="G1814" s="45"/>
-    </row>
-    <row r="1815" spans="7:7">
-      <c r="G1815" s="45"/>
-    </row>
-    <row r="1816" spans="7:7">
-      <c r="G1816" s="45"/>
-    </row>
-    <row r="1817" spans="7:7">
-      <c r="G1817" s="45"/>
-    </row>
-    <row r="1818" spans="7:7">
-      <c r="G1818" s="45"/>
-    </row>
-    <row r="1819" spans="7:7">
-      <c r="G1819" s="45"/>
-    </row>
-    <row r="1820" spans="7:7">
-      <c r="G1820" s="45"/>
-    </row>
-    <row r="1821" spans="7:7">
-      <c r="G1821" s="45"/>
-    </row>
-    <row r="1822" spans="7:7">
-      <c r="G1822" s="45"/>
-    </row>
-    <row r="1823" spans="7:7">
-      <c r="G1823" s="45"/>
-    </row>
-    <row r="1824" spans="7:7">
-      <c r="G1824" s="45"/>
-    </row>
-    <row r="1825" spans="7:7">
-      <c r="G1825" s="45"/>
-    </row>
-    <row r="1826" spans="7:7">
-      <c r="G1826" s="45"/>
-    </row>
-    <row r="1827" spans="7:7">
-      <c r="G1827" s="45"/>
-    </row>
-    <row r="1828" spans="7:7">
-      <c r="G1828" s="45"/>
-    </row>
-    <row r="1829" spans="7:7">
-      <c r="G1829" s="45"/>
-    </row>
-    <row r="1830" spans="7:7">
-      <c r="G1830" s="45"/>
-    </row>
-    <row r="1831" spans="7:7">
-      <c r="G1831" s="45"/>
-    </row>
-    <row r="1832" spans="7:7">
-      <c r="G1832" s="45"/>
-    </row>
-    <row r="1833" spans="7:7">
-      <c r="G1833" s="45"/>
-    </row>
-    <row r="1834" spans="7:7">
-      <c r="G1834" s="45"/>
-    </row>
-    <row r="1835" spans="7:7">
-      <c r="G1835" s="45"/>
-    </row>
-    <row r="1836" spans="7:7">
-      <c r="G1836" s="45"/>
-    </row>
-    <row r="1837" spans="7:7">
-      <c r="G1837" s="45"/>
-    </row>
-    <row r="1838" spans="7:7">
-      <c r="G1838" s="45"/>
-    </row>
-    <row r="1839" spans="7:7">
-      <c r="G1839" s="45"/>
-    </row>
-    <row r="1840" spans="7:7">
-      <c r="G1840" s="45"/>
-    </row>
-    <row r="1841" spans="7:7">
-      <c r="G1841" s="45"/>
-    </row>
-    <row r="1842" spans="7:7">
-      <c r="G1842" s="45"/>
-    </row>
-    <row r="1843" spans="7:7">
-      <c r="G1843" s="45"/>
-    </row>
-    <row r="1844" spans="7:7">
-      <c r="G1844" s="45"/>
-    </row>
-    <row r="1845" spans="7:7">
-      <c r="G1845" s="45"/>
-    </row>
-    <row r="1846" spans="7:7">
-      <c r="G1846" s="45"/>
-    </row>
-    <row r="1847" spans="7:7">
-      <c r="G1847" s="45"/>
-    </row>
-    <row r="1848" spans="7:7">
-      <c r="G1848" s="45"/>
-    </row>
-    <row r="1849" spans="7:7">
-      <c r="G1849" s="45"/>
-    </row>
-    <row r="1850" spans="7:7">
-      <c r="G1850" s="45"/>
-    </row>
-    <row r="1851" spans="7:7">
-      <c r="G1851" s="45"/>
-    </row>
-    <row r="1852" spans="7:7">
-      <c r="G1852" s="45"/>
-    </row>
-    <row r="1853" spans="7:7">
-      <c r="G1853" s="45"/>
-    </row>
-    <row r="1854" spans="7:7">
-      <c r="G1854" s="45"/>
-    </row>
-    <row r="1855" spans="7:7">
-      <c r="G1855" s="45"/>
-    </row>
-    <row r="1856" spans="7:7">
-      <c r="G1856" s="45"/>
-    </row>
-    <row r="1857" spans="7:7">
-      <c r="G1857" s="45"/>
-    </row>
-    <row r="1858" spans="7:7">
-      <c r="G1858" s="45"/>
-    </row>
-    <row r="1859" spans="7:7">
-      <c r="G1859" s="45"/>
-    </row>
-    <row r="1860" spans="7:7">
-      <c r="G1860" s="45"/>
-    </row>
-    <row r="1861" spans="7:7">
-      <c r="G1861" s="45"/>
-    </row>
-    <row r="1862" spans="7:7">
-      <c r="G1862" s="45"/>
-    </row>
-    <row r="1863" spans="7:7">
-      <c r="G1863" s="45"/>
-    </row>
-    <row r="1864" spans="7:7">
-      <c r="G1864" s="45"/>
-    </row>
-    <row r="1865" spans="7:7">
-      <c r="G1865" s="45"/>
-    </row>
-    <row r="1866" spans="7:7">
-      <c r="G1866" s="45"/>
-    </row>
-    <row r="1867" spans="7:7">
-      <c r="G1867" s="45"/>
-    </row>
-    <row r="1868" spans="7:7">
-      <c r="G1868" s="45"/>
-    </row>
-    <row r="1869" spans="7:7">
-      <c r="G1869" s="45"/>
-    </row>
-    <row r="1870" spans="7:7">
-      <c r="G1870" s="45"/>
-    </row>
-    <row r="1871" spans="7:7">
-      <c r="G1871" s="45"/>
-    </row>
-    <row r="1872" spans="7:7">
-      <c r="G1872" s="45"/>
-    </row>
-    <row r="1873" spans="7:7">
-      <c r="G1873" s="45"/>
-    </row>
-    <row r="1874" spans="7:7">
-      <c r="G1874" s="45"/>
-    </row>
-    <row r="1875" spans="7:7">
-      <c r="G1875" s="45"/>
-    </row>
-    <row r="1876" spans="7:7">
-      <c r="G1876" s="45"/>
-    </row>
-    <row r="1877" spans="7:7">
-      <c r="G1877" s="45"/>
-    </row>
-    <row r="1878" spans="7:7">
-      <c r="G1878" s="45"/>
-    </row>
-    <row r="1879" spans="7:7">
-      <c r="G1879" s="45"/>
-    </row>
-    <row r="1880" spans="7:7">
-      <c r="G1880" s="45"/>
-    </row>
-    <row r="1881" spans="7:7">
-      <c r="G1881" s="45"/>
-    </row>
-    <row r="1882" spans="7:7">
-      <c r="G1882" s="45"/>
-    </row>
-    <row r="1883" spans="7:7">
-      <c r="G1883" s="45"/>
-    </row>
-    <row r="1884" spans="7:7">
-      <c r="G1884" s="45"/>
-    </row>
-    <row r="1885" spans="7:7">
-      <c r="G1885" s="45"/>
-    </row>
-    <row r="1886" spans="7:7">
-      <c r="G1886" s="45"/>
-    </row>
-    <row r="1887" spans="7:7">
-      <c r="G1887" s="45"/>
-    </row>
-    <row r="1888" spans="7:7">
-      <c r="G1888" s="45"/>
-    </row>
-    <row r="1889" spans="7:7">
-      <c r="G1889" s="45"/>
-    </row>
-    <row r="1890" spans="7:7">
-      <c r="G1890" s="45"/>
-    </row>
-    <row r="1891" spans="7:7">
-      <c r="G1891" s="45"/>
-    </row>
-    <row r="1892" spans="7:7">
-      <c r="G1892" s="45"/>
-    </row>
-    <row r="1893" spans="7:7">
-      <c r="G1893" s="45"/>
-    </row>
-    <row r="1894" spans="7:7">
-      <c r="G1894" s="45"/>
-    </row>
-    <row r="1895" spans="7:7">
-      <c r="G1895" s="45"/>
-    </row>
-    <row r="1896" spans="7:7">
-      <c r="G1896" s="45"/>
-    </row>
-    <row r="1897" spans="7:7">
-      <c r="G1897" s="45"/>
-    </row>
-    <row r="1898" spans="7:7">
-      <c r="G1898" s="45"/>
-    </row>
-    <row r="1899" spans="7:7">
-      <c r="G1899" s="45"/>
-    </row>
-    <row r="1900" spans="7:7">
-      <c r="G1900" s="45"/>
-    </row>
-    <row r="1901" spans="7:7">
-      <c r="G1901" s="45"/>
-    </row>
-    <row r="1902" spans="7:7">
-      <c r="G1902" s="45"/>
-    </row>
-    <row r="1903" spans="7:7">
-      <c r="G1903" s="45"/>
-    </row>
-    <row r="1904" spans="7:7">
-      <c r="G1904" s="45"/>
-    </row>
-    <row r="1905" spans="7:7">
-      <c r="G1905" s="45"/>
-    </row>
-    <row r="1906" spans="7:7">
-      <c r="G1906" s="45"/>
-    </row>
-    <row r="1907" spans="7:7">
-      <c r="G1907" s="45"/>
-    </row>
-    <row r="1908" spans="7:7">
-      <c r="G1908" s="45"/>
-    </row>
-    <row r="1909" spans="7:7">
-      <c r="G1909" s="45"/>
-    </row>
-    <row r="1910" spans="7:7">
-      <c r="G1910" s="45"/>
-    </row>
-    <row r="1911" spans="7:7">
-      <c r="G1911" s="45"/>
-    </row>
-    <row r="1912" spans="7:7">
-      <c r="G1912" s="45"/>
-    </row>
-    <row r="1913" spans="7:7">
-      <c r="G1913" s="45"/>
-    </row>
-    <row r="1914" spans="7:7">
-      <c r="G1914" s="45"/>
-    </row>
-    <row r="1915" spans="7:7">
-      <c r="G1915" s="45"/>
-    </row>
-    <row r="1916" spans="7:7">
-      <c r="G1916" s="45"/>
-    </row>
-    <row r="1917" spans="7:7">
-      <c r="G1917" s="45"/>
-    </row>
-    <row r="1918" spans="7:7">
-      <c r="G1918" s="45"/>
-    </row>
-    <row r="1919" spans="7:7">
-      <c r="G1919" s="45"/>
-    </row>
-    <row r="1920" spans="7:7">
-      <c r="G1920" s="45"/>
-    </row>
-    <row r="1921" spans="7:7">
-      <c r="G1921" s="45"/>
-    </row>
-    <row r="1922" spans="7:7">
-      <c r="G1922" s="45"/>
-    </row>
-    <row r="1923" spans="7:7">
-      <c r="G1923" s="45"/>
-    </row>
-    <row r="1924" spans="7:7">
-      <c r="G1924" s="45"/>
-    </row>
-    <row r="1925" spans="7:7">
-      <c r="G1925" s="45"/>
-    </row>
-    <row r="1926" spans="7:7">
-      <c r="G1926" s="45"/>
-    </row>
-    <row r="1927" spans="7:7">
-      <c r="G1927" s="45"/>
-    </row>
-    <row r="1928" spans="7:7">
-      <c r="G1928" s="45"/>
-    </row>
-    <row r="1929" spans="7:7">
-      <c r="G1929" s="45"/>
-    </row>
-    <row r="1930" spans="7:7">
-      <c r="G1930" s="45"/>
-    </row>
-    <row r="1931" spans="7:7">
-      <c r="G1931" s="45"/>
-    </row>
-    <row r="1932" spans="7:7">
-      <c r="G1932" s="45"/>
-    </row>
-    <row r="1933" spans="7:7">
-      <c r="G1933" s="45"/>
-    </row>
-    <row r="1934" spans="7:7">
-      <c r="G1934" s="45"/>
-    </row>
-    <row r="1935" spans="7:7">
-      <c r="G1935" s="45"/>
-    </row>
-    <row r="1936" spans="7:7">
-      <c r="G1936" s="45"/>
-    </row>
-    <row r="1937" spans="7:7">
-      <c r="G1937" s="45"/>
-    </row>
-    <row r="1938" spans="7:7">
-      <c r="G1938" s="45"/>
-    </row>
-    <row r="1939" spans="7:7">
-      <c r="G1939" s="45"/>
-    </row>
-    <row r="1940" spans="7:7">
-      <c r="G1940" s="45"/>
-    </row>
-    <row r="1941" spans="7:7">
-      <c r="G1941" s="45"/>
-    </row>
-    <row r="1942" spans="7:7">
-      <c r="G1942" s="45"/>
-    </row>
-    <row r="1943" spans="7:7">
-      <c r="G1943" s="45"/>
-    </row>
-    <row r="1944" spans="7:7">
-      <c r="G1944" s="45"/>
-    </row>
-    <row r="1945" spans="7:7">
-      <c r="G1945" s="45"/>
-    </row>
-    <row r="1946" spans="7:7">
-      <c r="G1946" s="45"/>
-    </row>
-    <row r="1947" spans="7:7">
-      <c r="G1947" s="45"/>
-    </row>
-    <row r="1948" spans="7:7">
-      <c r="G1948" s="45"/>
-    </row>
-    <row r="1949" spans="7:7">
-      <c r="G1949" s="45"/>
-    </row>
-    <row r="1950" spans="7:7">
-      <c r="G1950" s="45"/>
-    </row>
-    <row r="1951" spans="7:7">
-      <c r="G1951" s="45"/>
-    </row>
-    <row r="1952" spans="7:7">
-      <c r="G1952" s="45"/>
-    </row>
-    <row r="1953" spans="7:7">
-      <c r="G1953" s="45"/>
-    </row>
-    <row r="1954" spans="7:7">
-      <c r="G1954" s="45"/>
-    </row>
-    <row r="1955" spans="7:7">
-      <c r="G1955" s="45"/>
-    </row>
-    <row r="1956" spans="7:7">
-      <c r="G1956" s="45"/>
-    </row>
-    <row r="1957" spans="7:7">
-      <c r="G1957" s="45"/>
-    </row>
-    <row r="1958" spans="7:7">
-      <c r="G1958" s="45"/>
-    </row>
-    <row r="1959" spans="7:7">
-      <c r="G1959" s="45"/>
-    </row>
-    <row r="1960" spans="7:7">
-      <c r="G1960" s="45"/>
-    </row>
-    <row r="1961" spans="7:7">
-      <c r="G1961" s="45"/>
-    </row>
-    <row r="1962" spans="7:7">
-      <c r="G1962" s="45"/>
-    </row>
-    <row r="1963" spans="7:7">
-      <c r="G1963" s="45"/>
-    </row>
-    <row r="1964" spans="7:7">
-      <c r="G1964" s="45"/>
-    </row>
-    <row r="1965" spans="7:7">
-      <c r="G1965" s="45"/>
-    </row>
-    <row r="1966" spans="7:7">
-      <c r="G1966" s="45"/>
-    </row>
-    <row r="1967" spans="7:7">
-      <c r="G1967" s="45"/>
-    </row>
-    <row r="1968" spans="7:7">
-      <c r="G1968" s="45"/>
-    </row>
-    <row r="1969" spans="7:7">
-      <c r="G1969" s="45"/>
-    </row>
-    <row r="1970" spans="7:7">
-      <c r="G1970" s="45"/>
-    </row>
-    <row r="1971" spans="7:7">
-      <c r="G1971" s="45"/>
-    </row>
-    <row r="1972" spans="7:7">
-      <c r="G1972" s="45"/>
-    </row>
-    <row r="1973" spans="7:7">
-      <c r="G1973" s="45"/>
-    </row>
-    <row r="1974" spans="7:7">
-      <c r="G1974" s="45"/>
-    </row>
-    <row r="1975" spans="7:7">
-      <c r="G1975" s="45"/>
-    </row>
-    <row r="1976" spans="7:7">
-      <c r="G1976" s="45"/>
-    </row>
-    <row r="1977" spans="7:7">
-      <c r="G1977" s="45"/>
-    </row>
-    <row r="1978" spans="7:7">
-      <c r="G1978" s="45"/>
-    </row>
-    <row r="1979" spans="7:7">
-      <c r="G1979" s="45"/>
-    </row>
-    <row r="1980" spans="7:7">
-      <c r="G1980" s="45"/>
-    </row>
-    <row r="1981" spans="7:7">
-      <c r="G1981" s="45"/>
-    </row>
-    <row r="1982" spans="7:7">
-      <c r="G1982" s="45"/>
-    </row>
-    <row r="1983" spans="7:7">
-      <c r="G1983" s="45"/>
-    </row>
-    <row r="1984" spans="7:7">
-      <c r="G1984" s="45"/>
-    </row>
-    <row r="1985" spans="7:7">
-      <c r="G1985" s="45"/>
-    </row>
-    <row r="1986" spans="7:7">
-      <c r="G1986" s="45"/>
-    </row>
-    <row r="1987" spans="7:7">
-      <c r="G1987" s="45"/>
-    </row>
-    <row r="1988" spans="7:7">
-      <c r="G1988" s="45"/>
-    </row>
-    <row r="1989" spans="7:7">
-      <c r="G1989" s="45"/>
-    </row>
-    <row r="1990" spans="7:7">
-      <c r="G1990" s="45"/>
-    </row>
-    <row r="1991" spans="7:7">
-      <c r="G1991" s="45"/>
-    </row>
-    <row r="1992" spans="7:7">
-      <c r="G1992" s="45"/>
-    </row>
-    <row r="1993" spans="7:7">
-      <c r="G1993" s="45"/>
-    </row>
-    <row r="1994" spans="7:7">
-      <c r="G1994" s="45"/>
-    </row>
-    <row r="1995" spans="7:7">
-      <c r="G1995" s="45"/>
-    </row>
-    <row r="1996" spans="7:7">
-      <c r="G1996" s="45"/>
-    </row>
-    <row r="1997" spans="7:7">
-      <c r="G1997" s="45"/>
-    </row>
-    <row r="1998" spans="7:7">
-      <c r="G1998" s="45"/>
-    </row>
-    <row r="1999" spans="7:7">
-      <c r="G1999" s="45"/>
-    </row>
-    <row r="2000" spans="7:7">
-      <c r="G2000" s="45"/>
-    </row>
-    <row r="2001" spans="7:7">
-      <c r="G2001" s="45"/>
-    </row>
-    <row r="2002" spans="7:7">
-      <c r="G2002" s="45"/>
-    </row>
-    <row r="2003" spans="7:7">
-      <c r="G2003" s="45"/>
-    </row>
-    <row r="2004" spans="7:7">
-      <c r="G2004" s="45"/>
-    </row>
-    <row r="2005" spans="7:7">
-      <c r="G2005" s="45"/>
-    </row>
-    <row r="2006" spans="7:7">
-      <c r="G2006" s="45"/>
-    </row>
-    <row r="2007" spans="7:7">
-      <c r="G2007" s="45"/>
-    </row>
-    <row r="2008" spans="7:7">
-      <c r="G2008" s="45"/>
-    </row>
-    <row r="2009" spans="7:7">
-      <c r="G2009" s="45"/>
-    </row>
-    <row r="2010" spans="7:7">
-      <c r="G2010" s="45"/>
-    </row>
-    <row r="2011" spans="7:7">
-      <c r="G2011" s="45"/>
-    </row>
-    <row r="2012" spans="7:7">
-      <c r="G2012" s="45"/>
-    </row>
-    <row r="2013" spans="7:7">
-      <c r="G2013" s="45"/>
-    </row>
-    <row r="2014" spans="7:7">
-      <c r="G2014" s="45"/>
-    </row>
-    <row r="2015" spans="7:7">
-      <c r="G2015" s="45"/>
-    </row>
-    <row r="2016" spans="7:7">
-      <c r="G2016" s="45"/>
-    </row>
-    <row r="2017" spans="7:7">
-      <c r="G2017" s="45"/>
-    </row>
-    <row r="2018" spans="7:7">
-      <c r="G2018" s="45"/>
-    </row>
-    <row r="2019" spans="7:7">
-      <c r="G2019" s="45"/>
-    </row>
-    <row r="2020" spans="7:7">
-      <c r="G2020" s="45"/>
-    </row>
-    <row r="2021" spans="7:7">
-      <c r="G2021" s="45"/>
-    </row>
-    <row r="2022" spans="7:7">
-      <c r="G2022" s="45"/>
-    </row>
-    <row r="2023" spans="7:7">
-      <c r="G2023" s="45"/>
-    </row>
-    <row r="2024" spans="7:7">
-      <c r="G2024" s="45"/>
-    </row>
-    <row r="2025" spans="7:7">
-      <c r="G2025" s="45"/>
-    </row>
-    <row r="2026" spans="7:7">
-      <c r="G2026" s="45"/>
+      <c r="E1354" s="44"/>
+      <c r="G1354" s="44"/>
+    </row>
+    <row r="1362" spans="5:5">
+      <c r="E1362" s="44"/>
+    </row>
+    <row r="1369" spans="5:5">
+      <c r="E1369" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A68001-C164-4535-BAF4-D5BD92D6C7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5194A5-3693-41C9-8180-793F43377437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="4" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="362">
   <si>
     <t>Name</t>
   </si>
@@ -465,10 +465,6 @@
     <t>Fuse</t>
   </si>
   <si>
-    <t>Memory location:
-$D400-$D7FF</t>
-  </si>
-  <si>
     <t>PET/VIC-20/C64 Port Pinouts</t>
   </si>
   <si>
@@ -526,9 +522,6 @@
     <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu_nov_1982.pdf</t>
-  </si>
-  <si>
     <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
   </si>
   <si>
@@ -545,9 +538,6 @@
   </si>
   <si>
     <t>Data/Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
-  </si>
-  <si>
-    <t>FreqGen</t>
   </si>
   <si>
     <t>Region</t>
@@ -995,168 +985,189 @@
     <t>My Old Computer; Commodore 64 (250469)</t>
   </si>
   <si>
-    <t>PAL = 17.73447 MHz
-NTSC = 14.31818 MHz
-Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle). Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
-  </si>
-  <si>
-    <t>251913-01
-Memory locations:
+    <t>Logic AND gate</t>
+  </si>
+  <si>
+    <t>Dynamic RAM</t>
+  </si>
+  <si>
+    <t>Bilateral switch</t>
+  </si>
+  <si>
+    <t>Clock generator</t>
+  </si>
+  <si>
+    <t>1024 x 4-bit, 150ns</t>
+  </si>
+  <si>
+    <t>HEX inverter buffer</t>
+  </si>
+  <si>
+    <t>HEX inverter Schmitt trigger</t>
+  </si>
+  <si>
+    <t>RF modulator</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/memory/4464-2/</t>
+  </si>
+  <si>
+    <t>My Old Computer; 4464</t>
+  </si>
+  <si>
+    <t>My Old Computer; 8500</t>
+  </si>
+  <si>
+    <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/processors/8500-2/</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 6510 (NMOS  version)</t>
+  </si>
+  <si>
+    <t>Board schematic images</t>
+  </si>
+  <si>
+    <t>Thumbnail image highlight color</t>
+  </si>
+  <si>
+    <t>Thumbnail highlight opacity</t>
+  </si>
+  <si>
+    <t>Highlights in Main or Thumbnail</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Board credits</t>
+  </si>
+  <si>
+    <t>Sub-category</t>
+  </si>
+  <si>
+    <t>Name or handle</t>
+  </si>
+  <si>
+    <t>Contact (email or web page)</t>
+  </si>
+  <si>
+    <t>Board labelling</t>
+  </si>
+  <si>
+    <t>Dennis Helligsø</t>
+  </si>
+  <si>
+    <t>dennis@commodore-repair-toolbox.dk</t>
+  </si>
+  <si>
+    <t>Excel data</t>
+  </si>
+  <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-credits</t>
+  </si>
+  <si>
+    <t>NTSC</t>
+  </si>
+  <si>
+    <t>Expected oscilloscope reading</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Video chip (PAL)</t>
+  </si>
+  <si>
+    <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
+    <t>The CIA (Complex Interface Adapter) is an I/O chip with parallel and serial port as well a time of day clock (TOD) and timers.
+Compatible part-number: 8521
+Also used in:
+Commodore 64 + 128 computers
+Commodore 1570 + 1571 + 1581 diskdrives
+Memory location:
+$DC00-$DCFF</t>
+  </si>
+  <si>
+    <t>The CIA (Complex Interface Adapter) is an I/O chip with parallel and serial port as well a time of day clock (TOD) and timers.
+Compatible part-number: 8521
+Also used in:
+Commodore 64 + 128 computers
+Commodore 1570 + 1571 + 1581 diskdrives
+Memory location:
+$DD00-$DDFF</t>
+  </si>
+  <si>
+    <t>23128; 16384 x 8-bit</t>
+  </si>
+  <si>
+    <t>251913-01</t>
+  </si>
+  <si>
+    <t>2332; 4096 x 8-bit</t>
+  </si>
+  <si>
+    <t>901225-01</t>
+  </si>
+  <si>
+    <t>If you burn your own 2732 EPROM, you need to create an adapter, as they are not directly pin compatible.
+Memory location:
+$D000-$DFFF</t>
+  </si>
+  <si>
+    <t>Memory locations:
 $A000-$BFFF
 $E000-$FFFF</t>
   </si>
   <si>
-    <t>16384 x 8-bit</t>
-  </si>
-  <si>
-    <t>901225-01
-Memory location:
-$D000-$DFFF</t>
-  </si>
-  <si>
-    <t>4096 x 8-bit</t>
-  </si>
-  <si>
-    <t>Logic AND gate</t>
-  </si>
-  <si>
-    <t>Dynamic RAM</t>
-  </si>
-  <si>
-    <t>Bilateral switch</t>
-  </si>
-  <si>
-    <t>Not present on rev. B, as this is integrated into the SuperPLA.
+    <t>Sound chip</t>
+  </si>
+  <si>
+    <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
+Not present on rev. B, as this is integrated into the SuperPLA.
 Memory location:
 $D800-$D8FF</t>
   </si>
   <si>
-    <t>Clock generator</t>
-  </si>
-  <si>
-    <t>1024 x 4-bit, 150ns</t>
-  </si>
-  <si>
-    <t>HEX inverter buffer</t>
-  </si>
-  <si>
-    <t>HEX inverter Schmitt trigger</t>
-  </si>
-  <si>
-    <t>RF modulator</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/memory/4464-2/</t>
-  </si>
-  <si>
-    <t>My Old Computer; 4464</t>
-  </si>
-  <si>
-    <t>My Old Computer; 8500</t>
-  </si>
-  <si>
-    <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/processors/8500-2/</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 6510 (NMOS  version)</t>
-  </si>
-  <si>
-    <t>Also used in:
-Commodore 64 + 128 computers
-Commodore 1570 + 1571 + 1581 diskdrives
-Compatible part-number: 8521
-Memory location:
-$DC00-$DCFF</t>
-  </si>
-  <si>
-    <t>Also used in:
-Commodore 64 + 128 computers
-Commodore 1570 + 1571 + 1581 diskdrives
-Compatible part-number: 8521
-Memory location:
-$DD00-$DDFF</t>
-  </si>
-  <si>
-    <t>Board schematic images</t>
-  </si>
-  <si>
-    <t>Thumbnail image highlight color</t>
-  </si>
-  <si>
-    <t>Thumbnail highlight opacity</t>
-  </si>
-  <si>
-    <t>Highlights in Main or Thumbnail</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
-  </si>
-  <si>
-    <t>Board credits</t>
-  </si>
-  <si>
-    <t>Sub-category</t>
-  </si>
-  <si>
-    <t>Name or handle</t>
-  </si>
-  <si>
-    <t>Contact (email or web page)</t>
-  </si>
-  <si>
-    <t>Board labelling</t>
-  </si>
-  <si>
-    <t>Dennis Helligsø</t>
-  </si>
-  <si>
-    <t>dennis@commodore-repair-toolbox.dk</t>
-  </si>
-  <si>
-    <t>Excel data</t>
-  </si>
-  <si>
-    <t>Oscilloscope imaging</t>
-  </si>
-  <si>
-    <t>PAL</t>
-  </si>
-  <si>
-    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
-  </si>
-  <si>
-    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
-  </si>
-  <si>
-    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-credits</t>
-  </si>
-  <si>
-    <t>NTSC</t>
-  </si>
-  <si>
-    <t>Expected oscilloscope reading</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Video chip (PAL)</t>
-  </si>
-  <si>
-    <t>Video chip (NTSC)</t>
-  </si>
-  <si>
-    <t>Memory location:
-$D000-$D3FF</t>
+    <t>Compatible part-number: MOS 7712</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7707</t>
+  </si>
+  <si>
+    <t>Also known as "MPU"</t>
+  </si>
+  <si>
+    <t>Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle). Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
+  </si>
+  <si>
+    <t>17.73447 MHz (PAL)</t>
+  </si>
+  <si>
+    <t>14.31818 MHz (NTSC)</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7701</t>
   </si>
   <si>
     <r>
@@ -1171,8 +1182,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-11</t>
+      <t>2025-July-13</t>
     </r>
+  </si>
+  <si>
+    <t>The SID (Sound Interface Device) is a mono sound chip that has 3 voices. It is also used to read the paddles X and Y axies.
+Memory location:
+$D400-$D7FF</t>
+  </si>
+  <si>
+    <t>Oscilloscope baseline measurement</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1788,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1783,17 +1805,17 @@
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A2" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1832,11 +1854,11 @@
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="48" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
@@ -1856,18 +1878,18 @@
         <v>11</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -1884,10 +1906,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -1904,10 +1926,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>9</v>
@@ -1927,7 +1949,7 @@
         <v>92</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -2029,8 +2051,8 @@
   <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2045,12 +2067,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2094,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>21</v>
@@ -2105,7 +2127,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>125</v>
@@ -2175,7 +2197,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>125</v>
@@ -2189,7 +2211,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>125</v>
@@ -2200,10 +2222,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>125</v>
@@ -2217,7 +2239,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>125</v>
@@ -2231,7 +2253,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>125</v>
@@ -2245,7 +2267,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>125</v>
@@ -2256,10 +2278,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>125</v>
@@ -2270,10 +2292,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>122</v>
@@ -2287,7 +2309,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>125</v>
@@ -2301,7 +2323,7 @@
         <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>125</v>
@@ -2312,10 +2334,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>125</v>
@@ -2326,10 +2348,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>122</v>
@@ -2354,10 +2376,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>125</v>
@@ -2371,7 +2393,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>125</v>
@@ -2382,10 +2404,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="1" t="s">
@@ -2422,10 +2444,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>125</v>
@@ -2436,10 +2458,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>122</v>
@@ -2450,10 +2472,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>123</v>
@@ -2464,10 +2486,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>123</v>
@@ -2478,10 +2500,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>125</v>
@@ -2492,7 +2514,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>91</v>
@@ -2506,7 +2528,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>91</v>
@@ -2520,10 +2542,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="1" t="s">
@@ -2532,7 +2554,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>128</v>
@@ -2546,7 +2568,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2560,10 +2582,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>125</v>
@@ -2574,10 +2596,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>125</v>
@@ -2588,10 +2610,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>125</v>
@@ -2602,10 +2624,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>125</v>
@@ -2616,7 +2638,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>127</v>
@@ -2630,7 +2652,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>127</v>
@@ -2672,7 +2694,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>126</v>
@@ -2689,7 +2711,7 @@
         <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>130</v>
@@ -2698,263 +2720,263 @@
         <v>52</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2962,7 +2984,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>62</v>
@@ -2976,7 +2998,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>64</v>
@@ -2990,7 +3012,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>73</v>
@@ -3004,7 +3026,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>56</v>
@@ -3018,10 +3040,10 @@
         <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>53</v>
@@ -3032,7 +3054,7 @@
         <v>32</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>33</v>
@@ -3046,10 +3068,10 @@
         <v>86</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>53</v>
@@ -3060,7 +3082,7 @@
         <v>57</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>58</v>
@@ -3074,7 +3096,7 @@
         <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>60</v>
@@ -3088,7 +3110,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>84</v>
@@ -3133,7 +3155,7 @@
         <v>29</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>54</v>
@@ -3143,25 +3165,25 @@
       <c r="A88" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="1">
-        <v>23128</v>
+      <c r="B88" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="1">
-        <v>2332</v>
+      <c r="B89" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>49</v>
@@ -3170,7 +3192,7 @@
         <v>54</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3186,6 +3208,9 @@
       <c r="D90" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F90" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="34" t="s">
@@ -3201,10 +3226,10 @@
         <v>54</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3221,10 +3246,10 @@
         <v>54</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3235,7 +3260,7 @@
         <v>251715</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>54</v>
@@ -3254,6 +3279,9 @@
       <c r="D94" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F94" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="34" t="s">
@@ -3263,13 +3291,13 @@
         <v>41464</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3280,13 +3308,13 @@
         <v>41464</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3297,7 +3325,7 @@
         <v>4066</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>54</v>
@@ -3317,7 +3345,7 @@
         <v>54</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3328,7 +3356,7 @@
         <v>8701</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>54</v>
@@ -3336,13 +3364,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B100" s="1">
         <v>4066</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>54</v>
@@ -3350,13 +3378,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B101" s="1">
         <v>7406</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>54</v>
@@ -3364,13 +3392,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>54</v>
@@ -3392,10 +3420,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>51</v>
@@ -3403,10 +3431,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>51</v>
@@ -3414,10 +3442,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="34" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>51</v>
@@ -3438,18 +3466,35 @@
       <c r="A108" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C108" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="E108" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="34"/>
+      <c r="A109" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="34"/>
@@ -4298,8 +4343,10 @@
   <dimension ref="A1:I1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4316,14 +4363,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="22"/>
@@ -4378,218 +4425,218 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" ht="28.8">
       <c r="A9" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="42"/>
       <c r="G9" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" ht="28.8">
       <c r="A10" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="42"/>
       <c r="G10" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" ht="28.8">
       <c r="A11" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="42"/>
       <c r="G11" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="42"/>
       <c r="G12" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1">
@@ -4601,7 +4648,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -4615,7 +4662,7 @@
         <v>93</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4628,7 +4675,7 @@
         <v>93</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4641,7 +4688,7 @@
         <v>93</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4654,7 +4701,7 @@
         <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I29" s="9"/>
     </row>
@@ -4668,7 +4715,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4681,7 +4728,7 @@
         <v>93</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4694,10 +4741,10 @@
         <v>93</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="115.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="158.4">
       <c r="A33" s="36" t="s">
         <v>68</v>
       </c>
@@ -4707,13 +4754,13 @@
         <v>93</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="115.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="158.4">
       <c r="A34" s="36" t="s">
         <v>66</v>
       </c>
@@ -4723,10 +4770,10 @@
         <v>93</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -4740,10 +4787,13 @@
         <v>93</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="11" customFormat="1" ht="72">
+        <v>154</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
@@ -4752,13 +4802,13 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="57.6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="72">
       <c r="A37" s="36" t="s">
         <v>48</v>
       </c>
@@ -4768,10 +4818,10 @@
         <v>93</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1">
@@ -4783,10 +4833,10 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" ht="28.8">
@@ -4798,10 +4848,10 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1" ht="28.8">
@@ -4813,13 +4863,13 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" ht="28.8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="11" customFormat="1" ht="72">
       <c r="A41" s="11" t="s">
         <v>27</v>
       </c>
@@ -4828,10 +4878,10 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1" ht="43.2">
@@ -4843,10 +4893,10 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" ht="43.2">
@@ -4858,10 +4908,10 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4874,10 +4924,10 @@
         <v>93</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="57.6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="100.8">
       <c r="A45" s="36" t="s">
         <v>37</v>
       </c>
@@ -4887,10 +4937,10 @@
         <v>93</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="11" customFormat="1">
@@ -4902,13 +4952,15 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>284</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="28"/>
@@ -4916,12 +4968,12 @@
         <v>93</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="23"/>
@@ -4929,12 +4981,15 @@
         <v>93</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="28"/>
@@ -4942,7 +4997,7 @@
         <v>93</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4952,23 +5007,23 @@
       <c r="B50" s="9"/>
       <c r="C50" s="28"/>
       <c r="D50" s="1" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="100.8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="57.6">
       <c r="A51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="28"/>
       <c r="D51" s="1" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6875,12 +6930,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6959,7 +7014,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>74</v>
@@ -6981,7 +7036,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>69</v>
@@ -7003,7 +7058,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>67</v>
@@ -7023,7 +7078,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>31</v>
@@ -7043,7 +7098,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>34</v>
@@ -7063,7 +7118,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>41</v>
@@ -7083,7 +7138,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>78</v>
@@ -7103,10 +7158,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C16" s="36">
         <v>535</v>
@@ -7123,7 +7178,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>25</v>
@@ -7143,7 +7198,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>36</v>
@@ -7163,7 +7218,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>79</v>
@@ -7183,10 +7238,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C20" s="36">
         <v>4126</v>
@@ -7203,10 +7258,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="36">
         <v>3226</v>
@@ -7223,7 +7278,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>46</v>
@@ -7243,7 +7298,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>85</v>
@@ -7263,10 +7318,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C24" s="36">
         <v>3624</v>
@@ -7283,10 +7338,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C25" s="36">
         <v>1876</v>
@@ -7303,7 +7358,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>26</v>
@@ -7323,10 +7378,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27" s="36">
         <v>2410</v>
@@ -7343,7 +7398,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>42</v>
@@ -7363,10 +7418,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C29" s="36">
         <v>1952</v>
@@ -7383,7 +7438,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>45</v>
@@ -7403,7 +7458,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>77</v>
@@ -7423,10 +7478,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C32" s="36">
         <v>2247</v>
@@ -7443,10 +7498,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C33" s="36">
         <v>2618</v>
@@ -7463,10 +7518,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C34" s="36">
         <v>2629</v>
@@ -7483,10 +7538,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C35" s="36">
         <v>2875</v>
@@ -7503,10 +7558,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C36" s="36">
         <v>3732</v>
@@ -7523,10 +7578,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C37" s="36">
         <v>3691</v>
@@ -7543,10 +7598,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C38" s="36">
         <v>3790</v>
@@ -7563,10 +7618,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C39" s="36">
         <v>3689</v>
@@ -7583,10 +7638,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C40" s="36">
         <v>3790</v>
@@ -7603,10 +7658,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C41" s="36">
         <v>3773</v>
@@ -7623,10 +7678,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C42" s="36">
         <v>3884</v>
@@ -7643,10 +7698,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C43" s="36">
         <v>4037</v>
@@ -7663,10 +7718,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C44" s="36">
         <v>3796</v>
@@ -7683,10 +7738,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C45" s="36">
         <v>3433</v>
@@ -7703,10 +7758,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C46" s="36">
         <v>3790</v>
@@ -7723,10 +7778,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C47" s="36">
         <v>3790</v>
@@ -7743,10 +7798,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C48" s="36">
         <v>3360</v>
@@ -7763,10 +7818,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C49" s="36">
         <v>284</v>
@@ -7783,10 +7838,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C50" s="36">
         <v>201</v>
@@ -7803,10 +7858,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C51" s="36">
         <v>201</v>
@@ -7823,7 +7878,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B52" s="36" t="s">
         <v>75</v>
@@ -7843,7 +7898,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>76</v>
@@ -7863,7 +7918,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B54" s="36" t="s">
         <v>61</v>
@@ -7883,7 +7938,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>63</v>
@@ -7903,7 +7958,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B56" s="36" t="s">
         <v>72</v>
@@ -7923,7 +7978,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B57" s="36" t="s">
         <v>55</v>
@@ -7943,7 +7998,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B58" s="36" t="s">
         <v>32</v>
@@ -7963,7 +8018,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B59" s="36" t="s">
         <v>86</v>
@@ -7983,7 +8038,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>57</v>
@@ -8003,7 +8058,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B61" s="36" t="s">
         <v>59</v>
@@ -8023,7 +8078,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>83</v>
@@ -8043,10 +8098,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C63" s="36">
         <v>728</v>
@@ -8063,10 +8118,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C64" s="36">
         <v>2501</v>
@@ -8083,10 +8138,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C65" s="36">
         <v>2747</v>
@@ -8103,10 +8158,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C66" s="36">
         <v>2689</v>
@@ -8123,10 +8178,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C67" s="36">
         <v>1796</v>
@@ -8143,10 +8198,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C68" s="36">
         <v>1826</v>
@@ -8163,10 +8218,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C69" s="36">
         <v>3079</v>
@@ -8183,10 +8238,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C70" s="36">
         <v>399</v>
@@ -8203,10 +8258,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C71" s="36">
         <v>357</v>
@@ -8223,10 +8278,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C72" s="36">
         <v>323</v>
@@ -8243,10 +8298,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C73" s="36">
         <v>274</v>
@@ -8263,10 +8318,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C74" s="36">
         <v>388</v>
@@ -8283,10 +8338,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C75" s="36">
         <v>357</v>
@@ -8303,10 +8358,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C76" s="36">
         <v>321</v>
@@ -8323,10 +8378,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C77" s="36">
         <v>290</v>
@@ -8343,10 +8398,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C78" s="36">
         <v>294</v>
@@ -8363,10 +8418,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C79" s="36">
         <v>277</v>
@@ -8383,10 +8438,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C80" s="36">
         <v>340</v>
@@ -8403,10 +8458,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C81" s="36">
         <v>336</v>
@@ -8423,7 +8478,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B82" s="36" t="s">
         <v>129</v>
@@ -8443,7 +8498,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B83" s="36" t="s">
         <v>136</v>
@@ -8463,10 +8518,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C84" s="36">
         <v>3736</v>
@@ -8483,10 +8538,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C85" s="36">
         <v>3024</v>
@@ -8503,10 +8558,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C86" s="36">
         <v>619</v>
@@ -8523,10 +8578,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C87" s="36">
         <v>911</v>
@@ -8543,10 +8598,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C88" s="36">
         <v>3934</v>
@@ -8563,10 +8618,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C89" s="36">
         <v>3044</v>
@@ -8583,10 +8638,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C90" s="36">
         <v>3742</v>
@@ -8603,7 +8658,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B91" s="36" t="s">
         <v>81</v>
@@ -8623,7 +8678,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B92" s="36" t="s">
         <v>68</v>
@@ -8643,7 +8698,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B93" s="36" t="s">
         <v>66</v>
@@ -8663,7 +8718,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B94" s="36" t="s">
         <v>30</v>
@@ -8683,7 +8738,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B95" s="36" t="s">
         <v>30</v>
@@ -8703,7 +8758,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B96" s="36" t="s">
         <v>30</v>
@@ -8723,7 +8778,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B97" s="36" t="s">
         <v>35</v>
@@ -8743,7 +8798,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B98" s="36" t="s">
         <v>48</v>
@@ -8763,7 +8818,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B99" s="36" t="s">
         <v>43</v>
@@ -8783,7 +8838,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B100" s="36" t="s">
         <v>70</v>
@@ -8803,7 +8858,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B101" s="36" t="s">
         <v>24</v>
@@ -8823,7 +8878,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B102" s="36" t="s">
         <v>27</v>
@@ -8843,7 +8898,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B103" s="36" t="s">
         <v>28</v>
@@ -8863,7 +8918,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B104" s="36" t="s">
         <v>137</v>
@@ -8883,7 +8938,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B105" s="36" t="s">
         <v>39</v>
@@ -8903,7 +8958,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B106" s="36" t="s">
         <v>37</v>
@@ -8923,7 +8978,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B107" s="36" t="s">
         <v>65</v>
@@ -8943,10 +8998,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C108" s="36">
         <v>3158</v>
@@ -8963,10 +9018,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C109" s="36">
         <v>676</v>
@@ -8983,10 +9038,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C110" s="36">
         <v>676</v>
@@ -9003,10 +9058,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C111" s="36">
         <v>676</v>
@@ -9023,10 +9078,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C112" s="36">
         <v>1671</v>
@@ -9043,10 +9098,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C113" s="36">
         <v>1614</v>
@@ -9063,10 +9118,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C114" s="36">
         <v>1665</v>
@@ -9083,10 +9138,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C115" s="36">
         <v>1777</v>
@@ -9103,10 +9158,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C116" s="36">
         <v>1803</v>
@@ -9123,10 +9178,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C117" s="36">
         <v>1803</v>
@@ -9143,7 +9198,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B118" s="36" t="s">
         <v>50</v>
@@ -9163,7 +9218,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B119" s="36" t="s">
         <v>74</v>
@@ -9183,7 +9238,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B120" s="36" t="s">
         <v>69</v>
@@ -9203,7 +9258,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B121" s="36" t="s">
         <v>67</v>
@@ -9223,7 +9278,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B122" s="36" t="s">
         <v>31</v>
@@ -9243,7 +9298,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B123" s="36" t="s">
         <v>34</v>
@@ -9263,7 +9318,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B124" s="36" t="s">
         <v>41</v>
@@ -9283,7 +9338,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B125" s="36" t="s">
         <v>78</v>
@@ -9303,10 +9358,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C126" s="36">
         <v>359</v>
@@ -9323,7 +9378,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B127" s="36" t="s">
         <v>25</v>
@@ -9343,7 +9398,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B128" s="36" t="s">
         <v>36</v>
@@ -9363,7 +9418,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B129" s="36" t="s">
         <v>79</v>
@@ -9383,10 +9438,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C130" s="36">
         <v>1968</v>
@@ -9403,10 +9458,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C131" s="36">
         <v>1969</v>
@@ -9423,7 +9478,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B132" s="36" t="s">
         <v>46</v>
@@ -9443,7 +9498,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B133" s="36" t="s">
         <v>85</v>
@@ -9463,10 +9518,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C134" s="36">
         <v>2631</v>
@@ -9483,10 +9538,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C135" s="36">
         <v>291</v>
@@ -9503,7 +9558,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B136" s="36" t="s">
         <v>26</v>
@@ -9523,10 +9578,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C137" s="36">
         <v>921</v>
@@ -9543,7 +9598,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B138" s="36" t="s">
         <v>42</v>
@@ -9563,10 +9618,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B139" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C139" s="36">
         <v>3651</v>
@@ -9583,7 +9638,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B140" s="36" t="s">
         <v>45</v>
@@ -9603,7 +9658,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B141" s="36" t="s">
         <v>77</v>
@@ -9623,10 +9678,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B142" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C142" s="36">
         <v>3613</v>
@@ -9643,10 +9698,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B143" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C143" s="36">
         <v>3360</v>
@@ -9663,10 +9718,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B144" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C144" s="36">
         <v>3230</v>
@@ -9683,10 +9738,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B145" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C145" s="36">
         <v>3090</v>
@@ -9703,10 +9758,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C146" s="36">
         <v>2477</v>
@@ -9723,10 +9778,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B147" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C147" s="36">
         <v>2235</v>
@@ -9743,10 +9798,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B148" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C148" s="36">
         <v>2235</v>
@@ -9763,10 +9818,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B149" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C149" s="36">
         <v>2479</v>
@@ -9783,10 +9838,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B150" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C150" s="36">
         <v>2351</v>
@@ -9803,10 +9858,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B151" s="36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C151" s="36">
         <v>2129</v>
@@ -9823,10 +9878,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B152" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C152" s="36">
         <v>2477</v>
@@ -9843,10 +9898,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B153" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C153" s="36">
         <v>2593</v>
@@ -9863,10 +9918,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C154" s="36">
         <v>2593</v>
@@ -9883,10 +9938,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B155" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C155" s="36">
         <v>1253</v>
@@ -9903,10 +9958,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C156" s="36">
         <v>537</v>
@@ -9923,10 +9978,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B157" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C157" s="36">
         <v>487</v>
@@ -9943,7 +9998,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B158" s="36" t="s">
         <v>75</v>
@@ -9963,7 +10018,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B159" s="36" t="s">
         <v>76</v>
@@ -9983,10 +10038,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B160" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C160" s="36">
         <v>1637</v>
@@ -10003,7 +10058,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B161" s="36" t="s">
         <v>61</v>
@@ -10023,7 +10078,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B162" s="36" t="s">
         <v>63</v>
@@ -10043,7 +10098,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B163" s="36" t="s">
         <v>72</v>
@@ -10063,7 +10118,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B164" s="36" t="s">
         <v>55</v>
@@ -10083,7 +10138,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B165" s="36" t="s">
         <v>47</v>
@@ -10103,7 +10158,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B166" s="36" t="s">
         <v>32</v>
@@ -10123,7 +10178,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B167" s="36" t="s">
         <v>86</v>
@@ -10143,7 +10198,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B168" s="36" t="s">
         <v>57</v>
@@ -10163,7 +10218,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B169" s="36" t="s">
         <v>59</v>
@@ -10183,7 +10238,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B170" s="36" t="s">
         <v>83</v>
@@ -10203,10 +10258,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B171" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C171" s="36">
         <v>789</v>
@@ -10223,10 +10278,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B172" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C172" s="36">
         <v>3374</v>
@@ -10243,10 +10298,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B173" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C173" s="36">
         <v>3265</v>
@@ -10263,10 +10318,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B174" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C174" s="36">
         <v>3316</v>
@@ -10283,10 +10338,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B175" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C175" s="36">
         <v>280</v>
@@ -10303,10 +10358,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B176" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C176" s="36">
         <v>305</v>
@@ -10323,10 +10378,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B177" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C177" s="36">
         <v>3266</v>
@@ -10343,10 +10398,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B178" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C178" s="36">
         <v>1738</v>
@@ -10363,10 +10418,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B179" s="36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C179" s="36">
         <v>1738</v>
@@ -10383,10 +10438,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B180" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C180" s="36">
         <v>1738</v>
@@ -10403,10 +10458,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B181" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C181" s="36">
         <v>1738</v>
@@ -10423,10 +10478,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B182" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C182" s="36">
         <v>1839</v>
@@ -10443,10 +10498,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B183" s="36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C183" s="36">
         <v>1839</v>
@@ -10463,10 +10518,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C184" s="36">
         <v>1839</v>
@@ -10483,10 +10538,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B185" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C185" s="36">
         <v>1839</v>
@@ -10503,10 +10558,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B186" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C186" s="36">
         <v>3190</v>
@@ -10523,10 +10578,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B187" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C187" s="36">
         <v>3266</v>
@@ -10543,10 +10598,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B188" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C188" s="36">
         <v>3227</v>
@@ -10563,10 +10618,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B189" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C189" s="36">
         <v>3304</v>
@@ -10583,7 +10638,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B190" s="36" t="s">
         <v>129</v>
@@ -10603,7 +10658,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B191" s="36" t="s">
         <v>136</v>
@@ -10623,10 +10678,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B192" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C192" s="36">
         <v>2146</v>
@@ -10643,10 +10698,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B193" s="36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C193" s="36">
         <v>1570</v>
@@ -10663,10 +10718,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B194" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C194" s="36">
         <v>503</v>
@@ -10683,10 +10738,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B195" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C195" s="36">
         <v>618</v>
@@ -10703,10 +10758,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B196" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C196" s="36">
         <v>2225</v>
@@ -10723,10 +10778,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B197" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C197" s="36">
         <v>3168</v>
@@ -10743,10 +10798,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B198" s="36" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C198" s="36">
         <v>2212</v>
@@ -10763,7 +10818,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B199" s="36" t="s">
         <v>81</v>
@@ -10783,7 +10838,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B200" s="36" t="s">
         <v>68</v>
@@ -10803,7 +10858,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B201" s="36" t="s">
         <v>66</v>
@@ -10823,7 +10878,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B202" s="36" t="s">
         <v>30</v>
@@ -10843,7 +10898,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B203" s="36" t="s">
         <v>35</v>
@@ -10863,7 +10918,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B204" s="36" t="s">
         <v>48</v>
@@ -10883,7 +10938,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B205" s="36" t="s">
         <v>43</v>
@@ -10903,7 +10958,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B206" s="36" t="s">
         <v>70</v>
@@ -10923,7 +10978,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B207" s="36" t="s">
         <v>24</v>
@@ -10943,7 +10998,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B208" s="36" t="s">
         <v>27</v>
@@ -10963,7 +11018,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B209" s="36" t="s">
         <v>28</v>
@@ -10983,7 +11038,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B210" s="36" t="s">
         <v>137</v>
@@ -11003,7 +11058,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B211" s="36" t="s">
         <v>39</v>
@@ -11023,7 +11078,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B212" s="36" t="s">
         <v>37</v>
@@ -11043,7 +11098,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B213" s="36" t="s">
         <v>65</v>
@@ -11063,10 +11118,10 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B214" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C214" s="36">
         <v>1637</v>
@@ -11083,10 +11138,10 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B215" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C215" s="36">
         <v>1433</v>
@@ -11103,10 +11158,10 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B216" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C216" s="36">
         <v>387</v>
@@ -11123,7 +11178,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B217" s="36" t="s">
         <v>50</v>
@@ -11143,7 +11198,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B218" s="36" t="s">
         <v>74</v>
@@ -11163,7 +11218,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B219" s="36" t="s">
         <v>69</v>
@@ -11183,7 +11238,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B220" s="36" t="s">
         <v>67</v>
@@ -11203,7 +11258,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B221" s="36" t="s">
         <v>31</v>
@@ -11223,7 +11278,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B222" s="36" t="s">
         <v>34</v>
@@ -11243,7 +11298,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B223" s="36" t="s">
         <v>41</v>
@@ -11263,7 +11318,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B224" s="36" t="s">
         <v>78</v>
@@ -11283,10 +11338,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B225" s="36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C225" s="36">
         <v>3607</v>
@@ -11303,7 +11358,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B226" s="36" t="s">
         <v>25</v>
@@ -11323,7 +11378,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B227" s="36" t="s">
         <v>36</v>
@@ -11343,7 +11398,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B228" s="36" t="s">
         <v>79</v>
@@ -11363,10 +11418,10 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B229" s="36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C229" s="36">
         <v>1949</v>
@@ -11383,10 +11438,10 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B230" s="36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C230" s="36">
         <v>1946</v>
@@ -11403,7 +11458,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B231" s="36" t="s">
         <v>46</v>
@@ -11423,7 +11478,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B232" s="36" t="s">
         <v>85</v>
@@ -11443,10 +11498,10 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B233" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C233" s="36">
         <v>1328</v>
@@ -11463,10 +11518,10 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B234" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C234" s="36">
         <v>3655</v>
@@ -11483,7 +11538,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B235" s="36" t="s">
         <v>26</v>
@@ -11503,10 +11558,10 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B236" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C236" s="36">
         <v>2994</v>
@@ -11523,7 +11578,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B237" s="36" t="s">
         <v>42</v>
@@ -11543,10 +11598,10 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B238" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C238" s="36">
         <v>261</v>
@@ -11563,7 +11618,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B239" s="36" t="s">
         <v>77</v>
@@ -11583,10 +11638,10 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B240" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C240" s="36">
         <v>347</v>
@@ -11603,10 +11658,10 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B241" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C241" s="36">
         <v>511</v>
@@ -11623,10 +11678,10 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B242" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C242" s="36">
         <v>664</v>
@@ -11643,10 +11698,10 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B243" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C243" s="36">
         <v>804</v>
@@ -11663,10 +11718,10 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B244" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C244" s="36">
         <v>1434</v>
@@ -11683,10 +11738,10 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B245" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C245" s="36">
         <v>1735</v>
@@ -11703,10 +11758,10 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B246" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C246" s="36">
         <v>1735</v>
@@ -11723,10 +11778,10 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B247" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C247" s="36">
         <v>1434</v>
@@ -11743,10 +11798,10 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B248" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C248" s="36">
         <v>1566</v>
@@ -11763,10 +11818,10 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B249" s="36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C249" s="36">
         <v>1814</v>
@@ -11783,10 +11838,10 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B250" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C250" s="36">
         <v>1434</v>
@@ -11803,10 +11858,10 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B251" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C251" s="36">
         <v>1376</v>
@@ -11823,10 +11878,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B252" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C252" s="36">
         <v>1376</v>
@@ -11843,10 +11898,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B253" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C253" s="36">
         <v>2713</v>
@@ -11863,10 +11918,10 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B254" s="36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C254" s="36">
         <v>524</v>
@@ -11883,10 +11938,10 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B255" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C255" s="36">
         <v>3428</v>
@@ -11903,10 +11958,10 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B256" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C256" s="36">
         <v>3479</v>
@@ -11923,7 +11978,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B257" s="36" t="s">
         <v>75</v>
@@ -11943,7 +11998,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B258" s="36" t="s">
         <v>76</v>
@@ -11963,10 +12018,10 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B259" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C259" s="36">
         <v>2278</v>
@@ -11983,7 +12038,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B260" s="36" t="s">
         <v>61</v>
@@ -12003,7 +12058,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B261" s="36" t="s">
         <v>63</v>
@@ -12023,7 +12078,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B262" s="36" t="s">
         <v>72</v>
@@ -12043,7 +12098,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B263" s="36" t="s">
         <v>55</v>
@@ -12063,7 +12118,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B264" s="36" t="s">
         <v>47</v>
@@ -12083,7 +12138,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B265" s="36" t="s">
         <v>32</v>
@@ -12103,7 +12158,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B266" s="36" t="s">
         <v>86</v>
@@ -12123,7 +12178,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B267" s="36" t="s">
         <v>57</v>
@@ -12143,7 +12198,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B268" s="36" t="s">
         <v>59</v>
@@ -12163,7 +12218,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B269" s="36" t="s">
         <v>83</v>
@@ -12183,10 +12238,10 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B270" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C270" s="36">
         <v>3168</v>
@@ -12203,10 +12258,10 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B271" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C271" s="36">
         <v>498</v>
@@ -12223,10 +12278,10 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B272" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C272" s="36">
         <v>693</v>
@@ -12243,10 +12298,10 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B273" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C273" s="36">
         <v>642</v>
@@ -12263,10 +12318,10 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B274" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C274" s="36">
         <v>3682</v>
@@ -12283,10 +12338,10 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B275" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C275" s="36">
         <v>3655</v>
@@ -12303,10 +12358,10 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B276" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C276" s="36">
         <v>692</v>
@@ -12323,10 +12378,10 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B277" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C277" s="36">
         <v>2178</v>
@@ -12343,10 +12398,10 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B278" s="36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C278" s="36">
         <v>2178</v>
@@ -12363,10 +12418,10 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B279" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C279" s="36">
         <v>2178</v>
@@ -12383,10 +12438,10 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B280" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C280" s="36">
         <v>2178</v>
@@ -12403,10 +12458,10 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B281" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C281" s="36">
         <v>2075</v>
@@ -12423,10 +12478,10 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B282" s="36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C282" s="36">
         <v>2075</v>
@@ -12443,10 +12498,10 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B283" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C283" s="36">
         <v>2075</v>
@@ -12463,10 +12518,10 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B284" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C284" s="36">
         <v>2075</v>
@@ -12483,10 +12538,10 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B285" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C285" s="36">
         <v>772</v>
@@ -12503,10 +12558,10 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B286" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C286" s="36">
         <v>694</v>
@@ -12523,10 +12578,10 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B287" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C287" s="36">
         <v>733</v>
@@ -12543,10 +12598,10 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B288" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C288" s="36">
         <v>655</v>
@@ -12563,7 +12618,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B289" s="36" t="s">
         <v>129</v>
@@ -12583,7 +12638,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B290" s="36" t="s">
         <v>136</v>
@@ -12603,10 +12658,10 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B291" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C291" s="36">
         <v>3275</v>
@@ -12623,10 +12678,10 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B292" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C292" s="36">
         <v>3303</v>
@@ -12643,10 +12698,10 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B293" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C293" s="36">
         <v>1691</v>
@@ -12663,10 +12718,10 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B294" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C294" s="36">
         <v>747</v>
@@ -12683,10 +12738,10 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B295" s="36" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C295" s="36">
         <v>1128</v>
@@ -12703,7 +12758,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B296" s="36" t="s">
         <v>81</v>
@@ -12723,7 +12778,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B297" s="36" t="s">
         <v>68</v>
@@ -12743,7 +12798,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B298" s="36" t="s">
         <v>66</v>
@@ -12763,7 +12818,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B299" s="36" t="s">
         <v>30</v>
@@ -12783,7 +12838,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B300" s="36" t="s">
         <v>35</v>
@@ -12803,7 +12858,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B301" s="36" t="s">
         <v>48</v>
@@ -12823,7 +12878,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B302" s="36" t="s">
         <v>43</v>
@@ -12843,7 +12898,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B303" s="36" t="s">
         <v>70</v>
@@ -12863,7 +12918,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B304" s="36" t="s">
         <v>24</v>
@@ -12883,7 +12938,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B305" s="36" t="s">
         <v>27</v>
@@ -12903,7 +12958,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B306" s="36" t="s">
         <v>28</v>
@@ -12923,7 +12978,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B307" s="36" t="s">
         <v>137</v>
@@ -12943,7 +12998,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B308" s="36" t="s">
         <v>39</v>
@@ -12963,7 +13018,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B309" s="36" t="s">
         <v>37</v>
@@ -12983,7 +13038,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B310" s="36" t="s">
         <v>65</v>
@@ -13003,10 +13058,10 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B311" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C311" s="36">
         <v>2285</v>
@@ -13023,10 +13078,10 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B312" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C312" s="36">
         <v>2489</v>
@@ -13043,10 +13098,10 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B313" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C313" s="36">
         <v>3536</v>
@@ -13063,7 +13118,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B314" s="36" t="s">
         <v>50</v>
@@ -13226,7 +13281,7 @@
         <v>92</v>
       </c>
       <c r="B322" s="36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C322" s="36">
         <v>670</v>
@@ -13306,7 +13361,7 @@
         <v>92</v>
       </c>
       <c r="B326" s="36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C326" s="36">
         <v>3108</v>
@@ -13326,7 +13381,7 @@
         <v>92</v>
       </c>
       <c r="B327" s="36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C327" s="36">
         <v>3123</v>
@@ -13386,7 +13441,7 @@
         <v>92</v>
       </c>
       <c r="B330" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C330" s="36">
         <v>4096</v>
@@ -13406,7 +13461,7 @@
         <v>92</v>
       </c>
       <c r="B331" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C331" s="36">
         <v>580</v>
@@ -13446,7 +13501,7 @@
         <v>92</v>
       </c>
       <c r="B333" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C333" s="36">
         <v>1514</v>
@@ -13486,7 +13541,7 @@
         <v>92</v>
       </c>
       <c r="B335" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C335" s="36">
         <v>5633</v>
@@ -13546,7 +13601,7 @@
         <v>92</v>
       </c>
       <c r="B338" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C338" s="36">
         <v>5585</v>
@@ -13566,7 +13621,7 @@
         <v>92</v>
       </c>
       <c r="B339" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C339" s="36">
         <v>5204</v>
@@ -13586,7 +13641,7 @@
         <v>92</v>
       </c>
       <c r="B340" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C340" s="36">
         <v>5010</v>
@@ -13606,7 +13661,7 @@
         <v>92</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C341" s="36">
         <v>4797</v>
@@ -13626,7 +13681,7 @@
         <v>92</v>
       </c>
       <c r="B342" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C342" s="36">
         <v>3871</v>
@@ -13646,7 +13701,7 @@
         <v>92</v>
       </c>
       <c r="B343" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C343" s="36">
         <v>3504</v>
@@ -13666,7 +13721,7 @@
         <v>92</v>
       </c>
       <c r="B344" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C344" s="36">
         <v>3507</v>
@@ -13686,7 +13741,7 @@
         <v>92</v>
       </c>
       <c r="B345" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C345" s="36">
         <v>3865</v>
@@ -13706,7 +13761,7 @@
         <v>92</v>
       </c>
       <c r="B346" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C346" s="36">
         <v>3672</v>
@@ -13726,7 +13781,7 @@
         <v>92</v>
       </c>
       <c r="B347" s="36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C347" s="36">
         <v>3348</v>
@@ -13746,7 +13801,7 @@
         <v>92</v>
       </c>
       <c r="B348" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C348" s="36">
         <v>3871</v>
@@ -13766,7 +13821,7 @@
         <v>92</v>
       </c>
       <c r="B349" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C349" s="36">
         <v>4043</v>
@@ -13786,7 +13841,7 @@
         <v>92</v>
       </c>
       <c r="B350" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C350" s="36">
         <v>4043</v>
@@ -13806,7 +13861,7 @@
         <v>92</v>
       </c>
       <c r="B351" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C351" s="36">
         <v>2005</v>
@@ -13826,7 +13881,7 @@
         <v>92</v>
       </c>
       <c r="B352" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C352" s="36">
         <v>932</v>
@@ -13846,7 +13901,7 @@
         <v>92</v>
       </c>
       <c r="B353" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C353" s="36">
         <v>861</v>
@@ -13906,7 +13961,7 @@
         <v>92</v>
       </c>
       <c r="B356" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C356" s="36">
         <v>2592</v>
@@ -14126,7 +14181,7 @@
         <v>92</v>
       </c>
       <c r="B367" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C367" s="36">
         <v>1312</v>
@@ -14146,7 +14201,7 @@
         <v>92</v>
       </c>
       <c r="B368" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C368" s="36">
         <v>5219</v>
@@ -14166,7 +14221,7 @@
         <v>92</v>
       </c>
       <c r="B369" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C369" s="36">
         <v>5055</v>
@@ -14186,7 +14241,7 @@
         <v>92</v>
       </c>
       <c r="B370" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C370" s="36">
         <v>5132</v>
@@ -14206,7 +14261,7 @@
         <v>92</v>
       </c>
       <c r="B371" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C371" s="36">
         <v>560</v>
@@ -14226,7 +14281,7 @@
         <v>92</v>
       </c>
       <c r="B372" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C372" s="36">
         <v>591</v>
@@ -14246,7 +14301,7 @@
         <v>92</v>
       </c>
       <c r="B373" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C373" s="36">
         <v>5056</v>
@@ -14266,7 +14321,7 @@
         <v>92</v>
       </c>
       <c r="B374" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C374" s="36">
         <v>2784</v>
@@ -14286,7 +14341,7 @@
         <v>92</v>
       </c>
       <c r="B375" s="36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C375" s="36">
         <v>2784</v>
@@ -14306,7 +14361,7 @@
         <v>92</v>
       </c>
       <c r="B376" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C376" s="36">
         <v>2784</v>
@@ -14326,7 +14381,7 @@
         <v>92</v>
       </c>
       <c r="B377" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C377" s="36">
         <v>2784</v>
@@ -14346,7 +14401,7 @@
         <v>92</v>
       </c>
       <c r="B378" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C378" s="36">
         <v>2939</v>
@@ -14366,7 +14421,7 @@
         <v>92</v>
       </c>
       <c r="B379" s="36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C379" s="36">
         <v>2939</v>
@@ -14386,7 +14441,7 @@
         <v>92</v>
       </c>
       <c r="B380" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C380" s="36">
         <v>2939</v>
@@ -14406,7 +14461,7 @@
         <v>92</v>
       </c>
       <c r="B381" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C381" s="36">
         <v>2939</v>
@@ -14426,7 +14481,7 @@
         <v>92</v>
       </c>
       <c r="B382" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C382" s="36">
         <v>4942</v>
@@ -14446,7 +14501,7 @@
         <v>92</v>
       </c>
       <c r="B383" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C383" s="36">
         <v>5059</v>
@@ -14466,7 +14521,7 @@
         <v>92</v>
       </c>
       <c r="B384" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C384" s="36">
         <v>5005</v>
@@ -14486,7 +14541,7 @@
         <v>92</v>
       </c>
       <c r="B385" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C385" s="36">
         <v>5119</v>
@@ -14546,7 +14601,7 @@
         <v>92</v>
       </c>
       <c r="B388" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C388" s="36">
         <v>3370</v>
@@ -14566,7 +14621,7 @@
         <v>92</v>
       </c>
       <c r="B389" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C389" s="36">
         <v>881</v>
@@ -14586,7 +14641,7 @@
         <v>92</v>
       </c>
       <c r="B390" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C390" s="36">
         <v>1069</v>
@@ -14606,7 +14661,7 @@
         <v>92</v>
       </c>
       <c r="B391" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C391" s="36">
         <v>3502</v>
@@ -14626,7 +14681,7 @@
         <v>92</v>
       </c>
       <c r="B392" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C392" s="36">
         <v>4929</v>
@@ -14646,7 +14701,7 @@
         <v>92</v>
       </c>
       <c r="B393" s="36" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C393" s="36">
         <v>3508</v>
@@ -14966,7 +15021,7 @@
         <v>92</v>
       </c>
       <c r="B409" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C409" s="36">
         <v>2603</v>
@@ -14986,7 +15041,7 @@
         <v>92</v>
       </c>
       <c r="B410" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C410" s="36">
         <v>2289</v>
@@ -15006,7 +15061,7 @@
         <v>92</v>
       </c>
       <c r="B411" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C411" s="36">
         <v>719</v>
@@ -15468,9 +15523,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15482,12 +15537,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15537,10 +15592,10 @@
         <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -15548,10 +15603,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -15559,10 +15614,10 @@
         <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -15570,10 +15625,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -15581,10 +15636,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -15592,10 +15647,10 @@
         <v>57</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -15603,10 +15658,10 @@
         <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15617,7 +15672,7 @@
         <v>94</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15628,7 +15683,7 @@
         <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15639,7 +15694,7 @@
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -15647,10 +15702,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -15661,7 +15716,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="11" customFormat="1">
@@ -15672,7 +15727,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>160</v>
+        <v>361</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -15684,7 +15739,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -15693,10 +15748,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -15705,10 +15760,10 @@
         <v>137</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -15720,7 +15775,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -15732,7 +15787,7 @@
         <v>96</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -15741,46 +15796,46 @@
         <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1">
       <c r="A28" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1">
       <c r="A29" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1">
       <c r="A30" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -15851,12 +15906,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15898,10 +15953,10 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -15909,10 +15964,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -15920,10 +15975,10 @@
         <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15969,12 +16024,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15990,7 +16045,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="21" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -16019,13 +16074,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16036,7 +16091,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16088,12 +16143,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16130,29 +16185,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
         <v>135</v>
@@ -16163,18 +16218,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>105</v>
@@ -16185,24 +16240,24 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16254,10 +16309,10 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -16290,12 +16345,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="38.88671875" customWidth="1"/>
     <col min="4" max="4" width="47.6640625" customWidth="1"/>
@@ -16303,13 +16358,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -16323,7 +16378,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="4"/>
@@ -16331,7 +16386,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -16342,43 +16397,43 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D11" s="43"/>
     </row>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5194A5-3693-41C9-8180-793F43377437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5423101-F2F8-4C0A-9DD4-05827F40C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="4" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1170,6 +1170,17 @@
     <t>Compatible part-number: MOS 7701</t>
   </si>
   <si>
+    <t>The SID (Sound Interface Device) is a mono sound chip that has 3 voices. It is also used to read the paddles X and Y axies.
+Memory location:
+$D400-$D7FF</t>
+  </si>
+  <si>
+    <t>Oscilloscope baseline measurement</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1182,19 +1193,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-13</t>
+      <t>2025-August-1</t>
     </r>
-  </si>
-  <si>
-    <t>The SID (Sound Interface Device) is a mono sound chip that has 3 voices. It is also used to read the paddles X and Y axies.
-Memory location:
-$D400-$D7FF</t>
-  </si>
-  <si>
-    <t>Oscilloscope baseline measurement</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1788,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2051,8 +2051,8 @@
   <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4343,10 +4343,10 @@
   <dimension ref="A1:I1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4881,7 +4881,7 @@
         <v>280</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1" ht="43.2">
@@ -15523,9 +15523,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15727,7 +15727,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -16345,7 +16345,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16430,7 +16430,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C11" t="s">
         <v>332</v>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250469\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5423101-F2F8-4C0A-9DD4-05827F40C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950730C5-518E-4CE6-A428-B5F6167D618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -468,78 +468,6 @@
     <t>PET/VIC-20/C64 Port Pinouts</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/User port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Cassette port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Serial bus.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Video-audio port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Expansion port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Joystick port 2.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Joystick port 1.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6526.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2332.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2114.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7406.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/4464.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/4066.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -836,9 +764,6 @@
     <t>74LS14</t>
   </si>
   <si>
-    <t>Data/Commodore 64/250469/C64-250469-KiCad.jpg</t>
-  </si>
-  <si>
     <t>1800pF for 6581 SID.
 2200pF for 8580 SID.</t>
   </si>
@@ -850,12 +775,6 @@
     <t>Variable capacitor</t>
   </si>
   <si>
-    <t>Data/Commodore 64/250469/Replica of 250469 REV.4.1.1.Top.png</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250469/Replica of 250469 REV.4.1.1.Bottom.png</t>
-  </si>
-  <si>
     <t>C85</t>
   </si>
   <si>
@@ -868,9 +787,6 @@
     <t>Bridge Rectifier</t>
   </si>
   <si>
-    <t>Data/Commodore 64/250469/Board-Layout-250469 (NTSC).jpg</t>
-  </si>
-  <si>
     <t>BA20</t>
   </si>
   <si>
@@ -896,27 +812,12 @@
   </si>
   <si>
     <t>Rocker switch</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/23128.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/8500.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/8565.jpg</t>
   </si>
   <si>
     <t>251715-01 is PLA and support logic WITHOUT color RAM.
 252535-01 is PLA and support logiv WTH color RAM (rev. B).</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/251715-01-SuperPLA.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/8580.jpg</t>
-  </si>
-  <si>
     <t>D0-D3.
 Compatible part-number: 4464</t>
   </si>
@@ -928,12 +829,6 @@
     <t>65536 x 4-bit, 200ns</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/8701.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS14.jpg</t>
-  </si>
-  <si>
     <t>Compatible part-number: 1N4148</t>
   </si>
   <si>
@@ -958,27 +853,15 @@
     <t>Datasheet for 23128</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/23128-Commodore.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/TMS4464.PDF</t>
-  </si>
-  <si>
     <t>Datasheet for 4464</t>
   </si>
   <si>
     <t>Datasheet for 8701</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/MOS8701.pdf</t>
-  </si>
-  <si>
     <t>Datasheet for 74LS14</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/SN7414.PDF</t>
-  </si>
-  <si>
     <t>https://myoldcomputer.nl/technical-info/mainboards/commodore-64/board-250469/</t>
   </si>
   <si>
@@ -1040,9 +923,6 @@
   </si>
   <si>
     <t>Resources</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
   </si>
   <si>
     <t>Board credits</t>
@@ -1178,7 +1058,16 @@
     <t>Oscilloscope baseline measurement</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+    <t>Commodore 64/250469/C64-250469-KiCad.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Replica of 250469 REV.4.1.1.Top.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Replica of 250469 REV.4.1.1.Bottom.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Board-Layout-250469 (NTSC).jpg</t>
   </si>
   <si>
     <r>
@@ -1193,8 +1082,119 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-August-1</t>
+      <t>2025-September-13</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/User port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Cassette port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Serial bus.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Expansion port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6526.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/23128.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8500.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8565.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/251715-01-SuperPLA.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8580.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4464.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8701.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS14.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/23128-Commodore.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/TMS4464.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7414.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
   </si>
 </sst>
 </file>
@@ -1805,17 +1805,17 @@
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A2" s="8" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1854,11 +1854,11 @@
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="48" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
@@ -1878,18 +1878,18 @@
         <v>11</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>9</v>
@@ -1949,7 +1949,7 @@
         <v>92</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -2067,12 +2067,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2116,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>21</v>
@@ -2127,7 +2127,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>125</v>
@@ -2197,7 +2197,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>125</v>
@@ -2211,7 +2211,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>125</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>125</v>
@@ -2239,7 +2239,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>125</v>
@@ -2253,7 +2253,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>125</v>
@@ -2267,7 +2267,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>125</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="11" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>125</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>122</v>
@@ -2309,7 +2309,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>125</v>
@@ -2323,7 +2323,7 @@
         <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>125</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>125</v>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>122</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>125</v>
@@ -2393,7 +2393,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>125</v>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="1" t="s">
@@ -2444,10 +2444,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>125</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>122</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>123</v>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>123</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>125</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>91</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>91</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="1" t="s">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>128</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>125</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>125</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>125</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>125</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>127</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="11" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>127</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="11" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>126</v>
@@ -2711,7 +2711,7 @@
         <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>130</v>
@@ -2720,263 +2720,263 @@
         <v>52</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="11" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="11" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="11" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="11" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="11" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="11" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="11" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="11" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="11" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="11" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="11" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="11" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="11" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="11" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="11" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="11" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="11" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2984,7 +2984,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>62</v>
@@ -2998,7 +2998,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>64</v>
@@ -3012,7 +3012,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>73</v>
@@ -3026,7 +3026,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>56</v>
@@ -3040,10 +3040,10 @@
         <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>53</v>
@@ -3054,7 +3054,7 @@
         <v>32</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>33</v>
@@ -3068,10 +3068,10 @@
         <v>86</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>53</v>
@@ -3082,7 +3082,7 @@
         <v>57</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>58</v>
@@ -3096,7 +3096,7 @@
         <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>60</v>
@@ -3110,7 +3110,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>84</v>
@@ -3155,7 +3155,7 @@
         <v>29</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>54</v>
@@ -3166,16 +3166,16 @@
         <v>35</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3183,7 +3183,7 @@
         <v>48</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>49</v>
@@ -3192,7 +3192,7 @@
         <v>54</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3209,7 +3209,7 @@
         <v>54</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3226,10 +3226,10 @@
         <v>54</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3246,10 +3246,10 @@
         <v>54</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3260,7 +3260,7 @@
         <v>251715</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>54</v>
@@ -3280,7 +3280,7 @@
         <v>54</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3291,13 +3291,13 @@
         <v>41464</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3308,13 +3308,13 @@
         <v>41464</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3325,7 +3325,7 @@
         <v>4066</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>54</v>
@@ -3345,7 +3345,7 @@
         <v>54</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3356,7 +3356,7 @@
         <v>8701</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>54</v>
@@ -3364,13 +3364,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="34" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B100" s="1">
         <v>4066</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>54</v>
@@ -3378,13 +3378,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="34" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B101" s="1">
         <v>7406</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>54</v>
@@ -3392,13 +3392,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="34" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>54</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="34" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>51</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="34" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>51</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="34" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>51</v>
@@ -3473,10 +3473,10 @@
         <v>51</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3490,10 +3490,10 @@
         <v>51</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4363,14 +4363,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="22"/>
@@ -4425,27 +4425,27 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" ht="28.8">
       <c r="A9" s="11" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>93</v>
@@ -4453,12 +4453,12 @@
       <c r="E9" s="1"/>
       <c r="F9" s="42"/>
       <c r="G9" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" ht="28.8">
       <c r="A10" s="11" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>93</v>
@@ -4466,12 +4466,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="42"/>
       <c r="G10" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" ht="28.8">
       <c r="A11" s="11" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>93</v>
@@ -4479,12 +4479,12 @@
       <c r="E11" s="1"/>
       <c r="F11" s="42"/>
       <c r="G11" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>93</v>
@@ -4492,151 +4492,151 @@
       <c r="E12" s="1"/>
       <c r="F12" s="42"/>
       <c r="G12" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="11" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="11" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="11" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="11" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="11" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="11" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="42" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -4662,7 +4662,7 @@
         <v>93</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>142</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4675,7 +4675,7 @@
         <v>93</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>143</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4688,7 +4688,7 @@
         <v>93</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>144</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4701,7 +4701,7 @@
         <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>145</v>
+        <v>329</v>
       </c>
       <c r="I29" s="9"/>
     </row>
@@ -4715,7 +4715,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4728,7 +4728,7 @@
         <v>93</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4741,7 +4741,7 @@
         <v>93</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="158.4">
@@ -4754,10 +4754,10 @@
         <v>93</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="158.4">
@@ -4770,10 +4770,10 @@
         <v>93</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -4787,10 +4787,10 @@
         <v>93</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="43.2">
@@ -4802,10 +4802,10 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="9" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="72">
@@ -4818,10 +4818,10 @@
         <v>93</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1">
@@ -4833,10 +4833,10 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="9" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" ht="28.8">
@@ -4848,10 +4848,10 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="9" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1" ht="28.8">
@@ -4863,10 +4863,10 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="9" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" ht="72">
@@ -4878,10 +4878,10 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="9" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1" ht="43.2">
@@ -4893,10 +4893,10 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="9" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" ht="43.2">
@@ -4908,10 +4908,10 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="9" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4924,7 +4924,7 @@
         <v>93</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="100.8">
@@ -4937,10 +4937,10 @@
         <v>93</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>150</v>
+        <v>343</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="11" customFormat="1">
@@ -4952,15 +4952,15 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="9" t="s">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="28"/>
@@ -4968,12 +4968,12 @@
         <v>93</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="23"/>
@@ -4981,15 +4981,15 @@
         <v>93</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="9" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="28"/>
@@ -4997,7 +4997,7 @@
         <v>93</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5010,7 +5010,7 @@
         <v>93</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="57.6">
@@ -5023,7 +5023,7 @@
         <v>93</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6930,12 +6930,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7014,7 +7014,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>74</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>69</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>67</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>31</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>34</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>41</v>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>78</v>
@@ -7158,10 +7158,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C16" s="36">
         <v>535</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>25</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>36</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>79</v>
@@ -7238,10 +7238,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C20" s="36">
         <v>4126</v>
@@ -7258,10 +7258,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C21" s="36">
         <v>3226</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>46</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>85</v>
@@ -7318,10 +7318,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C24" s="36">
         <v>3624</v>
@@ -7338,10 +7338,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C25" s="36">
         <v>1876</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>26</v>
@@ -7378,10 +7378,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C27" s="36">
         <v>2410</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>42</v>
@@ -7418,10 +7418,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C29" s="36">
         <v>1952</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>45</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>77</v>
@@ -7478,10 +7478,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C32" s="36">
         <v>2247</v>
@@ -7498,10 +7498,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C33" s="36">
         <v>2618</v>
@@ -7518,10 +7518,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C34" s="36">
         <v>2629</v>
@@ -7538,10 +7538,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C35" s="36">
         <v>2875</v>
@@ -7558,10 +7558,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C36" s="36">
         <v>3732</v>
@@ -7578,10 +7578,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C37" s="36">
         <v>3691</v>
@@ -7598,10 +7598,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C38" s="36">
         <v>3790</v>
@@ -7618,10 +7618,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C39" s="36">
         <v>3689</v>
@@ -7638,10 +7638,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C40" s="36">
         <v>3790</v>
@@ -7658,10 +7658,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C41" s="36">
         <v>3773</v>
@@ -7678,10 +7678,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C42" s="36">
         <v>3884</v>
@@ -7698,10 +7698,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C43" s="36">
         <v>4037</v>
@@ -7718,10 +7718,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C44" s="36">
         <v>3796</v>
@@ -7738,10 +7738,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C45" s="36">
         <v>3433</v>
@@ -7758,10 +7758,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C46" s="36">
         <v>3790</v>
@@ -7778,10 +7778,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C47" s="36">
         <v>3790</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C48" s="36">
         <v>3360</v>
@@ -7818,10 +7818,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C49" s="36">
         <v>284</v>
@@ -7838,10 +7838,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C50" s="36">
         <v>201</v>
@@ -7858,10 +7858,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C51" s="36">
         <v>201</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B52" s="36" t="s">
         <v>75</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>76</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B54" s="36" t="s">
         <v>61</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>63</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B56" s="36" t="s">
         <v>72</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B57" s="36" t="s">
         <v>55</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B58" s="36" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B59" s="36" t="s">
         <v>86</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>57</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B61" s="36" t="s">
         <v>59</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>83</v>
@@ -8098,10 +8098,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C63" s="36">
         <v>728</v>
@@ -8118,10 +8118,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C64" s="36">
         <v>2501</v>
@@ -8138,10 +8138,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C65" s="36">
         <v>2747</v>
@@ -8158,10 +8158,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C66" s="36">
         <v>2689</v>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C67" s="36">
         <v>1796</v>
@@ -8198,10 +8198,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C68" s="36">
         <v>1826</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C69" s="36">
         <v>3079</v>
@@ -8238,10 +8238,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C70" s="36">
         <v>399</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C71" s="36">
         <v>357</v>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C72" s="36">
         <v>323</v>
@@ -8298,10 +8298,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C73" s="36">
         <v>274</v>
@@ -8318,10 +8318,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C74" s="36">
         <v>388</v>
@@ -8338,10 +8338,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C75" s="36">
         <v>357</v>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C76" s="36">
         <v>321</v>
@@ -8378,10 +8378,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C77" s="36">
         <v>290</v>
@@ -8398,10 +8398,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C78" s="36">
         <v>294</v>
@@ -8418,10 +8418,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C79" s="36">
         <v>277</v>
@@ -8438,10 +8438,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C80" s="36">
         <v>340</v>
@@ -8458,10 +8458,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C81" s="36">
         <v>336</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B82" s="36" t="s">
         <v>129</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B83" s="36" t="s">
         <v>136</v>
@@ -8518,10 +8518,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C84" s="36">
         <v>3736</v>
@@ -8538,10 +8538,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C85" s="36">
         <v>3024</v>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C86" s="36">
         <v>619</v>
@@ -8578,10 +8578,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C87" s="36">
         <v>911</v>
@@ -8598,10 +8598,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C88" s="36">
         <v>3934</v>
@@ -8618,10 +8618,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C89" s="36">
         <v>3044</v>
@@ -8638,10 +8638,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C90" s="36">
         <v>3742</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B91" s="36" t="s">
         <v>81</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B92" s="36" t="s">
         <v>68</v>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B93" s="36" t="s">
         <v>66</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B94" s="36" t="s">
         <v>30</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B95" s="36" t="s">
         <v>30</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B96" s="36" t="s">
         <v>30</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B97" s="36" t="s">
         <v>35</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B98" s="36" t="s">
         <v>48</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B99" s="36" t="s">
         <v>43</v>
@@ -8838,7 +8838,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B100" s="36" t="s">
         <v>70</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B101" s="36" t="s">
         <v>24</v>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B102" s="36" t="s">
         <v>27</v>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B103" s="36" t="s">
         <v>28</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B104" s="36" t="s">
         <v>137</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B105" s="36" t="s">
         <v>39</v>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B106" s="36" t="s">
         <v>37</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B107" s="36" t="s">
         <v>65</v>
@@ -8998,10 +8998,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C108" s="36">
         <v>3158</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C109" s="36">
         <v>676</v>
@@ -9038,10 +9038,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C110" s="36">
         <v>676</v>
@@ -9058,10 +9058,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C111" s="36">
         <v>676</v>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C112" s="36">
         <v>1671</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C113" s="36">
         <v>1614</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C114" s="36">
         <v>1665</v>
@@ -9138,10 +9138,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C115" s="36">
         <v>1777</v>
@@ -9158,10 +9158,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C116" s="36">
         <v>1803</v>
@@ -9178,10 +9178,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C117" s="36">
         <v>1803</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="9" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B118" s="36" t="s">
         <v>50</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B119" s="36" t="s">
         <v>74</v>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B120" s="36" t="s">
         <v>69</v>
@@ -9258,7 +9258,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B121" s="36" t="s">
         <v>67</v>
@@ -9278,7 +9278,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B122" s="36" t="s">
         <v>31</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B123" s="36" t="s">
         <v>34</v>
@@ -9318,7 +9318,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B124" s="36" t="s">
         <v>41</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B125" s="36" t="s">
         <v>78</v>
@@ -9358,10 +9358,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C126" s="36">
         <v>359</v>
@@ -9378,7 +9378,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B127" s="36" t="s">
         <v>25</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B128" s="36" t="s">
         <v>36</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B129" s="36" t="s">
         <v>79</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C130" s="36">
         <v>1968</v>
@@ -9458,10 +9458,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C131" s="36">
         <v>1969</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B132" s="36" t="s">
         <v>46</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B133" s="36" t="s">
         <v>85</v>
@@ -9518,10 +9518,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C134" s="36">
         <v>2631</v>
@@ -9538,10 +9538,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C135" s="36">
         <v>291</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B136" s="36" t="s">
         <v>26</v>
@@ -9578,10 +9578,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C137" s="36">
         <v>921</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B138" s="36" t="s">
         <v>42</v>
@@ -9618,10 +9618,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B139" s="36" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C139" s="36">
         <v>3651</v>
@@ -9638,7 +9638,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B140" s="36" t="s">
         <v>45</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B141" s="36" t="s">
         <v>77</v>
@@ -9678,10 +9678,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B142" s="36" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C142" s="36">
         <v>3613</v>
@@ -9698,10 +9698,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B143" s="36" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C143" s="36">
         <v>3360</v>
@@ -9718,10 +9718,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B144" s="36" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C144" s="36">
         <v>3230</v>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B145" s="36" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C145" s="36">
         <v>3090</v>
@@ -9758,10 +9758,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C146" s="36">
         <v>2477</v>
@@ -9778,10 +9778,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B147" s="36" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C147" s="36">
         <v>2235</v>
@@ -9798,10 +9798,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B148" s="36" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C148" s="36">
         <v>2235</v>
@@ -9818,10 +9818,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B149" s="36" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C149" s="36">
         <v>2479</v>
@@ -9838,10 +9838,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B150" s="36" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C150" s="36">
         <v>2351</v>
@@ -9858,10 +9858,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B151" s="36" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C151" s="36">
         <v>2129</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B152" s="36" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C152" s="36">
         <v>2477</v>
@@ -9898,10 +9898,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B153" s="36" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C153" s="36">
         <v>2593</v>
@@ -9918,10 +9918,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C154" s="36">
         <v>2593</v>
@@ -9938,10 +9938,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B155" s="36" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C155" s="36">
         <v>1253</v>
@@ -9958,10 +9958,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C156" s="36">
         <v>537</v>
@@ -9978,10 +9978,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B157" s="36" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C157" s="36">
         <v>487</v>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B158" s="36" t="s">
         <v>75</v>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B159" s="36" t="s">
         <v>76</v>
@@ -10038,10 +10038,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B160" s="36" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C160" s="36">
         <v>1637</v>
@@ -10058,7 +10058,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B161" s="36" t="s">
         <v>61</v>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B162" s="36" t="s">
         <v>63</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B163" s="36" t="s">
         <v>72</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B164" s="36" t="s">
         <v>55</v>
@@ -10138,7 +10138,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B165" s="36" t="s">
         <v>47</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B166" s="36" t="s">
         <v>32</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B167" s="36" t="s">
         <v>86</v>
@@ -10198,7 +10198,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B168" s="36" t="s">
         <v>57</v>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B169" s="36" t="s">
         <v>59</v>
@@ -10238,7 +10238,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B170" s="36" t="s">
         <v>83</v>
@@ -10258,10 +10258,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B171" s="36" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C171" s="36">
         <v>789</v>
@@ -10278,10 +10278,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B172" s="36" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C172" s="36">
         <v>3374</v>
@@ -10298,10 +10298,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B173" s="36" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C173" s="36">
         <v>3265</v>
@@ -10318,10 +10318,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B174" s="36" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C174" s="36">
         <v>3316</v>
@@ -10338,10 +10338,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B175" s="36" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C175" s="36">
         <v>280</v>
@@ -10358,10 +10358,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B176" s="36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C176" s="36">
         <v>305</v>
@@ -10378,10 +10378,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B177" s="36" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C177" s="36">
         <v>3266</v>
@@ -10398,10 +10398,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B178" s="36" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C178" s="36">
         <v>1738</v>
@@ -10418,10 +10418,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B179" s="36" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C179" s="36">
         <v>1738</v>
@@ -10438,10 +10438,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B180" s="36" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C180" s="36">
         <v>1738</v>
@@ -10458,10 +10458,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B181" s="36" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C181" s="36">
         <v>1738</v>
@@ -10478,10 +10478,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B182" s="36" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C182" s="36">
         <v>1839</v>
@@ -10498,10 +10498,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B183" s="36" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C183" s="36">
         <v>1839</v>
@@ -10518,10 +10518,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C184" s="36">
         <v>1839</v>
@@ -10538,10 +10538,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B185" s="36" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C185" s="36">
         <v>1839</v>
@@ -10558,10 +10558,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B186" s="36" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C186" s="36">
         <v>3190</v>
@@ -10578,10 +10578,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B187" s="36" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C187" s="36">
         <v>3266</v>
@@ -10598,10 +10598,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B188" s="36" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C188" s="36">
         <v>3227</v>
@@ -10618,10 +10618,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B189" s="36" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C189" s="36">
         <v>3304</v>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B190" s="36" t="s">
         <v>129</v>
@@ -10658,7 +10658,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B191" s="36" t="s">
         <v>136</v>
@@ -10678,10 +10678,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B192" s="36" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C192" s="36">
         <v>2146</v>
@@ -10698,10 +10698,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B193" s="36" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C193" s="36">
         <v>1570</v>
@@ -10718,10 +10718,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B194" s="36" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C194" s="36">
         <v>503</v>
@@ -10738,10 +10738,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B195" s="36" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C195" s="36">
         <v>618</v>
@@ -10758,10 +10758,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B196" s="36" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C196" s="36">
         <v>2225</v>
@@ -10778,10 +10778,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B197" s="36" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C197" s="36">
         <v>3168</v>
@@ -10798,10 +10798,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B198" s="36" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C198" s="36">
         <v>2212</v>
@@ -10818,7 +10818,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B199" s="36" t="s">
         <v>81</v>
@@ -10838,7 +10838,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B200" s="36" t="s">
         <v>68</v>
@@ -10858,7 +10858,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B201" s="36" t="s">
         <v>66</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B202" s="36" t="s">
         <v>30</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B203" s="36" t="s">
         <v>35</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B204" s="36" t="s">
         <v>48</v>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B205" s="36" t="s">
         <v>43</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B206" s="36" t="s">
         <v>70</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B207" s="36" t="s">
         <v>24</v>
@@ -10998,7 +10998,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B208" s="36" t="s">
         <v>27</v>
@@ -11018,7 +11018,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B209" s="36" t="s">
         <v>28</v>
@@ -11038,7 +11038,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B210" s="36" t="s">
         <v>137</v>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B211" s="36" t="s">
         <v>39</v>
@@ -11078,7 +11078,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B212" s="36" t="s">
         <v>37</v>
@@ -11098,7 +11098,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B213" s="36" t="s">
         <v>65</v>
@@ -11118,10 +11118,10 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B214" s="36" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C214" s="36">
         <v>1637</v>
@@ -11138,10 +11138,10 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B215" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C215" s="36">
         <v>1433</v>
@@ -11158,10 +11158,10 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B216" s="36" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C216" s="36">
         <v>387</v>
@@ -11178,7 +11178,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="34" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B217" s="36" t="s">
         <v>50</v>
@@ -11198,7 +11198,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B218" s="36" t="s">
         <v>74</v>
@@ -11218,7 +11218,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B219" s="36" t="s">
         <v>69</v>
@@ -11238,7 +11238,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B220" s="36" t="s">
         <v>67</v>
@@ -11258,7 +11258,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B221" s="36" t="s">
         <v>31</v>
@@ -11278,7 +11278,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B222" s="36" t="s">
         <v>34</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B223" s="36" t="s">
         <v>41</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B224" s="36" t="s">
         <v>78</v>
@@ -11338,10 +11338,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B225" s="36" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C225" s="36">
         <v>3607</v>
@@ -11358,7 +11358,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B226" s="36" t="s">
         <v>25</v>
@@ -11378,7 +11378,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B227" s="36" t="s">
         <v>36</v>
@@ -11398,7 +11398,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B228" s="36" t="s">
         <v>79</v>
@@ -11418,10 +11418,10 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B229" s="36" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C229" s="36">
         <v>1949</v>
@@ -11438,10 +11438,10 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B230" s="36" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C230" s="36">
         <v>1946</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B231" s="36" t="s">
         <v>46</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B232" s="36" t="s">
         <v>85</v>
@@ -11498,10 +11498,10 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B233" s="36" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C233" s="36">
         <v>1328</v>
@@ -11518,10 +11518,10 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B234" s="36" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C234" s="36">
         <v>3655</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B235" s="36" t="s">
         <v>26</v>
@@ -11558,10 +11558,10 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B236" s="36" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C236" s="36">
         <v>2994</v>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B237" s="36" t="s">
         <v>42</v>
@@ -11598,10 +11598,10 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B238" s="36" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C238" s="36">
         <v>261</v>
@@ -11618,7 +11618,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B239" s="36" t="s">
         <v>77</v>
@@ -11638,10 +11638,10 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B240" s="36" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C240" s="36">
         <v>347</v>
@@ -11658,10 +11658,10 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B241" s="36" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C241" s="36">
         <v>511</v>
@@ -11678,10 +11678,10 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B242" s="36" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C242" s="36">
         <v>664</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B243" s="36" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C243" s="36">
         <v>804</v>
@@ -11718,10 +11718,10 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B244" s="36" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C244" s="36">
         <v>1434</v>
@@ -11738,10 +11738,10 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B245" s="36" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C245" s="36">
         <v>1735</v>
@@ -11758,10 +11758,10 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B246" s="36" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C246" s="36">
         <v>1735</v>
@@ -11778,10 +11778,10 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B247" s="36" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C247" s="36">
         <v>1434</v>
@@ -11798,10 +11798,10 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B248" s="36" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C248" s="36">
         <v>1566</v>
@@ -11818,10 +11818,10 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B249" s="36" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C249" s="36">
         <v>1814</v>
@@ -11838,10 +11838,10 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B250" s="36" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C250" s="36">
         <v>1434</v>
@@ -11858,10 +11858,10 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B251" s="36" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C251" s="36">
         <v>1376</v>
@@ -11878,10 +11878,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B252" s="36" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C252" s="36">
         <v>1376</v>
@@ -11898,10 +11898,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B253" s="36" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C253" s="36">
         <v>2713</v>
@@ -11918,10 +11918,10 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B254" s="36" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C254" s="36">
         <v>524</v>
@@ -11938,10 +11938,10 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B255" s="36" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C255" s="36">
         <v>3428</v>
@@ -11958,10 +11958,10 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B256" s="36" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C256" s="36">
         <v>3479</v>
@@ -11978,7 +11978,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B257" s="36" t="s">
         <v>75</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B258" s="36" t="s">
         <v>76</v>
@@ -12018,10 +12018,10 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B259" s="36" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C259" s="36">
         <v>2278</v>
@@ -12038,7 +12038,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B260" s="36" t="s">
         <v>61</v>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B261" s="36" t="s">
         <v>63</v>
@@ -12078,7 +12078,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B262" s="36" t="s">
         <v>72</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B263" s="36" t="s">
         <v>55</v>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B264" s="36" t="s">
         <v>47</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B265" s="36" t="s">
         <v>32</v>
@@ -12158,7 +12158,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B266" s="36" t="s">
         <v>86</v>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B267" s="36" t="s">
         <v>57</v>
@@ -12198,7 +12198,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B268" s="36" t="s">
         <v>59</v>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B269" s="36" t="s">
         <v>83</v>
@@ -12238,10 +12238,10 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B270" s="36" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C270" s="36">
         <v>3168</v>
@@ -12258,10 +12258,10 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B271" s="36" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C271" s="36">
         <v>498</v>
@@ -12278,10 +12278,10 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B272" s="36" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C272" s="36">
         <v>693</v>
@@ -12298,10 +12298,10 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B273" s="36" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C273" s="36">
         <v>642</v>
@@ -12318,10 +12318,10 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B274" s="36" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C274" s="36">
         <v>3682</v>
@@ -12338,10 +12338,10 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B275" s="36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C275" s="36">
         <v>3655</v>
@@ -12358,10 +12358,10 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B276" s="36" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C276" s="36">
         <v>692</v>
@@ -12378,10 +12378,10 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B277" s="36" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C277" s="36">
         <v>2178</v>
@@ -12398,10 +12398,10 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B278" s="36" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C278" s="36">
         <v>2178</v>
@@ -12418,10 +12418,10 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B279" s="36" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C279" s="36">
         <v>2178</v>
@@ -12438,10 +12438,10 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B280" s="36" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C280" s="36">
         <v>2178</v>
@@ -12458,10 +12458,10 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B281" s="36" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C281" s="36">
         <v>2075</v>
@@ -12478,10 +12478,10 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B282" s="36" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C282" s="36">
         <v>2075</v>
@@ -12498,10 +12498,10 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B283" s="36" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C283" s="36">
         <v>2075</v>
@@ -12518,10 +12518,10 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B284" s="36" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C284" s="36">
         <v>2075</v>
@@ -12538,10 +12538,10 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B285" s="36" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C285" s="36">
         <v>772</v>
@@ -12558,10 +12558,10 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B286" s="36" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C286" s="36">
         <v>694</v>
@@ -12578,10 +12578,10 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B287" s="36" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C287" s="36">
         <v>733</v>
@@ -12598,10 +12598,10 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B288" s="36" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C288" s="36">
         <v>655</v>
@@ -12618,7 +12618,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B289" s="36" t="s">
         <v>129</v>
@@ -12638,7 +12638,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B290" s="36" t="s">
         <v>136</v>
@@ -12658,10 +12658,10 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B291" s="36" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C291" s="36">
         <v>3275</v>
@@ -12678,10 +12678,10 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B292" s="36" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C292" s="36">
         <v>3303</v>
@@ -12698,10 +12698,10 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B293" s="36" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C293" s="36">
         <v>1691</v>
@@ -12718,10 +12718,10 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B294" s="36" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C294" s="36">
         <v>747</v>
@@ -12738,10 +12738,10 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B295" s="36" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C295" s="36">
         <v>1128</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B296" s="36" t="s">
         <v>81</v>
@@ -12778,7 +12778,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B297" s="36" t="s">
         <v>68</v>
@@ -12798,7 +12798,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B298" s="36" t="s">
         <v>66</v>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B299" s="36" t="s">
         <v>30</v>
@@ -12838,7 +12838,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B300" s="36" t="s">
         <v>35</v>
@@ -12858,7 +12858,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B301" s="36" t="s">
         <v>48</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B302" s="36" t="s">
         <v>43</v>
@@ -12898,7 +12898,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B303" s="36" t="s">
         <v>70</v>
@@ -12918,7 +12918,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B304" s="36" t="s">
         <v>24</v>
@@ -12938,7 +12938,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B305" s="36" t="s">
         <v>27</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B306" s="36" t="s">
         <v>28</v>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B307" s="36" t="s">
         <v>137</v>
@@ -12998,7 +12998,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B308" s="36" t="s">
         <v>39</v>
@@ -13018,7 +13018,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B309" s="36" t="s">
         <v>37</v>
@@ -13038,7 +13038,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B310" s="36" t="s">
         <v>65</v>
@@ -13058,10 +13058,10 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B311" s="36" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C311" s="36">
         <v>2285</v>
@@ -13078,10 +13078,10 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B312" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C312" s="36">
         <v>2489</v>
@@ -13098,10 +13098,10 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B313" s="36" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C313" s="36">
         <v>3536</v>
@@ -13118,7 +13118,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B314" s="36" t="s">
         <v>50</v>
@@ -13281,7 +13281,7 @@
         <v>92</v>
       </c>
       <c r="B322" s="36" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C322" s="36">
         <v>670</v>
@@ -13361,7 +13361,7 @@
         <v>92</v>
       </c>
       <c r="B326" s="36" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C326" s="36">
         <v>3108</v>
@@ -13381,7 +13381,7 @@
         <v>92</v>
       </c>
       <c r="B327" s="36" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C327" s="36">
         <v>3123</v>
@@ -13441,7 +13441,7 @@
         <v>92</v>
       </c>
       <c r="B330" s="36" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C330" s="36">
         <v>4096</v>
@@ -13461,7 +13461,7 @@
         <v>92</v>
       </c>
       <c r="B331" s="36" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C331" s="36">
         <v>580</v>
@@ -13501,7 +13501,7 @@
         <v>92</v>
       </c>
       <c r="B333" s="36" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C333" s="36">
         <v>1514</v>
@@ -13541,7 +13541,7 @@
         <v>92</v>
       </c>
       <c r="B335" s="36" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C335" s="36">
         <v>5633</v>
@@ -13601,7 +13601,7 @@
         <v>92</v>
       </c>
       <c r="B338" s="36" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C338" s="36">
         <v>5585</v>
@@ -13621,7 +13621,7 @@
         <v>92</v>
       </c>
       <c r="B339" s="36" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C339" s="36">
         <v>5204</v>
@@ -13641,7 +13641,7 @@
         <v>92</v>
       </c>
       <c r="B340" s="36" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C340" s="36">
         <v>5010</v>
@@ -13661,7 +13661,7 @@
         <v>92</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C341" s="36">
         <v>4797</v>
@@ -13681,7 +13681,7 @@
         <v>92</v>
       </c>
       <c r="B342" s="36" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C342" s="36">
         <v>3871</v>
@@ -13701,7 +13701,7 @@
         <v>92</v>
       </c>
       <c r="B343" s="36" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C343" s="36">
         <v>3504</v>
@@ -13721,7 +13721,7 @@
         <v>92</v>
       </c>
       <c r="B344" s="36" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C344" s="36">
         <v>3507</v>
@@ -13741,7 +13741,7 @@
         <v>92</v>
       </c>
       <c r="B345" s="36" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C345" s="36">
         <v>3865</v>
@@ -13761,7 +13761,7 @@
         <v>92</v>
       </c>
       <c r="B346" s="36" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C346" s="36">
         <v>3672</v>
@@ -13781,7 +13781,7 @@
         <v>92</v>
       </c>
       <c r="B347" s="36" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C347" s="36">
         <v>3348</v>
@@ -13801,7 +13801,7 @@
         <v>92</v>
       </c>
       <c r="B348" s="36" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C348" s="36">
         <v>3871</v>
@@ -13821,7 +13821,7 @@
         <v>92</v>
       </c>
       <c r="B349" s="36" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C349" s="36">
         <v>4043</v>
@@ -13841,7 +13841,7 @@
         <v>92</v>
       </c>
       <c r="B350" s="36" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C350" s="36">
         <v>4043</v>
@@ -13861,7 +13861,7 @@
         <v>92</v>
       </c>
       <c r="B351" s="36" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C351" s="36">
         <v>2005</v>
@@ -13881,7 +13881,7 @@
         <v>92</v>
       </c>
       <c r="B352" s="36" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C352" s="36">
         <v>932</v>
@@ -13901,7 +13901,7 @@
         <v>92</v>
       </c>
       <c r="B353" s="36" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C353" s="36">
         <v>861</v>
@@ -13961,7 +13961,7 @@
         <v>92</v>
       </c>
       <c r="B356" s="36" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C356" s="36">
         <v>2592</v>
@@ -14181,7 +14181,7 @@
         <v>92</v>
       </c>
       <c r="B367" s="36" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C367" s="36">
         <v>1312</v>
@@ -14201,7 +14201,7 @@
         <v>92</v>
       </c>
       <c r="B368" s="36" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C368" s="36">
         <v>5219</v>
@@ -14221,7 +14221,7 @@
         <v>92</v>
       </c>
       <c r="B369" s="36" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C369" s="36">
         <v>5055</v>
@@ -14241,7 +14241,7 @@
         <v>92</v>
       </c>
       <c r="B370" s="36" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C370" s="36">
         <v>5132</v>
@@ -14261,7 +14261,7 @@
         <v>92</v>
       </c>
       <c r="B371" s="36" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C371" s="36">
         <v>560</v>
@@ -14281,7 +14281,7 @@
         <v>92</v>
       </c>
       <c r="B372" s="36" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C372" s="36">
         <v>591</v>
@@ -14301,7 +14301,7 @@
         <v>92</v>
       </c>
       <c r="B373" s="36" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C373" s="36">
         <v>5056</v>
@@ -14321,7 +14321,7 @@
         <v>92</v>
       </c>
       <c r="B374" s="36" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C374" s="36">
         <v>2784</v>
@@ -14341,7 +14341,7 @@
         <v>92</v>
       </c>
       <c r="B375" s="36" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C375" s="36">
         <v>2784</v>
@@ -14361,7 +14361,7 @@
         <v>92</v>
       </c>
       <c r="B376" s="36" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C376" s="36">
         <v>2784</v>
@@ -14381,7 +14381,7 @@
         <v>92</v>
       </c>
       <c r="B377" s="36" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C377" s="36">
         <v>2784</v>
@@ -14401,7 +14401,7 @@
         <v>92</v>
       </c>
       <c r="B378" s="36" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C378" s="36">
         <v>2939</v>
@@ -14421,7 +14421,7 @@
         <v>92</v>
       </c>
       <c r="B379" s="36" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C379" s="36">
         <v>2939</v>
@@ -14441,7 +14441,7 @@
         <v>92</v>
       </c>
       <c r="B380" s="36" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C380" s="36">
         <v>2939</v>
@@ -14461,7 +14461,7 @@
         <v>92</v>
       </c>
       <c r="B381" s="36" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C381" s="36">
         <v>2939</v>
@@ -14481,7 +14481,7 @@
         <v>92</v>
       </c>
       <c r="B382" s="36" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C382" s="36">
         <v>4942</v>
@@ -14501,7 +14501,7 @@
         <v>92</v>
       </c>
       <c r="B383" s="36" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C383" s="36">
         <v>5059</v>
@@ -14521,7 +14521,7 @@
         <v>92</v>
       </c>
       <c r="B384" s="36" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C384" s="36">
         <v>5005</v>
@@ -14541,7 +14541,7 @@
         <v>92</v>
       </c>
       <c r="B385" s="36" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C385" s="36">
         <v>5119</v>
@@ -14601,7 +14601,7 @@
         <v>92</v>
       </c>
       <c r="B388" s="36" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C388" s="36">
         <v>3370</v>
@@ -14621,7 +14621,7 @@
         <v>92</v>
       </c>
       <c r="B389" s="36" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C389" s="36">
         <v>881</v>
@@ -14641,7 +14641,7 @@
         <v>92</v>
       </c>
       <c r="B390" s="36" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C390" s="36">
         <v>1069</v>
@@ -14661,7 +14661,7 @@
         <v>92</v>
       </c>
       <c r="B391" s="36" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C391" s="36">
         <v>3502</v>
@@ -14681,7 +14681,7 @@
         <v>92</v>
       </c>
       <c r="B392" s="36" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C392" s="36">
         <v>4929</v>
@@ -14701,7 +14701,7 @@
         <v>92</v>
       </c>
       <c r="B393" s="36" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C393" s="36">
         <v>3508</v>
@@ -15021,7 +15021,7 @@
         <v>92</v>
       </c>
       <c r="B409" s="36" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C409" s="36">
         <v>2603</v>
@@ -15041,7 +15041,7 @@
         <v>92</v>
       </c>
       <c r="B410" s="36" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C410" s="36">
         <v>2289</v>
@@ -15061,7 +15061,7 @@
         <v>92</v>
       </c>
       <c r="B411" s="36" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C411" s="36">
         <v>719</v>
@@ -15537,12 +15537,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15595,7 +15595,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -15606,7 +15606,7 @@
         <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -15617,7 +15617,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -15628,7 +15628,7 @@
         <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -15639,7 +15639,7 @@
         <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -15650,7 +15650,7 @@
         <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -15661,7 +15661,7 @@
         <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15672,7 +15672,7 @@
         <v>94</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>156</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15683,7 +15683,7 @@
         <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>156</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15694,7 +15694,7 @@
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -15702,10 +15702,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -15716,7 +15716,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>157</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="11" customFormat="1">
@@ -15727,7 +15727,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -15739,7 +15739,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>353</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -15748,10 +15748,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -15760,10 +15760,10 @@
         <v>137</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -15775,7 +15775,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -15787,7 +15787,7 @@
         <v>96</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -15796,46 +15796,46 @@
         <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1">
       <c r="A28" s="9" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1">
       <c r="A29" s="11" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1">
       <c r="A30" s="9" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -15906,12 +15906,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15953,10 +15953,10 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -15964,10 +15964,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -15975,10 +15975,10 @@
         <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16024,12 +16024,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16045,7 +16045,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="21" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -16074,13 +16074,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>163</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16091,7 +16091,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16143,12 +16143,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16185,29 +16185,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
         <v>135</v>
@@ -16218,18 +16218,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
         <v>105</v>
@@ -16240,24 +16240,24 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16309,10 +16309,10 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -16358,13 +16358,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="4"/>
@@ -16386,7 +16386,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -16397,43 +16397,43 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="D11" s="43"/>
     </row>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950730C5-518E-4CE6-A428-B5F6167D618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B130276-315D-4BAB-B5E0-0F3FA378C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="365">
   <si>
     <t>Name</t>
   </si>
@@ -1070,6 +1070,117 @@
     <t>Commodore 64/250469/Board-Layout-250469 (NTSC).jpg</t>
   </si>
   <si>
+    <t>Commodore shared files/Component images/User port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Cassette port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Serial bus.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Expansion port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6526.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/23128.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8500.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8565.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/251715-01-SuperPLA.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8580.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4464.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8701.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS14.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/23128-Commodore.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/TMS4464.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7414.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1082,119 +1193,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-September-13</t>
+      <t>2025-October-15</t>
     </r>
   </si>
   <si>
-    <t>Commodore shared files/Component images/User port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Cassette port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Serial bus.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Expansion port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Power C64.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6526.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/23128.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2332.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/8500.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/8565.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/251715-01-SuperPLA.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/8580.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/4464.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/4066.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2114.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/8701.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7406.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS14.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/23128-Commodore.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/TMS4464.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7414.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
+    <t>Best-practises</t>
+  </si>
+  <si>
+    <t>Commodore 64/128 Best-Practises</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1824,7 @@
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4648,7 +4657,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -4662,7 +4671,7 @@
         <v>93</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4675,7 +4684,7 @@
         <v>93</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4688,7 +4697,7 @@
         <v>93</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4701,7 +4710,7 @@
         <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I29" s="9"/>
     </row>
@@ -4715,7 +4724,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4728,7 +4737,7 @@
         <v>93</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4741,7 +4750,7 @@
         <v>93</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="158.4">
@@ -4754,7 +4763,7 @@
         <v>93</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>301</v>
@@ -4770,7 +4779,7 @@
         <v>93</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>302</v>
@@ -4787,7 +4796,7 @@
         <v>93</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>311</v>
@@ -4802,7 +4811,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>308</v>
@@ -4818,7 +4827,7 @@
         <v>93</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>307</v>
@@ -4833,7 +4842,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>277</v>
@@ -4848,7 +4857,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>300</v>
@@ -4863,7 +4872,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>247</v>
@@ -4878,7 +4887,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>318</v>
@@ -4893,7 +4902,7 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>248</v>
@@ -4908,7 +4917,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>249</v>
@@ -4924,7 +4933,7 @@
         <v>93</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="100.8">
@@ -4937,7 +4946,7 @@
         <v>93</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>310</v>
@@ -4952,7 +4961,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>317</v>
@@ -4968,7 +4977,7 @@
         <v>93</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4981,7 +4990,7 @@
         <v>93</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>312</v>
@@ -4997,7 +5006,7 @@
         <v>93</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -15595,7 +15604,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -15606,7 +15615,7 @@
         <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -15617,7 +15626,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -15628,7 +15637,7 @@
         <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -15639,7 +15648,7 @@
         <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -15650,7 +15659,7 @@
         <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -15661,7 +15670,7 @@
         <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15672,7 +15681,7 @@
         <v>94</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15683,7 +15692,7 @@
         <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15694,7 +15703,7 @@
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -15705,7 +15714,7 @@
         <v>258</v>
       </c>
       <c r="C19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -15716,7 +15725,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="11" customFormat="1">
@@ -15727,7 +15736,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -15739,7 +15748,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -15751,7 +15760,7 @@
         <v>259</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -15763,7 +15772,7 @@
         <v>259</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -15775,7 +15784,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -15787,7 +15796,7 @@
         <v>96</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -15799,7 +15808,7 @@
         <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -15811,7 +15820,7 @@
         <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -15823,7 +15832,7 @@
         <v>98</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -15835,7 +15844,7 @@
         <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -16080,7 +16089,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16091,7 +16100,18 @@
         <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D20D785-6D07-45B7-BBA9-D475C0A4BF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3042A33E-DFDB-4D21-BA73-B46EC0B2D292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="1229">
   <si>
     <t>Name</t>
   </si>
@@ -3788,6 +3788,30 @@
       </rPr>
       <t>2025-December-4</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/1N4001.pdf</t>
+  </si>
+  <si>
+    <t>Datasheet for BA20</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/DBA20B.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/1N914.pdf</t>
+  </si>
+  <si>
+    <t>Datasheet for 1N914</t>
+  </si>
+  <si>
+    <t>Datasheet for 1N4001</t>
+  </si>
+  <si>
+    <t>Datasheet for 2SC1815</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2SC1815.pdf</t>
   </si>
 </sst>
 </file>
@@ -4665,7 +4689,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -6117,60 +6141,92 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="34"/>
+      <c r="A110" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="34"/>
+      <c r="A111" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="35"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="9"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="9"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="9"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="34"/>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="A112" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="34"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="34"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="35"/>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="9"/>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="19"/>
-    </row>
-    <row r="119" spans="1:1">
+    <row r="118" spans="1:4">
+      <c r="A118" s="9"/>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="9"/>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="9"/>
-    </row>
-    <row r="121" spans="1:1">
+    <row r="120" spans="1:4">
+      <c r="A120" s="34"/>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="9"/>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="34"/>
-    </row>
-    <row r="123" spans="1:1">
+    <row r="122" spans="1:4">
+      <c r="A122" s="19"/>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="9"/>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="19"/>
-    </row>
-    <row r="125" spans="1:1">
+    <row r="124" spans="1:4">
+      <c r="A124" s="9"/>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="9"/>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="9"/>
-    </row>
-    <row r="127" spans="1:1">
+    <row r="126" spans="1:4">
+      <c r="A126" s="34"/>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="9"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:4">
       <c r="A128" s="19"/>
     </row>
     <row r="129" spans="1:1">
@@ -6183,10 +6239,10 @@
       <c r="A131" s="9"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="9"/>
+      <c r="A132" s="19"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="19"/>
+      <c r="A133" s="9"/>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="9"/>
@@ -6198,19 +6254,19 @@
       <c r="A136" s="9"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="9"/>
+      <c r="A137" s="19"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="36"/>
+      <c r="A138" s="9"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="36"/>
+      <c r="A139" s="9"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="36"/>
+      <c r="A140" s="9"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="36"/>
+      <c r="A141" s="9"/>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="36"/>
@@ -6222,37 +6278,37 @@
       <c r="A144" s="36"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="11"/>
+      <c r="A145" s="36"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="11"/>
+      <c r="A146" s="36"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="11"/>
+      <c r="A147" s="36"/>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="36"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="36"/>
+      <c r="A149" s="11"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="36"/>
+      <c r="A150" s="11"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="36"/>
+      <c r="A151" s="11"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="11"/>
+      <c r="A152" s="36"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="11"/>
+      <c r="A153" s="36"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="11"/>
+      <c r="A154" s="36"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="11"/>
+      <c r="A155" s="36"/>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="11"/>
@@ -6366,8 +6422,7 @@
       <c r="A192" s="11"/>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="16"/>
-      <c r="B193" s="15"/>
+      <c r="A193" s="11"/>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="11"/>
@@ -6379,14 +6434,14 @@
       <c r="A196" s="11"/>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="11"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="15"/>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="11"/>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="11"/>
-      <c r="B199" s="15"/>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="11"/>
@@ -6399,6 +6454,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="11"/>
+      <c r="B203" s="15"/>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="11"/>
@@ -6417,7 +6473,6 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="11"/>
-      <c r="B209" s="15"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="11"/>
@@ -6426,16 +6481,17 @@
       <c r="A211" s="11"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="36"/>
+      <c r="A212" s="11"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="36"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="15"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="36"/>
+      <c r="A214" s="11"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="36"/>
+      <c r="A215" s="11"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="36"/>
@@ -6447,20 +6503,16 @@
       <c r="A218" s="36"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="11"/>
-      <c r="E219" s="9"/>
+      <c r="A219" s="36"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="11"/>
-      <c r="E220" s="9"/>
+      <c r="A220" s="36"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="11"/>
-      <c r="E221" s="9"/>
+      <c r="A221" s="36"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="11"/>
-      <c r="E222" s="9"/>
+      <c r="A222" s="36"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="11"/>
@@ -6472,47 +6524,38 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="11"/>
-      <c r="C225" s="11"/>
       <c r="E225" s="9"/>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="11"/>
-      <c r="C226" s="11"/>
       <c r="E226" s="9"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="11"/>
-      <c r="C227" s="11"/>
       <c r="E227" s="9"/>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="11"/>
-      <c r="C228" s="11"/>
       <c r="E228" s="9"/>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
+      <c r="A229" s="11"/>
+      <c r="C229" s="11"/>
       <c r="E229" s="9"/>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
+      <c r="A230" s="11"/>
+      <c r="C230" s="11"/>
       <c r="E230" s="9"/>
-      <c r="F230" s="9"/>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
+      <c r="A231" s="11"/>
+      <c r="C231" s="11"/>
       <c r="E231" s="9"/>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
+      <c r="A232" s="11"/>
+      <c r="C232" s="11"/>
       <c r="E232" s="9"/>
     </row>
     <row r="233" spans="1:6">
@@ -6520,7 +6563,6 @@
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="9"/>
@@ -6534,14 +6576,12 @@
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="E235" s="9"/>
-      <c r="F235" s="9"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="9"/>
@@ -6616,9 +6656,9 @@
     <row r="247" spans="1:6">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
-      <c r="C247" s="37"/>
+      <c r="C247" s="9"/>
       <c r="E247" s="9"/>
-      <c r="F247" s="37"/>
+      <c r="F247" s="9"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="9"/>
@@ -6644,9 +6684,9 @@
     <row r="251" spans="1:6">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
-      <c r="C251" s="9"/>
+      <c r="C251" s="37"/>
       <c r="E251" s="9"/>
-      <c r="F251" s="9"/>
+      <c r="F251" s="37"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="9"/>
@@ -6749,30 +6789,30 @@
     <row r="266" spans="1:6">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
-      <c r="C266" s="37"/>
+      <c r="C266" s="9"/>
       <c r="E266" s="9"/>
-      <c r="F266" s="37"/>
+      <c r="F266" s="9"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
-      <c r="C267" s="37"/>
+      <c r="C267" s="9"/>
       <c r="E267" s="9"/>
-      <c r="F267" s="37"/>
+      <c r="F267" s="9"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
-      <c r="C268" s="37"/>
+      <c r="C268" s="9"/>
       <c r="E268" s="9"/>
-      <c r="F268" s="37"/>
+      <c r="F268" s="9"/>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
-      <c r="C269" s="37"/>
+      <c r="C269" s="9"/>
       <c r="E269" s="9"/>
-      <c r="F269" s="37"/>
+      <c r="F269" s="9"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="9"/>
@@ -6861,26 +6901,30 @@
     <row r="282" spans="1:6">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
-      <c r="C282" s="9"/>
+      <c r="C282" s="37"/>
       <c r="E282" s="9"/>
+      <c r="F282" s="37"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
-      <c r="C283" s="9"/>
+      <c r="C283" s="37"/>
       <c r="E283" s="9"/>
+      <c r="F283" s="37"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
+      <c r="C284" s="37"/>
       <c r="E284" s="9"/>
+      <c r="F284" s="37"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
+      <c r="C285" s="37"/>
       <c r="E285" s="9"/>
+      <c r="F285" s="37"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="9"/>
@@ -6919,15 +6963,27 @@
       <c r="E291" s="9"/>
     </row>
     <row r="292" spans="1:5">
+      <c r="A292" s="9"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9"/>
       <c r="E292" s="9"/>
     </row>
     <row r="293" spans="1:5">
+      <c r="A293" s="9"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
       <c r="E293" s="9"/>
     </row>
     <row r="294" spans="1:5">
+      <c r="A294" s="9"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="9"/>
       <c r="E294" s="9"/>
     </row>
     <row r="295" spans="1:5">
+      <c r="A295" s="9"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="9"/>
       <c r="E295" s="9"/>
     </row>
     <row r="296" spans="1:5">
@@ -6950,6 +7006,18 @@
     </row>
     <row r="302" spans="1:5">
       <c r="E302" s="9"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="E303" s="9"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="E304" s="9"/>
+    </row>
+    <row r="305" spans="5:5">
+      <c r="E305" s="9"/>
+    </row>
+    <row r="306" spans="5:5">
+      <c r="E306" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31042,7 +31110,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -31185,222 +31253,420 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:3" s="1" customFormat="1">
+      <c r="A16" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1">
+      <c r="A17" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1">
+      <c r="A19" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1">
+      <c r="A20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1">
+      <c r="A22" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1">
+      <c r="A23" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1">
+      <c r="A24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1">
+      <c r="A25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1">
+      <c r="A27" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1">
+      <c r="A30" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1">
+      <c r="A31" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C34" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1">
-      <c r="A21" s="11" t="s">
+    <row r="37" spans="1:4" s="11" customFormat="1">
+      <c r="A37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" s="11" customFormat="1">
-      <c r="A22" s="11" t="s">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" s="11" customFormat="1">
+      <c r="A38" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C38" t="s">
         <v>341</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" s="11" customFormat="1">
-      <c r="A23" s="11" t="s">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" s="11" customFormat="1">
+      <c r="A39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" s="11" customFormat="1">
-      <c r="A24" s="11" t="s">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" s="11" customFormat="1">
+      <c r="A40" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1">
-      <c r="A25" s="9" t="s">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1">
+      <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1">
-      <c r="A26" s="12" t="s">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1">
+      <c r="A42" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" s="11" customFormat="1">
-      <c r="A27" s="11" t="s">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" s="11" customFormat="1">
+      <c r="A43" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C43" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1">
-      <c r="A28" s="9" t="s">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1">
+      <c r="A44" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1">
-      <c r="A29" s="11" t="s">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1">
+      <c r="A45" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1">
-      <c r="A30" s="9" t="s">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1">
+      <c r="A46" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C46" t="s">
         <v>347</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="18"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="19"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1">
+      <c r="A47" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1">
+      <c r="A48" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="18"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="19"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="9"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3042A33E-DFDB-4D21-BA73-B46EC0B2D292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BA9EFB-59F8-4F39-A474-F5F7B19E0CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4824" uniqueCount="1228">
   <si>
     <t>Name</t>
   </si>
@@ -1272,9 +1272,6 @@
     <t>PHI2</t>
   </si>
   <si>
-    <t>1.02273 MHz</t>
-  </si>
-  <si>
     <t>D7</t>
   </si>
   <si>
@@ -1993,12 +1990,6 @@
   </si>
   <si>
     <t>CS3</t>
-  </si>
-  <si>
-    <t>4.8V (+5VDC power rail)</t>
-  </si>
-  <si>
-    <t>4.6V (+5VDC power rail)</t>
   </si>
   <si>
     <t>Commodore 64/250469/Scope baseline/Images/U4_1_PAL.png</t>
@@ -3812,6 +3803,12 @@
   </si>
   <si>
     <t>Commodore shared files/Component local files/2SC1815.pdf</t>
+  </si>
+  <si>
+    <t>5.2V (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>THIS SEEMS WRONG</t>
   </si>
 </sst>
 </file>
@@ -3900,7 +3897,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3931,6 +3928,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3946,7 +3949,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4109,6 +4112,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4429,7 +4435,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -4456,7 +4462,7 @@
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5355,7 +5361,7 @@
         <v>223</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>52</v>
@@ -5383,7 +5389,7 @@
         <v>235</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>155</v>
@@ -5653,7 +5659,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>73</v>
@@ -5662,7 +5668,7 @@
         <v>53</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7030,11 +7036,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7466,7 +7472,7 @@
         <v>359</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7486,7 +7492,7 @@
         <v>359</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7506,7 +7512,7 @@
         <v>354</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7526,7 +7532,7 @@
         <v>354</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7546,7 +7552,7 @@
         <v>354</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7566,7 +7572,7 @@
         <v>354</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7586,7 +7592,7 @@
         <v>354</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7606,7 +7612,7 @@
         <v>354</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7626,7 +7632,7 @@
         <v>354</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7646,7 +7652,7 @@
         <v>354</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7666,7 +7672,7 @@
         <v>354</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7686,7 +7692,7 @@
         <v>354</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7706,7 +7712,7 @@
         <v>354</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7726,7 +7732,7 @@
         <v>354</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7746,7 +7752,7 @@
         <v>354</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7766,7 +7772,7 @@
         <v>354</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7786,7 +7792,7 @@
         <v>368</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7806,7 +7812,7 @@
         <v>368</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7826,7 +7832,7 @@
         <v>370</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7846,7 +7852,7 @@
         <v>370</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7866,7 +7872,7 @@
         <v>370</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7886,7 +7892,7 @@
         <v>370</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7906,7 +7912,7 @@
         <v>370</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7926,7 +7932,7 @@
         <v>370</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7946,7 +7952,7 @@
         <v>370</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7966,7 +7972,7 @@
         <v>370</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7986,7 +7992,7 @@
         <v>370</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8006,7 +8012,7 @@
         <v>370</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8026,7 +8032,7 @@
         <v>370</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8046,7 +8052,7 @@
         <v>370</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8066,7 +8072,7 @@
         <v>370</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8086,7 +8092,7 @@
         <v>370</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8106,7 +8112,7 @@
         <v>370</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8126,7 +8132,7 @@
         <v>370</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8146,7 +8152,7 @@
         <v>354</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8166,7 +8172,7 @@
         <v>354</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8186,7 +8192,7 @@
         <v>354</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8206,7 +8212,7 @@
         <v>354</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8226,7 +8232,7 @@
         <v>381</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8246,7 +8252,7 @@
         <v>382</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8266,7 +8272,7 @@
         <v>354</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8286,7 +8292,7 @@
         <v>354</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8306,7 +8312,7 @@
         <v>354</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8326,7 +8332,7 @@
         <v>354</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8346,7 +8352,7 @@
         <v>354</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8366,7 +8372,7 @@
         <v>354</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8386,7 +8392,7 @@
         <v>370</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8406,7 +8412,7 @@
         <v>370</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8423,10 +8429,10 @@
         <v>387</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8443,10 +8449,10 @@
         <v>387</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8460,13 +8466,13 @@
         <v>26</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8480,13 +8486,13 @@
         <v>26</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8500,13 +8506,13 @@
         <v>27</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8520,13 +8526,13 @@
         <v>27</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8540,13 +8546,13 @@
         <v>28</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8560,13 +8566,13 @@
         <v>28</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8580,13 +8586,13 @@
         <v>29</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8600,13 +8606,13 @@
         <v>29</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8620,13 +8626,13 @@
         <v>30</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8640,13 +8646,13 @@
         <v>30</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8660,13 +8666,13 @@
         <v>31</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8680,13 +8686,13 @@
         <v>31</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8700,13 +8706,13 @@
         <v>32</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8720,13 +8726,13 @@
         <v>32</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8740,13 +8746,13 @@
         <v>33</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8760,13 +8766,13 @@
         <v>33</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -8780,13 +8786,13 @@
         <v>34</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -8800,13 +8806,13 @@
         <v>34</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -8820,13 +8826,13 @@
         <v>35</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -8840,13 +8846,13 @@
         <v>35</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -8860,13 +8866,13 @@
         <v>36</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -8880,13 +8886,13 @@
         <v>36</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -8900,13 +8906,13 @@
         <v>37</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -8920,13 +8926,13 @@
         <v>37</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -8940,13 +8946,13 @@
         <v>38</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -8960,13 +8966,13 @@
         <v>38</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -8980,13 +8986,13 @@
         <v>39</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -9000,13 +9006,13 @@
         <v>39</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9020,13 +9026,13 @@
         <v>40</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -9040,13 +9046,13 @@
         <v>40</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="158.4">
@@ -9083,7 +9089,7 @@
         <v>359</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -9103,7 +9109,7 @@
         <v>359</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -9123,7 +9129,7 @@
         <v>370</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -9143,7 +9149,7 @@
         <v>370</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -9163,7 +9169,7 @@
         <v>370</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -9183,7 +9189,7 @@
         <v>370</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -9203,7 +9209,7 @@
         <v>370</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -9223,7 +9229,7 @@
         <v>370</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -9243,7 +9249,7 @@
         <v>368</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -9263,7 +9269,7 @@
         <v>368</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -9283,7 +9289,7 @@
         <v>370</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -9303,7 +9309,7 @@
         <v>370</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -9323,7 +9329,7 @@
         <v>368</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -9343,7 +9349,7 @@
         <v>368</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9363,7 +9369,7 @@
         <v>368</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9383,7 +9389,7 @@
         <v>368</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9403,7 +9409,7 @@
         <v>370</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9423,7 +9429,7 @@
         <v>370</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9443,7 +9449,7 @@
         <v>370</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9463,7 +9469,7 @@
         <v>370</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9483,7 +9489,7 @@
         <v>370</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9503,7 +9509,7 @@
         <v>370</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9523,7 +9529,7 @@
         <v>370</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9543,7 +9549,7 @@
         <v>370</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -9563,7 +9569,7 @@
         <v>370</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9583,7 +9589,7 @@
         <v>370</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9603,7 +9609,7 @@
         <v>370</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -9623,7 +9629,7 @@
         <v>370</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -9643,7 +9649,7 @@
         <v>370</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -9663,7 +9669,7 @@
         <v>370</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -9683,7 +9689,7 @@
         <v>370</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -9703,7 +9709,7 @@
         <v>370</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -9723,7 +9729,7 @@
         <v>370</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -9743,7 +9749,7 @@
         <v>370</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -9763,7 +9769,7 @@
         <v>370</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -9783,7 +9789,7 @@
         <v>370</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -9803,7 +9809,7 @@
         <v>354</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -9823,7 +9829,7 @@
         <v>354</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -9843,7 +9849,7 @@
         <v>381</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -9860,10 +9866,10 @@
         <v>380</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>382</v>
+        <v>1226</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -9883,7 +9889,7 @@
         <v>370</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -9903,7 +9909,7 @@
         <v>370</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -9923,7 +9929,7 @@
         <v>354</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -9943,7 +9949,7 @@
         <v>354</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -9963,7 +9969,7 @@
         <v>370</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -9983,7 +9989,7 @@
         <v>370</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -10003,7 +10009,7 @@
         <v>370</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -10023,7 +10029,7 @@
         <v>370</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -10040,10 +10046,10 @@
         <v>387</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -10060,10 +10066,10 @@
         <v>387</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>388</v>
+        <v>1078</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -10077,13 +10083,13 @@
         <v>26</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -10097,13 +10103,13 @@
         <v>26</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -10117,13 +10123,13 @@
         <v>27</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -10137,13 +10143,13 @@
         <v>27</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -10157,13 +10163,13 @@
         <v>28</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -10177,13 +10183,13 @@
         <v>28</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -10197,13 +10203,13 @@
         <v>29</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -10217,13 +10223,13 @@
         <v>29</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -10237,13 +10243,13 @@
         <v>30</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -10257,13 +10263,13 @@
         <v>30</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -10277,13 +10283,13 @@
         <v>31</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -10297,13 +10303,13 @@
         <v>31</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -10317,13 +10323,13 @@
         <v>32</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -10337,13 +10343,13 @@
         <v>32</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -10357,13 +10363,13 @@
         <v>33</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -10377,13 +10383,13 @@
         <v>33</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -10397,13 +10403,13 @@
         <v>34</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -10417,13 +10423,13 @@
         <v>34</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -10437,13 +10443,13 @@
         <v>35</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -10457,13 +10463,13 @@
         <v>35</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -10477,13 +10483,13 @@
         <v>36</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -10497,13 +10503,13 @@
         <v>36</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -10517,13 +10523,13 @@
         <v>37</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -10537,13 +10543,13 @@
         <v>37</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -10557,13 +10563,13 @@
         <v>38</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -10577,13 +10583,13 @@
         <v>38</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -10597,13 +10603,13 @@
         <v>39</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -10617,13 +10623,13 @@
         <v>39</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -10637,13 +10643,13 @@
         <v>40</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -10657,13 +10663,13 @@
         <v>40</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -10676,7 +10682,7 @@
         <v>93</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G195" s="49" t="s">
         <v>304</v>
@@ -10689,10 +10695,10 @@
       <c r="B196" s="9"/>
       <c r="C196" s="28"/>
       <c r="D196" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F196" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="F196" s="9" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -10706,16 +10712,16 @@
         <v>1</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E197" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G197" s="53" t="s">
         <v>610</v>
-      </c>
-      <c r="F197" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="G197" s="53" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -10729,16 +10735,16 @@
         <v>1</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E198" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G198" s="53" t="s">
         <v>610</v>
-      </c>
-      <c r="F198" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="G198" s="53" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -10752,16 +10758,16 @@
         <v>2</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E199" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="G199" s="53" t="s">
         <v>610</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="G199" s="53" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -10775,16 +10781,16 @@
         <v>2</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E200" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="G200" s="53" t="s">
         <v>610</v>
-      </c>
-      <c r="F200" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="G200" s="53" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -10798,16 +10804,16 @@
         <v>3</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E201" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="G201" s="53" t="s">
         <v>610</v>
-      </c>
-      <c r="F201" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="G201" s="53" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -10821,16 +10827,16 @@
         <v>3</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E202" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G202" s="53" t="s">
         <v>610</v>
-      </c>
-      <c r="F202" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="G202" s="53" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -10844,13 +10850,13 @@
         <v>4</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -10864,13 +10870,13 @@
         <v>4</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -10884,13 +10890,13 @@
         <v>5</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -10904,13 +10910,13 @@
         <v>5</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -10924,13 +10930,13 @@
         <v>6</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -10944,13 +10950,13 @@
         <v>6</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -10964,13 +10970,13 @@
         <v>7</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -10984,13 +10990,13 @@
         <v>7</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -11004,13 +11010,13 @@
         <v>8</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -11024,13 +11030,13 @@
         <v>8</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -11044,13 +11050,13 @@
         <v>9</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -11064,13 +11070,13 @@
         <v>9</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -11084,13 +11090,13 @@
         <v>10</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -11104,13 +11110,13 @@
         <v>10</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -11124,13 +11130,13 @@
         <v>11</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -11144,13 +11150,13 @@
         <v>11</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -11164,13 +11170,13 @@
         <v>12</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -11184,13 +11190,13 @@
         <v>12</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -11204,13 +11210,13 @@
         <v>13</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -11224,13 +11230,13 @@
         <v>13</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -11250,7 +11256,7 @@
         <v>381</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -11267,10 +11273,10 @@
         <v>380</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>382</v>
+        <v>1226</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="43.2">
@@ -11306,7 +11312,7 @@
         <v>381</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -11323,10 +11329,10 @@
         <v>380</v>
       </c>
       <c r="E227" s="44" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F227" s="9" t="s">
         <v>629</v>
-      </c>
-      <c r="F227" s="9" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -11340,13 +11346,13 @@
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E228" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -11360,13 +11366,13 @@
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E229" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -11380,13 +11386,13 @@
         <v>3</v>
       </c>
       <c r="D230" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E230" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -11400,13 +11406,13 @@
         <v>3</v>
       </c>
       <c r="D231" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E231" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -11420,13 +11426,13 @@
         <v>4</v>
       </c>
       <c r="D232" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E232" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -11440,13 +11446,13 @@
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E233" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -11460,13 +11466,13 @@
         <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E234" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -11480,13 +11486,13 @@
         <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E235" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -11500,13 +11506,13 @@
         <v>6</v>
       </c>
       <c r="D236" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E236" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -11520,13 +11526,13 @@
         <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E237" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F237" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -11540,13 +11546,13 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E238" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -11560,13 +11566,13 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E239" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -11580,13 +11586,13 @@
         <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E240" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -11600,13 +11606,13 @@
         <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E241" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -11620,13 +11626,13 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E242" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -11640,13 +11646,13 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E243" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -11660,13 +11666,13 @@
         <v>10</v>
       </c>
       <c r="D244" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E244" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -11680,13 +11686,13 @@
         <v>10</v>
       </c>
       <c r="D245" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E245" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -11700,13 +11706,13 @@
         <v>11</v>
       </c>
       <c r="D246" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E246" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -11720,13 +11726,13 @@
         <v>11</v>
       </c>
       <c r="D247" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E247" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -11740,13 +11746,13 @@
         <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E248" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -11760,13 +11766,13 @@
         <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E249" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -11780,13 +11786,13 @@
         <v>13</v>
       </c>
       <c r="D250" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E250" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -11800,13 +11806,13 @@
         <v>13</v>
       </c>
       <c r="D251" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E251" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F251" s="9" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -11826,7 +11832,7 @@
         <v>359</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -11846,7 +11852,7 @@
         <v>359</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -11860,13 +11866,13 @@
         <v>15</v>
       </c>
       <c r="D254" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E254" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -11880,13 +11886,13 @@
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E255" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -11900,13 +11906,13 @@
         <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E256" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -11920,13 +11926,13 @@
         <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E257" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -11940,13 +11946,13 @@
         <v>17</v>
       </c>
       <c r="D258" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E258" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F258" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -11960,13 +11966,13 @@
         <v>17</v>
       </c>
       <c r="D259" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E259" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -11980,13 +11986,13 @@
         <v>18</v>
       </c>
       <c r="D260" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E260" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -12000,13 +12006,13 @@
         <v>18</v>
       </c>
       <c r="D261" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E261" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -12020,13 +12026,13 @@
         <v>19</v>
       </c>
       <c r="D262" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E262" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F262" s="9" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -12040,13 +12046,13 @@
         <v>19</v>
       </c>
       <c r="D263" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E263" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -12060,13 +12066,13 @@
         <v>20</v>
       </c>
       <c r="D264" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E264" s="44" t="s">
         <v>368</v>
       </c>
       <c r="F264" s="9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -12080,13 +12086,13 @@
         <v>20</v>
       </c>
       <c r="D265" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E265" s="44" t="s">
         <v>368</v>
       </c>
       <c r="F265" s="9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -12100,13 +12106,13 @@
         <v>21</v>
       </c>
       <c r="D266" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E266" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -12120,13 +12126,13 @@
         <v>21</v>
       </c>
       <c r="D267" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E267" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -12140,13 +12146,13 @@
         <v>22</v>
       </c>
       <c r="D268" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E268" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -12160,13 +12166,13 @@
         <v>22</v>
       </c>
       <c r="D269" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E269" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -12180,13 +12186,13 @@
         <v>23</v>
       </c>
       <c r="D270" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E270" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -12200,13 +12206,13 @@
         <v>23</v>
       </c>
       <c r="D271" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E271" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F271" s="9" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -12220,13 +12226,13 @@
         <v>24</v>
       </c>
       <c r="D272" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E272" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -12240,13 +12246,13 @@
         <v>24</v>
       </c>
       <c r="D273" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E273" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F273" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -12260,13 +12266,13 @@
         <v>25</v>
       </c>
       <c r="D274" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E274" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -12280,13 +12286,13 @@
         <v>25</v>
       </c>
       <c r="D275" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E275" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -12300,13 +12306,13 @@
         <v>26</v>
       </c>
       <c r="D276" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E276" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -12320,13 +12326,13 @@
         <v>26</v>
       </c>
       <c r="D277" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E277" s="44" t="s">
         <v>354</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -12340,13 +12346,13 @@
         <v>27</v>
       </c>
       <c r="D278" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E278" s="44" t="s">
         <v>370</v>
       </c>
       <c r="F278" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -12360,13 +12366,13 @@
         <v>27</v>
       </c>
       <c r="D279" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E279" s="44" t="s">
         <v>370</v>
       </c>
       <c r="F279" s="9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -12386,7 +12392,7 @@
         <v>381</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -12403,10 +12409,10 @@
         <v>380</v>
       </c>
       <c r="E281" s="44" t="s">
-        <v>630</v>
+        <v>381</v>
       </c>
       <c r="F281" s="9" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="72">
@@ -12419,7 +12425,7 @@
         <v>93</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G282" s="49" t="s">
         <v>301</v>
@@ -12436,13 +12442,13 @@
         <v>1</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -12456,13 +12462,13 @@
         <v>1</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -12476,13 +12482,13 @@
         <v>2</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -12496,13 +12502,13 @@
         <v>2</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F286" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -12516,13 +12522,13 @@
         <v>3</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -12536,13 +12542,13 @@
         <v>3</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -12556,13 +12562,13 @@
         <v>4</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -12576,13 +12582,13 @@
         <v>4</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -12596,13 +12602,13 @@
         <v>5</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F291" s="9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -12616,13 +12622,13 @@
         <v>5</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F292" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -12636,13 +12642,13 @@
         <v>6</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F293" s="9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -12656,13 +12662,13 @@
         <v>6</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F294" s="9" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -12676,13 +12682,13 @@
         <v>7</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F295" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -12696,13 +12702,13 @@
         <v>7</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F296" s="9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -12716,13 +12722,13 @@
         <v>8</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F297" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -12736,13 +12742,13 @@
         <v>8</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F298" s="9" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -12756,13 +12762,13 @@
         <v>9</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F299" s="9" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -12776,13 +12782,13 @@
         <v>9</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -12796,13 +12802,13 @@
         <v>10</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F301" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -12816,13 +12822,13 @@
         <v>10</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F302" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -12836,13 +12842,13 @@
         <v>11</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -12856,13 +12862,13 @@
         <v>11</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F304" s="9" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -12882,7 +12888,7 @@
         <v>359</v>
       </c>
       <c r="F305" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -12902,7 +12908,7 @@
         <v>359</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -12916,13 +12922,13 @@
         <v>13</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F307" s="9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -12936,13 +12942,13 @@
         <v>13</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -12956,13 +12962,13 @@
         <v>14</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -12976,13 +12982,13 @@
         <v>14</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -12996,13 +13002,13 @@
         <v>15</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -13016,13 +13022,13 @@
         <v>15</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -13036,13 +13042,13 @@
         <v>16</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -13056,13 +13062,13 @@
         <v>16</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -13076,13 +13082,13 @@
         <v>17</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -13096,13 +13102,13 @@
         <v>17</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F316" s="9" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -13116,13 +13122,13 @@
         <v>18</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F317" s="9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -13136,13 +13142,13 @@
         <v>18</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -13156,13 +13162,13 @@
         <v>19</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -13176,13 +13182,13 @@
         <v>19</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -13196,13 +13202,13 @@
         <v>20</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -13216,13 +13222,13 @@
         <v>20</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -13236,13 +13242,13 @@
         <v>21</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -13256,13 +13262,13 @@
         <v>21</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -13276,13 +13282,13 @@
         <v>22</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F325" s="9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -13296,13 +13302,13 @@
         <v>22</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -13316,13 +13322,13 @@
         <v>23</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -13336,13 +13342,13 @@
         <v>23</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F328" s="9" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -13362,7 +13368,7 @@
         <v>381</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -13379,10 +13385,10 @@
         <v>380</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>629</v>
+        <v>1226</v>
       </c>
       <c r="F330" s="9" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="331" spans="1:7" s="11" customFormat="1">
@@ -13397,7 +13403,7 @@
         <v>326</v>
       </c>
       <c r="G331" s="49" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -13411,16 +13417,16 @@
         <v>1</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F332" s="9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G332" s="49" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -13434,16 +13440,16 @@
         <v>1</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>388</v>
+        <v>1078</v>
       </c>
       <c r="F333" s="9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G333" s="49" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -13457,13 +13463,13 @@
         <v>2</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F334" s="9" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -13477,13 +13483,13 @@
         <v>2</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F335" s="9" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13503,10 +13509,10 @@
         <v>354</v>
       </c>
       <c r="F336" s="9" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" s="11" t="s">
         <v>43</v>
       </c>
@@ -13520,13 +13526,16 @@
         <v>383</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F337" s="9" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+        <v>793</v>
+      </c>
+      <c r="G337" s="57" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="11" t="s">
         <v>43</v>
       </c>
@@ -13537,16 +13546,16 @@
         <v>4</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F338" s="9" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="11" t="s">
         <v>43</v>
       </c>
@@ -13557,16 +13566,16 @@
         <v>4</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F339" s="9" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" s="11" t="s">
         <v>43</v>
       </c>
@@ -13577,16 +13586,16 @@
         <v>5</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F340" s="9" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="11" t="s">
         <v>43</v>
       </c>
@@ -13597,16 +13606,16 @@
         <v>5</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F341" s="9" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" s="11" t="s">
         <v>43</v>
       </c>
@@ -13623,10 +13632,10 @@
         <v>381</v>
       </c>
       <c r="F342" s="9" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="11" t="s">
         <v>43</v>
       </c>
@@ -13640,13 +13649,13 @@
         <v>380</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>629</v>
+        <v>1226</v>
       </c>
       <c r="F343" s="9" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="11" t="s">
         <v>43</v>
       </c>
@@ -13657,16 +13666,16 @@
         <v>7</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F344" s="9" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" s="11" t="s">
         <v>43</v>
       </c>
@@ -13677,16 +13686,16 @@
         <v>7</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F345" s="9" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="11" t="s">
         <v>43</v>
       </c>
@@ -13697,16 +13706,16 @@
         <v>8</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F346" s="9" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="11" t="s">
         <v>43</v>
       </c>
@@ -13717,16 +13726,16 @@
         <v>8</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F347" s="9" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="11" t="s">
         <v>43</v>
       </c>
@@ -13737,16 +13746,16 @@
         <v>9</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" s="11" t="s">
         <v>43</v>
       </c>
@@ -13757,16 +13766,16 @@
         <v>9</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F349" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="11" t="s">
         <v>43</v>
       </c>
@@ -13777,16 +13786,16 @@
         <v>10</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F350" s="9" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351" s="11" t="s">
         <v>43</v>
       </c>
@@ -13797,16 +13806,16 @@
         <v>10</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F351" s="9" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" s="11" t="s">
         <v>43</v>
       </c>
@@ -13817,13 +13826,13 @@
         <v>11</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F352" s="9" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -13837,13 +13846,13 @@
         <v>11</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F353" s="9" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -13857,13 +13866,13 @@
         <v>12</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F354" s="9" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -13877,13 +13886,13 @@
         <v>12</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F355" s="9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -13897,13 +13906,13 @@
         <v>13</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F356" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -13917,13 +13926,13 @@
         <v>13</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F357" s="9" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -13937,13 +13946,13 @@
         <v>14</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F358" s="9" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -13957,13 +13966,13 @@
         <v>14</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F359" s="9" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -13977,13 +13986,13 @@
         <v>15</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F360" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -13997,13 +14006,13 @@
         <v>15</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F361" s="9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -14017,13 +14026,13 @@
         <v>16</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F362" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -14037,13 +14046,13 @@
         <v>16</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F363" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -14057,13 +14066,13 @@
         <v>17</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F364" s="9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -14077,13 +14086,13 @@
         <v>17</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F365" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -14097,13 +14106,13 @@
         <v>18</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F366" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -14117,13 +14126,13 @@
         <v>18</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F367" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -14137,13 +14146,13 @@
         <v>19</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F368" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -14157,13 +14166,13 @@
         <v>19</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F369" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -14177,13 +14186,13 @@
         <v>20</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F370" s="9" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -14197,13 +14206,13 @@
         <v>20</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F371" s="9" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -14223,7 +14232,7 @@
         <v>359</v>
       </c>
       <c r="F372" s="9" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -14243,7 +14252,7 @@
         <v>359</v>
       </c>
       <c r="F373" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -14257,13 +14266,13 @@
         <v>22</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F374" s="9" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -14277,13 +14286,13 @@
         <v>22</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F375" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14297,13 +14306,13 @@
         <v>23</v>
       </c>
       <c r="D376" s="9" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F376" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -14317,13 +14326,13 @@
         <v>23</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F377" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -14337,13 +14346,13 @@
         <v>24</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F378" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -14357,13 +14366,13 @@
         <v>24</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F379" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -14377,13 +14386,13 @@
         <v>25</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F380" s="9" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -14397,13 +14406,13 @@
         <v>25</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F381" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -14417,13 +14426,13 @@
         <v>26</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F382" s="9" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -14437,13 +14446,13 @@
         <v>26</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F383" s="9" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -14457,13 +14466,13 @@
         <v>27</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F384" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -14477,13 +14486,13 @@
         <v>27</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F385" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -14497,13 +14506,13 @@
         <v>28</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F386" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -14517,13 +14526,13 @@
         <v>28</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F387" s="9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -14537,13 +14546,13 @@
         <v>29</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F388" s="9" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -14557,13 +14566,13 @@
         <v>29</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F389" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -14577,13 +14586,13 @@
         <v>30</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F390" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -14597,13 +14606,13 @@
         <v>30</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F391" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -14617,13 +14626,13 @@
         <v>31</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F392" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -14637,13 +14646,13 @@
         <v>31</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F393" s="9" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -14657,13 +14666,13 @@
         <v>32</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F394" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -14677,13 +14686,13 @@
         <v>32</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F395" s="9" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -14697,13 +14706,13 @@
         <v>33</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F396" s="9" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -14717,13 +14726,13 @@
         <v>33</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F397" s="9" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -14737,13 +14746,13 @@
         <v>34</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F398" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -14757,13 +14766,13 @@
         <v>34</v>
       </c>
       <c r="D399" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F399" s="9" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -14777,13 +14786,13 @@
         <v>35</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F400" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -14797,13 +14806,13 @@
         <v>35</v>
       </c>
       <c r="D401" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F401" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -14817,13 +14826,13 @@
         <v>36</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F402" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -14837,13 +14846,13 @@
         <v>36</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F403" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -14857,13 +14866,13 @@
         <v>37</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F404" s="9" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -14877,13 +14886,13 @@
         <v>37</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F405" s="9" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14903,7 +14912,7 @@
         <v>354</v>
       </c>
       <c r="F406" s="9" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14923,7 +14932,7 @@
         <v>354</v>
       </c>
       <c r="F407" s="9" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14940,13 +14949,13 @@
         <v>387</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F408" s="9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14963,13 +14972,13 @@
         <v>387</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>388</v>
+        <v>1078</v>
       </c>
       <c r="F409" s="9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14983,13 +14992,13 @@
         <v>40</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F410" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -15003,13 +15012,13 @@
         <v>40</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F411" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="412" spans="1:7" s="11" customFormat="1" ht="28.8">
@@ -15038,13 +15047,13 @@
         <v>1</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F413" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -15058,13 +15067,13 @@
         <v>2</v>
       </c>
       <c r="D414" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F414" s="9" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -15078,13 +15087,13 @@
         <v>3</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F415" s="9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -15098,13 +15107,13 @@
         <v>4</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F416" s="9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -15118,13 +15127,13 @@
         <v>5</v>
       </c>
       <c r="D417" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F417" s="9" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -15138,13 +15147,13 @@
         <v>6</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F418" s="9" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -15158,13 +15167,13 @@
         <v>7</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F419" s="9" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -15184,7 +15193,7 @@
         <v>354</v>
       </c>
       <c r="F420" s="9" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -15198,13 +15207,13 @@
         <v>9</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F421" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -15224,7 +15233,7 @@
         <v>370</v>
       </c>
       <c r="F422" s="9" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -15244,7 +15253,7 @@
         <v>354</v>
       </c>
       <c r="F423" s="9" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -15258,13 +15267,13 @@
         <v>12</v>
       </c>
       <c r="D424" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F424" s="9" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -15278,13 +15287,13 @@
         <v>13</v>
       </c>
       <c r="D425" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F425" s="9" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -15298,13 +15307,13 @@
         <v>14</v>
       </c>
       <c r="D426" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E426" s="15" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F426" s="9" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -15318,13 +15327,13 @@
         <v>15</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F427" s="9" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="428" spans="1:7" ht="345.6">
@@ -15359,13 +15368,13 @@
         <v>16</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F429" s="9" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -15379,16 +15388,16 @@
         <v>17</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F430" s="9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G430" s="49" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -15402,13 +15411,13 @@
         <v>18</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F431" s="9" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -15422,13 +15431,13 @@
         <v>19</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F432" s="9" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15448,7 +15457,7 @@
         <v>359</v>
       </c>
       <c r="F433" s="9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15462,16 +15471,16 @@
         <v>21</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F434" s="9" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G434" s="49" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15485,16 +15494,16 @@
         <v>22</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F435" s="9" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G435" s="49" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15508,13 +15517,13 @@
         <v>23</v>
       </c>
       <c r="D436" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F436" s="9" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15528,13 +15537,13 @@
         <v>24</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F437" s="9" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15548,13 +15557,13 @@
         <v>25</v>
       </c>
       <c r="D438" s="9" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F438" s="9" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15568,13 +15577,13 @@
         <v>26</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F439" s="9" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15588,13 +15597,13 @@
         <v>27</v>
       </c>
       <c r="D440" s="9" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F440" s="9" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -15608,13 +15617,13 @@
         <v>28</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F441" s="9" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15628,13 +15637,13 @@
         <v>29</v>
       </c>
       <c r="D442" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F442" s="9" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15648,13 +15657,13 @@
         <v>30</v>
       </c>
       <c r="D443" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F443" s="9" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -15668,13 +15677,13 @@
         <v>31</v>
       </c>
       <c r="D444" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F444" s="9" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -15688,13 +15697,13 @@
         <v>32</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F445" s="9" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -15708,13 +15717,13 @@
         <v>33</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F446" s="9" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -15728,13 +15737,13 @@
         <v>34</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F447" s="9" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -15748,13 +15757,13 @@
         <v>35</v>
       </c>
       <c r="D448" s="9" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F448" s="9" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -15768,13 +15777,13 @@
         <v>36</v>
       </c>
       <c r="D449" s="9" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F449" s="9" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -15788,13 +15797,13 @@
         <v>37</v>
       </c>
       <c r="D450" s="9" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F450" s="9" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15808,13 +15817,13 @@
         <v>38</v>
       </c>
       <c r="D451" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F451" s="9" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15828,13 +15837,13 @@
         <v>39</v>
       </c>
       <c r="D452" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F452" s="9" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15854,7 +15863,7 @@
         <v>381</v>
       </c>
       <c r="F453" s="9" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="454" spans="1:7" s="11" customFormat="1" ht="57.6">
@@ -15869,7 +15878,7 @@
         <v>328</v>
       </c>
       <c r="G454" s="49" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="455" spans="1:7" s="11" customFormat="1">
@@ -15883,13 +15892,13 @@
         <v>1</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F455" s="9" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G455" s="49"/>
     </row>
@@ -15904,13 +15913,13 @@
         <v>2</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F456" s="9" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G456" s="49"/>
     </row>
@@ -15925,13 +15934,13 @@
         <v>3</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F457" s="9" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="G457" s="49"/>
     </row>
@@ -15952,7 +15961,7 @@
         <v>354</v>
       </c>
       <c r="F458" s="9" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G458" s="49"/>
     </row>
@@ -15967,13 +15976,13 @@
         <v>5</v>
       </c>
       <c r="D459" s="9" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F459" s="9" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G459" s="49"/>
     </row>
@@ -15988,13 +15997,13 @@
         <v>6</v>
       </c>
       <c r="D460" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F460" s="9" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G460" s="49"/>
     </row>
@@ -16009,13 +16018,13 @@
         <v>7</v>
       </c>
       <c r="D461" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F461" s="9" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G461" s="49"/>
     </row>
@@ -16030,13 +16039,13 @@
         <v>8</v>
       </c>
       <c r="D462" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F462" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G462" s="49"/>
     </row>
@@ -16051,13 +16060,13 @@
         <v>9</v>
       </c>
       <c r="D463" s="9" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F463" s="9" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G463" s="49"/>
     </row>
@@ -16072,13 +16081,13 @@
         <v>10</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F464" s="9" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G464" s="49"/>
     </row>
@@ -16093,13 +16102,13 @@
         <v>11</v>
       </c>
       <c r="D465" s="9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F465" s="9" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="G465" s="49"/>
     </row>
@@ -16114,13 +16123,13 @@
         <v>12</v>
       </c>
       <c r="D466" s="9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F466" s="9" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G466" s="49"/>
     </row>
@@ -16135,13 +16144,13 @@
         <v>13</v>
       </c>
       <c r="D467" s="9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F467" s="9" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G467" s="49"/>
     </row>
@@ -16156,13 +16165,13 @@
         <v>14</v>
       </c>
       <c r="D468" s="9" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F468" s="9" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="G468" s="49"/>
     </row>
@@ -16177,13 +16186,13 @@
         <v>15</v>
       </c>
       <c r="D469" s="9" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F469" s="9" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="G469" s="49"/>
     </row>
@@ -16204,7 +16213,7 @@
         <v>359</v>
       </c>
       <c r="F470" s="9" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G470" s="49"/>
     </row>
@@ -16219,13 +16228,13 @@
         <v>17</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F471" s="9" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G471" s="49"/>
     </row>
@@ -16240,13 +16249,13 @@
         <v>18</v>
       </c>
       <c r="D472" s="9" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F472" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G472" s="49"/>
     </row>
@@ -16261,13 +16270,13 @@
         <v>19</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F473" s="9" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G473" s="49"/>
     </row>
@@ -16282,13 +16291,13 @@
         <v>20</v>
       </c>
       <c r="D474" s="9" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F474" s="9" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G474" s="49"/>
     </row>
@@ -16303,13 +16312,13 @@
         <v>21</v>
       </c>
       <c r="D475" s="9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F475" s="9" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G475" s="49"/>
     </row>
@@ -16324,13 +16333,13 @@
         <v>22</v>
       </c>
       <c r="D476" s="9" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F476" s="9" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G476" s="49"/>
     </row>
@@ -16345,13 +16354,13 @@
         <v>23</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F477" s="9" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G477" s="49"/>
     </row>
@@ -16366,13 +16375,13 @@
         <v>24</v>
       </c>
       <c r="D478" s="9" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F478" s="9" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G478" s="49"/>
     </row>
@@ -16387,13 +16396,13 @@
         <v>25</v>
       </c>
       <c r="D479" s="9" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F479" s="9" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G479" s="49"/>
     </row>
@@ -16408,13 +16417,13 @@
         <v>26</v>
       </c>
       <c r="D480" s="9" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F480" s="9" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G480" s="49"/>
     </row>
@@ -16429,13 +16438,13 @@
         <v>27</v>
       </c>
       <c r="D481" s="9" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F481" s="9" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G481" s="49"/>
     </row>
@@ -16450,13 +16459,13 @@
         <v>28</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F482" s="9" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G482" s="49"/>
     </row>
@@ -16471,13 +16480,13 @@
         <v>29</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F483" s="9" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G483" s="49"/>
     </row>
@@ -16492,13 +16501,13 @@
         <v>30</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F484" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G484" s="49"/>
     </row>
@@ -16513,13 +16522,13 @@
         <v>31</v>
       </c>
       <c r="D485" s="9" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F485" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G485" s="49"/>
     </row>
@@ -16534,13 +16543,13 @@
         <v>32</v>
       </c>
       <c r="D486" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F486" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G486" s="49"/>
     </row>
@@ -16561,7 +16570,7 @@
         <v>368</v>
       </c>
       <c r="F487" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G487" s="49"/>
     </row>
@@ -16576,13 +16585,13 @@
         <v>34</v>
       </c>
       <c r="D488" s="9" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F488" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="G488" s="49"/>
     </row>
@@ -16597,13 +16606,13 @@
         <v>35</v>
       </c>
       <c r="D489" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F489" s="9" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G489" s="49"/>
     </row>
@@ -16618,13 +16627,13 @@
         <v>36</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F490" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="G490" s="49"/>
     </row>
@@ -16639,13 +16648,13 @@
         <v>37</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F491" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G491" s="49"/>
     </row>
@@ -16660,13 +16669,13 @@
         <v>38</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F492" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G492" s="49"/>
     </row>
@@ -16681,13 +16690,13 @@
         <v>39</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F493" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G493" s="49"/>
     </row>
@@ -16702,13 +16711,13 @@
         <v>40</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F494" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G494" s="49"/>
     </row>
@@ -16723,13 +16732,13 @@
         <v>41</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F495" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="G495" s="49"/>
     </row>
@@ -16744,13 +16753,13 @@
         <v>42</v>
       </c>
       <c r="D496" s="9" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F496" s="9" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="G496" s="49"/>
     </row>
@@ -16771,7 +16780,7 @@
         <v>370</v>
       </c>
       <c r="F497" s="9" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="G497" s="49"/>
     </row>
@@ -16786,13 +16795,13 @@
         <v>44</v>
       </c>
       <c r="D498" s="9" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F498" s="9" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G498" s="49"/>
     </row>
@@ -16807,13 +16816,13 @@
         <v>45</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F499" s="9" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G499" s="49"/>
     </row>
@@ -16828,13 +16837,13 @@
         <v>46</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F500" s="9" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G500" s="49"/>
     </row>
@@ -16849,13 +16858,13 @@
         <v>47</v>
       </c>
       <c r="D501" s="9" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F501" s="9" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="G501" s="49"/>
     </row>
@@ -16876,7 +16885,7 @@
         <v>368</v>
       </c>
       <c r="F502" s="9" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="G502" s="49"/>
     </row>
@@ -16891,13 +16900,13 @@
         <v>49</v>
       </c>
       <c r="D503" s="9" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F503" s="9" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G503" s="49"/>
     </row>
@@ -16912,13 +16921,13 @@
         <v>50</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F504" s="9" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G504" s="49"/>
     </row>
@@ -16933,13 +16942,13 @@
         <v>51</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F505" s="9" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G505" s="49"/>
     </row>
@@ -16954,13 +16963,13 @@
         <v>52</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F506" s="9" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G506" s="49"/>
     </row>
@@ -16975,13 +16984,13 @@
         <v>53</v>
       </c>
       <c r="D507" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F507" s="9" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G507" s="49"/>
     </row>
@@ -16996,13 +17005,13 @@
         <v>54</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F508" s="9" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G508" s="49"/>
     </row>
@@ -17017,13 +17026,13 @@
         <v>55</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F509" s="9" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G509" s="49"/>
     </row>
@@ -17038,13 +17047,13 @@
         <v>56</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F510" s="9" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G510" s="49"/>
     </row>
@@ -17059,13 +17068,13 @@
         <v>57</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F511" s="9" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G511" s="49"/>
     </row>
@@ -17080,13 +17089,13 @@
         <v>58</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F512" s="9" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G512" s="49"/>
     </row>
@@ -17101,13 +17110,13 @@
         <v>59</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F513" s="9" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G513" s="49"/>
     </row>
@@ -17122,13 +17131,13 @@
         <v>60</v>
       </c>
       <c r="D514" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F514" s="9" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G514" s="49"/>
     </row>
@@ -17143,13 +17152,13 @@
         <v>61</v>
       </c>
       <c r="D515" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F515" s="9" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G515" s="49"/>
     </row>
@@ -17164,13 +17173,13 @@
         <v>62</v>
       </c>
       <c r="D516" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F516" s="9" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G516" s="49"/>
     </row>
@@ -17185,13 +17194,13 @@
         <v>63</v>
       </c>
       <c r="D517" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F517" s="9" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G517" s="49"/>
     </row>
@@ -17206,13 +17215,13 @@
         <v>64</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E518" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F518" s="9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G518" s="49"/>
     </row>
@@ -17242,13 +17251,13 @@
         <v>1</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E520" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F520" s="9" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -17262,13 +17271,13 @@
         <v>2</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E521" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F521" s="9" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -17282,13 +17291,13 @@
         <v>3</v>
       </c>
       <c r="D522" s="9" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E522" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F522" s="9" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -17302,13 +17311,13 @@
         <v>4</v>
       </c>
       <c r="D523" s="9" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F523" s="9" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -17322,13 +17331,13 @@
         <v>5</v>
       </c>
       <c r="D524" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F524" s="9" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -17345,10 +17354,10 @@
         <v>387</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F525" s="9" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -17368,7 +17377,7 @@
         <v>354</v>
       </c>
       <c r="F526" s="9" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -17388,7 +17397,7 @@
         <v>354</v>
       </c>
       <c r="F527" s="9" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -17402,13 +17411,13 @@
         <v>9</v>
       </c>
       <c r="D528" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E528" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F528" s="9" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -17422,13 +17431,13 @@
         <v>10</v>
       </c>
       <c r="D529" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F529" s="9" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -17442,13 +17451,13 @@
         <v>11</v>
       </c>
       <c r="D530" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E530" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F530" s="9" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -17462,13 +17471,13 @@
         <v>12</v>
       </c>
       <c r="D531" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E531" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F531" s="9" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -17482,13 +17491,13 @@
         <v>13</v>
       </c>
       <c r="D532" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F532" s="9" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -17508,7 +17517,7 @@
         <v>359</v>
       </c>
       <c r="F533" s="9" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -17522,13 +17531,13 @@
         <v>15</v>
       </c>
       <c r="D534" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F534" s="9" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -17542,13 +17551,13 @@
         <v>16</v>
       </c>
       <c r="D535" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E535" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F535" s="9" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -17562,13 +17571,13 @@
         <v>17</v>
       </c>
       <c r="D536" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E536" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F536" s="9" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -17582,13 +17591,13 @@
         <v>18</v>
       </c>
       <c r="D537" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E537" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F537" s="9" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -17602,13 +17611,13 @@
         <v>19</v>
       </c>
       <c r="D538" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E538" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F538" s="9" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -17622,13 +17631,13 @@
         <v>20</v>
       </c>
       <c r="D539" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E539" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F539" s="9" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -17642,13 +17651,13 @@
         <v>21</v>
       </c>
       <c r="D540" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E540" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F540" s="9" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -17662,13 +17671,13 @@
         <v>22</v>
       </c>
       <c r="D541" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E541" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F541" s="9" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -17682,13 +17691,13 @@
         <v>23</v>
       </c>
       <c r="D542" s="9" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E542" s="48" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F542" s="9" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -17702,13 +17711,13 @@
         <v>24</v>
       </c>
       <c r="D543" s="9" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E543" s="48" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F543" s="9" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -17728,7 +17737,7 @@
         <v>381</v>
       </c>
       <c r="F544" s="9" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -17742,13 +17751,13 @@
         <v>26</v>
       </c>
       <c r="D545" s="9" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F545" s="9" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -17762,13 +17771,13 @@
         <v>27</v>
       </c>
       <c r="D546" s="9" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E546" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F546" s="9" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="547" spans="1:7" ht="43.2">
@@ -17782,16 +17791,16 @@
         <v>28</v>
       </c>
       <c r="D547" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F547" s="9" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G547" s="54" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="548" spans="1:7" s="11" customFormat="1" ht="43.2">
@@ -17820,13 +17829,13 @@
         <v>1</v>
       </c>
       <c r="D549" s="9" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E549" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F549" s="9" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G549" s="49"/>
     </row>
@@ -17841,13 +17850,13 @@
         <v>2</v>
       </c>
       <c r="D550" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E550" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F550" s="9" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G550" s="49"/>
     </row>
@@ -17862,13 +17871,13 @@
         <v>3</v>
       </c>
       <c r="D551" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E551" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F551" s="9" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G551" s="49"/>
     </row>
@@ -17883,13 +17892,13 @@
         <v>4</v>
       </c>
       <c r="D552" s="9" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E552" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F552" s="9" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="G552" s="49"/>
     </row>
@@ -17904,13 +17913,13 @@
         <v>5</v>
       </c>
       <c r="D553" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E553" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F553" s="9" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="G553" s="49"/>
     </row>
@@ -17925,13 +17934,13 @@
         <v>6</v>
       </c>
       <c r="D554" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E554" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F554" s="9" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="G554" s="49"/>
     </row>
@@ -17946,13 +17955,13 @@
         <v>7</v>
       </c>
       <c r="D555" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E555" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F555" s="9" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G555" s="49"/>
     </row>
@@ -17967,13 +17976,13 @@
         <v>8</v>
       </c>
       <c r="D556" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E556" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F556" s="9" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G556" s="49"/>
     </row>
@@ -17994,7 +18003,7 @@
         <v>381</v>
       </c>
       <c r="F557" s="9" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="G557" s="49"/>
     </row>
@@ -18009,13 +18018,13 @@
         <v>10</v>
       </c>
       <c r="D558" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E558" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F558" s="9" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G558" s="49"/>
     </row>
@@ -18030,13 +18039,13 @@
         <v>11</v>
       </c>
       <c r="D559" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E559" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F559" s="9" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="G559" s="49"/>
     </row>
@@ -18051,13 +18060,13 @@
         <v>12</v>
       </c>
       <c r="D560" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E560" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F560" s="9" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G560" s="49"/>
     </row>
@@ -18072,13 +18081,13 @@
         <v>13</v>
       </c>
       <c r="D561" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F561" s="9" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G561" s="49"/>
     </row>
@@ -18093,13 +18102,13 @@
         <v>14</v>
       </c>
       <c r="D562" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E562" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F562" s="9" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="G562" s="49"/>
     </row>
@@ -18114,13 +18123,13 @@
         <v>15</v>
       </c>
       <c r="D563" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E563" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F563" s="9" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="G563" s="49"/>
     </row>
@@ -18135,13 +18144,13 @@
         <v>16</v>
       </c>
       <c r="D564" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E564" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F564" s="9" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="G564" s="49"/>
     </row>
@@ -18156,13 +18165,13 @@
         <v>17</v>
       </c>
       <c r="D565" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E565" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F565" s="9" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G565" s="49"/>
     </row>
@@ -18183,7 +18192,7 @@
         <v>359</v>
       </c>
       <c r="F566" s="9" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="G566" s="49"/>
     </row>
@@ -18213,13 +18222,13 @@
         <v>1</v>
       </c>
       <c r="D568" s="9" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E568" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F568" s="9" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G568" s="49"/>
     </row>
@@ -18234,13 +18243,13 @@
         <v>2</v>
       </c>
       <c r="D569" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E569" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F569" s="9" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G569" s="49"/>
     </row>
@@ -18255,13 +18264,13 @@
         <v>3</v>
       </c>
       <c r="D570" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E570" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F570" s="9" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G570" s="49"/>
     </row>
@@ -18276,13 +18285,13 @@
         <v>4</v>
       </c>
       <c r="D571" s="9" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E571" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F571" s="9" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G571" s="49"/>
     </row>
@@ -18297,13 +18306,13 @@
         <v>5</v>
       </c>
       <c r="D572" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E572" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F572" s="9" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G572" s="49"/>
     </row>
@@ -18318,13 +18327,13 @@
         <v>6</v>
       </c>
       <c r="D573" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E573" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F573" s="9" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="G573" s="49"/>
     </row>
@@ -18339,13 +18348,13 @@
         <v>7</v>
       </c>
       <c r="D574" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E574" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F574" s="9" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="G574" s="49"/>
     </row>
@@ -18360,13 +18369,13 @@
         <v>8</v>
       </c>
       <c r="D575" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E575" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F575" s="9" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="G575" s="49"/>
     </row>
@@ -18387,7 +18396,7 @@
         <v>381</v>
       </c>
       <c r="F576" s="9" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="G576" s="49"/>
     </row>
@@ -18402,13 +18411,13 @@
         <v>10</v>
       </c>
       <c r="D577" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E577" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F577" s="9" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G577" s="49"/>
     </row>
@@ -18423,13 +18432,13 @@
         <v>11</v>
       </c>
       <c r="D578" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E578" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F578" s="9" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="G578" s="49"/>
     </row>
@@ -18444,13 +18453,13 @@
         <v>12</v>
       </c>
       <c r="D579" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E579" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F579" s="9" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G579" s="49"/>
     </row>
@@ -18465,13 +18474,13 @@
         <v>13</v>
       </c>
       <c r="D580" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E580" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F580" s="9" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G580" s="49"/>
     </row>
@@ -18486,13 +18495,13 @@
         <v>14</v>
       </c>
       <c r="D581" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E581" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F581" s="9" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G581" s="49"/>
     </row>
@@ -18507,13 +18516,13 @@
         <v>15</v>
       </c>
       <c r="D582" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E582" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F582" s="9" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="G582" s="49"/>
     </row>
@@ -18528,13 +18537,13 @@
         <v>16</v>
       </c>
       <c r="D583" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E583" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F583" s="9" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G583" s="49"/>
     </row>
@@ -18549,13 +18558,13 @@
         <v>17</v>
       </c>
       <c r="D584" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E584" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F584" s="9" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G584" s="49"/>
     </row>
@@ -18576,7 +18585,7 @@
         <v>359</v>
       </c>
       <c r="F585" s="9" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G585" s="49"/>
     </row>
@@ -18604,13 +18613,13 @@
         <v>1</v>
       </c>
       <c r="D587" s="9" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E587" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F587" s="9" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G587" s="1"/>
     </row>
@@ -18625,13 +18634,13 @@
         <v>2</v>
       </c>
       <c r="D588" s="9" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E588" s="15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F588" s="9" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G588" s="1"/>
     </row>
@@ -18646,13 +18655,13 @@
         <v>3</v>
       </c>
       <c r="D589" s="9" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E589" s="15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F589" s="9" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G589" s="1"/>
     </row>
@@ -18667,13 +18676,13 @@
         <v>4</v>
       </c>
       <c r="D590" s="9" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E590" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F590" s="9" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G590" s="1"/>
     </row>
@@ -18688,13 +18697,13 @@
         <v>5</v>
       </c>
       <c r="D591" s="9" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E591" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F591" s="9" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G591" s="1"/>
     </row>
@@ -18709,13 +18718,13 @@
         <v>6</v>
       </c>
       <c r="D592" s="9" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E592" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F592" s="9" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G592" s="1"/>
     </row>
@@ -18736,7 +18745,7 @@
         <v>359</v>
       </c>
       <c r="F593" s="9" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G593" s="1"/>
     </row>
@@ -18751,13 +18760,13 @@
         <v>8</v>
       </c>
       <c r="D594" s="9" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E594" s="15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F594" s="9" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G594" s="1"/>
     </row>
@@ -18772,13 +18781,13 @@
         <v>9</v>
       </c>
       <c r="D595" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E595" s="15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F595" s="9" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G595" s="1"/>
     </row>
@@ -18793,13 +18802,13 @@
         <v>10</v>
       </c>
       <c r="D596" s="9" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E596" s="15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F596" s="9" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G596" s="1"/>
     </row>
@@ -18814,13 +18823,13 @@
         <v>11</v>
       </c>
       <c r="D597" s="9" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E597" s="15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F597" s="9" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G597" s="1"/>
     </row>
@@ -18835,13 +18844,13 @@
         <v>12</v>
       </c>
       <c r="D598" s="9" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E598" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F598" s="9" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G598" s="1"/>
     </row>
@@ -18856,13 +18865,13 @@
         <v>13</v>
       </c>
       <c r="D599" s="9" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E599" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F599" s="9" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G599" s="1"/>
     </row>
@@ -18877,13 +18886,13 @@
         <v>14</v>
       </c>
       <c r="D600" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E600" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F600" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G600" s="1"/>
     </row>
@@ -18900,7 +18909,7 @@
         <v>332</v>
       </c>
       <c r="G601" s="49" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -18914,13 +18923,13 @@
         <v>1</v>
       </c>
       <c r="D602" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E602" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F602" s="9" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="G602" s="1"/>
     </row>
@@ -18935,13 +18944,13 @@
         <v>2</v>
       </c>
       <c r="D603" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E603" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F603" s="9" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G603" s="1"/>
     </row>
@@ -18956,13 +18965,13 @@
         <v>3</v>
       </c>
       <c r="D604" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E604" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F604" s="9" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="G604" s="1"/>
     </row>
@@ -18977,13 +18986,13 @@
         <v>4</v>
       </c>
       <c r="D605" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E605" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F605" s="9" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G605" s="1"/>
     </row>
@@ -18998,13 +19007,13 @@
         <v>5</v>
       </c>
       <c r="D606" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E606" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F606" s="9" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="G606" s="1"/>
     </row>
@@ -19019,13 +19028,13 @@
         <v>6</v>
       </c>
       <c r="D607" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E607" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F607" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G607" s="1"/>
     </row>
@@ -19040,13 +19049,13 @@
         <v>7</v>
       </c>
       <c r="D608" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E608" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F608" s="9" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G608" s="1"/>
     </row>
@@ -19067,7 +19076,7 @@
         <v>354</v>
       </c>
       <c r="F609" s="9" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G609" s="1"/>
     </row>
@@ -19082,13 +19091,13 @@
         <v>9</v>
       </c>
       <c r="D610" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E610" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F610" s="9" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G610" s="1"/>
     </row>
@@ -19103,13 +19112,13 @@
         <v>10</v>
       </c>
       <c r="D611" s="9" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E611" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F611" s="9" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G611" s="1"/>
     </row>
@@ -19124,13 +19133,13 @@
         <v>11</v>
       </c>
       <c r="D612" s="9" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E612" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F612" s="9" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G612" s="1"/>
     </row>
@@ -19145,13 +19154,13 @@
         <v>12</v>
       </c>
       <c r="D613" s="9" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E613" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F613" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G613" s="1"/>
     </row>
@@ -19166,13 +19175,13 @@
         <v>13</v>
       </c>
       <c r="D614" s="9" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E614" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F614" s="9" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G614" s="1"/>
     </row>
@@ -19187,13 +19196,13 @@
         <v>14</v>
       </c>
       <c r="D615" s="9" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E615" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F615" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G615" s="1"/>
     </row>
@@ -19208,13 +19217,13 @@
         <v>15</v>
       </c>
       <c r="D616" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E616" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F616" s="9" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G616" s="1"/>
     </row>
@@ -19229,13 +19238,13 @@
         <v>16</v>
       </c>
       <c r="D617" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E617" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F617" s="9" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G617" s="1"/>
     </row>
@@ -19250,13 +19259,13 @@
         <v>17</v>
       </c>
       <c r="D618" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E618" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F618" s="9" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="G618" s="1"/>
     </row>
@@ -19277,7 +19286,7 @@
         <v>381</v>
       </c>
       <c r="F619" s="9" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G619" s="1"/>
     </row>
@@ -19307,13 +19316,13 @@
         <v>1</v>
       </c>
       <c r="D621" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F621" s="9" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G621" s="1"/>
     </row>
@@ -19334,7 +19343,7 @@
         <v>359</v>
       </c>
       <c r="F622" s="9" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G622" s="1"/>
     </row>
@@ -19349,13 +19358,13 @@
         <v>3</v>
       </c>
       <c r="D623" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F623" s="9" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G623" s="1"/>
     </row>
@@ -19376,7 +19385,7 @@
         <v>359</v>
       </c>
       <c r="F624" s="9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G624" s="1"/>
     </row>
@@ -19391,16 +19400,16 @@
         <v>5</v>
       </c>
       <c r="D625" s="9" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E625" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F625" s="9" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G625" s="15" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -19414,13 +19423,13 @@
         <v>6</v>
       </c>
       <c r="D626" s="9" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E626" s="44" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F626" s="9" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G626" s="1"/>
     </row>
@@ -19435,16 +19444,16 @@
         <v>7</v>
       </c>
       <c r="D627" s="9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E627" s="44" t="s">
         <v>368</v>
       </c>
       <c r="F627" s="9" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -19458,13 +19467,13 @@
         <v>8</v>
       </c>
       <c r="D628" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E628" s="44" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F628" s="9" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G628" s="1"/>
     </row>
@@ -19485,7 +19494,7 @@
         <v>359</v>
       </c>
       <c r="F629" s="9" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G629" s="1"/>
     </row>
@@ -19500,13 +19509,13 @@
         <v>10</v>
       </c>
       <c r="D630" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F630" s="9" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G630" s="1"/>
     </row>
@@ -19521,13 +19530,13 @@
         <v>11</v>
       </c>
       <c r="D631" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F631" s="9" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="G631" s="1"/>
     </row>
@@ -19542,13 +19551,13 @@
         <v>12</v>
       </c>
       <c r="D632" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E632" s="44" t="s">
         <v>381</v>
       </c>
       <c r="F632" s="9" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="G632" s="1"/>
     </row>
@@ -19563,13 +19572,13 @@
         <v>13</v>
       </c>
       <c r="D633" s="9" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E633" s="44" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="F633" s="9" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="G633" s="1"/>
     </row>
@@ -19584,13 +19593,13 @@
         <v>14</v>
       </c>
       <c r="D634" s="9" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E634" s="44" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="F634" s="9" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="G634" s="1"/>
     </row>
@@ -19605,13 +19614,13 @@
         <v>15</v>
       </c>
       <c r="D635" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E635" s="44" t="s">
         <v>381</v>
       </c>
       <c r="F635" s="9" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="G635" s="1"/>
     </row>
@@ -19626,13 +19635,13 @@
         <v>16</v>
       </c>
       <c r="D636" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F636" s="9" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="G636" s="1"/>
     </row>
@@ -19646,7 +19655,7 @@
         <v>93</v>
       </c>
       <c r="F637" s="9" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="G637" s="1"/>
     </row>
@@ -19657,10 +19666,10 @@
       <c r="B638" s="9"/>
       <c r="C638" s="28"/>
       <c r="D638" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F638" s="9" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="G638" s="1"/>
     </row>
@@ -19675,13 +19684,13 @@
         <v>1</v>
       </c>
       <c r="D639" s="9" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E639" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F639" s="9" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="G639" s="1"/>
     </row>
@@ -19696,13 +19705,13 @@
         <v>2</v>
       </c>
       <c r="D640" s="9" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E640" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F640" s="9" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G640" s="1"/>
     </row>
@@ -19717,13 +19726,13 @@
         <v>3</v>
       </c>
       <c r="D641" s="9" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E641" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F641" s="9" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="G641" s="1"/>
     </row>
@@ -19738,13 +19747,13 @@
         <v>4</v>
       </c>
       <c r="D642" s="9" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E642" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F642" s="9" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G642" s="1"/>
     </row>
@@ -19759,13 +19768,13 @@
         <v>5</v>
       </c>
       <c r="D643" s="9" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E643" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F643" s="9" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="G643" s="1"/>
     </row>
@@ -19780,13 +19789,13 @@
         <v>6</v>
       </c>
       <c r="D644" s="9" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E644" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F644" s="9" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="G644" s="1"/>
     </row>
@@ -19807,7 +19816,7 @@
         <v>359</v>
       </c>
       <c r="F645" s="9" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="G645" s="1"/>
     </row>
@@ -19822,13 +19831,13 @@
         <v>8</v>
       </c>
       <c r="D646" s="9" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E646" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F646" s="9" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="G646" s="1"/>
     </row>
@@ -19843,13 +19852,13 @@
         <v>9</v>
       </c>
       <c r="D647" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E647" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F647" s="9" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="G647" s="1"/>
     </row>
@@ -19864,13 +19873,13 @@
         <v>10</v>
       </c>
       <c r="D648" s="9" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E648" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F648" s="9" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="G648" s="1"/>
     </row>
@@ -19885,13 +19894,13 @@
         <v>11</v>
       </c>
       <c r="D649" s="9" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E649" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F649" s="9" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="G649" s="1"/>
     </row>
@@ -19906,13 +19915,13 @@
         <v>12</v>
       </c>
       <c r="D650" s="9" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E650" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F650" s="9" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="G650" s="1"/>
     </row>
@@ -19927,13 +19936,13 @@
         <v>13</v>
       </c>
       <c r="D651" s="9" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E651" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F651" s="9" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="G651" s="1"/>
     </row>
@@ -19948,13 +19957,13 @@
         <v>14</v>
       </c>
       <c r="D652" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E652" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F652" s="9" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="G652" s="1"/>
     </row>
@@ -19968,7 +19977,7 @@
         <v>93</v>
       </c>
       <c r="F653" s="9" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="G653" s="1" t="s">
         <v>305</v>
@@ -19981,10 +19990,10 @@
       <c r="B654" s="11"/>
       <c r="C654" s="23"/>
       <c r="D654" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F654" s="9" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="G654" s="1"/>
     </row>
@@ -19999,13 +20008,13 @@
         <v>1</v>
       </c>
       <c r="D655" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E655" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F655" s="9" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="G655" s="1"/>
     </row>
@@ -20020,13 +20029,13 @@
         <v>2</v>
       </c>
       <c r="D656" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E656" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F656" s="9" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="G656" s="1"/>
     </row>
@@ -20041,13 +20050,13 @@
         <v>3</v>
       </c>
       <c r="D657" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E657" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F657" s="9" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="G657" s="1"/>
     </row>
@@ -20062,13 +20071,13 @@
         <v>4</v>
       </c>
       <c r="D658" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E658" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F658" s="9" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="G658" s="1"/>
     </row>
@@ -20083,13 +20092,13 @@
         <v>5</v>
       </c>
       <c r="D659" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E659" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F659" s="9" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="G659" s="1"/>
     </row>
@@ -20104,13 +20113,13 @@
         <v>6</v>
       </c>
       <c r="D660" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E660" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F660" s="9" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="G660" s="1"/>
     </row>
@@ -20125,13 +20134,13 @@
         <v>7</v>
       </c>
       <c r="D661" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E661" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F661" s="9" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="G661" s="1"/>
     </row>
@@ -20146,13 +20155,13 @@
         <v>8</v>
       </c>
       <c r="D662" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E662" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F662" s="9" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="G662" s="1"/>
     </row>
@@ -20167,13 +20176,13 @@
         <v>9</v>
       </c>
       <c r="D663" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E663" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F663" s="9" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="G663" s="1"/>
     </row>
@@ -20188,13 +20197,13 @@
         <v>10</v>
       </c>
       <c r="D664" s="9" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E664" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F664" s="9" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="G664" s="1"/>
     </row>
@@ -20209,13 +20218,13 @@
         <v>11</v>
       </c>
       <c r="D665" s="9" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E665" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F665" s="9" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="G665" s="1"/>
     </row>
@@ -20230,13 +20239,13 @@
         <v>12</v>
       </c>
       <c r="D666" s="9" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E666" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F666" s="9" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="G666" s="1"/>
     </row>
@@ -20251,13 +20260,13 @@
         <v>13</v>
       </c>
       <c r="D667" s="9" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E667" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F667" s="9" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G667" s="1"/>
     </row>
@@ -20278,7 +20287,7 @@
         <v>381</v>
       </c>
       <c r="F668" s="9" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="G668" s="1"/>
     </row>
@@ -20306,13 +20315,13 @@
         <v>1</v>
       </c>
       <c r="D670" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E670" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F670" s="9" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="G670" s="1"/>
     </row>
@@ -20327,13 +20336,13 @@
         <v>2</v>
       </c>
       <c r="D671" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E671" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F671" s="9" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="G671" s="1"/>
     </row>
@@ -20348,13 +20357,13 @@
         <v>3</v>
       </c>
       <c r="D672" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E672" s="15" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F672" s="9" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="G672" s="1"/>
     </row>
@@ -20369,13 +20378,13 @@
         <v>4</v>
       </c>
       <c r="D673" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E673" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F673" s="9" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="G673" s="1"/>
     </row>
@@ -20390,13 +20399,13 @@
         <v>5</v>
       </c>
       <c r="D674" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E674" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F674" s="9" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="G674" s="1"/>
     </row>
@@ -20411,13 +20420,13 @@
         <v>6</v>
       </c>
       <c r="D675" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E675" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F675" s="9" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="G675" s="1"/>
     </row>
@@ -20432,13 +20441,13 @@
         <v>7</v>
       </c>
       <c r="D676" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E676" s="44" t="s">
         <v>359</v>
       </c>
       <c r="F676" s="9" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="G676" s="1"/>
     </row>
@@ -20453,13 +20462,13 @@
         <v>8</v>
       </c>
       <c r="D677" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E677" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F677" s="9" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="G677" s="1"/>
     </row>
@@ -20474,13 +20483,13 @@
         <v>9</v>
       </c>
       <c r="D678" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E678" s="15" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F678" s="9" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="G678" s="1"/>
     </row>
@@ -20495,13 +20504,13 @@
         <v>10</v>
       </c>
       <c r="D679" s="9" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E679" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F679" s="9" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="G679" s="1"/>
     </row>
@@ -20516,13 +20525,13 @@
         <v>11</v>
       </c>
       <c r="D680" s="9" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E680" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F680" s="9" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="G680" s="1"/>
     </row>
@@ -20537,13 +20546,13 @@
         <v>12</v>
       </c>
       <c r="D681" s="9" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E681" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F681" s="9" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="G681" s="1"/>
     </row>
@@ -20558,13 +20567,13 @@
         <v>13</v>
       </c>
       <c r="D682" s="9" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E682" s="15" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F682" s="9" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="G682" s="1"/>
     </row>
@@ -20585,7 +20594,7 @@
         <v>381</v>
       </c>
       <c r="F683" s="9" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="G683" s="1"/>
     </row>
@@ -31258,10 +31267,10 @@
         <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1">
@@ -31269,10 +31278,10 @@
         <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1">
@@ -31280,10 +31289,10 @@
         <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1">
@@ -31291,10 +31300,10 @@
         <v>184</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1">
@@ -31302,10 +31311,10 @@
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1">
@@ -31313,10 +31322,10 @@
         <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1">
@@ -31324,10 +31333,10 @@
         <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1">
@@ -31335,10 +31344,10 @@
         <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1">
@@ -31346,10 +31355,10 @@
         <v>164</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1">
@@ -31357,10 +31366,10 @@
         <v>163</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1">
@@ -31368,10 +31377,10 @@
         <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1">
@@ -31379,10 +31388,10 @@
         <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1">
@@ -31390,10 +31399,10 @@
         <v>168</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1">
@@ -31401,10 +31410,10 @@
         <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1">
@@ -31412,10 +31421,10 @@
         <v>169</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1">
@@ -31423,10 +31432,10 @@
         <v>167</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -31609,10 +31618,10 @@
         <v>178</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C47" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1">
@@ -31620,10 +31629,10 @@
         <v>222</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C48" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -32063,10 +32072,10 @@
         <v>277</v>
       </c>
       <c r="B16" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C16" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -32074,10 +32083,10 @@
         <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C17" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -32085,10 +32094,10 @@
         <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C18" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -32096,10 +32105,10 @@
         <v>277</v>
       </c>
       <c r="B19" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C19" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -32292,7 +32301,7 @@
         <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D12" s="43"/>
     </row>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7562D3B5-8DC5-413E-B7D5-340590C33F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DDFCEE-D9BC-424C-840B-027312197428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -5424,7 +5424,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -5737,7 +5737,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -6542,153 +6542,180 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="11" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1502</v>
+        <v>164</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1511</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="11" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1503</v>
+        <v>64</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="11" t="s">
-        <v>197</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.8">
+      <c r="A54" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1504</v>
+        <v>1202</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="11" t="s">
-        <v>198</v>
+      <c r="A55" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1504</v>
+        <v>158</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1512</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="11" t="s">
-        <v>183</v>
+      <c r="A56" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1505</v>
+        <v>217</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1513</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="11" t="s">
-        <v>185</v>
+      <c r="A57" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1506</v>
+        <v>186</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1514</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="11" t="s">
-        <v>203</v>
+      <c r="A58" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>244</v>
+        <v>181</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1515</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="11" t="s">
-        <v>152</v>
+      <c r="A59" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1505</v>
+        <v>169</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1516</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="11" t="s">
-        <v>155</v>
+      <c r="A60" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1505</v>
+        <v>169</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1516</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="11" t="s">
-        <v>156</v>
+      <c r="A61" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1505</v>
+        <v>180</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1517</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="11" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>154</v>
@@ -6696,13 +6723,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="11" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>232</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1204</v>
       </c>
       <c r="D63" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>154</v>
@@ -6710,35 +6740,35 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="11" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:5">
       <c r="A65" s="11" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="D65" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:5">
       <c r="A66" s="11" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>153</v>
@@ -6750,37 +6780,34 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:5">
       <c r="A67" s="11" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>153</v>
+        <v>1507</v>
       </c>
       <c r="D67" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1505</v>
+        <v>244</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>153</v>
@@ -6792,9 +6819,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>153</v>
@@ -6806,171 +6833,144 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>1511</v>
+        <v>153</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1505</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>64</v>
+        <v>153</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1505</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="28.8">
-      <c r="A73" s="38" t="s">
-        <v>72</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1505</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="38" t="s">
-        <v>55</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>1512</v>
+        <v>153</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1505</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="38" t="s">
-        <v>47</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1513</v>
+        <v>153</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1505</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="38" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>1514</v>
+        <v>153</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1505</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="38" t="s">
-        <v>86</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>1515</v>
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1505</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="39" t="s">
-        <v>57</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>1516</v>
+        <v>153</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1505</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="34" t="s">
-        <v>59</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1516</v>
+        <v>153</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1505</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="34" t="s">
-        <v>83</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1517</v>
+        <v>153</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1505</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -38659,7 +38659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9811FA4-F748-48DA-90D3-A6D83BB33B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C95C623-B0AD-43DF-8C85-60CF34C03580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6898" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6902" uniqueCount="1640">
   <si>
     <t>Name</t>
   </si>
@@ -5087,6 +5087,12 @@
   </si>
   <si>
     <t>Alternative part: 1N4148</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power Switch C64-C128 1.png</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power Switch C64-C128 2.png</t>
   </si>
 </sst>
 </file>
@@ -6027,8 +6033,8 @@
   <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="8" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7640,7 +7646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" ht="28.8">
       <c r="A98" s="56" t="s">
         <v>175</v>
       </c>
@@ -9229,13 +9235,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D971" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="A982" sqref="A982:XFD982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28776,42 +28782,44 @@
       </c>
       <c r="B982" s="9"/>
       <c r="C982" s="28"/>
-      <c r="D982" s="1" t="s">
+      <c r="D982" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="983" spans="1:7" ht="57.6">
+      <c r="F982" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G982" s="1"/>
+    </row>
+    <row r="983" spans="1:7">
       <c r="A983" s="9" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B983" s="9"/>
       <c r="C983" s="28"/>
-      <c r="D983" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G983" s="47" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="984" spans="1:7" ht="28.8">
-      <c r="A984" s="56" t="s">
-        <v>1530</v>
+      <c r="D983" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F983" s="9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G983" s="1"/>
+    </row>
+    <row r="984" spans="1:7" ht="57.6">
+      <c r="A984" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B984" s="9"/>
       <c r="C984" s="28"/>
       <c r="D984" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F984" s="9" t="s">
-        <v>1598</v>
-      </c>
-      <c r="G984" s="42" t="s">
-        <v>1599</v>
+      <c r="G984" s="47" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="985" spans="1:7" ht="28.8">
       <c r="A985" s="56" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B985" s="9"/>
       <c r="C985" s="28"/>
@@ -28827,7 +28835,7 @@
     </row>
     <row r="986" spans="1:7" ht="28.8">
       <c r="A986" s="56" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="B986" s="9"/>
       <c r="C986" s="28"/>
@@ -28843,7 +28851,7 @@
     </row>
     <row r="987" spans="1:7" ht="28.8">
       <c r="A987" s="56" t="s">
-        <v>1552</v>
+        <v>1528</v>
       </c>
       <c r="B987" s="9"/>
       <c r="C987" s="28"/>
@@ -28859,7 +28867,7 @@
     </row>
     <row r="988" spans="1:7" ht="28.8">
       <c r="A988" s="56" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B988" s="9"/>
       <c r="C988" s="28"/>
@@ -28875,7 +28883,7 @@
     </row>
     <row r="989" spans="1:7" ht="28.8">
       <c r="A989" s="56" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="B989" s="9"/>
       <c r="C989" s="28"/>
@@ -28891,7 +28899,7 @@
     </row>
     <row r="990" spans="1:7" ht="28.8">
       <c r="A990" s="56" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B990" s="9"/>
       <c r="C990" s="28"/>
@@ -28907,7 +28915,7 @@
     </row>
     <row r="991" spans="1:7" ht="28.8">
       <c r="A991" s="56" t="s">
-        <v>1532</v>
+        <v>1549</v>
       </c>
       <c r="B991" s="9"/>
       <c r="C991" s="28"/>
@@ -28923,7 +28931,7 @@
     </row>
     <row r="992" spans="1:7" ht="28.8">
       <c r="A992" s="56" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="B992" s="9"/>
       <c r="C992" s="28"/>
@@ -28939,7 +28947,7 @@
     </row>
     <row r="993" spans="1:7" ht="28.8">
       <c r="A993" s="56" t="s">
-        <v>1581</v>
+        <v>1538</v>
       </c>
       <c r="B993" s="9"/>
       <c r="C993" s="28"/>
@@ -28955,7 +28963,7 @@
     </row>
     <row r="994" spans="1:7" ht="28.8">
       <c r="A994" s="56" t="s">
-        <v>1561</v>
+        <v>1581</v>
       </c>
       <c r="B994" s="9"/>
       <c r="C994" s="28"/>
@@ -28971,7 +28979,7 @@
     </row>
     <row r="995" spans="1:7" ht="28.8">
       <c r="A995" s="56" t="s">
-        <v>1539</v>
+        <v>1561</v>
       </c>
       <c r="B995" s="9"/>
       <c r="C995" s="28"/>
@@ -28985,10 +28993,21 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="996" spans="1:7">
-      <c r="A996" s="9"/>
+    <row r="996" spans="1:7" ht="28.8">
+      <c r="A996" s="56" t="s">
+        <v>1539</v>
+      </c>
       <c r="B996" s="9"/>
       <c r="C996" s="28"/>
+      <c r="D996" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F996" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G996" s="42" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="997" spans="1:7">
       <c r="A997" s="9"/>
@@ -29160,8 +29179,10 @@
       <c r="B1030" s="9"/>
       <c r="C1030" s="28"/>
     </row>
-    <row r="1134" spans="5:5">
-      <c r="E1134" s="42"/>
+    <row r="1031" spans="1:3">
+      <c r="A1031" s="9"/>
+      <c r="B1031" s="9"/>
+      <c r="C1031" s="28"/>
     </row>
     <row r="1135" spans="5:5">
       <c r="E1135" s="42"/>
@@ -29169,34 +29190,33 @@
     <row r="1136" spans="5:5">
       <c r="E1136" s="42"/>
     </row>
-    <row r="1137" spans="5:7">
+    <row r="1137" spans="5:5">
       <c r="E1137" s="42"/>
     </row>
-    <row r="1138" spans="5:7">
+    <row r="1138" spans="5:5">
       <c r="E1138" s="42"/>
     </row>
-    <row r="1139" spans="5:7">
+    <row r="1139" spans="5:5">
       <c r="E1139" s="42"/>
     </row>
-    <row r="1140" spans="5:7">
+    <row r="1140" spans="5:5">
       <c r="E1140" s="42"/>
     </row>
-    <row r="1150" spans="5:7">
-      <c r="E1150" s="42"/>
-    </row>
-    <row r="1152" spans="5:7">
-      <c r="E1152" s="42"/>
-      <c r="G1152" s="53"/>
+    <row r="1141" spans="5:5">
+      <c r="E1141" s="42"/>
+    </row>
+    <row r="1151" spans="5:5">
+      <c r="E1151" s="42"/>
     </row>
     <row r="1153" spans="5:7">
+      <c r="E1153" s="42"/>
       <c r="G1153" s="53"/>
     </row>
     <row r="1154" spans="5:7">
-      <c r="E1154" s="43"/>
       <c r="G1154" s="53"/>
     </row>
     <row r="1155" spans="5:7">
-      <c r="E1155" s="42"/>
+      <c r="E1155" s="43"/>
       <c r="G1155" s="53"/>
     </row>
     <row r="1156" spans="5:7">
@@ -29216,11 +29236,11 @@
       <c r="G1159" s="53"/>
     </row>
     <row r="1160" spans="5:7">
-      <c r="E1160" s="44"/>
+      <c r="E1160" s="42"/>
       <c r="G1160" s="53"/>
     </row>
     <row r="1161" spans="5:7">
-      <c r="E1161" s="42"/>
+      <c r="E1161" s="44"/>
       <c r="G1161" s="53"/>
     </row>
     <row r="1162" spans="5:7">
@@ -29375,11 +29395,12 @@
       <c r="E1199" s="42"/>
       <c r="G1199" s="53"/>
     </row>
-    <row r="1207" spans="5:7">
-      <c r="E1207" s="42"/>
-    </row>
-    <row r="1216" spans="5:7">
-      <c r="G1216" s="53"/>
+    <row r="1200" spans="5:7">
+      <c r="E1200" s="42"/>
+      <c r="G1200" s="53"/>
+    </row>
+    <row r="1208" spans="5:5">
+      <c r="E1208" s="42"/>
     </row>
     <row r="1217" spans="7:7">
       <c r="G1217" s="53"/>
@@ -29420,17 +29441,17 @@
     <row r="1229" spans="7:7">
       <c r="G1229" s="53"/>
     </row>
-    <row r="1259" spans="5:5">
-      <c r="E1259" s="42"/>
-    </row>
-    <row r="1278" spans="5:5">
-      <c r="E1278" s="42"/>
+    <row r="1230" spans="7:7">
+      <c r="G1230" s="53"/>
+    </row>
+    <row r="1260" spans="5:5">
+      <c r="E1260" s="42"/>
     </row>
     <row r="1279" spans="5:5">
       <c r="E1279" s="42"/>
     </row>
-    <row r="1282" spans="5:5">
-      <c r="E1282" s="42"/>
+    <row r="1280" spans="5:5">
+      <c r="E1280" s="42"/>
     </row>
     <row r="1283" spans="5:5">
       <c r="E1283" s="42"/>
@@ -29447,8 +29468,8 @@
     <row r="1287" spans="5:5">
       <c r="E1287" s="42"/>
     </row>
-    <row r="1293" spans="5:5">
-      <c r="E1293" s="42"/>
+    <row r="1288" spans="5:5">
+      <c r="E1288" s="42"/>
     </row>
     <row r="1294" spans="5:5">
       <c r="E1294" s="42"/>
@@ -29468,8 +29489,8 @@
     <row r="1299" spans="5:5">
       <c r="E1299" s="42"/>
     </row>
-    <row r="1301" spans="5:5">
-      <c r="E1301" s="42"/>
+    <row r="1300" spans="5:5">
+      <c r="E1300" s="42"/>
     </row>
     <row r="1302" spans="5:5">
       <c r="E1302" s="42"/>
@@ -29480,23 +29501,23 @@
     <row r="1304" spans="5:5">
       <c r="E1304" s="42"/>
     </row>
-    <row r="1308" spans="5:5">
-      <c r="E1308" s="42"/>
-    </row>
-    <row r="1315" spans="5:5">
-      <c r="E1315" s="42"/>
-    </row>
-    <row r="1319" spans="5:5">
-      <c r="E1319" s="42"/>
-    </row>
-    <row r="1330" spans="5:7">
-      <c r="E1330" s="42"/>
-    </row>
-    <row r="1340" spans="5:7">
-      <c r="E1340" s="42"/>
-    </row>
-    <row r="1342" spans="5:7">
-      <c r="G1342" s="53"/>
+    <row r="1305" spans="5:5">
+      <c r="E1305" s="42"/>
+    </row>
+    <row r="1309" spans="5:5">
+      <c r="E1309" s="42"/>
+    </row>
+    <row r="1316" spans="5:5">
+      <c r="E1316" s="42"/>
+    </row>
+    <row r="1320" spans="5:5">
+      <c r="E1320" s="42"/>
+    </row>
+    <row r="1331" spans="5:7">
+      <c r="E1331" s="42"/>
+    </row>
+    <row r="1341" spans="5:7">
+      <c r="E1341" s="42"/>
     </row>
     <row r="1343" spans="5:7">
       <c r="G1343" s="53"/>
@@ -29553,11 +29574,11 @@
       <c r="G1360" s="53"/>
     </row>
     <row r="1361" spans="5:7">
-      <c r="E1361" s="42"/>
       <c r="G1361" s="53"/>
     </row>
-    <row r="1363" spans="5:7">
-      <c r="G1363" s="53"/>
+    <row r="1362" spans="5:7">
+      <c r="E1362" s="42"/>
+      <c r="G1362" s="53"/>
     </row>
     <row r="1364" spans="5:7">
       <c r="G1364" s="53"/>
@@ -29578,10 +29599,10 @@
       <c r="G1369" s="53"/>
     </row>
     <row r="1370" spans="5:7">
-      <c r="E1370" s="42"/>
       <c r="G1370" s="53"/>
     </row>
     <row r="1371" spans="5:7">
+      <c r="E1371" s="42"/>
       <c r="G1371" s="53"/>
     </row>
     <row r="1372" spans="5:7">
@@ -29603,11 +29624,11 @@
       <c r="G1377" s="53"/>
     </row>
     <row r="1378" spans="5:7">
-      <c r="E1378" s="42"/>
       <c r="G1378" s="53"/>
     </row>
-    <row r="1380" spans="5:7">
-      <c r="G1380" s="53"/>
+    <row r="1379" spans="5:7">
+      <c r="E1379" s="42"/>
+      <c r="G1379" s="53"/>
     </row>
     <row r="1381" spans="5:7">
       <c r="G1381" s="53"/>
@@ -29628,10 +29649,10 @@
       <c r="G1386" s="53"/>
     </row>
     <row r="1387" spans="5:7">
-      <c r="E1387" s="42"/>
       <c r="G1387" s="53"/>
     </row>
     <row r="1388" spans="5:7">
+      <c r="E1388" s="42"/>
       <c r="G1388" s="53"/>
     </row>
     <row r="1389" spans="5:7">
@@ -29653,35 +29674,35 @@
       <c r="G1394" s="53"/>
     </row>
     <row r="1395" spans="5:7">
-      <c r="E1395" s="42"/>
       <c r="G1395" s="53"/>
     </row>
-    <row r="1403" spans="5:7">
-      <c r="E1403" s="42"/>
-    </row>
-    <row r="1410" spans="5:5">
-      <c r="E1410" s="42"/>
-    </row>
-    <row r="1426" spans="5:5">
-      <c r="E1426" s="43"/>
+    <row r="1396" spans="5:7">
+      <c r="E1396" s="42"/>
+      <c r="G1396" s="53"/>
+    </row>
+    <row r="1404" spans="5:7">
+      <c r="E1404" s="42"/>
+    </row>
+    <row r="1411" spans="5:5">
+      <c r="E1411" s="42"/>
     </row>
     <row r="1427" spans="5:5">
       <c r="E1427" s="43"/>
     </row>
-    <row r="1430" spans="5:5">
-      <c r="E1430" s="43"/>
+    <row r="1428" spans="5:5">
+      <c r="E1428" s="43"/>
     </row>
     <row r="1431" spans="5:5">
-      <c r="E1431" s="42"/>
-    </row>
-    <row r="1444" spans="5:5">
-      <c r="E1444" s="42"/>
-    </row>
-    <row r="1456" spans="5:5">
-      <c r="E1456" s="42"/>
-    </row>
-    <row r="1460" spans="5:5">
-      <c r="E1460" s="42"/>
+      <c r="E1431" s="43"/>
+    </row>
+    <row r="1432" spans="5:5">
+      <c r="E1432" s="42"/>
+    </row>
+    <row r="1445" spans="5:5">
+      <c r="E1445" s="42"/>
+    </row>
+    <row r="1457" spans="5:5">
+      <c r="E1457" s="42"/>
     </row>
     <row r="1461" spans="5:5">
       <c r="E1461" s="42"/>
@@ -29752,8 +29773,8 @@
     <row r="1483" spans="5:7">
       <c r="E1483" s="42"/>
     </row>
-    <row r="1485" spans="5:7">
-      <c r="G1485" s="53"/>
+    <row r="1484" spans="5:7">
+      <c r="E1484" s="42"/>
     </row>
     <row r="1486" spans="5:7">
       <c r="G1486" s="53"/>
@@ -29792,11 +29813,11 @@
       <c r="G1497" s="53"/>
     </row>
     <row r="1498" spans="5:7">
-      <c r="E1498" s="42"/>
       <c r="G1498" s="53"/>
     </row>
-    <row r="1500" spans="5:7">
-      <c r="E1500" s="42"/>
+    <row r="1499" spans="5:7">
+      <c r="E1499" s="42"/>
+      <c r="G1499" s="53"/>
     </row>
     <row r="1501" spans="5:7">
       <c r="E1501" s="42"/>
@@ -29939,9 +29960,8 @@
     <row r="1547" spans="5:7">
       <c r="E1547" s="42"/>
     </row>
-    <row r="1549" spans="5:7">
-      <c r="E1549" s="42"/>
-      <c r="G1549" s="53"/>
+    <row r="1548" spans="5:7">
+      <c r="E1548" s="42"/>
     </row>
     <row r="1550" spans="5:7">
       <c r="E1550" s="42"/>
@@ -30131,11 +30151,12 @@
       <c r="E1596" s="42"/>
       <c r="G1596" s="53"/>
     </row>
-    <row r="1606" spans="5:5">
-      <c r="E1606" s="42"/>
-    </row>
-    <row r="1617" spans="7:7">
-      <c r="G1617" s="53"/>
+    <row r="1597" spans="5:7">
+      <c r="E1597" s="42"/>
+      <c r="G1597" s="53"/>
+    </row>
+    <row r="1607" spans="5:5">
+      <c r="E1607" s="42"/>
     </row>
     <row r="1618" spans="7:7">
       <c r="G1618" s="53"/>
@@ -30192,15 +30213,14 @@
       <c r="G1635" s="53"/>
     </row>
     <row r="1636" spans="5:7">
-      <c r="E1636" s="42"/>
       <c r="G1636" s="53"/>
     </row>
-    <row r="1646" spans="5:7">
-      <c r="E1646" s="42"/>
-    </row>
-    <row r="1657" spans="5:7">
-      <c r="E1657" s="42"/>
-      <c r="G1657" s="53"/>
+    <row r="1637" spans="5:7">
+      <c r="E1637" s="42"/>
+      <c r="G1637" s="53"/>
+    </row>
+    <row r="1647" spans="5:7">
+      <c r="E1647" s="42"/>
     </row>
     <row r="1658" spans="5:7">
       <c r="E1658" s="42"/>
@@ -30262,9 +30282,9 @@
       <c r="E1672" s="42"/>
       <c r="G1672" s="53"/>
     </row>
-    <row r="1674" spans="5:7">
-      <c r="E1674" s="42"/>
-      <c r="G1674" s="53"/>
+    <row r="1673" spans="5:7">
+      <c r="E1673" s="42"/>
+      <c r="G1673" s="53"/>
     </row>
     <row r="1675" spans="5:7">
       <c r="E1675" s="42"/>
@@ -30318,11 +30338,12 @@
       <c r="E1687" s="42"/>
       <c r="G1687" s="53"/>
     </row>
-    <row r="1690" spans="5:7">
-      <c r="E1690" s="42"/>
-    </row>
-    <row r="1694" spans="5:7">
-      <c r="E1694" s="42"/>
+    <row r="1688" spans="5:7">
+      <c r="E1688" s="42"/>
+      <c r="G1688" s="53"/>
+    </row>
+    <row r="1691" spans="5:7">
+      <c r="E1691" s="42"/>
     </row>
     <row r="1695" spans="5:7">
       <c r="E1695" s="42"/>
@@ -30333,8 +30354,8 @@
     <row r="1697" spans="5:5">
       <c r="E1697" s="42"/>
     </row>
-    <row r="1700" spans="5:5">
-      <c r="E1700" s="42"/>
+    <row r="1698" spans="5:5">
+      <c r="E1698" s="42"/>
     </row>
     <row r="1701" spans="5:5">
       <c r="E1701" s="42"/>
@@ -30345,8 +30366,8 @@
     <row r="1703" spans="5:5">
       <c r="E1703" s="42"/>
     </row>
-    <row r="1706" spans="5:5">
-      <c r="E1706" s="42"/>
+    <row r="1704" spans="5:5">
+      <c r="E1704" s="42"/>
     </row>
     <row r="1707" spans="5:5">
       <c r="E1707" s="42"/>
@@ -30387,8 +30408,8 @@
     <row r="1719" spans="5:5">
       <c r="E1719" s="42"/>
     </row>
-    <row r="1721" spans="5:5">
-      <c r="E1721" s="42"/>
+    <row r="1720" spans="5:5">
+      <c r="E1720" s="42"/>
     </row>
     <row r="1722" spans="5:5">
       <c r="E1722" s="42"/>
@@ -30429,8 +30450,8 @@
     <row r="1734" spans="5:5">
       <c r="E1734" s="42"/>
     </row>
-    <row r="1736" spans="5:5">
-      <c r="E1736" s="42"/>
+    <row r="1735" spans="5:5">
+      <c r="E1735" s="42"/>
     </row>
     <row r="1737" spans="5:5">
       <c r="E1737" s="42"/>
@@ -30471,8 +30492,8 @@
     <row r="1749" spans="5:5">
       <c r="E1749" s="42"/>
     </row>
-    <row r="1751" spans="5:5">
-      <c r="E1751" s="42"/>
+    <row r="1750" spans="5:5">
+      <c r="E1750" s="42"/>
     </row>
     <row r="1752" spans="5:5">
       <c r="E1752" s="42"/>
@@ -30555,35 +30576,35 @@
     <row r="1778" spans="5:5">
       <c r="E1778" s="42"/>
     </row>
-    <row r="1780" spans="5:5">
-      <c r="E1780" s="42"/>
-    </row>
-    <row r="1793" spans="5:5">
-      <c r="E1793" s="42"/>
-    </row>
-    <row r="1807" spans="5:5">
-      <c r="E1807" s="42"/>
-    </row>
-    <row r="1809" spans="5:5">
-      <c r="E1809" s="42"/>
-    </row>
-    <row r="1822" spans="5:5">
-      <c r="E1822" s="42"/>
-    </row>
-    <row r="1836" spans="5:5">
-      <c r="E1836" s="42"/>
-    </row>
-    <row r="1838" spans="5:5">
-      <c r="E1838" s="42"/>
-    </row>
-    <row r="1851" spans="5:5">
-      <c r="E1851" s="42"/>
-    </row>
-    <row r="1865" spans="5:5">
-      <c r="E1865" s="42"/>
-    </row>
-    <row r="1868" spans="5:5">
-      <c r="E1868" s="42"/>
+    <row r="1779" spans="5:5">
+      <c r="E1779" s="42"/>
+    </row>
+    <row r="1781" spans="5:5">
+      <c r="E1781" s="42"/>
+    </row>
+    <row r="1794" spans="5:5">
+      <c r="E1794" s="42"/>
+    </row>
+    <row r="1808" spans="5:5">
+      <c r="E1808" s="42"/>
+    </row>
+    <row r="1810" spans="5:5">
+      <c r="E1810" s="42"/>
+    </row>
+    <row r="1823" spans="5:5">
+      <c r="E1823" s="42"/>
+    </row>
+    <row r="1837" spans="5:5">
+      <c r="E1837" s="42"/>
+    </row>
+    <row r="1839" spans="5:5">
+      <c r="E1839" s="42"/>
+    </row>
+    <row r="1852" spans="5:5">
+      <c r="E1852" s="42"/>
+    </row>
+    <row r="1866" spans="5:5">
+      <c r="E1866" s="42"/>
     </row>
     <row r="1869" spans="5:5">
       <c r="E1869" s="42"/>
@@ -30624,56 +30645,56 @@
     <row r="1881" spans="5:5">
       <c r="E1881" s="42"/>
     </row>
-    <row r="1890" spans="5:5">
-      <c r="E1890" s="42"/>
-    </row>
-    <row r="1907" spans="5:5">
-      <c r="E1907" s="42"/>
-    </row>
-    <row r="1924" spans="5:5">
-      <c r="E1924" s="42"/>
-    </row>
-    <row r="1941" spans="5:5">
-      <c r="E1941" s="42"/>
-    </row>
-    <row r="1958" spans="5:5">
-      <c r="E1958" s="42"/>
-    </row>
-    <row r="1975" spans="5:5">
-      <c r="E1975" s="42"/>
-    </row>
-    <row r="1992" spans="5:5">
-      <c r="E1992" s="42"/>
-    </row>
-    <row r="2009" spans="5:5">
-      <c r="E2009" s="42"/>
-    </row>
-    <row r="2026" spans="5:5">
-      <c r="E2026" s="42"/>
-    </row>
-    <row r="2043" spans="5:5">
-      <c r="E2043" s="42"/>
-    </row>
-    <row r="2060" spans="5:5">
-      <c r="E2060" s="42"/>
-    </row>
-    <row r="2077" spans="5:5">
-      <c r="E2077" s="42"/>
-    </row>
-    <row r="2094" spans="5:5">
-      <c r="E2094" s="42"/>
-    </row>
-    <row r="2111" spans="5:5">
-      <c r="E2111" s="42"/>
-    </row>
-    <row r="2128" spans="5:5">
-      <c r="E2128" s="42"/>
-    </row>
-    <row r="2145" spans="5:7">
-      <c r="E2145" s="42"/>
-    </row>
-    <row r="2155" spans="5:7">
-      <c r="G2155" s="53"/>
+    <row r="1882" spans="5:5">
+      <c r="E1882" s="42"/>
+    </row>
+    <row r="1891" spans="5:5">
+      <c r="E1891" s="42"/>
+    </row>
+    <row r="1908" spans="5:5">
+      <c r="E1908" s="42"/>
+    </row>
+    <row r="1925" spans="5:5">
+      <c r="E1925" s="42"/>
+    </row>
+    <row r="1942" spans="5:5">
+      <c r="E1942" s="42"/>
+    </row>
+    <row r="1959" spans="5:5">
+      <c r="E1959" s="42"/>
+    </row>
+    <row r="1976" spans="5:5">
+      <c r="E1976" s="42"/>
+    </row>
+    <row r="1993" spans="5:5">
+      <c r="E1993" s="42"/>
+    </row>
+    <row r="2010" spans="5:5">
+      <c r="E2010" s="42"/>
+    </row>
+    <row r="2027" spans="5:5">
+      <c r="E2027" s="42"/>
+    </row>
+    <row r="2044" spans="5:5">
+      <c r="E2044" s="42"/>
+    </row>
+    <row r="2061" spans="5:5">
+      <c r="E2061" s="42"/>
+    </row>
+    <row r="2078" spans="5:5">
+      <c r="E2078" s="42"/>
+    </row>
+    <row r="2095" spans="5:5">
+      <c r="E2095" s="42"/>
+    </row>
+    <row r="2112" spans="5:5">
+      <c r="E2112" s="42"/>
+    </row>
+    <row r="2129" spans="5:5">
+      <c r="E2129" s="42"/>
+    </row>
+    <row r="2146" spans="5:7">
+      <c r="E2146" s="42"/>
     </row>
     <row r="2156" spans="5:7">
       <c r="G2156" s="53"/>
@@ -30712,29 +30733,29 @@
       <c r="G2167" s="53"/>
     </row>
     <row r="2168" spans="5:7">
-      <c r="E2168" s="42"/>
       <c r="G2168" s="53"/>
     </row>
-    <row r="2189" spans="5:5">
-      <c r="E2189" s="42"/>
-    </row>
-    <row r="2204" spans="5:5">
-      <c r="E2204" s="42"/>
-    </row>
-    <row r="2219" spans="5:5">
-      <c r="E2219" s="42"/>
-    </row>
-    <row r="2234" spans="5:5">
-      <c r="E2234" s="42"/>
-    </row>
-    <row r="2250" spans="5:5">
-      <c r="E2250" s="42"/>
-    </row>
-    <row r="2258" spans="5:7">
-      <c r="E2258" s="42"/>
-    </row>
-    <row r="2267" spans="5:7">
-      <c r="G2267" s="53"/>
+    <row r="2169" spans="5:7">
+      <c r="E2169" s="42"/>
+      <c r="G2169" s="53"/>
+    </row>
+    <row r="2190" spans="5:5">
+      <c r="E2190" s="42"/>
+    </row>
+    <row r="2205" spans="5:5">
+      <c r="E2205" s="42"/>
+    </row>
+    <row r="2220" spans="5:5">
+      <c r="E2220" s="42"/>
+    </row>
+    <row r="2235" spans="5:5">
+      <c r="E2235" s="42"/>
+    </row>
+    <row r="2251" spans="5:5">
+      <c r="E2251" s="42"/>
+    </row>
+    <row r="2259" spans="5:7">
+      <c r="E2259" s="42"/>
     </row>
     <row r="2268" spans="5:7">
       <c r="G2268" s="53"/>
@@ -30791,14 +30812,17 @@
       <c r="G2285" s="53"/>
     </row>
     <row r="2286" spans="5:7">
-      <c r="E2286" s="42"/>
       <c r="G2286" s="53"/>
     </row>
-    <row r="2294" spans="5:5">
-      <c r="E2294" s="42"/>
-    </row>
-    <row r="2301" spans="5:5">
-      <c r="E2301" s="42"/>
+    <row r="2287" spans="5:7">
+      <c r="E2287" s="42"/>
+      <c r="G2287" s="53"/>
+    </row>
+    <row r="2295" spans="5:5">
+      <c r="E2295" s="42"/>
+    </row>
+    <row r="2302" spans="5:5">
+      <c r="E2302" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED3908-187E-4528-8DDF-0F88997934E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9DC2D-7D20-4880-9C09-A217195695A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6906" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="1663">
   <si>
     <t>Name</t>
   </si>
@@ -5093,6 +5093,63 @@
     <t>This is ΦDOT clock INPUT (VIC-II recieves this signal from U20 pin 6)</t>
   </si>
   <si>
+    <t>Commodore shared files/Component images/C64 RF modulator.png</t>
+  </si>
+  <si>
+    <t>You need to measure this from the backside of motherboard</t>
+  </si>
+  <si>
+    <t>+B</t>
+  </si>
+  <si>
+    <t>Analog?</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (INPUT)</t>
+  </si>
+  <si>
+    <t>Signal originates from VIC-II</t>
+  </si>
+  <si>
+    <t>COLOR (INPUT)</t>
+  </si>
+  <si>
+    <t>AUDIO (INPUT)</t>
+  </si>
+  <si>
+    <t>COMP. (OUTPUT)</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (OUTPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (OUTPUT)</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_8_PAL.png</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5105,7 +5162,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-20</t>
+      <t>2025-December-21</t>
     </r>
   </si>
 </sst>
@@ -5241,7 +5298,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5410,6 +5467,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5760,7 +5820,7 @@
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>1643</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5802,12 +5862,12 @@
         <v>250</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="28.8">
       <c r="A9" s="13" t="s">
@@ -9249,7 +9309,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
@@ -28821,166 +28881,208 @@
       </c>
       <c r="G983" s="1"/>
     </row>
-    <row r="984" spans="1:7" ht="57.6">
+    <row r="984" spans="1:7">
       <c r="A984" s="9" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="B984" s="9"/>
       <c r="C984" s="28"/>
-      <c r="D984" s="1" t="s">
+      <c r="D984" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G984" s="47" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="985" spans="1:7" ht="28.8">
-      <c r="A985" s="56" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B985" s="9"/>
-      <c r="C985" s="28"/>
-      <c r="D985" s="1" t="s">
-        <v>90</v>
+      <c r="F984" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G984" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="A985" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B985" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C985" s="28">
+        <v>1</v>
+      </c>
+      <c r="D985" s="59" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="F985" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G985" s="42" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="986" spans="1:7" ht="28.8">
-      <c r="A986" s="56" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B986" s="9"/>
-      <c r="C986" s="28"/>
-      <c r="D986" s="1" t="s">
-        <v>90</v>
+        <v>1654</v>
+      </c>
+      <c r="G985" s="1"/>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B986" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C986" s="28">
+        <v>2</v>
+      </c>
+      <c r="D986" s="59" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="F986" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G986" s="42" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="987" spans="1:7" ht="28.8">
-      <c r="A987" s="56" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B987" s="9"/>
-      <c r="C987" s="28"/>
-      <c r="D987" s="1" t="s">
-        <v>90</v>
+        <v>1655</v>
+      </c>
+      <c r="G986" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B987" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C987" s="28">
+        <v>3</v>
+      </c>
+      <c r="D987" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="F987" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G987" s="42" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="988" spans="1:7" ht="28.8">
-      <c r="A988" s="56" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B988" s="9"/>
-      <c r="C988" s="28"/>
-      <c r="D988" s="1" t="s">
-        <v>90</v>
+        <v>1656</v>
+      </c>
+      <c r="G987" s="1"/>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B988" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C988" s="28">
+        <v>4</v>
+      </c>
+      <c r="D988" s="59" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="F988" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G988" s="42" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="989" spans="1:7" ht="28.8">
-      <c r="A989" s="56" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B989" s="9"/>
-      <c r="C989" s="28"/>
-      <c r="D989" s="1" t="s">
-        <v>90</v>
+        <v>1657</v>
+      </c>
+      <c r="G988" s="1"/>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B989" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C989" s="28">
+        <v>5</v>
+      </c>
+      <c r="D989" s="59" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="F989" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G989" s="42" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="990" spans="1:7" ht="28.8">
-      <c r="A990" s="56" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B990" s="9"/>
-      <c r="C990" s="28"/>
-      <c r="D990" s="1" t="s">
-        <v>90</v>
+        <v>1658</v>
+      </c>
+      <c r="G989" s="1"/>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="A990" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B990" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C990" s="28">
+        <v>6</v>
+      </c>
+      <c r="D990" s="59" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="F990" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G990" s="42" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="991" spans="1:7" ht="28.8">
-      <c r="A991" s="56" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B991" s="9"/>
-      <c r="C991" s="28"/>
-      <c r="D991" s="1" t="s">
-        <v>90</v>
+        <v>1659</v>
+      </c>
+      <c r="G990" s="1"/>
+    </row>
+    <row r="991" spans="1:7">
+      <c r="A991" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B991" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C991" s="28">
+        <v>7</v>
+      </c>
+      <c r="D991" s="59" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="F991" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G991" s="42" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="992" spans="1:7" ht="28.8">
-      <c r="A992" s="56" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B992" s="9"/>
-      <c r="C992" s="28"/>
-      <c r="D992" s="1" t="s">
-        <v>90</v>
+        <v>1660</v>
+      </c>
+      <c r="G991" s="1"/>
+    </row>
+    <row r="992" spans="1:7">
+      <c r="A992" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B992" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C992" s="28">
+        <v>8</v>
+      </c>
+      <c r="D992" s="59" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="F992" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G992" s="42" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="993" spans="1:7" ht="28.8">
-      <c r="A993" s="56" t="s">
-        <v>1536</v>
+        <v>1661</v>
+      </c>
+      <c r="G992" s="1"/>
+    </row>
+    <row r="993" spans="1:7" ht="57.6">
+      <c r="A993" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B993" s="9"/>
       <c r="C993" s="28"/>
       <c r="D993" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F993" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G993" s="42" t="s">
-        <v>1597</v>
+      <c r="G993" s="47" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="994" spans="1:7" ht="28.8">
       <c r="A994" s="56" t="s">
-        <v>1579</v>
+        <v>1528</v>
       </c>
       <c r="B994" s="9"/>
       <c r="C994" s="28"/>
@@ -28996,7 +29098,7 @@
     </row>
     <row r="995" spans="1:7" ht="28.8">
       <c r="A995" s="56" t="s">
-        <v>1559</v>
+        <v>1532</v>
       </c>
       <c r="B995" s="9"/>
       <c r="C995" s="28"/>
@@ -29012,7 +29114,7 @@
     </row>
     <row r="996" spans="1:7" ht="28.8">
       <c r="A996" s="56" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
       <c r="B996" s="9"/>
       <c r="C996" s="28"/>
@@ -29026,50 +29128,149 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="997" spans="1:7">
-      <c r="A997" s="9"/>
+    <row r="997" spans="1:7" ht="28.8">
+      <c r="A997" s="56" t="s">
+        <v>1550</v>
+      </c>
       <c r="B997" s="9"/>
       <c r="C997" s="28"/>
-    </row>
-    <row r="998" spans="1:7">
-      <c r="A998" s="9"/>
+      <c r="D997" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F997" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G997" s="42" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" ht="28.8">
+      <c r="A998" s="56" t="s">
+        <v>1549</v>
+      </c>
       <c r="B998" s="9"/>
       <c r="C998" s="28"/>
-    </row>
-    <row r="999" spans="1:7">
-      <c r="A999" s="9"/>
+      <c r="D998" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F998" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G998" s="42" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" ht="28.8">
+      <c r="A999" s="56" t="s">
+        <v>1546</v>
+      </c>
       <c r="B999" s="9"/>
       <c r="C999" s="28"/>
-    </row>
-    <row r="1000" spans="1:7">
-      <c r="A1000" s="9"/>
+      <c r="D999" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F999" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G999" s="42" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" ht="28.8">
+      <c r="A1000" s="56" t="s">
+        <v>1547</v>
+      </c>
       <c r="B1000" s="9"/>
       <c r="C1000" s="28"/>
-    </row>
-    <row r="1001" spans="1:7">
-      <c r="A1001" s="9"/>
+      <c r="D1000" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1000" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G1000" s="42" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" ht="28.8">
+      <c r="A1001" s="56" t="s">
+        <v>1530</v>
+      </c>
       <c r="B1001" s="9"/>
       <c r="C1001" s="28"/>
-    </row>
-    <row r="1002" spans="1:7">
-      <c r="A1002" s="9"/>
+      <c r="D1001" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1001" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G1001" s="42" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" ht="28.8">
+      <c r="A1002" s="56" t="s">
+        <v>1536</v>
+      </c>
       <c r="B1002" s="9"/>
       <c r="C1002" s="28"/>
-    </row>
-    <row r="1003" spans="1:7">
-      <c r="A1003" s="9"/>
+      <c r="D1002" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1002" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G1002" s="42" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" ht="28.8">
+      <c r="A1003" s="56" t="s">
+        <v>1579</v>
+      </c>
       <c r="B1003" s="9"/>
       <c r="C1003" s="28"/>
-    </row>
-    <row r="1004" spans="1:7">
-      <c r="A1004" s="9"/>
+      <c r="D1003" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1003" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G1003" s="42" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" ht="28.8">
+      <c r="A1004" s="56" t="s">
+        <v>1559</v>
+      </c>
       <c r="B1004" s="9"/>
       <c r="C1004" s="28"/>
-    </row>
-    <row r="1005" spans="1:7">
-      <c r="A1005" s="9"/>
+      <c r="D1004" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1004" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G1004" s="42" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" ht="28.8">
+      <c r="A1005" s="56" t="s">
+        <v>1537</v>
+      </c>
       <c r="B1005" s="9"/>
       <c r="C1005" s="28"/>
+      <c r="D1005" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1005" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G1005" s="42" t="s">
+        <v>1597</v>
+      </c>
     </row>
     <row r="1006" spans="1:7">
       <c r="A1006" s="9"/>
@@ -29201,75 +29402,84 @@
       <c r="B1031" s="9"/>
       <c r="C1031" s="28"/>
     </row>
-    <row r="1135" spans="5:5">
-      <c r="E1135" s="42"/>
-    </row>
-    <row r="1136" spans="5:5">
-      <c r="E1136" s="42"/>
-    </row>
-    <row r="1137" spans="5:5">
-      <c r="E1137" s="42"/>
-    </row>
-    <row r="1138" spans="5:5">
-      <c r="E1138" s="42"/>
-    </row>
-    <row r="1139" spans="5:5">
-      <c r="E1139" s="42"/>
-    </row>
-    <row r="1140" spans="5:5">
-      <c r="E1140" s="42"/>
-    </row>
-    <row r="1141" spans="5:5">
-      <c r="E1141" s="42"/>
-    </row>
-    <row r="1151" spans="5:5">
-      <c r="E1151" s="42"/>
-    </row>
-    <row r="1153" spans="5:7">
-      <c r="E1153" s="42"/>
-      <c r="G1153" s="53"/>
-    </row>
-    <row r="1154" spans="5:7">
-      <c r="G1154" s="53"/>
-    </row>
-    <row r="1155" spans="5:7">
-      <c r="E1155" s="43"/>
-      <c r="G1155" s="53"/>
-    </row>
-    <row r="1156" spans="5:7">
-      <c r="E1156" s="42"/>
-      <c r="G1156" s="53"/>
-    </row>
-    <row r="1157" spans="5:7">
-      <c r="E1157" s="42"/>
-      <c r="G1157" s="53"/>
-    </row>
-    <row r="1158" spans="5:7">
-      <c r="E1158" s="42"/>
-      <c r="G1158" s="53"/>
-    </row>
-    <row r="1159" spans="5:7">
-      <c r="E1159" s="42"/>
-      <c r="G1159" s="53"/>
+    <row r="1032" spans="1:3">
+      <c r="A1032" s="9"/>
+      <c r="B1032" s="9"/>
+      <c r="C1032" s="28"/>
+    </row>
+    <row r="1033" spans="1:3">
+      <c r="A1033" s="9"/>
+      <c r="B1033" s="9"/>
+      <c r="C1033" s="28"/>
+    </row>
+    <row r="1034" spans="1:3">
+      <c r="A1034" s="9"/>
+      <c r="B1034" s="9"/>
+      <c r="C1034" s="28"/>
+    </row>
+    <row r="1035" spans="1:3">
+      <c r="A1035" s="9"/>
+      <c r="B1035" s="9"/>
+      <c r="C1035" s="28"/>
+    </row>
+    <row r="1036" spans="1:3">
+      <c r="A1036" s="9"/>
+      <c r="B1036" s="9"/>
+      <c r="C1036" s="28"/>
+    </row>
+    <row r="1037" spans="1:3">
+      <c r="A1037" s="9"/>
+      <c r="B1037" s="9"/>
+      <c r="C1037" s="28"/>
+    </row>
+    <row r="1038" spans="1:3">
+      <c r="A1038" s="9"/>
+      <c r="B1038" s="9"/>
+      <c r="C1038" s="28"/>
+    </row>
+    <row r="1039" spans="1:3">
+      <c r="A1039" s="9"/>
+      <c r="B1039" s="9"/>
+      <c r="C1039" s="28"/>
+    </row>
+    <row r="1040" spans="1:3">
+      <c r="A1040" s="9"/>
+      <c r="B1040" s="9"/>
+      <c r="C1040" s="28"/>
+    </row>
+    <row r="1144" spans="5:5">
+      <c r="E1144" s="42"/>
+    </row>
+    <row r="1145" spans="5:5">
+      <c r="E1145" s="42"/>
+    </row>
+    <row r="1146" spans="5:5">
+      <c r="E1146" s="42"/>
+    </row>
+    <row r="1147" spans="5:5">
+      <c r="E1147" s="42"/>
+    </row>
+    <row r="1148" spans="5:5">
+      <c r="E1148" s="42"/>
+    </row>
+    <row r="1149" spans="5:5">
+      <c r="E1149" s="42"/>
+    </row>
+    <row r="1150" spans="5:5">
+      <c r="E1150" s="42"/>
     </row>
     <row r="1160" spans="5:7">
       <c r="E1160" s="42"/>
-      <c r="G1160" s="53"/>
-    </row>
-    <row r="1161" spans="5:7">
-      <c r="E1161" s="44"/>
-      <c r="G1161" s="53"/>
     </row>
     <row r="1162" spans="5:7">
       <c r="E1162" s="42"/>
       <c r="G1162" s="53"/>
     </row>
     <row r="1163" spans="5:7">
-      <c r="E1163" s="42"/>
       <c r="G1163" s="53"/>
     </row>
     <row r="1164" spans="5:7">
-      <c r="E1164" s="42"/>
+      <c r="E1164" s="43"/>
       <c r="G1164" s="53"/>
     </row>
     <row r="1165" spans="5:7">
@@ -29293,7 +29503,7 @@
       <c r="G1169" s="53"/>
     </row>
     <row r="1170" spans="5:7">
-      <c r="E1170" s="42"/>
+      <c r="E1170" s="44"/>
       <c r="G1170" s="53"/>
     </row>
     <row r="1171" spans="5:7">
@@ -29416,78 +29626,102 @@
       <c r="E1200" s="42"/>
       <c r="G1200" s="53"/>
     </row>
-    <row r="1208" spans="5:5">
+    <row r="1201" spans="5:7">
+      <c r="E1201" s="42"/>
+      <c r="G1201" s="53"/>
+    </row>
+    <row r="1202" spans="5:7">
+      <c r="E1202" s="42"/>
+      <c r="G1202" s="53"/>
+    </row>
+    <row r="1203" spans="5:7">
+      <c r="E1203" s="42"/>
+      <c r="G1203" s="53"/>
+    </row>
+    <row r="1204" spans="5:7">
+      <c r="E1204" s="42"/>
+      <c r="G1204" s="53"/>
+    </row>
+    <row r="1205" spans="5:7">
+      <c r="E1205" s="42"/>
+      <c r="G1205" s="53"/>
+    </row>
+    <row r="1206" spans="5:7">
+      <c r="E1206" s="42"/>
+      <c r="G1206" s="53"/>
+    </row>
+    <row r="1207" spans="5:7">
+      <c r="E1207" s="42"/>
+      <c r="G1207" s="53"/>
+    </row>
+    <row r="1208" spans="5:7">
       <c r="E1208" s="42"/>
-    </row>
-    <row r="1217" spans="7:7">
-      <c r="G1217" s="53"/>
-    </row>
-    <row r="1218" spans="7:7">
-      <c r="G1218" s="53"/>
-    </row>
-    <row r="1219" spans="7:7">
-      <c r="G1219" s="53"/>
-    </row>
-    <row r="1220" spans="7:7">
-      <c r="G1220" s="53"/>
-    </row>
-    <row r="1221" spans="7:7">
-      <c r="G1221" s="53"/>
-    </row>
-    <row r="1222" spans="7:7">
-      <c r="G1222" s="53"/>
-    </row>
-    <row r="1223" spans="7:7">
-      <c r="G1223" s="53"/>
-    </row>
-    <row r="1224" spans="7:7">
-      <c r="G1224" s="53"/>
-    </row>
-    <row r="1225" spans="7:7">
-      <c r="G1225" s="53"/>
-    </row>
-    <row r="1226" spans="7:7">
+      <c r="G1208" s="53"/>
+    </row>
+    <row r="1209" spans="5:7">
+      <c r="E1209" s="42"/>
+      <c r="G1209" s="53"/>
+    </row>
+    <row r="1217" spans="5:7">
+      <c r="E1217" s="42"/>
+    </row>
+    <row r="1226" spans="5:7">
       <c r="G1226" s="53"/>
     </row>
-    <row r="1227" spans="7:7">
+    <row r="1227" spans="5:7">
       <c r="G1227" s="53"/>
     </row>
-    <row r="1228" spans="7:7">
+    <row r="1228" spans="5:7">
       <c r="G1228" s="53"/>
     </row>
-    <row r="1229" spans="7:7">
+    <row r="1229" spans="5:7">
       <c r="G1229" s="53"/>
     </row>
-    <row r="1230" spans="7:7">
+    <row r="1230" spans="5:7">
       <c r="G1230" s="53"/>
     </row>
-    <row r="1260" spans="5:5">
-      <c r="E1260" s="42"/>
-    </row>
-    <row r="1279" spans="5:5">
-      <c r="E1279" s="42"/>
-    </row>
-    <row r="1280" spans="5:5">
-      <c r="E1280" s="42"/>
-    </row>
-    <row r="1283" spans="5:5">
-      <c r="E1283" s="42"/>
-    </row>
-    <row r="1284" spans="5:5">
-      <c r="E1284" s="42"/>
-    </row>
-    <row r="1285" spans="5:5">
-      <c r="E1285" s="42"/>
-    </row>
-    <row r="1286" spans="5:5">
-      <c r="E1286" s="42"/>
-    </row>
-    <row r="1287" spans="5:5">
-      <c r="E1287" s="42"/>
+    <row r="1231" spans="5:7">
+      <c r="G1231" s="53"/>
+    </row>
+    <row r="1232" spans="5:7">
+      <c r="G1232" s="53"/>
+    </row>
+    <row r="1233" spans="7:7">
+      <c r="G1233" s="53"/>
+    </row>
+    <row r="1234" spans="7:7">
+      <c r="G1234" s="53"/>
+    </row>
+    <row r="1235" spans="7:7">
+      <c r="G1235" s="53"/>
+    </row>
+    <row r="1236" spans="7:7">
+      <c r="G1236" s="53"/>
+    </row>
+    <row r="1237" spans="7:7">
+      <c r="G1237" s="53"/>
+    </row>
+    <row r="1238" spans="7:7">
+      <c r="G1238" s="53"/>
+    </row>
+    <row r="1239" spans="7:7">
+      <c r="G1239" s="53"/>
+    </row>
+    <row r="1269" spans="5:5">
+      <c r="E1269" s="42"/>
     </row>
     <row r="1288" spans="5:5">
       <c r="E1288" s="42"/>
     </row>
+    <row r="1289" spans="5:5">
+      <c r="E1289" s="42"/>
+    </row>
+    <row r="1292" spans="5:5">
+      <c r="E1292" s="42"/>
+    </row>
+    <row r="1293" spans="5:5">
+      <c r="E1293" s="42"/>
+    </row>
     <row r="1294" spans="5:5">
       <c r="E1294" s="42"/>
     </row>
@@ -29500,18 +29734,6 @@
     <row r="1297" spans="5:5">
       <c r="E1297" s="42"/>
     </row>
-    <row r="1298" spans="5:5">
-      <c r="E1298" s="42"/>
-    </row>
-    <row r="1299" spans="5:5">
-      <c r="E1299" s="42"/>
-    </row>
-    <row r="1300" spans="5:5">
-      <c r="E1300" s="42"/>
-    </row>
-    <row r="1302" spans="5:5">
-      <c r="E1302" s="42"/>
-    </row>
     <row r="1303" spans="5:5">
       <c r="E1303" s="42"/>
     </row>
@@ -29521,81 +29743,80 @@
     <row r="1305" spans="5:5">
       <c r="E1305" s="42"/>
     </row>
+    <row r="1306" spans="5:5">
+      <c r="E1306" s="42"/>
+    </row>
+    <row r="1307" spans="5:5">
+      <c r="E1307" s="42"/>
+    </row>
+    <row r="1308" spans="5:5">
+      <c r="E1308" s="42"/>
+    </row>
     <row r="1309" spans="5:5">
       <c r="E1309" s="42"/>
     </row>
-    <row r="1316" spans="5:5">
-      <c r="E1316" s="42"/>
-    </row>
-    <row r="1320" spans="5:5">
-      <c r="E1320" s="42"/>
-    </row>
-    <row r="1331" spans="5:7">
-      <c r="E1331" s="42"/>
-    </row>
-    <row r="1341" spans="5:7">
-      <c r="E1341" s="42"/>
-    </row>
-    <row r="1343" spans="5:7">
-      <c r="G1343" s="53"/>
-    </row>
-    <row r="1344" spans="5:7">
-      <c r="G1344" s="53"/>
-    </row>
-    <row r="1345" spans="7:7">
-      <c r="G1345" s="53"/>
-    </row>
-    <row r="1346" spans="7:7">
-      <c r="G1346" s="53"/>
-    </row>
-    <row r="1347" spans="7:7">
-      <c r="G1347" s="53"/>
-    </row>
-    <row r="1348" spans="7:7">
-      <c r="G1348" s="53"/>
-    </row>
-    <row r="1349" spans="7:7">
-      <c r="G1349" s="53"/>
-    </row>
-    <row r="1350" spans="7:7">
-      <c r="G1350" s="53"/>
-    </row>
-    <row r="1351" spans="7:7">
-      <c r="G1351" s="53"/>
-    </row>
-    <row r="1352" spans="7:7">
+    <row r="1311" spans="5:5">
+      <c r="E1311" s="42"/>
+    </row>
+    <row r="1312" spans="5:5">
+      <c r="E1312" s="42"/>
+    </row>
+    <row r="1313" spans="5:5">
+      <c r="E1313" s="42"/>
+    </row>
+    <row r="1314" spans="5:5">
+      <c r="E1314" s="42"/>
+    </row>
+    <row r="1318" spans="5:5">
+      <c r="E1318" s="42"/>
+    </row>
+    <row r="1325" spans="5:5">
+      <c r="E1325" s="42"/>
+    </row>
+    <row r="1329" spans="5:5">
+      <c r="E1329" s="42"/>
+    </row>
+    <row r="1340" spans="5:5">
+      <c r="E1340" s="42"/>
+    </row>
+    <row r="1350" spans="5:7">
+      <c r="E1350" s="42"/>
+    </row>
+    <row r="1352" spans="5:7">
       <c r="G1352" s="53"/>
     </row>
-    <row r="1353" spans="7:7">
+    <row r="1353" spans="5:7">
       <c r="G1353" s="53"/>
     </row>
-    <row r="1354" spans="7:7">
+    <row r="1354" spans="5:7">
       <c r="G1354" s="53"/>
     </row>
-    <row r="1355" spans="7:7">
+    <row r="1355" spans="5:7">
       <c r="G1355" s="53"/>
     </row>
-    <row r="1356" spans="7:7">
+    <row r="1356" spans="5:7">
       <c r="G1356" s="53"/>
     </row>
-    <row r="1357" spans="7:7">
+    <row r="1357" spans="5:7">
       <c r="G1357" s="53"/>
     </row>
-    <row r="1358" spans="7:7">
+    <row r="1358" spans="5:7">
       <c r="G1358" s="53"/>
     </row>
-    <row r="1359" spans="7:7">
+    <row r="1359" spans="5:7">
       <c r="G1359" s="53"/>
     </row>
-    <row r="1360" spans="7:7">
+    <row r="1360" spans="5:7">
       <c r="G1360" s="53"/>
     </row>
     <row r="1361" spans="5:7">
       <c r="G1361" s="53"/>
     </row>
     <row r="1362" spans="5:7">
-      <c r="E1362" s="42"/>
       <c r="G1362" s="53"/>
+    </row>
+    <row r="1363" spans="5:7">
+      <c r="G1363" s="53"/>
     </row>
     <row r="1364" spans="5:7">
       <c r="G1364" s="53"/>
@@ -29622,9 +29843,6 @@
       <c r="E1371" s="42"/>
       <c r="G1371" s="53"/>
     </row>
-    <row r="1372" spans="5:7">
-      <c r="G1372" s="53"/>
-    </row>
     <row r="1373" spans="5:7">
       <c r="G1373" s="53"/>
     </row>
@@ -29644,8 +29862,11 @@
       <c r="G1378" s="53"/>
     </row>
     <row r="1379" spans="5:7">
-      <c r="E1379" s="42"/>
       <c r="G1379" s="53"/>
+    </row>
+    <row r="1380" spans="5:7">
+      <c r="E1380" s="42"/>
+      <c r="G1380" s="53"/>
     </row>
     <row r="1381" spans="5:7">
       <c r="G1381" s="53"/>
@@ -29672,9 +29893,6 @@
       <c r="E1388" s="42"/>
       <c r="G1388" s="53"/>
     </row>
-    <row r="1389" spans="5:7">
-      <c r="G1389" s="53"/>
-    </row>
     <row r="1390" spans="5:7">
       <c r="G1390" s="53"/>
     </row>
@@ -29694,60 +29912,61 @@
       <c r="G1395" s="53"/>
     </row>
     <row r="1396" spans="5:7">
-      <c r="E1396" s="42"/>
       <c r="G1396" s="53"/>
     </row>
+    <row r="1397" spans="5:7">
+      <c r="E1397" s="42"/>
+      <c r="G1397" s="53"/>
+    </row>
+    <row r="1398" spans="5:7">
+      <c r="G1398" s="53"/>
+    </row>
+    <row r="1399" spans="5:7">
+      <c r="G1399" s="53"/>
+    </row>
+    <row r="1400" spans="5:7">
+      <c r="G1400" s="53"/>
+    </row>
+    <row r="1401" spans="5:7">
+      <c r="G1401" s="53"/>
+    </row>
+    <row r="1402" spans="5:7">
+      <c r="G1402" s="53"/>
+    </row>
+    <row r="1403" spans="5:7">
+      <c r="G1403" s="53"/>
+    </row>
     <row r="1404" spans="5:7">
-      <c r="E1404" s="42"/>
-    </row>
-    <row r="1411" spans="5:5">
-      <c r="E1411" s="42"/>
-    </row>
-    <row r="1427" spans="5:5">
-      <c r="E1427" s="43"/>
-    </row>
-    <row r="1428" spans="5:5">
-      <c r="E1428" s="43"/>
-    </row>
-    <row r="1431" spans="5:5">
-      <c r="E1431" s="43"/>
-    </row>
-    <row r="1432" spans="5:5">
-      <c r="E1432" s="42"/>
-    </row>
-    <row r="1445" spans="5:5">
-      <c r="E1445" s="42"/>
-    </row>
-    <row r="1457" spans="5:5">
-      <c r="E1457" s="42"/>
-    </row>
-    <row r="1461" spans="5:5">
-      <c r="E1461" s="42"/>
-    </row>
-    <row r="1462" spans="5:5">
-      <c r="E1462" s="42"/>
-    </row>
-    <row r="1463" spans="5:5">
-      <c r="E1463" s="42"/>
-    </row>
-    <row r="1464" spans="5:5">
-      <c r="E1464" s="42"/>
-    </row>
-    <row r="1465" spans="5:5">
-      <c r="E1465" s="42"/>
+      <c r="G1404" s="53"/>
+    </row>
+    <row r="1405" spans="5:7">
+      <c r="E1405" s="42"/>
+      <c r="G1405" s="53"/>
+    </row>
+    <row r="1413" spans="5:5">
+      <c r="E1413" s="42"/>
+    </row>
+    <row r="1420" spans="5:5">
+      <c r="E1420" s="42"/>
+    </row>
+    <row r="1436" spans="5:5">
+      <c r="E1436" s="43"/>
+    </row>
+    <row r="1437" spans="5:5">
+      <c r="E1437" s="43"/>
+    </row>
+    <row r="1440" spans="5:5">
+      <c r="E1440" s="43"/>
+    </row>
+    <row r="1441" spans="5:5">
+      <c r="E1441" s="42"/>
+    </row>
+    <row r="1454" spans="5:5">
+      <c r="E1454" s="42"/>
     </row>
     <row r="1466" spans="5:5">
       <c r="E1466" s="42"/>
     </row>
-    <row r="1467" spans="5:5">
-      <c r="E1467" s="42"/>
-    </row>
-    <row r="1468" spans="5:5">
-      <c r="E1468" s="42"/>
-    </row>
-    <row r="1469" spans="5:5">
-      <c r="E1469" s="42"/>
-    </row>
     <row r="1470" spans="5:5">
       <c r="E1470" s="42"/>
     </row>
@@ -29757,68 +29976,68 @@
     <row r="1472" spans="5:5">
       <c r="E1472" s="42"/>
     </row>
-    <row r="1473" spans="5:7">
+    <row r="1473" spans="5:5">
       <c r="E1473" s="42"/>
     </row>
-    <row r="1474" spans="5:7">
+    <row r="1474" spans="5:5">
       <c r="E1474" s="42"/>
     </row>
-    <row r="1475" spans="5:7">
+    <row r="1475" spans="5:5">
       <c r="E1475" s="42"/>
     </row>
-    <row r="1476" spans="5:7">
+    <row r="1476" spans="5:5">
       <c r="E1476" s="42"/>
     </row>
-    <row r="1477" spans="5:7">
+    <row r="1477" spans="5:5">
       <c r="E1477" s="42"/>
     </row>
-    <row r="1478" spans="5:7">
+    <row r="1478" spans="5:5">
       <c r="E1478" s="42"/>
     </row>
-    <row r="1479" spans="5:7">
+    <row r="1479" spans="5:5">
       <c r="E1479" s="42"/>
     </row>
-    <row r="1480" spans="5:7">
+    <row r="1480" spans="5:5">
       <c r="E1480" s="42"/>
     </row>
-    <row r="1481" spans="5:7">
+    <row r="1481" spans="5:5">
       <c r="E1481" s="42"/>
     </row>
-    <row r="1482" spans="5:7">
+    <row r="1482" spans="5:5">
       <c r="E1482" s="42"/>
     </row>
-    <row r="1483" spans="5:7">
+    <row r="1483" spans="5:5">
       <c r="E1483" s="42"/>
     </row>
-    <row r="1484" spans="5:7">
+    <row r="1484" spans="5:5">
       <c r="E1484" s="42"/>
     </row>
-    <row r="1486" spans="5:7">
-      <c r="G1486" s="53"/>
-    </row>
-    <row r="1487" spans="5:7">
-      <c r="G1487" s="53"/>
-    </row>
-    <row r="1488" spans="5:7">
-      <c r="G1488" s="53"/>
+    <row r="1485" spans="5:5">
+      <c r="E1485" s="42"/>
+    </row>
+    <row r="1486" spans="5:5">
+      <c r="E1486" s="42"/>
+    </row>
+    <row r="1487" spans="5:5">
+      <c r="E1487" s="42"/>
+    </row>
+    <row r="1488" spans="5:5">
+      <c r="E1488" s="42"/>
     </row>
     <row r="1489" spans="5:7">
-      <c r="G1489" s="53"/>
+      <c r="E1489" s="42"/>
     </row>
     <row r="1490" spans="5:7">
-      <c r="G1490" s="53"/>
+      <c r="E1490" s="42"/>
     </row>
     <row r="1491" spans="5:7">
-      <c r="G1491" s="53"/>
+      <c r="E1491" s="42"/>
     </row>
     <row r="1492" spans="5:7">
-      <c r="G1492" s="53"/>
+      <c r="E1492" s="42"/>
     </row>
     <row r="1493" spans="5:7">
-      <c r="G1493" s="53"/>
-    </row>
-    <row r="1494" spans="5:7">
-      <c r="G1494" s="53"/>
+      <c r="E1493" s="42"/>
     </row>
     <row r="1495" spans="5:7">
       <c r="G1495" s="53"/>
@@ -29833,67 +30052,67 @@
       <c r="G1498" s="53"/>
     </row>
     <row r="1499" spans="5:7">
-      <c r="E1499" s="42"/>
       <c r="G1499" s="53"/>
     </row>
+    <row r="1500" spans="5:7">
+      <c r="G1500" s="53"/>
+    </row>
     <row r="1501" spans="5:7">
-      <c r="E1501" s="42"/>
+      <c r="G1501" s="53"/>
     </row>
     <row r="1502" spans="5:7">
-      <c r="E1502" s="42"/>
+      <c r="G1502" s="53"/>
     </row>
     <row r="1503" spans="5:7">
-      <c r="E1503" s="42"/>
+      <c r="G1503" s="53"/>
     </row>
     <row r="1504" spans="5:7">
-      <c r="E1504" s="42"/>
-    </row>
-    <row r="1505" spans="5:5">
-      <c r="E1505" s="42"/>
-    </row>
-    <row r="1506" spans="5:5">
-      <c r="E1506" s="42"/>
-    </row>
-    <row r="1507" spans="5:5">
-      <c r="E1507" s="42"/>
-    </row>
-    <row r="1508" spans="5:5">
+      <c r="G1504" s="53"/>
+    </row>
+    <row r="1505" spans="5:7">
+      <c r="G1505" s="53"/>
+    </row>
+    <row r="1506" spans="5:7">
+      <c r="G1506" s="53"/>
+    </row>
+    <row r="1507" spans="5:7">
+      <c r="G1507" s="53"/>
+    </row>
+    <row r="1508" spans="5:7">
       <c r="E1508" s="42"/>
-    </row>
-    <row r="1509" spans="5:5">
-      <c r="E1509" s="42"/>
-    </row>
-    <row r="1510" spans="5:5">
+      <c r="G1508" s="53"/>
+    </row>
+    <row r="1510" spans="5:7">
       <c r="E1510" s="42"/>
     </row>
-    <row r="1511" spans="5:5">
+    <row r="1511" spans="5:7">
       <c r="E1511" s="42"/>
     </row>
-    <row r="1512" spans="5:5">
+    <row r="1512" spans="5:7">
       <c r="E1512" s="42"/>
     </row>
-    <row r="1513" spans="5:5">
+    <row r="1513" spans="5:7">
       <c r="E1513" s="42"/>
     </row>
-    <row r="1514" spans="5:5">
+    <row r="1514" spans="5:7">
       <c r="E1514" s="42"/>
     </row>
-    <row r="1515" spans="5:5">
+    <row r="1515" spans="5:7">
       <c r="E1515" s="42"/>
     </row>
-    <row r="1516" spans="5:5">
+    <row r="1516" spans="5:7">
       <c r="E1516" s="42"/>
     </row>
-    <row r="1517" spans="5:5">
+    <row r="1517" spans="5:7">
       <c r="E1517" s="42"/>
     </row>
-    <row r="1518" spans="5:5">
+    <row r="1518" spans="5:7">
       <c r="E1518" s="42"/>
     </row>
-    <row r="1519" spans="5:5">
+    <row r="1519" spans="5:7">
       <c r="E1519" s="42"/>
     </row>
-    <row r="1520" spans="5:5">
+    <row r="1520" spans="5:7">
       <c r="E1520" s="42"/>
     </row>
     <row r="1521" spans="5:5">
@@ -29944,77 +30163,68 @@
     <row r="1536" spans="5:5">
       <c r="E1536" s="42"/>
     </row>
-    <row r="1537" spans="5:7">
+    <row r="1537" spans="5:5">
       <c r="E1537" s="42"/>
     </row>
-    <row r="1538" spans="5:7">
+    <row r="1538" spans="5:5">
       <c r="E1538" s="42"/>
     </row>
-    <row r="1539" spans="5:7">
+    <row r="1539" spans="5:5">
       <c r="E1539" s="42"/>
     </row>
-    <row r="1540" spans="5:7">
+    <row r="1540" spans="5:5">
       <c r="E1540" s="42"/>
     </row>
-    <row r="1541" spans="5:7">
+    <row r="1541" spans="5:5">
       <c r="E1541" s="42"/>
     </row>
-    <row r="1542" spans="5:7">
+    <row r="1542" spans="5:5">
       <c r="E1542" s="42"/>
     </row>
-    <row r="1543" spans="5:7">
+    <row r="1543" spans="5:5">
       <c r="E1543" s="42"/>
     </row>
-    <row r="1544" spans="5:7">
+    <row r="1544" spans="5:5">
       <c r="E1544" s="42"/>
     </row>
-    <row r="1545" spans="5:7">
+    <row r="1545" spans="5:5">
       <c r="E1545" s="42"/>
     </row>
-    <row r="1546" spans="5:7">
+    <row r="1546" spans="5:5">
       <c r="E1546" s="42"/>
     </row>
-    <row r="1547" spans="5:7">
+    <row r="1547" spans="5:5">
       <c r="E1547" s="42"/>
     </row>
-    <row r="1548" spans="5:7">
+    <row r="1548" spans="5:5">
       <c r="E1548" s="42"/>
     </row>
-    <row r="1550" spans="5:7">
+    <row r="1549" spans="5:5">
+      <c r="E1549" s="42"/>
+    </row>
+    <row r="1550" spans="5:5">
       <c r="E1550" s="42"/>
-      <c r="G1550" s="53"/>
-    </row>
-    <row r="1551" spans="5:7">
+    </row>
+    <row r="1551" spans="5:5">
       <c r="E1551" s="42"/>
-      <c r="G1551" s="53"/>
-    </row>
-    <row r="1552" spans="5:7">
+    </row>
+    <row r="1552" spans="5:5">
       <c r="E1552" s="42"/>
-      <c r="G1552" s="53"/>
     </row>
     <row r="1553" spans="5:7">
       <c r="E1553" s="42"/>
-      <c r="G1553" s="53"/>
     </row>
     <row r="1554" spans="5:7">
       <c r="E1554" s="42"/>
-      <c r="G1554" s="53"/>
     </row>
     <row r="1555" spans="5:7">
       <c r="E1555" s="42"/>
-      <c r="G1555" s="53"/>
     </row>
     <row r="1556" spans="5:7">
       <c r="E1556" s="42"/>
-      <c r="G1556" s="53"/>
     </row>
     <row r="1557" spans="5:7">
       <c r="E1557" s="42"/>
-      <c r="G1557" s="53"/>
-    </row>
-    <row r="1558" spans="5:7">
-      <c r="E1558" s="42"/>
-      <c r="G1558" s="53"/>
     </row>
     <row r="1559" spans="5:7">
       <c r="E1559" s="42"/>
@@ -30172,35 +30382,44 @@
       <c r="E1597" s="42"/>
       <c r="G1597" s="53"/>
     </row>
-    <row r="1607" spans="5:5">
-      <c r="E1607" s="42"/>
-    </row>
-    <row r="1618" spans="7:7">
-      <c r="G1618" s="53"/>
-    </row>
-    <row r="1619" spans="7:7">
-      <c r="G1619" s="53"/>
-    </row>
-    <row r="1620" spans="7:7">
-      <c r="G1620" s="53"/>
-    </row>
-    <row r="1621" spans="7:7">
-      <c r="G1621" s="53"/>
-    </row>
-    <row r="1622" spans="7:7">
-      <c r="G1622" s="53"/>
-    </row>
-    <row r="1623" spans="7:7">
-      <c r="G1623" s="53"/>
-    </row>
-    <row r="1624" spans="7:7">
-      <c r="G1624" s="53"/>
-    </row>
-    <row r="1625" spans="7:7">
-      <c r="G1625" s="53"/>
-    </row>
-    <row r="1626" spans="7:7">
-      <c r="G1626" s="53"/>
+    <row r="1598" spans="5:7">
+      <c r="E1598" s="42"/>
+      <c r="G1598" s="53"/>
+    </row>
+    <row r="1599" spans="5:7">
+      <c r="E1599" s="42"/>
+      <c r="G1599" s="53"/>
+    </row>
+    <row r="1600" spans="5:7">
+      <c r="E1600" s="42"/>
+      <c r="G1600" s="53"/>
+    </row>
+    <row r="1601" spans="5:7">
+      <c r="E1601" s="42"/>
+      <c r="G1601" s="53"/>
+    </row>
+    <row r="1602" spans="5:7">
+      <c r="E1602" s="42"/>
+      <c r="G1602" s="53"/>
+    </row>
+    <row r="1603" spans="5:7">
+      <c r="E1603" s="42"/>
+      <c r="G1603" s="53"/>
+    </row>
+    <row r="1604" spans="5:7">
+      <c r="E1604" s="42"/>
+      <c r="G1604" s="53"/>
+    </row>
+    <row r="1605" spans="5:7">
+      <c r="E1605" s="42"/>
+      <c r="G1605" s="53"/>
+    </row>
+    <row r="1606" spans="5:7">
+      <c r="E1606" s="42"/>
+      <c r="G1606" s="53"/>
+    </row>
+    <row r="1616" spans="5:7">
+      <c r="E1616" s="42"/>
     </row>
     <row r="1627" spans="7:7">
       <c r="G1627" s="53"/>
@@ -30233,47 +30452,38 @@
       <c r="G1636" s="53"/>
     </row>
     <row r="1637" spans="5:7">
-      <c r="E1637" s="42"/>
       <c r="G1637" s="53"/>
     </row>
-    <row r="1647" spans="5:7">
-      <c r="E1647" s="42"/>
-    </row>
-    <row r="1658" spans="5:7">
-      <c r="E1658" s="42"/>
-      <c r="G1658" s="53"/>
-    </row>
-    <row r="1659" spans="5:7">
-      <c r="E1659" s="42"/>
-      <c r="G1659" s="53"/>
-    </row>
-    <row r="1660" spans="5:7">
-      <c r="E1660" s="42"/>
-      <c r="G1660" s="53"/>
-    </row>
-    <row r="1661" spans="5:7">
-      <c r="E1661" s="42"/>
-      <c r="G1661" s="53"/>
-    </row>
-    <row r="1662" spans="5:7">
-      <c r="E1662" s="42"/>
-      <c r="G1662" s="53"/>
-    </row>
-    <row r="1663" spans="5:7">
-      <c r="E1663" s="42"/>
-      <c r="G1663" s="53"/>
-    </row>
-    <row r="1664" spans="5:7">
-      <c r="E1664" s="42"/>
-      <c r="G1664" s="53"/>
-    </row>
-    <row r="1665" spans="5:7">
-      <c r="E1665" s="42"/>
-      <c r="G1665" s="53"/>
-    </row>
-    <row r="1666" spans="5:7">
-      <c r="E1666" s="42"/>
-      <c r="G1666" s="53"/>
+    <row r="1638" spans="5:7">
+      <c r="G1638" s="53"/>
+    </row>
+    <row r="1639" spans="5:7">
+      <c r="G1639" s="53"/>
+    </row>
+    <row r="1640" spans="5:7">
+      <c r="G1640" s="53"/>
+    </row>
+    <row r="1641" spans="5:7">
+      <c r="G1641" s="53"/>
+    </row>
+    <row r="1642" spans="5:7">
+      <c r="G1642" s="53"/>
+    </row>
+    <row r="1643" spans="5:7">
+      <c r="G1643" s="53"/>
+    </row>
+    <row r="1644" spans="5:7">
+      <c r="G1644" s="53"/>
+    </row>
+    <row r="1645" spans="5:7">
+      <c r="G1645" s="53"/>
+    </row>
+    <row r="1646" spans="5:7">
+      <c r="E1646" s="42"/>
+      <c r="G1646" s="53"/>
+    </row>
+    <row r="1656" spans="5:5">
+      <c r="E1656" s="42"/>
     </row>
     <row r="1667" spans="5:7">
       <c r="E1667" s="42"/>
@@ -30303,6 +30513,10 @@
       <c r="E1673" s="42"/>
       <c r="G1673" s="53"/>
     </row>
+    <row r="1674" spans="5:7">
+      <c r="E1674" s="42"/>
+      <c r="G1674" s="53"/>
+    </row>
     <row r="1675" spans="5:7">
       <c r="E1675" s="42"/>
       <c r="G1675" s="53"/>
@@ -30335,10 +30549,6 @@
       <c r="E1682" s="42"/>
       <c r="G1682" s="53"/>
     </row>
-    <row r="1683" spans="5:7">
-      <c r="E1683" s="42"/>
-      <c r="G1683" s="53"/>
-    </row>
     <row r="1684" spans="5:7">
       <c r="E1684" s="42"/>
       <c r="G1684" s="53"/>
@@ -30359,60 +30569,69 @@
       <c r="E1688" s="42"/>
       <c r="G1688" s="53"/>
     </row>
+    <row r="1689" spans="5:7">
+      <c r="E1689" s="42"/>
+      <c r="G1689" s="53"/>
+    </row>
+    <row r="1690" spans="5:7">
+      <c r="E1690" s="42"/>
+      <c r="G1690" s="53"/>
+    </row>
     <row r="1691" spans="5:7">
       <c r="E1691" s="42"/>
+      <c r="G1691" s="53"/>
+    </row>
+    <row r="1692" spans="5:7">
+      <c r="E1692" s="42"/>
+      <c r="G1692" s="53"/>
+    </row>
+    <row r="1693" spans="5:7">
+      <c r="E1693" s="42"/>
+      <c r="G1693" s="53"/>
+    </row>
+    <row r="1694" spans="5:7">
+      <c r="E1694" s="42"/>
+      <c r="G1694" s="53"/>
     </row>
     <row r="1695" spans="5:7">
       <c r="E1695" s="42"/>
+      <c r="G1695" s="53"/>
     </row>
     <row r="1696" spans="5:7">
       <c r="E1696" s="42"/>
-    </row>
-    <row r="1697" spans="5:5">
+      <c r="G1696" s="53"/>
+    </row>
+    <row r="1697" spans="5:7">
       <c r="E1697" s="42"/>
-    </row>
-    <row r="1698" spans="5:5">
-      <c r="E1698" s="42"/>
-    </row>
-    <row r="1701" spans="5:5">
-      <c r="E1701" s="42"/>
-    </row>
-    <row r="1702" spans="5:5">
-      <c r="E1702" s="42"/>
-    </row>
-    <row r="1703" spans="5:5">
-      <c r="E1703" s="42"/>
-    </row>
-    <row r="1704" spans="5:5">
+      <c r="G1697" s="53"/>
+    </row>
+    <row r="1700" spans="5:7">
+      <c r="E1700" s="42"/>
+    </row>
+    <row r="1704" spans="5:7">
       <c r="E1704" s="42"/>
     </row>
-    <row r="1707" spans="5:5">
+    <row r="1705" spans="5:7">
+      <c r="E1705" s="42"/>
+    </row>
+    <row r="1706" spans="5:7">
+      <c r="E1706" s="42"/>
+    </row>
+    <row r="1707" spans="5:7">
       <c r="E1707" s="42"/>
     </row>
-    <row r="1708" spans="5:5">
-      <c r="E1708" s="42"/>
-    </row>
-    <row r="1709" spans="5:5">
-      <c r="E1709" s="42"/>
-    </row>
-    <row r="1710" spans="5:5">
+    <row r="1710" spans="5:7">
       <c r="E1710" s="42"/>
     </row>
-    <row r="1711" spans="5:5">
+    <row r="1711" spans="5:7">
       <c r="E1711" s="42"/>
     </row>
-    <row r="1712" spans="5:5">
+    <row r="1712" spans="5:7">
       <c r="E1712" s="42"/>
     </row>
     <row r="1713" spans="5:5">
       <c r="E1713" s="42"/>
     </row>
-    <row r="1714" spans="5:5">
-      <c r="E1714" s="42"/>
-    </row>
-    <row r="1715" spans="5:5">
-      <c r="E1715" s="42"/>
-    </row>
     <row r="1716" spans="5:5">
       <c r="E1716" s="42"/>
     </row>
@@ -30428,6 +30647,9 @@
     <row r="1720" spans="5:5">
       <c r="E1720" s="42"/>
     </row>
+    <row r="1721" spans="5:5">
+      <c r="E1721" s="42"/>
+    </row>
     <row r="1722" spans="5:5">
       <c r="E1722" s="42"/>
     </row>
@@ -30452,9 +30674,6 @@
     <row r="1729" spans="5:5">
       <c r="E1729" s="42"/>
     </row>
-    <row r="1730" spans="5:5">
-      <c r="E1730" s="42"/>
-    </row>
     <row r="1731" spans="5:5">
       <c r="E1731" s="42"/>
     </row>
@@ -30470,6 +30689,9 @@
     <row r="1735" spans="5:5">
       <c r="E1735" s="42"/>
     </row>
+    <row r="1736" spans="5:5">
+      <c r="E1736" s="42"/>
+    </row>
     <row r="1737" spans="5:5">
       <c r="E1737" s="42"/>
     </row>
@@ -30494,9 +30716,6 @@
     <row r="1744" spans="5:5">
       <c r="E1744" s="42"/>
     </row>
-    <row r="1745" spans="5:5">
-      <c r="E1745" s="42"/>
-    </row>
     <row r="1746" spans="5:5">
       <c r="E1746" s="42"/>
     </row>
@@ -30512,6 +30731,9 @@
     <row r="1750" spans="5:5">
       <c r="E1750" s="42"/>
     </row>
+    <row r="1751" spans="5:5">
+      <c r="E1751" s="42"/>
+    </row>
     <row r="1752" spans="5:5">
       <c r="E1752" s="42"/>
     </row>
@@ -30536,9 +30758,6 @@
     <row r="1759" spans="5:5">
       <c r="E1759" s="42"/>
     </row>
-    <row r="1760" spans="5:5">
-      <c r="E1760" s="42"/>
-    </row>
     <row r="1761" spans="5:5">
       <c r="E1761" s="42"/>
     </row>
@@ -30596,60 +30815,60 @@
     <row r="1779" spans="5:5">
       <c r="E1779" s="42"/>
     </row>
+    <row r="1780" spans="5:5">
+      <c r="E1780" s="42"/>
+    </row>
     <row r="1781" spans="5:5">
       <c r="E1781" s="42"/>
     </row>
-    <row r="1794" spans="5:5">
-      <c r="E1794" s="42"/>
-    </row>
-    <row r="1808" spans="5:5">
-      <c r="E1808" s="42"/>
-    </row>
-    <row r="1810" spans="5:5">
-      <c r="E1810" s="42"/>
-    </row>
-    <row r="1823" spans="5:5">
-      <c r="E1823" s="42"/>
-    </row>
-    <row r="1837" spans="5:5">
-      <c r="E1837" s="42"/>
-    </row>
-    <row r="1839" spans="5:5">
-      <c r="E1839" s="42"/>
-    </row>
-    <row r="1852" spans="5:5">
-      <c r="E1852" s="42"/>
-    </row>
-    <row r="1866" spans="5:5">
-      <c r="E1866" s="42"/>
-    </row>
-    <row r="1869" spans="5:5">
-      <c r="E1869" s="42"/>
-    </row>
-    <row r="1870" spans="5:5">
-      <c r="E1870" s="42"/>
-    </row>
-    <row r="1871" spans="5:5">
-      <c r="E1871" s="42"/>
-    </row>
-    <row r="1872" spans="5:5">
-      <c r="E1872" s="42"/>
-    </row>
-    <row r="1873" spans="5:5">
-      <c r="E1873" s="42"/>
-    </row>
-    <row r="1874" spans="5:5">
-      <c r="E1874" s="42"/>
+    <row r="1782" spans="5:5">
+      <c r="E1782" s="42"/>
+    </row>
+    <row r="1783" spans="5:5">
+      <c r="E1783" s="42"/>
+    </row>
+    <row r="1784" spans="5:5">
+      <c r="E1784" s="42"/>
+    </row>
+    <row r="1785" spans="5:5">
+      <c r="E1785" s="42"/>
+    </row>
+    <row r="1786" spans="5:5">
+      <c r="E1786" s="42"/>
+    </row>
+    <row r="1787" spans="5:5">
+      <c r="E1787" s="42"/>
+    </row>
+    <row r="1788" spans="5:5">
+      <c r="E1788" s="42"/>
+    </row>
+    <row r="1790" spans="5:5">
+      <c r="E1790" s="42"/>
+    </row>
+    <row r="1803" spans="5:5">
+      <c r="E1803" s="42"/>
+    </row>
+    <row r="1817" spans="5:5">
+      <c r="E1817" s="42"/>
+    </row>
+    <row r="1819" spans="5:5">
+      <c r="E1819" s="42"/>
+    </row>
+    <row r="1832" spans="5:5">
+      <c r="E1832" s="42"/>
+    </row>
+    <row r="1846" spans="5:5">
+      <c r="E1846" s="42"/>
+    </row>
+    <row r="1848" spans="5:5">
+      <c r="E1848" s="42"/>
+    </row>
+    <row r="1861" spans="5:5">
+      <c r="E1861" s="42"/>
     </row>
     <row r="1875" spans="5:5">
       <c r="E1875" s="42"/>
     </row>
-    <row r="1876" spans="5:5">
-      <c r="E1876" s="42"/>
-    </row>
-    <row r="1877" spans="5:5">
-      <c r="E1877" s="42"/>
-    </row>
     <row r="1878" spans="5:5">
       <c r="E1878" s="42"/>
     </row>
@@ -30665,181 +30884,208 @@
     <row r="1882" spans="5:5">
       <c r="E1882" s="42"/>
     </row>
+    <row r="1883" spans="5:5">
+      <c r="E1883" s="42"/>
+    </row>
+    <row r="1884" spans="5:5">
+      <c r="E1884" s="42"/>
+    </row>
+    <row r="1885" spans="5:5">
+      <c r="E1885" s="42"/>
+    </row>
+    <row r="1886" spans="5:5">
+      <c r="E1886" s="42"/>
+    </row>
+    <row r="1887" spans="5:5">
+      <c r="E1887" s="42"/>
+    </row>
+    <row r="1888" spans="5:5">
+      <c r="E1888" s="42"/>
+    </row>
+    <row r="1889" spans="5:5">
+      <c r="E1889" s="42"/>
+    </row>
+    <row r="1890" spans="5:5">
+      <c r="E1890" s="42"/>
+    </row>
     <row r="1891" spans="5:5">
       <c r="E1891" s="42"/>
     </row>
-    <row r="1908" spans="5:5">
-      <c r="E1908" s="42"/>
-    </row>
-    <row r="1925" spans="5:5">
-      <c r="E1925" s="42"/>
-    </row>
-    <row r="1942" spans="5:5">
-      <c r="E1942" s="42"/>
-    </row>
-    <row r="1959" spans="5:5">
-      <c r="E1959" s="42"/>
-    </row>
-    <row r="1976" spans="5:5">
-      <c r="E1976" s="42"/>
-    </row>
-    <row r="1993" spans="5:5">
-      <c r="E1993" s="42"/>
-    </row>
-    <row r="2010" spans="5:5">
-      <c r="E2010" s="42"/>
-    </row>
-    <row r="2027" spans="5:5">
-      <c r="E2027" s="42"/>
-    </row>
-    <row r="2044" spans="5:5">
-      <c r="E2044" s="42"/>
-    </row>
-    <row r="2061" spans="5:5">
-      <c r="E2061" s="42"/>
-    </row>
-    <row r="2078" spans="5:5">
-      <c r="E2078" s="42"/>
-    </row>
-    <row r="2095" spans="5:5">
-      <c r="E2095" s="42"/>
-    </row>
-    <row r="2112" spans="5:5">
-      <c r="E2112" s="42"/>
-    </row>
-    <row r="2129" spans="5:5">
-      <c r="E2129" s="42"/>
-    </row>
-    <row r="2146" spans="5:7">
-      <c r="E2146" s="42"/>
-    </row>
-    <row r="2156" spans="5:7">
-      <c r="G2156" s="53"/>
-    </row>
-    <row r="2157" spans="5:7">
-      <c r="G2157" s="53"/>
-    </row>
-    <row r="2158" spans="5:7">
-      <c r="G2158" s="53"/>
-    </row>
-    <row r="2159" spans="5:7">
-      <c r="G2159" s="53"/>
-    </row>
-    <row r="2160" spans="5:7">
-      <c r="G2160" s="53"/>
-    </row>
-    <row r="2161" spans="5:7">
-      <c r="G2161" s="53"/>
-    </row>
-    <row r="2162" spans="5:7">
-      <c r="G2162" s="53"/>
-    </row>
-    <row r="2163" spans="5:7">
-      <c r="G2163" s="53"/>
-    </row>
-    <row r="2164" spans="5:7">
-      <c r="G2164" s="53"/>
-    </row>
-    <row r="2165" spans="5:7">
+    <row r="1900" spans="5:5">
+      <c r="E1900" s="42"/>
+    </row>
+    <row r="1917" spans="5:5">
+      <c r="E1917" s="42"/>
+    </row>
+    <row r="1934" spans="5:5">
+      <c r="E1934" s="42"/>
+    </row>
+    <row r="1951" spans="5:5">
+      <c r="E1951" s="42"/>
+    </row>
+    <row r="1968" spans="5:5">
+      <c r="E1968" s="42"/>
+    </row>
+    <row r="1985" spans="5:5">
+      <c r="E1985" s="42"/>
+    </row>
+    <row r="2002" spans="5:5">
+      <c r="E2002" s="42"/>
+    </row>
+    <row r="2019" spans="5:5">
+      <c r="E2019" s="42"/>
+    </row>
+    <row r="2036" spans="5:5">
+      <c r="E2036" s="42"/>
+    </row>
+    <row r="2053" spans="5:5">
+      <c r="E2053" s="42"/>
+    </row>
+    <row r="2070" spans="5:5">
+      <c r="E2070" s="42"/>
+    </row>
+    <row r="2087" spans="5:5">
+      <c r="E2087" s="42"/>
+    </row>
+    <row r="2104" spans="5:5">
+      <c r="E2104" s="42"/>
+    </row>
+    <row r="2121" spans="5:5">
+      <c r="E2121" s="42"/>
+    </row>
+    <row r="2138" spans="5:5">
+      <c r="E2138" s="42"/>
+    </row>
+    <row r="2155" spans="5:5">
+      <c r="E2155" s="42"/>
+    </row>
+    <row r="2165" spans="7:7">
       <c r="G2165" s="53"/>
     </row>
-    <row r="2166" spans="5:7">
+    <row r="2166" spans="7:7">
       <c r="G2166" s="53"/>
     </row>
-    <row r="2167" spans="5:7">
+    <row r="2167" spans="7:7">
       <c r="G2167" s="53"/>
     </row>
-    <row r="2168" spans="5:7">
+    <row r="2168" spans="7:7">
       <c r="G2168" s="53"/>
     </row>
-    <row r="2169" spans="5:7">
-      <c r="E2169" s="42"/>
+    <row r="2169" spans="7:7">
       <c r="G2169" s="53"/>
     </row>
-    <row r="2190" spans="5:5">
-      <c r="E2190" s="42"/>
-    </row>
-    <row r="2205" spans="5:5">
-      <c r="E2205" s="42"/>
-    </row>
-    <row r="2220" spans="5:5">
-      <c r="E2220" s="42"/>
-    </row>
-    <row r="2235" spans="5:5">
-      <c r="E2235" s="42"/>
-    </row>
-    <row r="2251" spans="5:5">
-      <c r="E2251" s="42"/>
-    </row>
-    <row r="2259" spans="5:7">
-      <c r="E2259" s="42"/>
-    </row>
-    <row r="2268" spans="5:7">
-      <c r="G2268" s="53"/>
-    </row>
-    <row r="2269" spans="5:7">
-      <c r="G2269" s="53"/>
-    </row>
-    <row r="2270" spans="5:7">
-      <c r="G2270" s="53"/>
-    </row>
-    <row r="2271" spans="5:7">
-      <c r="G2271" s="53"/>
-    </row>
-    <row r="2272" spans="5:7">
-      <c r="G2272" s="53"/>
-    </row>
-    <row r="2273" spans="5:7">
-      <c r="G2273" s="53"/>
-    </row>
-    <row r="2274" spans="5:7">
-      <c r="G2274" s="53"/>
-    </row>
-    <row r="2275" spans="5:7">
-      <c r="G2275" s="53"/>
-    </row>
-    <row r="2276" spans="5:7">
-      <c r="G2276" s="53"/>
-    </row>
-    <row r="2277" spans="5:7">
+    <row r="2170" spans="7:7">
+      <c r="G2170" s="53"/>
+    </row>
+    <row r="2171" spans="7:7">
+      <c r="G2171" s="53"/>
+    </row>
+    <row r="2172" spans="7:7">
+      <c r="G2172" s="53"/>
+    </row>
+    <row r="2173" spans="7:7">
+      <c r="G2173" s="53"/>
+    </row>
+    <row r="2174" spans="7:7">
+      <c r="G2174" s="53"/>
+    </row>
+    <row r="2175" spans="7:7">
+      <c r="G2175" s="53"/>
+    </row>
+    <row r="2176" spans="7:7">
+      <c r="G2176" s="53"/>
+    </row>
+    <row r="2177" spans="5:7">
+      <c r="G2177" s="53"/>
+    </row>
+    <row r="2178" spans="5:7">
+      <c r="E2178" s="42"/>
+      <c r="G2178" s="53"/>
+    </row>
+    <row r="2199" spans="5:5">
+      <c r="E2199" s="42"/>
+    </row>
+    <row r="2214" spans="5:5">
+      <c r="E2214" s="42"/>
+    </row>
+    <row r="2229" spans="5:5">
+      <c r="E2229" s="42"/>
+    </row>
+    <row r="2244" spans="5:5">
+      <c r="E2244" s="42"/>
+    </row>
+    <row r="2260" spans="5:5">
+      <c r="E2260" s="42"/>
+    </row>
+    <row r="2268" spans="5:5">
+      <c r="E2268" s="42"/>
+    </row>
+    <row r="2277" spans="7:7">
       <c r="G2277" s="53"/>
     </row>
-    <row r="2278" spans="5:7">
+    <row r="2278" spans="7:7">
       <c r="G2278" s="53"/>
     </row>
-    <row r="2279" spans="5:7">
+    <row r="2279" spans="7:7">
       <c r="G2279" s="53"/>
     </row>
-    <row r="2280" spans="5:7">
+    <row r="2280" spans="7:7">
       <c r="G2280" s="53"/>
     </row>
-    <row r="2281" spans="5:7">
+    <row r="2281" spans="7:7">
       <c r="G2281" s="53"/>
     </row>
-    <row r="2282" spans="5:7">
+    <row r="2282" spans="7:7">
       <c r="G2282" s="53"/>
     </row>
-    <row r="2283" spans="5:7">
+    <row r="2283" spans="7:7">
       <c r="G2283" s="53"/>
     </row>
-    <row r="2284" spans="5:7">
+    <row r="2284" spans="7:7">
       <c r="G2284" s="53"/>
     </row>
-    <row r="2285" spans="5:7">
+    <row r="2285" spans="7:7">
       <c r="G2285" s="53"/>
     </row>
-    <row r="2286" spans="5:7">
+    <row r="2286" spans="7:7">
       <c r="G2286" s="53"/>
     </row>
-    <row r="2287" spans="5:7">
-      <c r="E2287" s="42"/>
+    <row r="2287" spans="7:7">
       <c r="G2287" s="53"/>
     </row>
-    <row r="2295" spans="5:5">
-      <c r="E2295" s="42"/>
-    </row>
-    <row r="2302" spans="5:5">
-      <c r="E2302" s="42"/>
+    <row r="2288" spans="7:7">
+      <c r="G2288" s="53"/>
+    </row>
+    <row r="2289" spans="5:7">
+      <c r="G2289" s="53"/>
+    </row>
+    <row r="2290" spans="5:7">
+      <c r="G2290" s="53"/>
+    </row>
+    <row r="2291" spans="5:7">
+      <c r="G2291" s="53"/>
+    </row>
+    <row r="2292" spans="5:7">
+      <c r="G2292" s="53"/>
+    </row>
+    <row r="2293" spans="5:7">
+      <c r="G2293" s="53"/>
+    </row>
+    <row r="2294" spans="5:7">
+      <c r="G2294" s="53"/>
+    </row>
+    <row r="2295" spans="5:7">
+      <c r="G2295" s="53"/>
+    </row>
+    <row r="2296" spans="5:7">
+      <c r="E2296" s="42"/>
+      <c r="G2296" s="53"/>
+    </row>
+    <row r="2304" spans="5:7">
+      <c r="E2304" s="42"/>
+    </row>
+    <row r="2311" spans="5:5">
+      <c r="E2311" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9DC2D-7D20-4880-9C09-A217195695A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505F50F-FF3F-43A0-B407-7E2C175136E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6950" uniqueCount="1664">
   <si>
     <t>Name</t>
   </si>
@@ -5162,8 +5162,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-21</t>
+      <t>2025-December-31</t>
     </r>
+  </si>
+  <si>
+    <t>10KΩ 1/4W 5%</t>
   </si>
 </sst>
 </file>
@@ -8235,10 +8238,7 @@
         <v>1536</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>1535</v>
+        <v>1663</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>1522</v>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB76751-D92D-48A4-A569-B850B3555411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3885804A-E0EE-49E4-8397-ED99AB669E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6959" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6960" uniqueCount="1672">
   <si>
     <t>Name</t>
   </si>
@@ -5117,6 +5117,66 @@
     <t>TIP29A</t>
   </si>
   <si>
+    <t>Compatible part-number: 2SD880</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 2SC2458</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 2SD789</t>
+  </si>
+  <si>
+    <t>Compatible part-number: BZX55C6V8</t>
+  </si>
+  <si>
+    <t>Compatible part-number: S2VB20</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 1N4007</t>
+  </si>
+  <si>
+    <t>Compatible part-number: BZX55C3V0</t>
+  </si>
+  <si>
+    <t>RD6.8EB</t>
+  </si>
+  <si>
+    <t>Zener 6.8V</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4464.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7414.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>2026-February-12</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5129,65 +5189,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-January-16</t>
+      <t>2026-February-9</t>
     </r>
-  </si>
-  <si>
-    <t>Compatible part-number: 2SD880</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 2SC2458</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 2SD789</t>
-  </si>
-  <si>
-    <t>Compatible part-number: BZX55C6V8</t>
-  </si>
-  <si>
-    <t>Compatible part-number: S2VB20</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 1N4007</t>
-  </si>
-  <si>
-    <t>Compatible part-number: BZX55C3V0</t>
-  </si>
-  <si>
-    <t>RD6.8EB</t>
-  </si>
-  <si>
-    <t>Zener 6.8V</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4464.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8701.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7414.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4066B.PDF</t>
   </si>
 </sst>
 </file>
@@ -5823,9 +5826,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5850,7 +5853,7 @@
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6082,7 +6085,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C4FBD-A6C4-430E-A90E-452D1A8F7A52}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6126,6 +6129,11 @@
         <v>1606</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6137,8 +6145,8 @@
   <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7116,10 +7124,10 @@
         <v>168</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D62" s="42" t="s">
         <v>1470</v>
@@ -10038,7 +10046,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="11"/>
       <c r="G51" s="47" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -10048,7 +10056,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="11"/>
       <c r="G52" s="47" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -10058,7 +10066,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="11"/>
       <c r="G53" s="47" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -10068,7 +10076,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="11"/>
       <c r="G54" s="47" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="11" customFormat="1">
@@ -10091,7 +10099,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="40"/>
       <c r="G56" s="47" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -29320,7 +29328,7 @@
         <v>90</v>
       </c>
       <c r="G1011" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -29333,7 +29341,7 @@
         <v>90</v>
       </c>
       <c r="G1012" s="42" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -29346,7 +29354,7 @@
         <v>90</v>
       </c>
       <c r="G1013" s="42" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -29359,7 +29367,7 @@
         <v>90</v>
       </c>
       <c r="G1014" s="42" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1015" spans="1:7">
@@ -42880,9 +42888,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -43205,7 +43213,7 @@
         <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -43216,7 +43224,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -43227,7 +43235,7 @@
         <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -43249,7 +43257,7 @@
         <v>92</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="11" customFormat="1">
@@ -43260,7 +43268,7 @@
         <v>94</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -43272,7 +43280,7 @@
         <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D38" s="9"/>
     </row>
@@ -43284,7 +43292,7 @@
         <v>232</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D39" s="9"/>
     </row>
@@ -43296,7 +43304,7 @@
         <v>232</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D40" s="9"/>
     </row>
@@ -43308,7 +43316,7 @@
         <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -43332,7 +43340,7 @@
         <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -43344,7 +43352,7 @@
         <v>96</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -43356,7 +43364,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D45" s="9"/>
     </row>
@@ -43368,7 +43376,7 @@
         <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D46" s="9"/>
     </row>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3885804A-E0EE-49E4-8397-ED99AB669E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E9E09-9657-4E10-B3F5-0FB4FEA6FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6960" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7003" uniqueCount="1682">
   <si>
     <t>Name</t>
   </si>
@@ -5191,6 +5191,36 @@
       </rPr>
       <t>2026-February-9</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>There is a diff here between PAL and NTSC</t>
+  </si>
+  <si>
+    <t>There is a diff here between NTSC and PAL</t>
   </si>
 </sst>
 </file>
@@ -5923,11 +5953,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>290</v>
+      <c r="A10" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -5983,11 +6013,11 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>293</v>
+      <c r="A13" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -9305,7 +9335,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2320"/>
+  <dimension ref="A1:I2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
@@ -28969,23 +28999,21 @@
         <v>245</v>
       </c>
       <c r="B991" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C991" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D991" s="59" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="E991" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="F991" s="9" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G991" s="1" t="s">
-        <v>1635</v>
-      </c>
+        <v>1672</v>
+      </c>
+      <c r="G991" s="1"/>
     </row>
     <row r="992" spans="1:7">
       <c r="A992" s="9" t="s">
@@ -28995,39 +29023,43 @@
         <v>263</v>
       </c>
       <c r="C992" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D992" s="59" t="s">
-        <v>541</v>
+        <v>1634</v>
       </c>
       <c r="E992" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="F992" s="9" t="s">
-        <v>1643</v>
-      </c>
-      <c r="G992" s="1"/>
+        <v>1642</v>
+      </c>
+      <c r="G992" s="1" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="993" spans="1:7">
       <c r="A993" s="9" t="s">
         <v>245</v>
       </c>
       <c r="B993" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C993" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D993" s="59" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E993" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="F993" s="9" t="s">
-        <v>1644</v>
-      </c>
-      <c r="G993" s="1"/>
+        <v>1673</v>
+      </c>
+      <c r="G993" s="1" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="994" spans="1:7">
       <c r="A994" s="9" t="s">
@@ -29037,16 +29069,16 @@
         <v>263</v>
       </c>
       <c r="C994" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D994" s="59" t="s">
-        <v>1638</v>
+        <v>541</v>
       </c>
       <c r="E994" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="F994" s="9" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="G994" s="1"/>
     </row>
@@ -29055,19 +29087,19 @@
         <v>245</v>
       </c>
       <c r="B995" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C995" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D995" s="59" t="s">
-        <v>1639</v>
+        <v>541</v>
       </c>
       <c r="E995" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="F995" s="9" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="G995" s="1"/>
     </row>
@@ -29079,16 +29111,16 @@
         <v>263</v>
       </c>
       <c r="C996" s="28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D996" s="59" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E996" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="F996" s="9" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="G996" s="1"/>
     </row>
@@ -29097,166 +29129,210 @@
         <v>245</v>
       </c>
       <c r="B997" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C997" s="28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D997" s="59" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E997" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="F997" s="9" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G997" s="1"/>
+    </row>
+    <row r="998" spans="1:7">
+      <c r="A998" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B998" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C998" s="28">
+        <v>5</v>
+      </c>
+      <c r="D998" s="59" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F998" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G998" s="1"/>
+    </row>
+    <row r="999" spans="1:7">
+      <c r="A999" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B999" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C999" s="28">
+        <v>5</v>
+      </c>
+      <c r="D999" s="59" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F999" s="9" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G999" s="1"/>
+    </row>
+    <row r="1000" spans="1:7">
+      <c r="A1000" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1000" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1000" s="28">
+        <v>6</v>
+      </c>
+      <c r="D1000" s="59" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1000" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:7">
+      <c r="A1001" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1001" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1001" s="28">
+        <v>6</v>
+      </c>
+      <c r="D1001" s="59" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1001" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:7">
+      <c r="A1002" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1002" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1002" s="28">
+        <v>7</v>
+      </c>
+      <c r="D1002" s="59" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1002" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:7">
+      <c r="A1003" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1003" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1003" s="28">
+        <v>7</v>
+      </c>
+      <c r="D1003" s="59" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1003" s="9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:7">
+      <c r="A1004" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1004" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1004" s="28">
+        <v>8</v>
+      </c>
+      <c r="D1004" s="59" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1004" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="G997" s="1"/>
-    </row>
-    <row r="998" spans="1:7" ht="57.6">
-      <c r="A998" s="9" t="s">
+      <c r="G1004" s="15" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7">
+      <c r="A1005" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1005" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1005" s="28">
+        <v>8</v>
+      </c>
+      <c r="D1005" s="59" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1005" s="9" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1005" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" ht="57.6">
+      <c r="A1006" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B998" s="9"/>
-      <c r="C998" s="28"/>
-      <c r="D998" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G998" s="47" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="999" spans="1:7" ht="28.8">
-      <c r="A999" s="56" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B999" s="9"/>
-      <c r="C999" s="28"/>
-      <c r="D999" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F999" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G999" s="42" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:7" ht="28.8">
-      <c r="A1000" s="56" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B1000" s="9"/>
-      <c r="C1000" s="28"/>
-      <c r="D1000" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1000" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G1000" s="42" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:7" ht="28.8">
-      <c r="A1001" s="56" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B1001" s="9"/>
-      <c r="C1001" s="28"/>
-      <c r="D1001" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1001" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G1001" s="42" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:7" ht="28.8">
-      <c r="A1002" s="56" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B1002" s="9"/>
-      <c r="C1002" s="28"/>
-      <c r="D1002" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1002" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G1002" s="42" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:7" ht="28.8">
-      <c r="A1003" s="56" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B1003" s="9"/>
-      <c r="C1003" s="28"/>
-      <c r="D1003" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1003" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G1003" s="42" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:7" ht="28.8">
-      <c r="A1004" s="56" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B1004" s="9"/>
-      <c r="C1004" s="28"/>
-      <c r="D1004" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1004" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G1004" s="42" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:7" ht="28.8">
-      <c r="A1005" s="56" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B1005" s="9"/>
-      <c r="C1005" s="28"/>
-      <c r="D1005" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1005" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G1005" s="42" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:7" ht="28.8">
-      <c r="A1006" s="56" t="s">
-        <v>1520</v>
       </c>
       <c r="B1006" s="9"/>
       <c r="C1006" s="28"/>
       <c r="D1006" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1006" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G1006" s="42" t="s">
-        <v>1587</v>
+      <c r="G1006" s="47" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="1007" spans="1:7" ht="28.8">
       <c r="A1007" s="56" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="B1007" s="9"/>
       <c r="C1007" s="28"/>
@@ -29272,7 +29348,7 @@
     </row>
     <row r="1008" spans="1:7" ht="28.8">
       <c r="A1008" s="56" t="s">
-        <v>1569</v>
+        <v>1522</v>
       </c>
       <c r="B1008" s="9"/>
       <c r="C1008" s="28"/>
@@ -29288,7 +29364,7 @@
     </row>
     <row r="1009" spans="1:7" ht="28.8">
       <c r="A1009" s="56" t="s">
-        <v>1549</v>
+        <v>1516</v>
       </c>
       <c r="B1009" s="9"/>
       <c r="C1009" s="28"/>
@@ -29304,7 +29380,7 @@
     </row>
     <row r="1010" spans="1:7" ht="28.8">
       <c r="A1010" s="56" t="s">
-        <v>1527</v>
+        <v>1540</v>
       </c>
       <c r="B1010" s="9"/>
       <c r="C1010" s="28"/>
@@ -29318,97 +29394,185 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="1011" spans="1:7">
-      <c r="A1011" s="9" t="s">
-        <v>144</v>
+    <row r="1011" spans="1:7" ht="28.8">
+      <c r="A1011" s="56" t="s">
+        <v>1539</v>
       </c>
       <c r="B1011" s="9"/>
       <c r="C1011" s="28"/>
       <c r="D1011" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G1011" s="1" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:7">
-      <c r="A1012" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1012"/>
-      <c r="C1012" s="60"/>
+      <c r="F1011" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1011" s="42" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" ht="28.8">
+      <c r="A1012" s="56" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1012" s="9"/>
+      <c r="C1012" s="28"/>
       <c r="D1012" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="F1012" s="9" t="s">
+        <v>1586</v>
+      </c>
       <c r="G1012" s="42" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:7">
-      <c r="A1013" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1013" s="18"/>
-      <c r="C1013" s="61"/>
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" ht="28.8">
+      <c r="A1013" s="56" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1013" s="9"/>
+      <c r="C1013" s="28"/>
       <c r="D1013" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="F1013" s="9" t="s">
+        <v>1586</v>
+      </c>
       <c r="G1013" s="42" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:7">
-      <c r="A1014" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1014"/>
-      <c r="C1014" s="60"/>
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" ht="28.8">
+      <c r="A1014" s="56" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1014" s="9"/>
+      <c r="C1014" s="28"/>
       <c r="D1014" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="F1014" s="9" t="s">
+        <v>1586</v>
+      </c>
       <c r="G1014" s="42" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:7">
-      <c r="A1015" s="9"/>
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" ht="28.8">
+      <c r="A1015" s="56" t="s">
+        <v>1526</v>
+      </c>
       <c r="B1015" s="9"/>
       <c r="C1015" s="28"/>
-    </row>
-    <row r="1016" spans="1:7">
-      <c r="A1016" s="9"/>
+      <c r="D1015" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1015" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1015" s="42" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" ht="28.8">
+      <c r="A1016" s="56" t="s">
+        <v>1569</v>
+      </c>
       <c r="B1016" s="9"/>
       <c r="C1016" s="28"/>
-    </row>
-    <row r="1017" spans="1:7">
-      <c r="A1017" s="9"/>
+      <c r="D1016" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1016" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1016" s="42" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" ht="28.8">
+      <c r="A1017" s="56" t="s">
+        <v>1549</v>
+      </c>
       <c r="B1017" s="9"/>
       <c r="C1017" s="28"/>
-    </row>
-    <row r="1018" spans="1:7">
-      <c r="A1018" s="9"/>
+      <c r="D1017" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1017" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1017" s="42" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" ht="28.8">
+      <c r="A1018" s="56" t="s">
+        <v>1527</v>
+      </c>
       <c r="B1018" s="9"/>
       <c r="C1018" s="28"/>
+      <c r="D1018" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1018" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1018" s="42" t="s">
+        <v>1587</v>
+      </c>
     </row>
     <row r="1019" spans="1:7">
-      <c r="A1019" s="9"/>
+      <c r="A1019" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="B1019" s="9"/>
       <c r="C1019" s="28"/>
+      <c r="D1019" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1019" s="1" t="s">
+        <v>1651</v>
+      </c>
     </row>
     <row r="1020" spans="1:7">
-      <c r="A1020" s="9"/>
-      <c r="B1020" s="9"/>
-      <c r="C1020" s="28"/>
+      <c r="A1020" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1020"/>
+      <c r="C1020" s="60"/>
+      <c r="D1020" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1020" s="42" t="s">
+        <v>1652</v>
+      </c>
     </row>
     <row r="1021" spans="1:7">
-      <c r="A1021" s="9"/>
-      <c r="B1021" s="9"/>
-      <c r="C1021" s="28"/>
+      <c r="A1021" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1021" s="18"/>
+      <c r="C1021" s="61"/>
+      <c r="D1021" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1021" s="42" t="s">
+        <v>1652</v>
+      </c>
     </row>
     <row r="1022" spans="1:7">
-      <c r="A1022" s="9"/>
-      <c r="B1022" s="9"/>
-      <c r="C1022" s="28"/>
+      <c r="A1022" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1022"/>
+      <c r="C1022" s="60"/>
+      <c r="D1022" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1022" s="42" t="s">
+        <v>1653</v>
+      </c>
     </row>
     <row r="1023" spans="1:7">
       <c r="A1023" s="9"/>
@@ -29545,71 +29709,79 @@
       <c r="B1049" s="9"/>
       <c r="C1049" s="28"/>
     </row>
-    <row r="1153" spans="5:5">
-      <c r="E1153" s="42"/>
-    </row>
-    <row r="1154" spans="5:5">
-      <c r="E1154" s="42"/>
-    </row>
-    <row r="1155" spans="5:5">
-      <c r="E1155" s="42"/>
-    </row>
-    <row r="1156" spans="5:5">
-      <c r="E1156" s="42"/>
-    </row>
-    <row r="1157" spans="5:5">
-      <c r="E1157" s="42"/>
-    </row>
-    <row r="1158" spans="5:5">
-      <c r="E1158" s="42"/>
-    </row>
-    <row r="1159" spans="5:5">
-      <c r="E1159" s="42"/>
-    </row>
-    <row r="1169" spans="5:7">
-      <c r="E1169" s="42"/>
-    </row>
-    <row r="1171" spans="5:7">
-      <c r="E1171" s="42"/>
-      <c r="G1171" s="53"/>
-    </row>
-    <row r="1172" spans="5:7">
-      <c r="G1172" s="53"/>
-    </row>
-    <row r="1173" spans="5:7">
-      <c r="E1173" s="43"/>
-      <c r="G1173" s="53"/>
-    </row>
-    <row r="1174" spans="5:7">
-      <c r="E1174" s="42"/>
-      <c r="G1174" s="53"/>
-    </row>
-    <row r="1175" spans="5:7">
-      <c r="E1175" s="42"/>
-      <c r="G1175" s="53"/>
-    </row>
-    <row r="1176" spans="5:7">
-      <c r="E1176" s="42"/>
-      <c r="G1176" s="53"/>
+    <row r="1050" spans="1:3">
+      <c r="A1050" s="9"/>
+      <c r="B1050" s="9"/>
+      <c r="C1050" s="28"/>
+    </row>
+    <row r="1051" spans="1:3">
+      <c r="A1051" s="9"/>
+      <c r="B1051" s="9"/>
+      <c r="C1051" s="28"/>
+    </row>
+    <row r="1052" spans="1:3">
+      <c r="A1052" s="9"/>
+      <c r="B1052" s="9"/>
+      <c r="C1052" s="28"/>
+    </row>
+    <row r="1053" spans="1:3">
+      <c r="A1053" s="9"/>
+      <c r="B1053" s="9"/>
+      <c r="C1053" s="28"/>
+    </row>
+    <row r="1054" spans="1:3">
+      <c r="A1054" s="9"/>
+      <c r="B1054" s="9"/>
+      <c r="C1054" s="28"/>
+    </row>
+    <row r="1055" spans="1:3">
+      <c r="A1055" s="9"/>
+      <c r="B1055" s="9"/>
+      <c r="C1055" s="28"/>
+    </row>
+    <row r="1056" spans="1:3">
+      <c r="A1056" s="9"/>
+      <c r="B1056" s="9"/>
+      <c r="C1056" s="28"/>
+    </row>
+    <row r="1057" spans="1:3">
+      <c r="A1057" s="9"/>
+      <c r="B1057" s="9"/>
+      <c r="C1057" s="28"/>
+    </row>
+    <row r="1161" spans="5:5">
+      <c r="E1161" s="42"/>
+    </row>
+    <row r="1162" spans="5:5">
+      <c r="E1162" s="42"/>
+    </row>
+    <row r="1163" spans="5:5">
+      <c r="E1163" s="42"/>
+    </row>
+    <row r="1164" spans="5:5">
+      <c r="E1164" s="42"/>
+    </row>
+    <row r="1165" spans="5:5">
+      <c r="E1165" s="42"/>
+    </row>
+    <row r="1166" spans="5:5">
+      <c r="E1166" s="42"/>
+    </row>
+    <row r="1167" spans="5:5">
+      <c r="E1167" s="42"/>
     </row>
     <row r="1177" spans="5:7">
       <c r="E1177" s="42"/>
-      <c r="G1177" s="53"/>
-    </row>
-    <row r="1178" spans="5:7">
-      <c r="E1178" s="42"/>
-      <c r="G1178" s="53"/>
     </row>
     <row r="1179" spans="5:7">
-      <c r="E1179" s="44"/>
+      <c r="E1179" s="42"/>
       <c r="G1179" s="53"/>
     </row>
     <row r="1180" spans="5:7">
-      <c r="E1180" s="42"/>
       <c r="G1180" s="53"/>
     </row>
     <row r="1181" spans="5:7">
-      <c r="E1181" s="42"/>
+      <c r="E1181" s="43"/>
       <c r="G1181" s="53"/>
     </row>
     <row r="1182" spans="5:7">
@@ -29633,7 +29805,7 @@
       <c r="G1186" s="53"/>
     </row>
     <row r="1187" spans="5:7">
-      <c r="E1187" s="42"/>
+      <c r="E1187" s="44"/>
       <c r="G1187" s="53"/>
     </row>
     <row r="1188" spans="5:7">
@@ -29760,71 +29932,85 @@
       <c r="E1218" s="42"/>
       <c r="G1218" s="53"/>
     </row>
+    <row r="1219" spans="5:7">
+      <c r="E1219" s="42"/>
+      <c r="G1219" s="53"/>
+    </row>
+    <row r="1220" spans="5:7">
+      <c r="E1220" s="42"/>
+      <c r="G1220" s="53"/>
+    </row>
+    <row r="1221" spans="5:7">
+      <c r="E1221" s="42"/>
+      <c r="G1221" s="53"/>
+    </row>
+    <row r="1222" spans="5:7">
+      <c r="E1222" s="42"/>
+      <c r="G1222" s="53"/>
+    </row>
+    <row r="1223" spans="5:7">
+      <c r="E1223" s="42"/>
+      <c r="G1223" s="53"/>
+    </row>
+    <row r="1224" spans="5:7">
+      <c r="E1224" s="42"/>
+      <c r="G1224" s="53"/>
+    </row>
+    <row r="1225" spans="5:7">
+      <c r="E1225" s="42"/>
+      <c r="G1225" s="53"/>
+    </row>
     <row r="1226" spans="5:7">
       <c r="E1226" s="42"/>
-    </row>
-    <row r="1235" spans="7:7">
-      <c r="G1235" s="53"/>
-    </row>
-    <row r="1236" spans="7:7">
-      <c r="G1236" s="53"/>
-    </row>
-    <row r="1237" spans="7:7">
-      <c r="G1237" s="53"/>
-    </row>
-    <row r="1238" spans="7:7">
-      <c r="G1238" s="53"/>
-    </row>
-    <row r="1239" spans="7:7">
-      <c r="G1239" s="53"/>
-    </row>
-    <row r="1240" spans="7:7">
-      <c r="G1240" s="53"/>
-    </row>
-    <row r="1241" spans="7:7">
-      <c r="G1241" s="53"/>
-    </row>
-    <row r="1242" spans="7:7">
-      <c r="G1242" s="53"/>
-    </row>
-    <row r="1243" spans="7:7">
+      <c r="G1226" s="53"/>
+    </row>
+    <row r="1234" spans="5:7">
+      <c r="E1234" s="42"/>
+    </row>
+    <row r="1243" spans="5:7">
       <c r="G1243" s="53"/>
     </row>
-    <row r="1244" spans="7:7">
+    <row r="1244" spans="5:7">
       <c r="G1244" s="53"/>
     </row>
-    <row r="1245" spans="7:7">
+    <row r="1245" spans="5:7">
       <c r="G1245" s="53"/>
     </row>
-    <row r="1246" spans="7:7">
+    <row r="1246" spans="5:7">
       <c r="G1246" s="53"/>
     </row>
-    <row r="1247" spans="7:7">
+    <row r="1247" spans="5:7">
       <c r="G1247" s="53"/>
     </row>
-    <row r="1248" spans="7:7">
+    <row r="1248" spans="5:7">
       <c r="G1248" s="53"/>
     </row>
-    <row r="1278" spans="5:5">
-      <c r="E1278" s="42"/>
-    </row>
-    <row r="1297" spans="5:5">
-      <c r="E1297" s="42"/>
-    </row>
-    <row r="1298" spans="5:5">
-      <c r="E1298" s="42"/>
-    </row>
-    <row r="1301" spans="5:5">
-      <c r="E1301" s="42"/>
-    </row>
-    <row r="1302" spans="5:5">
-      <c r="E1302" s="42"/>
-    </row>
-    <row r="1303" spans="5:5">
-      <c r="E1303" s="42"/>
-    </row>
-    <row r="1304" spans="5:5">
-      <c r="E1304" s="42"/>
+    <row r="1249" spans="7:7">
+      <c r="G1249" s="53"/>
+    </row>
+    <row r="1250" spans="7:7">
+      <c r="G1250" s="53"/>
+    </row>
+    <row r="1251" spans="7:7">
+      <c r="G1251" s="53"/>
+    </row>
+    <row r="1252" spans="7:7">
+      <c r="G1252" s="53"/>
+    </row>
+    <row r="1253" spans="7:7">
+      <c r="G1253" s="53"/>
+    </row>
+    <row r="1254" spans="7:7">
+      <c r="G1254" s="53"/>
+    </row>
+    <row r="1255" spans="7:7">
+      <c r="G1255" s="53"/>
+    </row>
+    <row r="1256" spans="7:7">
+      <c r="G1256" s="53"/>
+    </row>
+    <row r="1286" spans="5:5">
+      <c r="E1286" s="42"/>
     </row>
     <row r="1305" spans="5:5">
       <c r="E1305" s="42"/>
@@ -29832,6 +30018,15 @@
     <row r="1306" spans="5:5">
       <c r="E1306" s="42"/>
     </row>
+    <row r="1309" spans="5:5">
+      <c r="E1309" s="42"/>
+    </row>
+    <row r="1310" spans="5:5">
+      <c r="E1310" s="42"/>
+    </row>
+    <row r="1311" spans="5:5">
+      <c r="E1311" s="42"/>
+    </row>
     <row r="1312" spans="5:5">
       <c r="E1312" s="42"/>
     </row>
@@ -29841,18 +30036,6 @@
     <row r="1314" spans="5:5">
       <c r="E1314" s="42"/>
     </row>
-    <row r="1315" spans="5:5">
-      <c r="E1315" s="42"/>
-    </row>
-    <row r="1316" spans="5:5">
-      <c r="E1316" s="42"/>
-    </row>
-    <row r="1317" spans="5:5">
-      <c r="E1317" s="42"/>
-    </row>
-    <row r="1318" spans="5:5">
-      <c r="E1318" s="42"/>
-    </row>
     <row r="1320" spans="5:5">
       <c r="E1320" s="42"/>
     </row>
@@ -29865,67 +30048,64 @@
     <row r="1323" spans="5:5">
       <c r="E1323" s="42"/>
     </row>
-    <row r="1327" spans="5:5">
-      <c r="E1327" s="42"/>
-    </row>
-    <row r="1334" spans="5:5">
-      <c r="E1334" s="42"/>
-    </row>
-    <row r="1338" spans="5:5">
-      <c r="E1338" s="42"/>
-    </row>
-    <row r="1349" spans="5:5">
-      <c r="E1349" s="42"/>
-    </row>
-    <row r="1359" spans="5:5">
-      <c r="E1359" s="42"/>
-    </row>
-    <row r="1361" spans="7:7">
-      <c r="G1361" s="53"/>
-    </row>
-    <row r="1362" spans="7:7">
-      <c r="G1362" s="53"/>
-    </row>
-    <row r="1363" spans="7:7">
-      <c r="G1363" s="53"/>
-    </row>
-    <row r="1364" spans="7:7">
-      <c r="G1364" s="53"/>
-    </row>
-    <row r="1365" spans="7:7">
-      <c r="G1365" s="53"/>
-    </row>
-    <row r="1366" spans="7:7">
-      <c r="G1366" s="53"/>
-    </row>
-    <row r="1367" spans="7:7">
-      <c r="G1367" s="53"/>
-    </row>
-    <row r="1368" spans="7:7">
-      <c r="G1368" s="53"/>
-    </row>
-    <row r="1369" spans="7:7">
+    <row r="1324" spans="5:5">
+      <c r="E1324" s="42"/>
+    </row>
+    <row r="1325" spans="5:5">
+      <c r="E1325" s="42"/>
+    </row>
+    <row r="1326" spans="5:5">
+      <c r="E1326" s="42"/>
+    </row>
+    <row r="1328" spans="5:5">
+      <c r="E1328" s="42"/>
+    </row>
+    <row r="1329" spans="5:5">
+      <c r="E1329" s="42"/>
+    </row>
+    <row r="1330" spans="5:5">
+      <c r="E1330" s="42"/>
+    </row>
+    <row r="1331" spans="5:5">
+      <c r="E1331" s="42"/>
+    </row>
+    <row r="1335" spans="5:5">
+      <c r="E1335" s="42"/>
+    </row>
+    <row r="1342" spans="5:5">
+      <c r="E1342" s="42"/>
+    </row>
+    <row r="1346" spans="5:5">
+      <c r="E1346" s="42"/>
+    </row>
+    <row r="1357" spans="5:5">
+      <c r="E1357" s="42"/>
+    </row>
+    <row r="1367" spans="5:7">
+      <c r="E1367" s="42"/>
+    </row>
+    <row r="1369" spans="5:7">
       <c r="G1369" s="53"/>
     </row>
-    <row r="1370" spans="7:7">
+    <row r="1370" spans="5:7">
       <c r="G1370" s="53"/>
     </row>
-    <row r="1371" spans="7:7">
+    <row r="1371" spans="5:7">
       <c r="G1371" s="53"/>
     </row>
-    <row r="1372" spans="7:7">
+    <row r="1372" spans="5:7">
       <c r="G1372" s="53"/>
     </row>
-    <row r="1373" spans="7:7">
+    <row r="1373" spans="5:7">
       <c r="G1373" s="53"/>
     </row>
-    <row r="1374" spans="7:7">
+    <row r="1374" spans="5:7">
       <c r="G1374" s="53"/>
     </row>
-    <row r="1375" spans="7:7">
+    <row r="1375" spans="5:7">
       <c r="G1375" s="53"/>
     </row>
-    <row r="1376" spans="7:7">
+    <row r="1376" spans="5:7">
       <c r="G1376" s="53"/>
     </row>
     <row r="1377" spans="5:7">
@@ -29938,8 +30118,10 @@
       <c r="G1379" s="53"/>
     </row>
     <row r="1380" spans="5:7">
-      <c r="E1380" s="42"/>
       <c r="G1380" s="53"/>
+    </row>
+    <row r="1381" spans="5:7">
+      <c r="G1381" s="53"/>
     </row>
     <row r="1382" spans="5:7">
       <c r="G1382" s="53"/>
@@ -29960,11 +30142,8 @@
       <c r="G1387" s="53"/>
     </row>
     <row r="1388" spans="5:7">
+      <c r="E1388" s="42"/>
       <c r="G1388" s="53"/>
-    </row>
-    <row r="1389" spans="5:7">
-      <c r="E1389" s="42"/>
-      <c r="G1389" s="53"/>
     </row>
     <row r="1390" spans="5:7">
       <c r="G1390" s="53"/>
@@ -29991,6 +30170,9 @@
       <c r="E1397" s="42"/>
       <c r="G1397" s="53"/>
     </row>
+    <row r="1398" spans="5:7">
+      <c r="G1398" s="53"/>
+    </row>
     <row r="1399" spans="5:7">
       <c r="G1399" s="53"/>
     </row>
@@ -30010,11 +30192,8 @@
       <c r="G1404" s="53"/>
     </row>
     <row r="1405" spans="5:7">
+      <c r="E1405" s="42"/>
       <c r="G1405" s="53"/>
-    </row>
-    <row r="1406" spans="5:7">
-      <c r="E1406" s="42"/>
-      <c r="G1406" s="53"/>
     </row>
     <row r="1407" spans="5:7">
       <c r="G1407" s="53"/>
@@ -30041,125 +30220,126 @@
       <c r="E1414" s="42"/>
       <c r="G1414" s="53"/>
     </row>
+    <row r="1415" spans="5:7">
+      <c r="G1415" s="53"/>
+    </row>
+    <row r="1416" spans="5:7">
+      <c r="G1416" s="53"/>
+    </row>
+    <row r="1417" spans="5:7">
+      <c r="G1417" s="53"/>
+    </row>
+    <row r="1418" spans="5:7">
+      <c r="G1418" s="53"/>
+    </row>
+    <row r="1419" spans="5:7">
+      <c r="G1419" s="53"/>
+    </row>
+    <row r="1420" spans="5:7">
+      <c r="G1420" s="53"/>
+    </row>
+    <row r="1421" spans="5:7">
+      <c r="G1421" s="53"/>
+    </row>
     <row r="1422" spans="5:7">
       <c r="E1422" s="42"/>
-    </row>
-    <row r="1429" spans="5:5">
-      <c r="E1429" s="42"/>
-    </row>
-    <row r="1445" spans="5:5">
-      <c r="E1445" s="43"/>
-    </row>
-    <row r="1446" spans="5:5">
-      <c r="E1446" s="43"/>
-    </row>
-    <row r="1449" spans="5:5">
-      <c r="E1449" s="43"/>
-    </row>
-    <row r="1450" spans="5:5">
-      <c r="E1450" s="42"/>
-    </row>
-    <row r="1463" spans="5:5">
-      <c r="E1463" s="42"/>
-    </row>
-    <row r="1475" spans="5:5">
-      <c r="E1475" s="42"/>
-    </row>
-    <row r="1479" spans="5:5">
-      <c r="E1479" s="42"/>
-    </row>
-    <row r="1480" spans="5:5">
-      <c r="E1480" s="42"/>
-    </row>
-    <row r="1481" spans="5:5">
-      <c r="E1481" s="42"/>
-    </row>
-    <row r="1482" spans="5:5">
-      <c r="E1482" s="42"/>
+      <c r="G1422" s="53"/>
+    </row>
+    <row r="1430" spans="5:5">
+      <c r="E1430" s="42"/>
+    </row>
+    <row r="1437" spans="5:5">
+      <c r="E1437" s="42"/>
+    </row>
+    <row r="1453" spans="5:5">
+      <c r="E1453" s="43"/>
+    </row>
+    <row r="1454" spans="5:5">
+      <c r="E1454" s="43"/>
+    </row>
+    <row r="1457" spans="5:5">
+      <c r="E1457" s="43"/>
+    </row>
+    <row r="1458" spans="5:5">
+      <c r="E1458" s="42"/>
+    </row>
+    <row r="1471" spans="5:5">
+      <c r="E1471" s="42"/>
     </row>
     <row r="1483" spans="5:5">
       <c r="E1483" s="42"/>
     </row>
-    <row r="1484" spans="5:5">
-      <c r="E1484" s="42"/>
-    </row>
-    <row r="1485" spans="5:5">
-      <c r="E1485" s="42"/>
-    </row>
-    <row r="1486" spans="5:5">
-      <c r="E1486" s="42"/>
-    </row>
     <row r="1487" spans="5:5">
       <c r="E1487" s="42"/>
     </row>
     <row r="1488" spans="5:5">
       <c r="E1488" s="42"/>
     </row>
-    <row r="1489" spans="5:7">
+    <row r="1489" spans="5:5">
       <c r="E1489" s="42"/>
     </row>
-    <row r="1490" spans="5:7">
+    <row r="1490" spans="5:5">
       <c r="E1490" s="42"/>
     </row>
-    <row r="1491" spans="5:7">
+    <row r="1491" spans="5:5">
       <c r="E1491" s="42"/>
     </row>
-    <row r="1492" spans="5:7">
+    <row r="1492" spans="5:5">
       <c r="E1492" s="42"/>
     </row>
-    <row r="1493" spans="5:7">
+    <row r="1493" spans="5:5">
       <c r="E1493" s="42"/>
     </row>
-    <row r="1494" spans="5:7">
+    <row r="1494" spans="5:5">
       <c r="E1494" s="42"/>
     </row>
-    <row r="1495" spans="5:7">
+    <row r="1495" spans="5:5">
       <c r="E1495" s="42"/>
     </row>
-    <row r="1496" spans="5:7">
+    <row r="1496" spans="5:5">
       <c r="E1496" s="42"/>
     </row>
-    <row r="1497" spans="5:7">
+    <row r="1497" spans="5:5">
       <c r="E1497" s="42"/>
     </row>
-    <row r="1498" spans="5:7">
+    <row r="1498" spans="5:5">
       <c r="E1498" s="42"/>
     </row>
-    <row r="1499" spans="5:7">
+    <row r="1499" spans="5:5">
       <c r="E1499" s="42"/>
     </row>
-    <row r="1500" spans="5:7">
+    <row r="1500" spans="5:5">
       <c r="E1500" s="42"/>
     </row>
-    <row r="1501" spans="5:7">
+    <row r="1501" spans="5:5">
       <c r="E1501" s="42"/>
     </row>
-    <row r="1502" spans="5:7">
+    <row r="1502" spans="5:5">
       <c r="E1502" s="42"/>
     </row>
-    <row r="1504" spans="5:7">
-      <c r="G1504" s="53"/>
+    <row r="1503" spans="5:5">
+      <c r="E1503" s="42"/>
+    </row>
+    <row r="1504" spans="5:5">
+      <c r="E1504" s="42"/>
     </row>
     <row r="1505" spans="5:7">
-      <c r="G1505" s="53"/>
+      <c r="E1505" s="42"/>
     </row>
     <row r="1506" spans="5:7">
-      <c r="G1506" s="53"/>
+      <c r="E1506" s="42"/>
     </row>
     <row r="1507" spans="5:7">
-      <c r="G1507" s="53"/>
+      <c r="E1507" s="42"/>
     </row>
     <row r="1508" spans="5:7">
-      <c r="G1508" s="53"/>
+      <c r="E1508" s="42"/>
     </row>
     <row r="1509" spans="5:7">
-      <c r="G1509" s="53"/>
+      <c r="E1509" s="42"/>
     </row>
     <row r="1510" spans="5:7">
-      <c r="G1510" s="53"/>
-    </row>
-    <row r="1511" spans="5:7">
-      <c r="G1511" s="53"/>
+      <c r="E1510" s="42"/>
     </row>
     <row r="1512" spans="5:7">
       <c r="G1512" s="53"/>
@@ -30177,61 +30357,61 @@
       <c r="G1516" s="53"/>
     </row>
     <row r="1517" spans="5:7">
-      <c r="E1517" s="42"/>
       <c r="G1517" s="53"/>
     </row>
+    <row r="1518" spans="5:7">
+      <c r="G1518" s="53"/>
+    </row>
     <row r="1519" spans="5:7">
-      <c r="E1519" s="42"/>
+      <c r="G1519" s="53"/>
     </row>
     <row r="1520" spans="5:7">
-      <c r="E1520" s="42"/>
-    </row>
-    <row r="1521" spans="5:5">
-      <c r="E1521" s="42"/>
-    </row>
-    <row r="1522" spans="5:5">
-      <c r="E1522" s="42"/>
-    </row>
-    <row r="1523" spans="5:5">
-      <c r="E1523" s="42"/>
-    </row>
-    <row r="1524" spans="5:5">
-      <c r="E1524" s="42"/>
-    </row>
-    <row r="1525" spans="5:5">
+      <c r="G1520" s="53"/>
+    </row>
+    <row r="1521" spans="5:7">
+      <c r="G1521" s="53"/>
+    </row>
+    <row r="1522" spans="5:7">
+      <c r="G1522" s="53"/>
+    </row>
+    <row r="1523" spans="5:7">
+      <c r="G1523" s="53"/>
+    </row>
+    <row r="1524" spans="5:7">
+      <c r="G1524" s="53"/>
+    </row>
+    <row r="1525" spans="5:7">
       <c r="E1525" s="42"/>
-    </row>
-    <row r="1526" spans="5:5">
-      <c r="E1526" s="42"/>
-    </row>
-    <row r="1527" spans="5:5">
+      <c r="G1525" s="53"/>
+    </row>
+    <row r="1527" spans="5:7">
       <c r="E1527" s="42"/>
     </row>
-    <row r="1528" spans="5:5">
+    <row r="1528" spans="5:7">
       <c r="E1528" s="42"/>
     </row>
-    <row r="1529" spans="5:5">
+    <row r="1529" spans="5:7">
       <c r="E1529" s="42"/>
     </row>
-    <row r="1530" spans="5:5">
+    <row r="1530" spans="5:7">
       <c r="E1530" s="42"/>
     </row>
-    <row r="1531" spans="5:5">
+    <row r="1531" spans="5:7">
       <c r="E1531" s="42"/>
     </row>
-    <row r="1532" spans="5:5">
+    <row r="1532" spans="5:7">
       <c r="E1532" s="42"/>
     </row>
-    <row r="1533" spans="5:5">
+    <row r="1533" spans="5:7">
       <c r="E1533" s="42"/>
     </row>
-    <row r="1534" spans="5:5">
+    <row r="1534" spans="5:7">
       <c r="E1534" s="42"/>
     </row>
-    <row r="1535" spans="5:5">
+    <row r="1535" spans="5:7">
       <c r="E1535" s="42"/>
     </row>
-    <row r="1536" spans="5:5">
+    <row r="1536" spans="5:7">
       <c r="E1536" s="42"/>
     </row>
     <row r="1537" spans="5:5">
@@ -30282,79 +30462,71 @@
     <row r="1552" spans="5:5">
       <c r="E1552" s="42"/>
     </row>
-    <row r="1553" spans="5:7">
+    <row r="1553" spans="5:5">
       <c r="E1553" s="42"/>
     </row>
-    <row r="1554" spans="5:7">
+    <row r="1554" spans="5:5">
       <c r="E1554" s="42"/>
     </row>
-    <row r="1555" spans="5:7">
+    <row r="1555" spans="5:5">
       <c r="E1555" s="42"/>
     </row>
-    <row r="1556" spans="5:7">
+    <row r="1556" spans="5:5">
       <c r="E1556" s="42"/>
     </row>
-    <row r="1557" spans="5:7">
+    <row r="1557" spans="5:5">
       <c r="E1557" s="42"/>
     </row>
-    <row r="1558" spans="5:7">
+    <row r="1558" spans="5:5">
       <c r="E1558" s="42"/>
     </row>
-    <row r="1559" spans="5:7">
+    <row r="1559" spans="5:5">
       <c r="E1559" s="42"/>
     </row>
-    <row r="1560" spans="5:7">
+    <row r="1560" spans="5:5">
       <c r="E1560" s="42"/>
     </row>
-    <row r="1561" spans="5:7">
+    <row r="1561" spans="5:5">
       <c r="E1561" s="42"/>
     </row>
-    <row r="1562" spans="5:7">
+    <row r="1562" spans="5:5">
       <c r="E1562" s="42"/>
     </row>
-    <row r="1563" spans="5:7">
+    <row r="1563" spans="5:5">
       <c r="E1563" s="42"/>
     </row>
-    <row r="1564" spans="5:7">
+    <row r="1564" spans="5:5">
       <c r="E1564" s="42"/>
     </row>
-    <row r="1565" spans="5:7">
+    <row r="1565" spans="5:5">
       <c r="E1565" s="42"/>
     </row>
-    <row r="1566" spans="5:7">
+    <row r="1566" spans="5:5">
       <c r="E1566" s="42"/>
     </row>
-    <row r="1568" spans="5:7">
+    <row r="1567" spans="5:5">
+      <c r="E1567" s="42"/>
+    </row>
+    <row r="1568" spans="5:5">
       <c r="E1568" s="42"/>
-      <c r="G1568" s="53"/>
     </row>
     <row r="1569" spans="5:7">
       <c r="E1569" s="42"/>
-      <c r="G1569" s="53"/>
     </row>
     <row r="1570" spans="5:7">
       <c r="E1570" s="42"/>
-      <c r="G1570" s="53"/>
     </row>
     <row r="1571" spans="5:7">
       <c r="E1571" s="42"/>
-      <c r="G1571" s="53"/>
     </row>
     <row r="1572" spans="5:7">
       <c r="E1572" s="42"/>
-      <c r="G1572" s="53"/>
     </row>
     <row r="1573" spans="5:7">
       <c r="E1573" s="42"/>
-      <c r="G1573" s="53"/>
     </row>
     <row r="1574" spans="5:7">
       <c r="E1574" s="42"/>
-      <c r="G1574" s="53"/>
-    </row>
-    <row r="1575" spans="5:7">
-      <c r="E1575" s="42"/>
-      <c r="G1575" s="53"/>
     </row>
     <row r="1576" spans="5:7">
       <c r="E1576" s="42"/>
@@ -30516,46 +30688,54 @@
       <c r="E1615" s="42"/>
       <c r="G1615" s="53"/>
     </row>
-    <row r="1625" spans="5:5">
-      <c r="E1625" s="42"/>
-    </row>
-    <row r="1636" spans="7:7">
-      <c r="G1636" s="53"/>
-    </row>
-    <row r="1637" spans="7:7">
-      <c r="G1637" s="53"/>
-    </row>
-    <row r="1638" spans="7:7">
-      <c r="G1638" s="53"/>
-    </row>
-    <row r="1639" spans="7:7">
-      <c r="G1639" s="53"/>
-    </row>
-    <row r="1640" spans="7:7">
-      <c r="G1640" s="53"/>
-    </row>
-    <row r="1641" spans="7:7">
-      <c r="G1641" s="53"/>
-    </row>
-    <row r="1642" spans="7:7">
-      <c r="G1642" s="53"/>
-    </row>
-    <row r="1643" spans="7:7">
-      <c r="G1643" s="53"/>
-    </row>
-    <row r="1644" spans="7:7">
+    <row r="1616" spans="5:7">
+      <c r="E1616" s="42"/>
+      <c r="G1616" s="53"/>
+    </row>
+    <row r="1617" spans="5:7">
+      <c r="E1617" s="42"/>
+      <c r="G1617" s="53"/>
+    </row>
+    <row r="1618" spans="5:7">
+      <c r="E1618" s="42"/>
+      <c r="G1618" s="53"/>
+    </row>
+    <row r="1619" spans="5:7">
+      <c r="E1619" s="42"/>
+      <c r="G1619" s="53"/>
+    </row>
+    <row r="1620" spans="5:7">
+      <c r="E1620" s="42"/>
+      <c r="G1620" s="53"/>
+    </row>
+    <row r="1621" spans="5:7">
+      <c r="E1621" s="42"/>
+      <c r="G1621" s="53"/>
+    </row>
+    <row r="1622" spans="5:7">
+      <c r="E1622" s="42"/>
+      <c r="G1622" s="53"/>
+    </row>
+    <row r="1623" spans="5:7">
+      <c r="E1623" s="42"/>
+      <c r="G1623" s="53"/>
+    </row>
+    <row r="1633" spans="5:7">
+      <c r="E1633" s="42"/>
+    </row>
+    <row r="1644" spans="5:7">
       <c r="G1644" s="53"/>
     </row>
-    <row r="1645" spans="7:7">
+    <row r="1645" spans="5:7">
       <c r="G1645" s="53"/>
     </row>
-    <row r="1646" spans="7:7">
+    <row r="1646" spans="5:7">
       <c r="G1646" s="53"/>
     </row>
-    <row r="1647" spans="7:7">
+    <row r="1647" spans="5:7">
       <c r="G1647" s="53"/>
     </row>
-    <row r="1648" spans="7:7">
+    <row r="1648" spans="5:7">
       <c r="G1648" s="53"/>
     </row>
     <row r="1649" spans="5:7">
@@ -30577,43 +30757,35 @@
       <c r="G1654" s="53"/>
     </row>
     <row r="1655" spans="5:7">
-      <c r="E1655" s="42"/>
       <c r="G1655" s="53"/>
     </row>
-    <row r="1665" spans="5:7">
-      <c r="E1665" s="42"/>
-    </row>
-    <row r="1676" spans="5:7">
-      <c r="E1676" s="42"/>
-      <c r="G1676" s="53"/>
-    </row>
-    <row r="1677" spans="5:7">
-      <c r="E1677" s="42"/>
-      <c r="G1677" s="53"/>
-    </row>
-    <row r="1678" spans="5:7">
-      <c r="E1678" s="42"/>
-      <c r="G1678" s="53"/>
-    </row>
-    <row r="1679" spans="5:7">
-      <c r="E1679" s="42"/>
-      <c r="G1679" s="53"/>
-    </row>
-    <row r="1680" spans="5:7">
-      <c r="E1680" s="42"/>
-      <c r="G1680" s="53"/>
-    </row>
-    <row r="1681" spans="5:7">
-      <c r="E1681" s="42"/>
-      <c r="G1681" s="53"/>
-    </row>
-    <row r="1682" spans="5:7">
-      <c r="E1682" s="42"/>
-      <c r="G1682" s="53"/>
-    </row>
-    <row r="1683" spans="5:7">
-      <c r="E1683" s="42"/>
-      <c r="G1683" s="53"/>
+    <row r="1656" spans="5:7">
+      <c r="G1656" s="53"/>
+    </row>
+    <row r="1657" spans="5:7">
+      <c r="G1657" s="53"/>
+    </row>
+    <row r="1658" spans="5:7">
+      <c r="G1658" s="53"/>
+    </row>
+    <row r="1659" spans="5:7">
+      <c r="G1659" s="53"/>
+    </row>
+    <row r="1660" spans="5:7">
+      <c r="G1660" s="53"/>
+    </row>
+    <row r="1661" spans="5:7">
+      <c r="G1661" s="53"/>
+    </row>
+    <row r="1662" spans="5:7">
+      <c r="G1662" s="53"/>
+    </row>
+    <row r="1663" spans="5:7">
+      <c r="E1663" s="42"/>
+      <c r="G1663" s="53"/>
+    </row>
+    <row r="1673" spans="5:5">
+      <c r="E1673" s="42"/>
     </row>
     <row r="1684" spans="5:7">
       <c r="E1684" s="42"/>
@@ -30647,6 +30819,10 @@
       <c r="E1691" s="42"/>
       <c r="G1691" s="53"/>
     </row>
+    <row r="1692" spans="5:7">
+      <c r="E1692" s="42"/>
+      <c r="G1692" s="53"/>
+    </row>
     <row r="1693" spans="5:7">
       <c r="E1693" s="42"/>
       <c r="G1693" s="53"/>
@@ -30675,10 +30851,6 @@
       <c r="E1699" s="42"/>
       <c r="G1699" s="53"/>
     </row>
-    <row r="1700" spans="5:7">
-      <c r="E1700" s="42"/>
-      <c r="G1700" s="53"/>
-    </row>
     <row r="1701" spans="5:7">
       <c r="E1701" s="42"/>
       <c r="G1701" s="53"/>
@@ -30703,43 +30875,57 @@
       <c r="E1706" s="42"/>
       <c r="G1706" s="53"/>
     </row>
+    <row r="1707" spans="5:7">
+      <c r="E1707" s="42"/>
+      <c r="G1707" s="53"/>
+    </row>
+    <row r="1708" spans="5:7">
+      <c r="E1708" s="42"/>
+      <c r="G1708" s="53"/>
+    </row>
     <row r="1709" spans="5:7">
       <c r="E1709" s="42"/>
-    </row>
-    <row r="1713" spans="5:5">
+      <c r="G1709" s="53"/>
+    </row>
+    <row r="1710" spans="5:7">
+      <c r="E1710" s="42"/>
+      <c r="G1710" s="53"/>
+    </row>
+    <row r="1711" spans="5:7">
+      <c r="E1711" s="42"/>
+      <c r="G1711" s="53"/>
+    </row>
+    <row r="1712" spans="5:7">
+      <c r="E1712" s="42"/>
+      <c r="G1712" s="53"/>
+    </row>
+    <row r="1713" spans="5:7">
       <c r="E1713" s="42"/>
-    </row>
-    <row r="1714" spans="5:5">
+      <c r="G1713" s="53"/>
+    </row>
+    <row r="1714" spans="5:7">
       <c r="E1714" s="42"/>
-    </row>
-    <row r="1715" spans="5:5">
-      <c r="E1715" s="42"/>
-    </row>
-    <row r="1716" spans="5:5">
-      <c r="E1716" s="42"/>
-    </row>
-    <row r="1719" spans="5:5">
-      <c r="E1719" s="42"/>
-    </row>
-    <row r="1720" spans="5:5">
-      <c r="E1720" s="42"/>
-    </row>
-    <row r="1721" spans="5:5">
+      <c r="G1714" s="53"/>
+    </row>
+    <row r="1717" spans="5:7">
+      <c r="E1717" s="42"/>
+    </row>
+    <row r="1721" spans="5:7">
       <c r="E1721" s="42"/>
     </row>
-    <row r="1722" spans="5:5">
+    <row r="1722" spans="5:7">
       <c r="E1722" s="42"/>
     </row>
-    <row r="1725" spans="5:5">
-      <c r="E1725" s="42"/>
-    </row>
-    <row r="1726" spans="5:5">
-      <c r="E1726" s="42"/>
-    </row>
-    <row r="1727" spans="5:5">
+    <row r="1723" spans="5:7">
+      <c r="E1723" s="42"/>
+    </row>
+    <row r="1724" spans="5:7">
+      <c r="E1724" s="42"/>
+    </row>
+    <row r="1727" spans="5:7">
       <c r="E1727" s="42"/>
     </row>
-    <row r="1728" spans="5:5">
+    <row r="1728" spans="5:7">
       <c r="E1728" s="42"/>
     </row>
     <row r="1729" spans="5:5">
@@ -30748,12 +30934,6 @@
     <row r="1730" spans="5:5">
       <c r="E1730" s="42"/>
     </row>
-    <row r="1731" spans="5:5">
-      <c r="E1731" s="42"/>
-    </row>
-    <row r="1732" spans="5:5">
-      <c r="E1732" s="42"/>
-    </row>
     <row r="1733" spans="5:5">
       <c r="E1733" s="42"/>
     </row>
@@ -30772,6 +30952,9 @@
     <row r="1738" spans="5:5">
       <c r="E1738" s="42"/>
     </row>
+    <row r="1739" spans="5:5">
+      <c r="E1739" s="42"/>
+    </row>
     <row r="1740" spans="5:5">
       <c r="E1740" s="42"/>
     </row>
@@ -30793,9 +30976,6 @@
     <row r="1746" spans="5:5">
       <c r="E1746" s="42"/>
     </row>
-    <row r="1747" spans="5:5">
-      <c r="E1747" s="42"/>
-    </row>
     <row r="1748" spans="5:5">
       <c r="E1748" s="42"/>
     </row>
@@ -30814,6 +30994,9 @@
     <row r="1753" spans="5:5">
       <c r="E1753" s="42"/>
     </row>
+    <row r="1754" spans="5:5">
+      <c r="E1754" s="42"/>
+    </row>
     <row r="1755" spans="5:5">
       <c r="E1755" s="42"/>
     </row>
@@ -30835,9 +31018,6 @@
     <row r="1761" spans="5:5">
       <c r="E1761" s="42"/>
     </row>
-    <row r="1762" spans="5:5">
-      <c r="E1762" s="42"/>
-    </row>
     <row r="1763" spans="5:5">
       <c r="E1763" s="42"/>
     </row>
@@ -30856,6 +31036,9 @@
     <row r="1768" spans="5:5">
       <c r="E1768" s="42"/>
     </row>
+    <row r="1769" spans="5:5">
+      <c r="E1769" s="42"/>
+    </row>
     <row r="1770" spans="5:5">
       <c r="E1770" s="42"/>
     </row>
@@ -30877,9 +31060,6 @@
     <row r="1776" spans="5:5">
       <c r="E1776" s="42"/>
     </row>
-    <row r="1777" spans="5:5">
-      <c r="E1777" s="42"/>
-    </row>
     <row r="1778" spans="5:5">
       <c r="E1778" s="42"/>
     </row>
@@ -30940,57 +31120,57 @@
     <row r="1797" spans="5:5">
       <c r="E1797" s="42"/>
     </row>
+    <row r="1798" spans="5:5">
+      <c r="E1798" s="42"/>
+    </row>
     <row r="1799" spans="5:5">
       <c r="E1799" s="42"/>
     </row>
-    <row r="1812" spans="5:5">
-      <c r="E1812" s="42"/>
-    </row>
-    <row r="1826" spans="5:5">
-      <c r="E1826" s="42"/>
-    </row>
-    <row r="1828" spans="5:5">
-      <c r="E1828" s="42"/>
-    </row>
-    <row r="1841" spans="5:5">
-      <c r="E1841" s="42"/>
-    </row>
-    <row r="1855" spans="5:5">
-      <c r="E1855" s="42"/>
-    </row>
-    <row r="1857" spans="5:5">
-      <c r="E1857" s="42"/>
-    </row>
-    <row r="1870" spans="5:5">
-      <c r="E1870" s="42"/>
-    </row>
-    <row r="1884" spans="5:5">
-      <c r="E1884" s="42"/>
-    </row>
-    <row r="1887" spans="5:5">
-      <c r="E1887" s="42"/>
-    </row>
-    <row r="1888" spans="5:5">
-      <c r="E1888" s="42"/>
-    </row>
-    <row r="1889" spans="5:5">
-      <c r="E1889" s="42"/>
-    </row>
-    <row r="1890" spans="5:5">
-      <c r="E1890" s="42"/>
-    </row>
-    <row r="1891" spans="5:5">
-      <c r="E1891" s="42"/>
+    <row r="1800" spans="5:5">
+      <c r="E1800" s="42"/>
+    </row>
+    <row r="1801" spans="5:5">
+      <c r="E1801" s="42"/>
+    </row>
+    <row r="1802" spans="5:5">
+      <c r="E1802" s="42"/>
+    </row>
+    <row r="1803" spans="5:5">
+      <c r="E1803" s="42"/>
+    </row>
+    <row r="1804" spans="5:5">
+      <c r="E1804" s="42"/>
+    </row>
+    <row r="1805" spans="5:5">
+      <c r="E1805" s="42"/>
+    </row>
+    <row r="1807" spans="5:5">
+      <c r="E1807" s="42"/>
+    </row>
+    <row r="1820" spans="5:5">
+      <c r="E1820" s="42"/>
+    </row>
+    <row r="1834" spans="5:5">
+      <c r="E1834" s="42"/>
+    </row>
+    <row r="1836" spans="5:5">
+      <c r="E1836" s="42"/>
+    </row>
+    <row r="1849" spans="5:5">
+      <c r="E1849" s="42"/>
+    </row>
+    <row r="1863" spans="5:5">
+      <c r="E1863" s="42"/>
+    </row>
+    <row r="1865" spans="5:5">
+      <c r="E1865" s="42"/>
+    </row>
+    <row r="1878" spans="5:5">
+      <c r="E1878" s="42"/>
     </row>
     <row r="1892" spans="5:5">
       <c r="E1892" s="42"/>
     </row>
-    <row r="1893" spans="5:5">
-      <c r="E1893" s="42"/>
-    </row>
-    <row r="1894" spans="5:5">
-      <c r="E1894" s="42"/>
-    </row>
     <row r="1895" spans="5:5">
       <c r="E1895" s="42"/>
     </row>
@@ -31009,138 +31189,138 @@
     <row r="1900" spans="5:5">
       <c r="E1900" s="42"/>
     </row>
-    <row r="1909" spans="5:5">
-      <c r="E1909" s="42"/>
-    </row>
-    <row r="1926" spans="5:5">
-      <c r="E1926" s="42"/>
-    </row>
-    <row r="1943" spans="5:5">
-      <c r="E1943" s="42"/>
-    </row>
-    <row r="1960" spans="5:5">
-      <c r="E1960" s="42"/>
-    </row>
-    <row r="1977" spans="5:5">
-      <c r="E1977" s="42"/>
-    </row>
-    <row r="1994" spans="5:5">
-      <c r="E1994" s="42"/>
-    </row>
-    <row r="2011" spans="5:5">
-      <c r="E2011" s="42"/>
-    </row>
-    <row r="2028" spans="5:5">
-      <c r="E2028" s="42"/>
-    </row>
-    <row r="2045" spans="5:5">
-      <c r="E2045" s="42"/>
-    </row>
-    <row r="2062" spans="5:5">
-      <c r="E2062" s="42"/>
-    </row>
-    <row r="2079" spans="5:5">
-      <c r="E2079" s="42"/>
-    </row>
-    <row r="2096" spans="5:5">
-      <c r="E2096" s="42"/>
-    </row>
-    <row r="2113" spans="5:5">
-      <c r="E2113" s="42"/>
-    </row>
-    <row r="2130" spans="5:5">
-      <c r="E2130" s="42"/>
-    </row>
-    <row r="2147" spans="5:5">
-      <c r="E2147" s="42"/>
-    </row>
-    <row r="2164" spans="5:7">
-      <c r="E2164" s="42"/>
-    </row>
-    <row r="2174" spans="5:7">
-      <c r="G2174" s="53"/>
-    </row>
-    <row r="2175" spans="5:7">
-      <c r="G2175" s="53"/>
-    </row>
-    <row r="2176" spans="5:7">
-      <c r="G2176" s="53"/>
-    </row>
-    <row r="2177" spans="5:7">
-      <c r="G2177" s="53"/>
-    </row>
-    <row r="2178" spans="5:7">
-      <c r="G2178" s="53"/>
-    </row>
-    <row r="2179" spans="5:7">
-      <c r="G2179" s="53"/>
-    </row>
-    <row r="2180" spans="5:7">
-      <c r="G2180" s="53"/>
-    </row>
-    <row r="2181" spans="5:7">
-      <c r="G2181" s="53"/>
-    </row>
-    <row r="2182" spans="5:7">
+    <row r="1901" spans="5:5">
+      <c r="E1901" s="42"/>
+    </row>
+    <row r="1902" spans="5:5">
+      <c r="E1902" s="42"/>
+    </row>
+    <row r="1903" spans="5:5">
+      <c r="E1903" s="42"/>
+    </row>
+    <row r="1904" spans="5:5">
+      <c r="E1904" s="42"/>
+    </row>
+    <row r="1905" spans="5:5">
+      <c r="E1905" s="42"/>
+    </row>
+    <row r="1906" spans="5:5">
+      <c r="E1906" s="42"/>
+    </row>
+    <row r="1907" spans="5:5">
+      <c r="E1907" s="42"/>
+    </row>
+    <row r="1908" spans="5:5">
+      <c r="E1908" s="42"/>
+    </row>
+    <row r="1917" spans="5:5">
+      <c r="E1917" s="42"/>
+    </row>
+    <row r="1934" spans="5:5">
+      <c r="E1934" s="42"/>
+    </row>
+    <row r="1951" spans="5:5">
+      <c r="E1951" s="42"/>
+    </row>
+    <row r="1968" spans="5:5">
+      <c r="E1968" s="42"/>
+    </row>
+    <row r="1985" spans="5:5">
+      <c r="E1985" s="42"/>
+    </row>
+    <row r="2002" spans="5:5">
+      <c r="E2002" s="42"/>
+    </row>
+    <row r="2019" spans="5:5">
+      <c r="E2019" s="42"/>
+    </row>
+    <row r="2036" spans="5:5">
+      <c r="E2036" s="42"/>
+    </row>
+    <row r="2053" spans="5:5">
+      <c r="E2053" s="42"/>
+    </row>
+    <row r="2070" spans="5:5">
+      <c r="E2070" s="42"/>
+    </row>
+    <row r="2087" spans="5:5">
+      <c r="E2087" s="42"/>
+    </row>
+    <row r="2104" spans="5:5">
+      <c r="E2104" s="42"/>
+    </row>
+    <row r="2121" spans="5:5">
+      <c r="E2121" s="42"/>
+    </row>
+    <row r="2138" spans="5:5">
+      <c r="E2138" s="42"/>
+    </row>
+    <row r="2155" spans="5:5">
+      <c r="E2155" s="42"/>
+    </row>
+    <row r="2172" spans="5:5">
+      <c r="E2172" s="42"/>
+    </row>
+    <row r="2182" spans="7:7">
       <c r="G2182" s="53"/>
     </row>
-    <row r="2183" spans="5:7">
+    <row r="2183" spans="7:7">
       <c r="G2183" s="53"/>
     </row>
-    <row r="2184" spans="5:7">
+    <row r="2184" spans="7:7">
       <c r="G2184" s="53"/>
     </row>
-    <row r="2185" spans="5:7">
+    <row r="2185" spans="7:7">
       <c r="G2185" s="53"/>
     </row>
-    <row r="2186" spans="5:7">
+    <row r="2186" spans="7:7">
       <c r="G2186" s="53"/>
     </row>
-    <row r="2187" spans="5:7">
-      <c r="E2187" s="42"/>
+    <row r="2187" spans="7:7">
       <c r="G2187" s="53"/>
     </row>
-    <row r="2208" spans="5:5">
-      <c r="E2208" s="42"/>
-    </row>
-    <row r="2223" spans="5:5">
-      <c r="E2223" s="42"/>
-    </row>
-    <row r="2238" spans="5:5">
-      <c r="E2238" s="42"/>
-    </row>
-    <row r="2253" spans="5:5">
-      <c r="E2253" s="42"/>
-    </row>
-    <row r="2269" spans="5:5">
-      <c r="E2269" s="42"/>
-    </row>
-    <row r="2277" spans="5:7">
+    <row r="2188" spans="7:7">
+      <c r="G2188" s="53"/>
+    </row>
+    <row r="2189" spans="7:7">
+      <c r="G2189" s="53"/>
+    </row>
+    <row r="2190" spans="7:7">
+      <c r="G2190" s="53"/>
+    </row>
+    <row r="2191" spans="7:7">
+      <c r="G2191" s="53"/>
+    </row>
+    <row r="2192" spans="7:7">
+      <c r="G2192" s="53"/>
+    </row>
+    <row r="2193" spans="5:7">
+      <c r="G2193" s="53"/>
+    </row>
+    <row r="2194" spans="5:7">
+      <c r="G2194" s="53"/>
+    </row>
+    <row r="2195" spans="5:7">
+      <c r="E2195" s="42"/>
+      <c r="G2195" s="53"/>
+    </row>
+    <row r="2216" spans="5:5">
+      <c r="E2216" s="42"/>
+    </row>
+    <row r="2231" spans="5:5">
+      <c r="E2231" s="42"/>
+    </row>
+    <row r="2246" spans="5:5">
+      <c r="E2246" s="42"/>
+    </row>
+    <row r="2261" spans="5:5">
+      <c r="E2261" s="42"/>
+    </row>
+    <row r="2277" spans="5:5">
       <c r="E2277" s="42"/>
     </row>
-    <row r="2286" spans="5:7">
-      <c r="G2286" s="53"/>
-    </row>
-    <row r="2287" spans="5:7">
-      <c r="G2287" s="53"/>
-    </row>
-    <row r="2288" spans="5:7">
-      <c r="G2288" s="53"/>
-    </row>
-    <row r="2289" spans="7:7">
-      <c r="G2289" s="53"/>
-    </row>
-    <row r="2290" spans="7:7">
-      <c r="G2290" s="53"/>
-    </row>
-    <row r="2291" spans="7:7">
-      <c r="G2291" s="53"/>
-    </row>
-    <row r="2292" spans="7:7">
-      <c r="G2292" s="53"/>
-    </row>
-    <row r="2293" spans="7:7">
-      <c r="G2293" s="53"/>
+    <row r="2285" spans="5:5">
+      <c r="E2285" s="42"/>
     </row>
     <row r="2294" spans="7:7">
       <c r="G2294" s="53"/>
@@ -31176,14 +31356,38 @@
       <c r="G2304" s="53"/>
     </row>
     <row r="2305" spans="5:7">
-      <c r="E2305" s="42"/>
       <c r="G2305" s="53"/>
+    </row>
+    <row r="2306" spans="5:7">
+      <c r="G2306" s="53"/>
+    </row>
+    <row r="2307" spans="5:7">
+      <c r="G2307" s="53"/>
+    </row>
+    <row r="2308" spans="5:7">
+      <c r="G2308" s="53"/>
+    </row>
+    <row r="2309" spans="5:7">
+      <c r="G2309" s="53"/>
+    </row>
+    <row r="2310" spans="5:7">
+      <c r="G2310" s="53"/>
+    </row>
+    <row r="2311" spans="5:7">
+      <c r="G2311" s="53"/>
+    </row>
+    <row r="2312" spans="5:7">
+      <c r="G2312" s="53"/>
     </row>
     <row r="2313" spans="5:7">
       <c r="E2313" s="42"/>
-    </row>
-    <row r="2320" spans="5:7">
-      <c r="E2320" s="42"/>
+      <c r="G2313" s="53"/>
+    </row>
+    <row r="2321" spans="5:5">
+      <c r="E2321" s="42"/>
+    </row>
+    <row r="2328" spans="5:5">
+      <c r="E2328" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E9E09-9657-4E10-B3F5-0FB4FEA6FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA074AA-D7BC-417D-8F8C-47676A5305C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7003" uniqueCount="1682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7004" uniqueCount="1683">
   <si>
     <t>Name</t>
   </si>
@@ -5177,6 +5177,39 @@
     <t>2026-February-12</t>
   </si>
   <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250469/Scope baseline/Images/M1_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>There is a diff here between PAL and NTSC</t>
+  </si>
+  <si>
+    <t>There is a diff here between NTSC and PAL</t>
+  </si>
+  <si>
+    <t>2026-February-21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5189,38 +5222,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-9</t>
+      <t>2026-February-21</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore 64/250469/Scope baseline/Images/M1_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250469/Scope baseline/Images/M1_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250469/Scope baseline/Images/M1_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250469/Scope baseline/Images/M1_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250469/Scope baseline/Images/M1_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250469/Scope baseline/Images/M1_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250469/Scope baseline/Images/M1_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250469/Scope baseline/Images/M1_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>There is a diff here between PAL and NTSC</t>
-  </si>
-  <si>
-    <t>There is a diff here between NTSC and PAL</t>
   </si>
 </sst>
 </file>
@@ -5883,7 +5886,7 @@
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="21">
       <c r="A3" s="8" t="s">
-        <v>1671</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6115,7 +6118,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C4FBD-A6C4-430E-A90E-452D1A8F7A52}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6164,8 +6167,14 @@
         <v>1670</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29011,7 +29020,7 @@
         <v>1633</v>
       </c>
       <c r="F991" s="9" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G991" s="1"/>
     </row>
@@ -29055,7 +29064,7 @@
         <v>1633</v>
       </c>
       <c r="F993" s="9" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G993" s="1" t="s">
         <v>1635</v>
@@ -29099,7 +29108,7 @@
         <v>1633</v>
       </c>
       <c r="F995" s="9" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G995" s="1"/>
     </row>
@@ -29141,7 +29150,7 @@
         <v>1633</v>
       </c>
       <c r="F997" s="9" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G997" s="1"/>
     </row>
@@ -29183,7 +29192,7 @@
         <v>1633</v>
       </c>
       <c r="F999" s="9" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G999" s="1"/>
     </row>
@@ -29225,7 +29234,7 @@
         <v>1633</v>
       </c>
       <c r="F1001" s="9" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G1001" s="1"/>
     </row>
@@ -29267,7 +29276,7 @@
         <v>1633</v>
       </c>
       <c r="F1003" s="9" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G1003" s="1"/>
     </row>
@@ -29291,7 +29300,7 @@
         <v>1648</v>
       </c>
       <c r="G1004" s="15" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
@@ -29311,10 +29320,10 @@
         <v>1633</v>
       </c>
       <c r="F1005" s="9" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G1005" s="15" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1006" spans="1:7" ht="57.6">

--- a/Data/Commodore 64/250469/Data C64 250469.xlsx
+++ b/Data/Commodore 64/250469/Data C64 250469.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250469\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA074AA-D7BC-417D-8F8C-47676A5305C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7AE5D-D229-40AA-9361-5A532FD95820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
